--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -3494,6 +3494,15 @@
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -3501,15 +3510,6 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3794,8 +3794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G22" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
+      <selection activeCell="C51" activeCellId="1" sqref="I50:K50 C51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3829,26 +3829,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -5240,13 +5240,13 @@
         <v>44</v>
       </c>
       <c r="I48" s="31" t="s">
-        <v>672</v>
+        <v>993</v>
       </c>
       <c r="J48" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="K48" s="31" t="s">
-        <v>812</v>
+        <v>868</v>
+      </c>
+      <c r="K48" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="L48" s="31" t="s">
         <v>450</v>
@@ -5322,13 +5322,13 @@
         <v>44</v>
       </c>
       <c r="I50" s="31" t="s">
-        <v>672</v>
+        <v>993</v>
       </c>
       <c r="J50" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="K50" s="31" t="s">
-        <v>812</v>
+        <v>868</v>
+      </c>
+      <c r="K50" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="L50" s="31" t="s">
         <v>450</v>
@@ -18912,26 +18912,26 @@
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="67" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="69"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
@@ -24009,26 +24009,26 @@
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="64" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="66"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6804" uniqueCount="994">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6822" uniqueCount="996">
   <si>
     <t>TestCase</t>
   </si>
@@ -3043,6 +3043,12 @@
   </si>
   <si>
     <t>ClickOnPostToExpertButton</t>
+  </si>
+  <si>
+    <t>Verify_That_Files_Are_Uploading</t>
+  </si>
+  <si>
+    <t>VerifyThatFilesAreUploading</t>
   </si>
 </sst>
 </file>
@@ -3794,8 +3800,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A41" workbookViewId="0">
-      <selection activeCell="C51" activeCellId="1" sqref="I50:K50 C51"/>
+    <sheetView tabSelected="1" topLeftCell="K161" workbookViewId="0">
+      <selection activeCell="M169" sqref="M169"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9466,9 +9472,45 @@
       </c>
     </row>
     <row r="167" spans="1:19">
-      <c r="B167" s="7"/>
-      <c r="C167" s="7"/>
-      <c r="D167" s="7"/>
+      <c r="A167" s="31" t="s">
+        <v>994</v>
+      </c>
+      <c r="B167" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C167" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D167" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E167" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F167" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G167" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H167" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I167" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J167" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K167" s="31" t="s">
+        <v>892</v>
+      </c>
+      <c r="L167" s="31" t="s">
+        <v>995</v>
+      </c>
+      <c r="M167" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9484,8 +9526,8 @@
   <dimension ref="A1:AC343"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A191" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A197" sqref="A197"/>
+      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E343" sqref="E343"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18293,10 +18335,21 @@
       </c>
     </row>
     <row r="343" spans="1:12">
-      <c r="B343" s="26"/>
-      <c r="C343" s="27"/>
-      <c r="D343" s="27"/>
-      <c r="E343" s="63"/>
+      <c r="A343" t="s">
+        <v>994</v>
+      </c>
+      <c r="B343" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C343" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D343" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E343" s="63" t="s">
+        <v>761</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -18785,9 +18838,11 @@
     <hyperlink ref="D341" r:id="rId474"/>
     <hyperlink ref="C342" r:id="rId475"/>
     <hyperlink ref="D342" r:id="rId476"/>
+    <hyperlink ref="C343" r:id="rId477"/>
+    <hyperlink ref="D343" r:id="rId478"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId477"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId479"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6822" uniqueCount="996">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6818" uniqueCount="997">
   <si>
     <t>TestCase</t>
   </si>
@@ -3049,6 +3049,9 @@
   </si>
   <si>
     <t>VerifyThatFilesAreUploading</t>
+  </si>
+  <si>
+    <t>VerifyAssignToExpertPopUpScreenIsDisplay</t>
   </si>
 </sst>
 </file>
@@ -3800,8 +3803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V167"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K161" workbookViewId="0">
-      <selection activeCell="M169" sqref="M169"/>
+    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
+      <selection activeCell="H137" sqref="H137"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5384,13 +5387,13 @@
         <v>44</v>
       </c>
       <c r="I51" s="31" t="s">
-        <v>672</v>
+        <v>993</v>
       </c>
       <c r="J51" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="K51" s="31" t="s">
-        <v>812</v>
+        <v>868</v>
+      </c>
+      <c r="K51" s="9" t="s">
+        <v>506</v>
       </c>
       <c r="L51" s="31" t="s">
         <v>528</v>
@@ -5587,26 +5590,15 @@
         <v>44</v>
       </c>
       <c r="I55" s="31" t="s">
-        <v>672</v>
+        <v>993</v>
       </c>
       <c r="J55" s="31" t="s">
-        <v>776</v>
-      </c>
-      <c r="K55" s="9" t="s">
-        <v>514</v>
-      </c>
-      <c r="L55" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="M55" s="31" t="s">
-        <v>342</v>
-      </c>
-      <c r="N55" s="7" t="s">
-        <v>696</v>
-      </c>
-      <c r="O55" s="31" t="s">
-        <v>6</v>
-      </c>
+        <v>996</v>
+      </c>
+      <c r="K55" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N55" s="7"/>
     </row>
     <row r="56" spans="1:20" ht="43.2">
       <c r="A56" s="7" t="s">

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6818" uniqueCount="997">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="1003">
   <si>
     <t>TestCase</t>
   </si>
@@ -3052,6 +3052,24 @@
   </si>
   <si>
     <t>VerifyAssignToExpertPopUpScreenIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_Filter_Are_Working</t>
+  </si>
+  <si>
+    <t>ClickOnFilterButton</t>
+  </si>
+  <si>
+    <t>ApplyFileExtensionFilter</t>
+  </si>
+  <si>
+    <t>VerifyThatFiltersAreWorking</t>
+  </si>
+  <si>
+    <t>File Extension</t>
+  </si>
+  <si>
+    <t>pdf</t>
   </si>
 </sst>
 </file>
@@ -3801,10 +3819,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V167"/>
+  <dimension ref="A1:V168"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D133" workbookViewId="0">
-      <selection activeCell="H137" sqref="H137"/>
+    <sheetView topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="L171" sqref="L171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9504,6 +9522,44 @@
         <v>6</v>
       </c>
     </row>
+    <row r="168" spans="1:19">
+      <c r="A168" s="31" t="s">
+        <v>997</v>
+      </c>
+      <c r="B168" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C168" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D168" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E168" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F168" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G168" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="H168" s="31" t="s">
+        <v>999</v>
+      </c>
+      <c r="I168" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="J168" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="K168" s="31" t="s">
+        <v>1000</v>
+      </c>
+      <c r="L168" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -9515,11 +9571,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC343"/>
+  <dimension ref="A1:AC344"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E343" sqref="E343"/>
+      <selection pane="bottomLeft" activeCell="O348" sqref="O348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18209,7 +18265,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="337" spans="1:12" ht="28.8">
+    <row r="337" spans="1:17" ht="28.8">
       <c r="A337" s="7" t="s">
         <v>972</v>
       </c>
@@ -18229,7 +18285,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:12" ht="28.8">
+    <row r="338" spans="1:17" ht="28.8">
       <c r="A338" s="7" t="s">
         <v>974</v>
       </c>
@@ -18246,7 +18302,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:12" ht="28.8">
+    <row r="339" spans="1:17" ht="28.8">
       <c r="A339" s="7" t="s">
         <v>982</v>
       </c>
@@ -18266,7 +18322,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:12" ht="43.2">
+    <row r="340" spans="1:17" ht="43.2">
       <c r="A340" s="7" t="s">
         <v>984</v>
       </c>
@@ -18286,7 +18342,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="341" spans="1:12" ht="28.8">
+    <row r="341" spans="1:17" ht="28.8">
       <c r="A341" s="7" t="s">
         <v>986</v>
       </c>
@@ -18306,7 +18362,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="342" spans="1:12" ht="28.8">
+    <row r="342" spans="1:17" ht="28.8">
       <c r="A342" s="7" t="s">
         <v>988</v>
       </c>
@@ -18326,7 +18382,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="343" spans="1:12">
+    <row r="343" spans="1:17">
       <c r="A343" t="s">
         <v>994</v>
       </c>
@@ -18341,12 +18397,38 @@
       </c>
       <c r="E343" s="63" t="s">
         <v>761</v>
+      </c>
+    </row>
+    <row r="344" spans="1:17">
+      <c r="A344" t="s">
+        <v>997</v>
+      </c>
+      <c r="B344" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C344" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D344" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E344" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L344" s="2" t="s">
+        <v>866</v>
+      </c>
+      <c r="P344" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q344" s="2" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E343">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E344">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -18832,9 +18914,11 @@
     <hyperlink ref="D342" r:id="rId476"/>
     <hyperlink ref="C343" r:id="rId477"/>
     <hyperlink ref="D343" r:id="rId478"/>
+    <hyperlink ref="C344" r:id="rId479"/>
+    <hyperlink ref="D344" r:id="rId480"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId479"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId481"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6838" uniqueCount="1003">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6889" uniqueCount="1011">
   <si>
     <t>TestCase</t>
   </si>
@@ -3070,6 +3070,30 @@
   </si>
   <si>
     <t>pdf</t>
+  </si>
+  <si>
+    <t>Verify_That_Old_Filter_Feature_Is_Available</t>
+  </si>
+  <si>
+    <t>VerifyThatOldFiltereatureIsNotAvailable</t>
+  </si>
+  <si>
+    <t>Verify_That_Answer_Will_Be_Changed_After_Apply_The_Filter</t>
+  </si>
+  <si>
+    <t>VerifyThatAnswerWillBeChangedAfterApplyFilter</t>
+  </si>
+  <si>
+    <t>Verify_That_Voting_Icon_Is_Not_Display_Once_User_Submits_Their_Feedback_For_Summary</t>
+  </si>
+  <si>
+    <t>SelectSmileIconForVoteTheSummary</t>
+  </si>
+  <si>
+    <t>SelectFeedbackOption</t>
+  </si>
+  <si>
+    <t>VerifyFeedbackIconIsNotDisplayOnceUserSubmitsTheirFeedbackForSummary</t>
   </si>
 </sst>
 </file>
@@ -3819,10 +3843,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V168"/>
+  <dimension ref="A1:V171"/>
   <sheetViews>
     <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="L171" sqref="L171"/>
+      <selection activeCell="A171" sqref="A171"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9560,6 +9584,108 @@
         <v>6</v>
       </c>
     </row>
+    <row r="169" spans="1:19">
+      <c r="A169" s="31" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B169" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C169" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D169" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E169" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F169" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G169" s="31" t="s">
+        <v>607</v>
+      </c>
+      <c r="H169" s="31" t="s">
+        <v>1004</v>
+      </c>
+      <c r="I169" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="170" spans="1:19" ht="28.8">
+      <c r="A170" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B170" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C170" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D170" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E170" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F170" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G170" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H170" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I170" s="7" t="s">
+        <v>1006</v>
+      </c>
+      <c r="J170" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="171" spans="1:19" ht="28.8">
+      <c r="A171" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B171" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C171" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D171" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E171" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F171" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G171" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H171" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I171" s="31" t="s">
+        <v>1008</v>
+      </c>
+      <c r="J171" s="31" t="s">
+        <v>1009</v>
+      </c>
+      <c r="K171" s="31" t="s">
+        <v>514</v>
+      </c>
+      <c r="L171" s="7" t="s">
+        <v>1010</v>
+      </c>
+      <c r="M171" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -9571,11 +9697,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC344"/>
+  <dimension ref="A1:AC347"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="O348" sqref="O348"/>
+      <selection pane="bottomLeft" activeCell="H342" sqref="H342"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18425,10 +18551,74 @@
         <v>1002</v>
       </c>
     </row>
+    <row r="345" spans="1:17" ht="28.8">
+      <c r="A345" s="7" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B345" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C345" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D345" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E345" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L345" s="2"/>
+    </row>
+    <row r="346" spans="1:17" ht="28.8">
+      <c r="A346" s="7" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B346" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C346" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D346" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E346" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L346" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P346" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q346" s="2" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="347" spans="1:17" ht="43.2">
+      <c r="A347" s="7" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B347" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C347" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D347" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E347" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L347" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E344">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E347">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -18916,9 +19106,15 @@
     <hyperlink ref="D343" r:id="rId478"/>
     <hyperlink ref="C344" r:id="rId479"/>
     <hyperlink ref="D344" r:id="rId480"/>
+    <hyperlink ref="C345" r:id="rId481"/>
+    <hyperlink ref="D345" r:id="rId482"/>
+    <hyperlink ref="C346" r:id="rId483"/>
+    <hyperlink ref="D346" r:id="rId484"/>
+    <hyperlink ref="C347" r:id="rId485"/>
+    <hyperlink ref="D347" r:id="rId486"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId481"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId487"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6889" uniqueCount="1011">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1016">
   <si>
     <t>TestCase</t>
   </si>
@@ -3094,6 +3094,21 @@
   </si>
   <si>
     <t>VerifyFeedbackIconIsNotDisplayOnceUserSubmitsTheirFeedbackForSummary</t>
+  </si>
+  <si>
+    <t>Verify_That_Client_Filter_Are_Working</t>
+  </si>
+  <si>
+    <t>Client</t>
+  </si>
+  <si>
+    <t>Mining</t>
+  </si>
+  <si>
+    <t>7 Energy</t>
+  </si>
+  <si>
+    <t>VerifyThatClientFilterIsWorking</t>
   </si>
 </sst>
 </file>
@@ -3843,10 +3858,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V171"/>
+  <dimension ref="A1:V173"/>
   <sheetViews>
-    <sheetView topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="A171" sqref="A171"/>
+    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
+      <selection activeCell="D174" sqref="D174"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9686,6 +9701,47 @@
         <v>6</v>
       </c>
     </row>
+    <row r="172" spans="1:19">
+      <c r="A172" s="31" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B172" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C172" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D172" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E172" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="F172" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="G172" s="31" t="s">
+        <v>999</v>
+      </c>
+      <c r="H172" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="I172" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="J172" s="31" t="s">
+        <v>1015</v>
+      </c>
+      <c r="K172" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="173" spans="1:19">
+      <c r="A173" s="7"/>
+      <c r="B173" s="7"/>
+      <c r="C173" s="7"/>
+      <c r="D173" s="7"/>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -9697,11 +9753,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC347"/>
+  <dimension ref="A1:AC348"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H342" sqref="H342"/>
+      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18615,10 +18671,36 @@
         <v>163</v>
       </c>
     </row>
+    <row r="348" spans="1:17">
+      <c r="A348" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B348" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C348" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D348" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E348" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L348" s="7" t="s">
+        <v>1013</v>
+      </c>
+      <c r="P348" s="2" t="s">
+        <v>1012</v>
+      </c>
+      <c r="Q348" s="2" t="s">
+        <v>1014</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E347">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E348">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -19112,9 +19194,11 @@
     <hyperlink ref="D346" r:id="rId484"/>
     <hyperlink ref="C347" r:id="rId485"/>
     <hyperlink ref="D347" r:id="rId486"/>
+    <hyperlink ref="C348" r:id="rId487"/>
+    <hyperlink ref="D348" r:id="rId488"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId487"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId489"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6908" uniqueCount="1016">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="1020">
   <si>
     <t>TestCase</t>
   </si>
@@ -3109,6 +3109,18 @@
   </si>
   <si>
     <t>VerifyThatClientFilterIsWorking</t>
+  </si>
+  <si>
+    <t>Verify_That_Text_Bubble_Is_Not_Showing_Too_Bright</t>
+  </si>
+  <si>
+    <t>VerifyThatTextBubleIsNotTooBright</t>
+  </si>
+  <si>
+    <t>VerifyThatDecisionOptionIsNotShowing</t>
+  </si>
+  <si>
+    <t>Verify_That_Decision_Option_Is_Available_On_Result_Page</t>
   </si>
 </sst>
 </file>
@@ -3858,10 +3870,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V173"/>
+  <dimension ref="A1:V174"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A163" workbookViewId="0">
-      <selection activeCell="D174" sqref="D174"/>
+    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3930,21 +3942,18 @@
         <v>37</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F2" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="G2" s="31" t="s">
         <v>562</v>
       </c>
+      <c r="G2" s="7" t="s">
+        <v>563</v>
+      </c>
       <c r="H2" s="7" t="s">
-        <v>563</v>
-      </c>
-      <c r="I2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="I2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -4438,18 +4447,15 @@
         <v>559</v>
       </c>
       <c r="F20" s="31" t="s">
-        <v>561</v>
+        <v>756</v>
       </c>
       <c r="G20" s="31" t="s">
-        <v>756</v>
-      </c>
-      <c r="H20" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="I20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="J20" s="7"/>
+      <c r="H20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="I20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="28.8" customHeight="1">
       <c r="A21" s="14" t="s">
@@ -4546,15 +4552,12 @@
         <v>37</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F24" s="31" t="s">
-        <v>561</v>
+        <v>561</v>
+      </c>
+      <c r="F24" s="7" t="s">
+        <v>611</v>
       </c>
       <c r="G24" s="31" t="s">
-        <v>611</v>
-      </c>
-      <c r="H24" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4700,24 +4703,21 @@
         <v>37</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F29" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G29" s="31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H29" s="31" t="s">
-        <v>44</v>
+        <v>627</v>
       </c>
       <c r="I29" s="31" t="s">
-        <v>627</v>
-      </c>
-      <c r="J29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="K29" s="7"/>
+        <v>6</v>
+      </c>
+      <c r="J29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
@@ -5038,21 +5038,18 @@
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F40" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G40" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H40" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="I40" s="7" t="s">
+      <c r="H40" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="J40" s="31" t="s">
+      <c r="I40" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5671,36 +5668,33 @@
         <v>37</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F56" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G56" s="31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H56" s="31" t="s">
-        <v>44</v>
+        <v>993</v>
       </c>
       <c r="I56" s="31" t="s">
-        <v>993</v>
-      </c>
-      <c r="J56" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="K56" s="9" t="s">
+      <c r="J56" s="9" t="s">
         <v>506</v>
       </c>
+      <c r="K56" s="31" t="s">
+        <v>450</v>
+      </c>
       <c r="L56" s="31" t="s">
-        <v>450</v>
-      </c>
-      <c r="M56" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="N56" s="7" t="s">
+      <c r="M56" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="O56" s="31" t="s">
+      <c r="N56" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5750,21 +5744,18 @@
         <v>37</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F58" s="31" t="s">
-        <v>561</v>
+        <v>102</v>
       </c>
       <c r="G58" s="31" t="s">
-        <v>102</v>
+        <v>44</v>
       </c>
       <c r="H58" s="31" t="s">
-        <v>44</v>
+        <v>702</v>
       </c>
       <c r="I58" s="31" t="s">
-        <v>702</v>
-      </c>
-      <c r="J58" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6395,21 +6386,18 @@
         <v>37</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F77" s="31" t="s">
-        <v>561</v>
+        <v>214</v>
       </c>
       <c r="G77" s="31" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="H77" s="31" t="s">
-        <v>216</v>
+        <v>754</v>
       </c>
       <c r="I77" s="31" t="s">
-        <v>754</v>
-      </c>
-      <c r="J77" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -8347,18 +8335,15 @@
         <v>37</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>559</v>
+        <v>561</v>
       </c>
       <c r="F130" s="31" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="G130" s="31" t="s">
-        <v>562</v>
+        <v>902</v>
       </c>
       <c r="H130" s="31" t="s">
-        <v>902</v>
-      </c>
-      <c r="I130" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9344,15 +9329,12 @@
         <v>980</v>
       </c>
       <c r="I162" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="J162" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="K162" s="7" t="s">
+        <v>561</v>
+      </c>
+      <c r="J162" s="7" t="s">
         <v>981</v>
       </c>
-      <c r="L162" s="31" t="s">
+      <c r="K162" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9736,11 +9718,63 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:19">
-      <c r="A173" s="7"/>
-      <c r="B173" s="7"/>
-      <c r="C173" s="7"/>
-      <c r="D173" s="7"/>
+    <row r="173" spans="1:19" ht="28.8">
+      <c r="A173" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B173" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C173" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D173" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E173" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="F173" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G173" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H173" s="31" t="s">
+        <v>1017</v>
+      </c>
+      <c r="I173" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="174" spans="1:19" ht="28.8">
+      <c r="A174" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B174" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C174" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D174" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E174" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="F174" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G174" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H174" s="31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="I174" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -9753,11 +9787,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC348"/>
+  <dimension ref="A1:AC350"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A338" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D352" sqref="D352"/>
+    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L207" sqref="L207"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -15376,8 +15410,8 @@
       <c r="I205" s="18"/>
       <c r="J205" s="18"/>
       <c r="K205" s="18"/>
-      <c r="L205" s="29" t="s">
-        <v>626</v>
+      <c r="L205" s="30" t="s">
+        <v>639</v>
       </c>
       <c r="M205" s="18"/>
       <c r="N205" s="18"/>
@@ -18697,10 +18731,50 @@
         <v>1014</v>
       </c>
     </row>
+    <row r="349" spans="1:17" ht="28.8">
+      <c r="A349" s="7" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B349" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C349" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D349" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E349" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L349" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="350" spans="1:17" ht="28.8">
+      <c r="A350" s="7" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B350" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C350" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D350" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E350" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L350" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E348">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E350">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -19196,9 +19270,13 @@
     <hyperlink ref="D347" r:id="rId486"/>
     <hyperlink ref="C348" r:id="rId487"/>
     <hyperlink ref="D348" r:id="rId488"/>
+    <hyperlink ref="C349" r:id="rId489"/>
+    <hyperlink ref="D349" r:id="rId490"/>
+    <hyperlink ref="C350" r:id="rId491"/>
+    <hyperlink ref="D350" r:id="rId492"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId489"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId493"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6928" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6968" uniqueCount="1024">
   <si>
     <t>TestCase</t>
   </si>
@@ -3121,6 +3121,18 @@
   </si>
   <si>
     <t>Verify_That_Decision_Option_Is_Available_On_Result_Page</t>
+  </si>
+  <si>
+    <t>Verify_That_Avatar_Name_Is_Display_In_Camel_Case_Word</t>
+  </si>
+  <si>
+    <t>VerifyThatAvatatNameIsDsiplayInCamelCaseWord</t>
+  </si>
+  <si>
+    <t>Verify_That_Previous_Button_Is_Working_Of_Pagination</t>
+  </si>
+  <si>
+    <t>VerifyThatPreviousButtonIsWorkingOfPagination</t>
   </si>
 </sst>
 </file>
@@ -3870,10 +3882,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V174"/>
+  <dimension ref="A1:V176"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" topLeftCell="G166" workbookViewId="0">
+      <selection activeCell="I178" sqref="I178"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3942,18 +3954,21 @@
         <v>37</v>
       </c>
       <c r="E2" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F2" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G2" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="G2" s="7" t="s">
+      <c r="H2" s="7" t="s">
         <v>563</v>
       </c>
-      <c r="H2" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J2" s="7"/>
     </row>
     <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
       <c r="A3" s="7" t="s">
@@ -4552,12 +4567,15 @@
         <v>37</v>
       </c>
       <c r="E24" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="F24" s="7" t="s">
+        <v>559</v>
+      </c>
+      <c r="F24" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G24" s="7" t="s">
         <v>611</v>
       </c>
-      <c r="G24" s="31" t="s">
+      <c r="H24" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -4703,21 +4721,24 @@
         <v>37</v>
       </c>
       <c r="E29" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F29" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G29" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G29" s="31" t="s">
+      <c r="H29" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H29" s="31" t="s">
+      <c r="I29" s="31" t="s">
         <v>627</v>
       </c>
-      <c r="I29" s="31" t="s">
-        <v>6</v>
-      </c>
-      <c r="J29" s="7"/>
+      <c r="J29" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="K29" s="7"/>
     </row>
     <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
@@ -5038,18 +5059,21 @@
         <v>37</v>
       </c>
       <c r="E40" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F40" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G40" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G40" s="31" t="s">
+      <c r="H40" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H40" s="7" t="s">
+      <c r="I40" s="7" t="s">
         <v>652</v>
       </c>
-      <c r="I40" s="31" t="s">
+      <c r="J40" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5668,33 +5692,36 @@
         <v>37</v>
       </c>
       <c r="E56" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F56" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G56" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G56" s="31" t="s">
+      <c r="H56" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H56" s="31" t="s">
+      <c r="I56" s="31" t="s">
         <v>993</v>
       </c>
-      <c r="I56" s="31" t="s">
+      <c r="J56" s="31" t="s">
         <v>868</v>
       </c>
-      <c r="J56" s="9" t="s">
+      <c r="K56" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="K56" s="31" t="s">
+      <c r="L56" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="L56" s="31" t="s">
+      <c r="M56" s="31" t="s">
         <v>342</v>
       </c>
-      <c r="M56" s="7" t="s">
+      <c r="N56" s="7" t="s">
         <v>698</v>
       </c>
-      <c r="N56" s="31" t="s">
+      <c r="O56" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -5744,18 +5771,21 @@
         <v>37</v>
       </c>
       <c r="E58" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F58" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G58" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G58" s="31" t="s">
+      <c r="H58" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H58" s="31" t="s">
+      <c r="I58" s="31" t="s">
         <v>702</v>
       </c>
-      <c r="I58" s="31" t="s">
+      <c r="J58" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -6386,18 +6416,21 @@
         <v>37</v>
       </c>
       <c r="E77" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F77" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G77" s="31" t="s">
         <v>214</v>
       </c>
-      <c r="G77" s="31" t="s">
+      <c r="H77" s="31" t="s">
         <v>216</v>
       </c>
-      <c r="H77" s="31" t="s">
+      <c r="I77" s="31" t="s">
         <v>754</v>
       </c>
-      <c r="I77" s="31" t="s">
+      <c r="J77" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9697,24 +9730,27 @@
         <v>37</v>
       </c>
       <c r="E172" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F172" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G172" s="31" t="s">
         <v>998</v>
       </c>
-      <c r="G172" s="31" t="s">
+      <c r="H172" s="31" t="s">
         <v>999</v>
       </c>
-      <c r="H172" s="31" t="s">
+      <c r="I172" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="I172" s="31" t="s">
+      <c r="J172" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="J172" s="31" t="s">
+      <c r="K172" s="31" t="s">
         <v>1015</v>
       </c>
-      <c r="K172" s="31" t="s">
+      <c r="L172" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9732,18 +9768,21 @@
         <v>37</v>
       </c>
       <c r="E173" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F173" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G173" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G173" s="31" t="s">
+      <c r="H173" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H173" s="31" t="s">
+      <c r="I173" s="31" t="s">
         <v>1017</v>
       </c>
-      <c r="I173" s="31" t="s">
+      <c r="J173" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9761,18 +9800,85 @@
         <v>37</v>
       </c>
       <c r="E174" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F174" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G174" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G174" s="31" t="s">
+      <c r="H174" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H174" s="31" t="s">
+      <c r="I174" s="31" t="s">
         <v>1018</v>
       </c>
-      <c r="I174" s="31" t="s">
+      <c r="J174" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="175" spans="1:19" ht="28.8">
+      <c r="A175" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B175" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C175" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D175" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E175" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F175" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G175" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H175" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I175" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J175" s="31" t="s">
+        <v>1023</v>
+      </c>
+      <c r="K175" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="176" spans="1:19" ht="28.8">
+      <c r="A176" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F176" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>450</v>
+      </c>
+      <c r="H176" s="31" t="s">
+        <v>1021</v>
+      </c>
+      <c r="I176" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9787,11 +9893,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC350"/>
+  <dimension ref="A1:AC352"/>
   <sheetViews>
-    <sheetView topLeftCell="G1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A199" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L207" sqref="L207"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18771,10 +18877,45 @@
         <v>163</v>
       </c>
     </row>
+    <row r="351" spans="1:17" s="2" customFormat="1" ht="28.8">
+      <c r="A351" s="7" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B351" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C351" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D351" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E351" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L351" s="7"/>
+    </row>
+    <row r="352" spans="1:17" ht="28.8">
+      <c r="A352" s="7" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B352" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E352" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E350">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E352">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -19274,9 +19415,13 @@
     <hyperlink ref="D349" r:id="rId490"/>
     <hyperlink ref="C350" r:id="rId491"/>
     <hyperlink ref="D350" r:id="rId492"/>
+    <hyperlink ref="C352" r:id="rId493"/>
+    <hyperlink ref="D352" r:id="rId494"/>
+    <hyperlink ref="C351" r:id="rId495"/>
+    <hyperlink ref="D351" r:id="rId496"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId493"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId497"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6968" uniqueCount="1024">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6985" uniqueCount="1025">
   <si>
     <t>TestCase</t>
   </si>
@@ -3133,6 +3133,9 @@
   </si>
   <si>
     <t>VerifyThatPreviousButtonIsWorkingOfPagination</t>
+  </si>
+  <si>
+    <t>Verify_That_Upload_File_Button_Is_Working</t>
   </si>
 </sst>
 </file>
@@ -3882,10 +3885,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V176"/>
+  <dimension ref="A1:V177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G166" workbookViewId="0">
-      <selection activeCell="I178" sqref="I178"/>
+    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9853,32 +9856,70 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:19" ht="28.8">
+    <row r="176" spans="1:19">
       <c r="A176" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B176" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C176" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D176" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E176" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F176" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G176" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H176" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I176" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J176" s="31" t="s">
+        <v>161</v>
+      </c>
+      <c r="K176" s="31" t="s">
+        <v>168</v>
+      </c>
+      <c r="L176" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="177" spans="1:9" ht="28.8">
+      <c r="A177" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="B176" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C176" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D176" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E176" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F176" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="G176" s="31" t="s">
+      <c r="B177" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C177" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D177" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F177" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G177" s="31" t="s">
         <v>450</v>
       </c>
-      <c r="H176" s="31" t="s">
+      <c r="H177" s="31" t="s">
         <v>1021</v>
       </c>
-      <c r="I176" s="31" t="s">
+      <c r="I177" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -9893,11 +9934,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC352"/>
+  <dimension ref="A1:AC353"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A343" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E357" sqref="E357"/>
+      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18895,27 +18936,45 @@
       </c>
       <c r="L351" s="7"/>
     </row>
-    <row r="352" spans="1:17" ht="28.8">
+    <row r="352" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A352" s="7" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B352" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C352" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D352" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E352" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L352" s="7"/>
+    </row>
+    <row r="353" spans="1:5" ht="28.8">
+      <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
-      <c r="B352" s="26" t="s">
-        <v>4</v>
-      </c>
-      <c r="C352" s="27" t="s">
-        <v>377</v>
-      </c>
-      <c r="D352" s="27" t="s">
-        <v>378</v>
-      </c>
-      <c r="E352" s="63" t="s">
+      <c r="B353" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C353" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D353" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E353" s="63" t="s">
         <v>761</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E352">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E353">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -19415,13 +19474,15 @@
     <hyperlink ref="D349" r:id="rId490"/>
     <hyperlink ref="C350" r:id="rId491"/>
     <hyperlink ref="D350" r:id="rId492"/>
-    <hyperlink ref="C352" r:id="rId493"/>
-    <hyperlink ref="D352" r:id="rId494"/>
+    <hyperlink ref="C353" r:id="rId493"/>
+    <hyperlink ref="D353" r:id="rId494"/>
     <hyperlink ref="C351" r:id="rId495"/>
     <hyperlink ref="D351" r:id="rId496"/>
+    <hyperlink ref="C352" r:id="rId497"/>
+    <hyperlink ref="D352" r:id="rId498"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId497"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId499"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6985" uniqueCount="1025">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7042" uniqueCount="1035">
   <si>
     <t>TestCase</t>
   </si>
@@ -3136,6 +3136,36 @@
   </si>
   <si>
     <t>Verify_That_Upload_File_Button_Is_Working</t>
+  </si>
+  <si>
+    <t>Verify_That_Post_To_Expert_Button_Is_Clickable</t>
+  </si>
+  <si>
+    <t>Musk said a tesla semi would typically use how many cells as a car</t>
+  </si>
+  <si>
+    <t>VerifyThatPostToExpertButtonIsClickable</t>
+  </si>
+  <si>
+    <t>Verify_That_Clicking_Between_Questions_Do_Not_Close_The_Search_Bar</t>
+  </si>
+  <si>
+    <t>VerifyThatClickingBetweenQuestionsDoNotCloseTheSearchBar</t>
+  </si>
+  <si>
+    <t>Verify_That_Avatar_Selection_PopUp_Show_Every_Time_The_User_Login</t>
+  </si>
+  <si>
+    <t>VerifyThatAvatarSelectionPoupIsDisplayEveryTimeLogin</t>
+  </si>
+  <si>
+    <t>Verify_That_Upvoted_Answer_Is_Showing_At_The_Top</t>
+  </si>
+  <si>
+    <t>What is the effect of the structural effect on energy use</t>
+  </si>
+  <si>
+    <t>VerifyThatUpvotedAnswerIsShowingAtTheTop</t>
   </si>
 </sst>
 </file>
@@ -3885,10 +3915,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V177"/>
+  <dimension ref="A1:V181"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView topLeftCell="A166" workbookViewId="0">
+      <selection activeCell="A182" sqref="A182"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -9894,7 +9924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:9" ht="28.8">
+    <row r="177" spans="1:11" ht="28.8">
       <c r="A177" s="7" t="s">
         <v>1020</v>
       </c>
@@ -9921,6 +9951,119 @@
       </c>
       <c r="I177" s="31" t="s">
         <v>6</v>
+      </c>
+    </row>
+    <row r="178" spans="1:11">
+      <c r="A178" s="31" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B178" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C178" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D178" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F178" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G178" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H178" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I178" s="31" t="s">
+        <v>993</v>
+      </c>
+      <c r="J178" s="31" t="s">
+        <v>1027</v>
+      </c>
+      <c r="K178" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="179" spans="1:11" ht="28.8">
+      <c r="A179" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B179" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C179" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D179" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E179" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F179" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G179" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="H179" s="7" t="s">
+        <v>1029</v>
+      </c>
+      <c r="I179" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="180" spans="1:11" ht="28.8">
+      <c r="A180" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B180" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C180" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D180" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E180" s="7" t="s">
+        <v>1031</v>
+      </c>
+      <c r="F180" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="181" spans="1:11" ht="28.8">
+      <c r="A181" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B181" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C181" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D181" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E181" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F181" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G181" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H181" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I181" s="7" t="s">
+        <v>1034</v>
       </c>
     </row>
   </sheetData>
@@ -9934,11 +10077,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC353"/>
+  <dimension ref="A1:AC357"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A346" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C352" sqref="C352"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -18954,7 +19097,7 @@
       </c>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:5" ht="28.8">
+    <row r="353" spans="1:12" ht="28.8">
       <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
@@ -18969,12 +19112,86 @@
       </c>
       <c r="E353" s="63" t="s">
         <v>761</v>
+      </c>
+    </row>
+    <row r="354" spans="1:12" ht="43.2">
+      <c r="A354" s="14" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B354" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C354" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D354" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E354" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L354" s="7" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="355" spans="1:12" ht="28.8">
+      <c r="A355" s="7" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B355" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C355" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D355" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E355" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="356" spans="1:12" ht="28.8">
+      <c r="A356" s="7" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B356" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C356" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D356" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E356" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="357" spans="1:12" ht="28.8">
+      <c r="A357" s="7" t="s">
+        <v>1032</v>
+      </c>
+      <c r="B357" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C357" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D357" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E357" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L357" s="7" t="s">
+        <v>1033</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E353">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E357">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
@@ -19480,9 +19697,17 @@
     <hyperlink ref="D351" r:id="rId496"/>
     <hyperlink ref="C352" r:id="rId497"/>
     <hyperlink ref="D352" r:id="rId498"/>
+    <hyperlink ref="C354" r:id="rId499"/>
+    <hyperlink ref="D354" r:id="rId500"/>
+    <hyperlink ref="C355" r:id="rId501"/>
+    <hyperlink ref="D355" r:id="rId502"/>
+    <hyperlink ref="C356" r:id="rId503"/>
+    <hyperlink ref="D356" r:id="rId504"/>
+    <hyperlink ref="C357" r:id="rId505"/>
+    <hyperlink ref="D357" r:id="rId506"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId499"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId507"/>
 </worksheet>
 </file>
 
@@ -19578,8 +19803,8 @@
   <dimension ref="A1:S178"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A174" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A177" sqref="A177"/>
+      <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -23689,7 +23914,7 @@
       <c r="F145" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="G145" s="18" t="s">
+      <c r="G145" s="14" t="s">
         <v>459</v>
       </c>
       <c r="H145" s="14" t="s">

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7042" uniqueCount="1035">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="1046">
   <si>
     <t>TestCase</t>
   </si>
@@ -3166,6 +3166,39 @@
   </si>
   <si>
     <t>VerifyThatUpvotedAnswerIsShowingAtTheTop</t>
+  </si>
+  <si>
+    <t>Verify_That_Enter_Button_Is_Working_With_Chinook_Avatar</t>
+  </si>
+  <si>
+    <t>Chinook</t>
+  </si>
+  <si>
+    <t>VerifyThatEnterButtonIsWorking</t>
+  </si>
+  <si>
+    <t>PressEnterKey</t>
+  </si>
+  <si>
+    <t>Verify_That_Card_And_Tree_View_Is_Display</t>
+  </si>
+  <si>
+    <t>VerifyThatCardAndTreeViewIsDisplayed</t>
+  </si>
+  <si>
+    <t>Verify_That_Open_Extras_Panel_Is_Display_And_There_Are_Multiple_Option_In_The_Panel</t>
+  </si>
+  <si>
+    <t>VerifyThatThereAreMultipleOptionInTheOpenExtrasPanel</t>
+  </si>
+  <si>
+    <t>ClickOnOpenExtrasIcon</t>
+  </si>
+  <si>
+    <t>Verify_That_Open_Extras_Panel_Is_Display</t>
+  </si>
+  <si>
+    <t>VerifyThatSideOpenExtrasPanelIsDisplayed</t>
   </si>
 </sst>
 </file>
@@ -3915,10 +3948,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V181"/>
+  <dimension ref="A1:V185"/>
   <sheetViews>
-    <sheetView topLeftCell="A166" workbookViewId="0">
-      <selection activeCell="A182" sqref="A182"/>
+    <sheetView tabSelected="1" topLeftCell="G178" workbookViewId="0">
+      <selection activeCell="J186" sqref="J186"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10065,6 +10098,137 @@
       <c r="I181" s="7" t="s">
         <v>1034</v>
       </c>
+      <c r="J181" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="182" spans="1:11" ht="28.8">
+      <c r="A182" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B182" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C182" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D182" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E182" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F182" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G182" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H182" s="31" t="s">
+        <v>1038</v>
+      </c>
+      <c r="I182" s="31" t="s">
+        <v>1037</v>
+      </c>
+      <c r="J182" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="183" spans="1:11">
+      <c r="A183" s="31" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B183" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C183" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D183" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E183" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F183" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G183" s="31" t="s">
+        <v>1040</v>
+      </c>
+      <c r="H183" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="184" spans="1:11" ht="28.8">
+      <c r="A184" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G184" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H184" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I184" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J184" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K184" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11">
+      <c r="A185" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B185" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C185" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D185" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E185" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F185" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G185" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H185" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I185" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J185" s="31" t="s">
+        <v>1045</v>
+      </c>
+      <c r="K185" s="31" t="s">
+        <v>6</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -10077,11 +10241,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC357"/>
+  <dimension ref="A1:AC361"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A349" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F361" sqref="F361"/>
+    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19188,14 +19352,95 @@
         <v>1033</v>
       </c>
     </row>
+    <row r="358" spans="1:12" ht="28.8">
+      <c r="A358" s="7" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B358" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C358" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D358" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E358" s="63" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L358" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="359" spans="1:12" ht="28.8">
+      <c r="A359" s="7" t="s">
+        <v>1039</v>
+      </c>
+      <c r="B359" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C359" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D359" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E359" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L359" s="7"/>
+    </row>
+    <row r="360" spans="1:12" ht="43.2">
+      <c r="A360" s="7" t="s">
+        <v>1041</v>
+      </c>
+      <c r="B360" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C360" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D360" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E360" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L360" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="361" spans="1:12" ht="28.8">
+      <c r="A361" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B361" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C361" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D361" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E361" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L361" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
-  <dataValidations count="2">
+  <dataValidations count="3">
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E243:E276 E177:E181 E183:E185 E187 E189:E191 E193:E195 E197 E199:E241 E278:E326 E330:E357">
       <formula1>"Market Research,Regs and Policies,Product Support"</formula1>
     </dataValidation>
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
+    </dataValidation>
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E361">
+      <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
   <hyperlinks>
@@ -19705,9 +19950,17 @@
     <hyperlink ref="D356" r:id="rId504"/>
     <hyperlink ref="C357" r:id="rId505"/>
     <hyperlink ref="D357" r:id="rId506"/>
+    <hyperlink ref="C358" r:id="rId507"/>
+    <hyperlink ref="D358" r:id="rId508"/>
+    <hyperlink ref="C359" r:id="rId509"/>
+    <hyperlink ref="D359" r:id="rId510"/>
+    <hyperlink ref="C360" r:id="rId511"/>
+    <hyperlink ref="D360" r:id="rId512"/>
+    <hyperlink ref="C361" r:id="rId513"/>
+    <hyperlink ref="D361" r:id="rId514"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId507"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId515"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7106" uniqueCount="1046">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="1050">
   <si>
     <t>TestCase</t>
   </si>
@@ -3199,6 +3199,18 @@
   </si>
   <si>
     <t>VerifyThatSideOpenExtrasPanelIsDisplayed</t>
+  </si>
+  <si>
+    <t>Verify_That_Nesh_Bubble_Text_Show_Different_For_Normal_Question_And_Low_Confidence_Qustion</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> What can incentivize low-cost hydrogen projects</t>
+  </si>
+  <si>
+    <t>VerifyThatNeshBubbleTextIsDifferentForNormalQuestionAndLowConfidenceQuestion</t>
+  </si>
+  <si>
+    <t>what</t>
   </si>
 </sst>
 </file>
@@ -3948,10 +3960,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V185"/>
+  <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G178" workbookViewId="0">
-      <selection activeCell="J186" sqref="J186"/>
+    <sheetView tabSelected="1" topLeftCell="E178" workbookViewId="0">
+      <selection activeCell="G187" sqref="G187"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10160,44 +10172,35 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="28.8">
+    <row r="184" spans="1:11" ht="43.2">
       <c r="A184" s="7" t="s">
+        <v>1046</v>
+      </c>
+      <c r="B184" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C184" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D184" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E184" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F184" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G184" s="7" t="s">
+        <v>1048</v>
+      </c>
+      <c r="H184" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="185" spans="1:11" ht="28.8">
+      <c r="A185" s="7" t="s">
         <v>1041</v>
-      </c>
-      <c r="B184" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C184" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D184" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E184" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F184" s="31" t="s">
-        <v>561</v>
-      </c>
-      <c r="G184" s="31" t="s">
-        <v>102</v>
-      </c>
-      <c r="H184" s="31" t="s">
-        <v>44</v>
-      </c>
-      <c r="I184" s="31" t="s">
-        <v>1043</v>
-      </c>
-      <c r="J184" s="7" t="s">
-        <v>1042</v>
-      </c>
-      <c r="K184" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="185" spans="1:11">
-      <c r="A185" s="31" t="s">
-        <v>1044</v>
       </c>
       <c r="B185" s="7" t="s">
         <v>5</v>
@@ -10223,10 +10226,45 @@
       <c r="I185" s="31" t="s">
         <v>1043</v>
       </c>
-      <c r="J185" s="31" t="s">
+      <c r="J185" s="7" t="s">
+        <v>1042</v>
+      </c>
+      <c r="K185" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="186" spans="1:11">
+      <c r="A186" s="31" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B186" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C186" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D186" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E186" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F186" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G186" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H186" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I186" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J186" s="31" t="s">
         <v>1045</v>
       </c>
-      <c r="K185" s="31" t="s">
+      <c r="K186" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10241,11 +10279,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC361"/>
+  <dimension ref="A1:AC362"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A352" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="K365" sqref="K365"/>
+    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="N360" sqref="N360"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19261,7 +19299,7 @@
       </c>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:12" ht="28.8">
+    <row r="353" spans="1:14" ht="28.8">
       <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
@@ -19278,7 +19316,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="354" spans="1:12" ht="43.2">
+    <row r="354" spans="1:14" ht="43.2">
       <c r="A354" s="14" t="s">
         <v>1025</v>
       </c>
@@ -19298,7 +19336,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="355" spans="1:12" ht="28.8">
+    <row r="355" spans="1:14" ht="28.8">
       <c r="A355" s="7" t="s">
         <v>1028</v>
       </c>
@@ -19315,7 +19353,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="356" spans="1:12" ht="28.8">
+    <row r="356" spans="1:14" ht="28.8">
       <c r="A356" s="7" t="s">
         <v>1030</v>
       </c>
@@ -19332,7 +19370,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="1:12" ht="28.8">
+    <row r="357" spans="1:14" ht="28.8">
       <c r="A357" s="7" t="s">
         <v>1032</v>
       </c>
@@ -19352,7 +19390,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="358" spans="1:12" ht="28.8">
+    <row r="358" spans="1:14" ht="28.8">
       <c r="A358" s="7" t="s">
         <v>1035</v>
       </c>
@@ -19372,7 +19410,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:12" ht="28.8">
+    <row r="359" spans="1:14" ht="28.8">
       <c r="A359" s="7" t="s">
         <v>1039</v>
       </c>
@@ -19390,9 +19428,9 @@
       </c>
       <c r="L359" s="7"/>
     </row>
-    <row r="360" spans="1:12" ht="43.2">
+    <row r="360" spans="1:14" s="2" customFormat="1" ht="43.2">
       <c r="A360" s="7" t="s">
-        <v>1041</v>
+        <v>1046</v>
       </c>
       <c r="B360" s="26" t="s">
         <v>4</v>
@@ -19407,12 +19445,15 @@
         <v>761</v>
       </c>
       <c r="L360" s="7" t="s">
-        <v>1033</v>
-      </c>
-    </row>
-    <row r="361" spans="1:12" ht="28.8">
-      <c r="A361" t="s">
-        <v>1044</v>
+        <v>1047</v>
+      </c>
+      <c r="N360" s="2" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="361" spans="1:14" ht="43.2">
+      <c r="A361" s="7" t="s">
+        <v>1041</v>
       </c>
       <c r="B361" s="26" t="s">
         <v>4</v>
@@ -19427,6 +19468,26 @@
         <v>761</v>
       </c>
       <c r="L361" s="7" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="362" spans="1:14" ht="28.8">
+      <c r="A362" t="s">
+        <v>1044</v>
+      </c>
+      <c r="B362" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C362" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D362" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E362" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L362" s="7" t="s">
         <v>1033</v>
       </c>
     </row>
@@ -19439,7 +19500,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E361">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E362">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -19954,13 +20015,15 @@
     <hyperlink ref="D358" r:id="rId508"/>
     <hyperlink ref="C359" r:id="rId509"/>
     <hyperlink ref="D359" r:id="rId510"/>
-    <hyperlink ref="C360" r:id="rId511"/>
-    <hyperlink ref="D360" r:id="rId512"/>
-    <hyperlink ref="C361" r:id="rId513"/>
-    <hyperlink ref="D361" r:id="rId514"/>
+    <hyperlink ref="C361" r:id="rId511"/>
+    <hyperlink ref="D361" r:id="rId512"/>
+    <hyperlink ref="C362" r:id="rId513"/>
+    <hyperlink ref="D362" r:id="rId514"/>
+    <hyperlink ref="C360" r:id="rId515"/>
+    <hyperlink ref="D360" r:id="rId516"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId515"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId517"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -3962,8 +3962,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V186"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E178" workbookViewId="0">
-      <selection activeCell="G187" sqref="G187"/>
+    <sheetView tabSelected="1" topLeftCell="F133" workbookViewId="0">
+      <selection activeCell="H142" sqref="H142"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20118,9 +20118,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S178"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A172" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G145" sqref="G145"/>
+      <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7121" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="1052">
   <si>
     <t>TestCase</t>
   </si>
@@ -3211,6 +3211,12 @@
   </si>
   <si>
     <t>what</t>
+  </si>
+  <si>
+    <t>Verify_That_Graph_View_Is_Display_On_The_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatGraphViewIsDisplay</t>
   </si>
 </sst>
 </file>
@@ -3960,10 +3966,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V186"/>
+  <dimension ref="A1:V187"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F133" workbookViewId="0">
-      <selection activeCell="H142" sqref="H142"/>
+    <sheetView tabSelected="1" topLeftCell="E116" workbookViewId="0">
+      <selection activeCell="G121" sqref="G121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10268,6 +10274,32 @@
         <v>6</v>
       </c>
     </row>
+    <row r="187" spans="1:11" ht="28.8">
+      <c r="A187" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B187" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C187" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D187" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E187" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F187" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G187" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H187" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -10279,11 +10311,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC362"/>
+  <dimension ref="A1:AC363"/>
   <sheetViews>
-    <sheetView topLeftCell="H1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N360" sqref="N360"/>
+      <selection pane="bottomLeft" activeCell="E365" sqref="E365"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19491,6 +19523,23 @@
         <v>1033</v>
       </c>
     </row>
+    <row r="363" spans="1:14" ht="28.8">
+      <c r="A363" s="7" t="s">
+        <v>1050</v>
+      </c>
+      <c r="B363" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C363" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D363" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E363" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -19500,7 +19549,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E362">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E363">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20021,9 +20070,11 @@
     <hyperlink ref="D362" r:id="rId514"/>
     <hyperlink ref="C360" r:id="rId515"/>
     <hyperlink ref="D360" r:id="rId516"/>
+    <hyperlink ref="C363" r:id="rId517"/>
+    <hyperlink ref="D363" r:id="rId518"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId517"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId519"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7134" uniqueCount="1052">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7297" uniqueCount="1080">
   <si>
     <t>TestCase</t>
   </si>
@@ -3217,6 +3217,90 @@
   </si>
   <si>
     <t>VerifyThatGraphViewIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_Expert_Page_Have_Experts_That_Have_Trained_Nesh_Heading</t>
+  </si>
+  <si>
+    <t>ClickOnExpertNavigationIcon</t>
+  </si>
+  <si>
+    <t>VerifyThatExpertPageHaveTrainedNeshHeading</t>
+  </si>
+  <si>
+    <t>Verify_That_The_User_Can_Select_Avatar_On_Expert_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatTheUserCanSelectOtherAvatarOnTheExpertPage</t>
+  </si>
+  <si>
+    <t>Verify_That_The_Top_Three_Experts_Are_Shown_More_Prominently</t>
+  </si>
+  <si>
+    <t>VerifyThatTheTopThreeExpertsAreShownMoreProminentlyAndScoreIsDisplayedForEachExpert</t>
+  </si>
+  <si>
+    <t>Verify_That_Uploaded_File_Can_Be_Associated</t>
+  </si>
+  <si>
+    <t>VerifyThatUploadedFileCanBeAssociated</t>
+  </si>
+  <si>
+    <t>Verify_That_Blank_Cell_Not_Available_In_The_Popular_Questions_And_My_Questions_Section</t>
+  </si>
+  <si>
+    <t>VerifyThatBlankCellIsNotAvailableInThePopularQuestionsAndMyQuestionsSection</t>
+  </si>
+  <si>
+    <t>Verify_That_File_Created_Date_Filter_Option_Is_Working</t>
+  </si>
+  <si>
+    <t>Show me cfr 252 since 2019</t>
+  </si>
+  <si>
+    <t>File Created Date</t>
+  </si>
+  <si>
+    <t>ApplyFilter</t>
+  </si>
+  <si>
+    <t>Verify_That_Tree_View_Is_Display_On_The_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatTreeViewIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_Clicking_On_The_Empty_Space_Above_The_Home_Button_Does_Not_Lead_To_The_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatClickingOnTheEmptySpaceAboveTheHomeButtonDoesNotLeadToTheHomePage</t>
+  </si>
+  <si>
+    <t>Verify_That_There_Is_Space_Available_Between_Password_Field_and_Forgot_Password_Option</t>
+  </si>
+  <si>
+    <t>VerifyThatThereIsSpaceAvailableBetweenPasswordFieldandForgotPasswordOption</t>
+  </si>
+  <si>
+    <t>Verify_That_Audit_Report_Option_Is_Available_on_The_Open_Extras_Panel</t>
+  </si>
+  <si>
+    <t>VerifyThatThereIsAuditReportOptionIsAvailableOnTheOpenExtrasPanel</t>
+  </si>
+  <si>
+    <t>Verify_That_Asked_Question_Is_Not_Available_On_The_Search_Bar_When_Recommended_Topic_Is_Clicked</t>
+  </si>
+  <si>
+    <t>ClickOnSearchRecommendedTopic</t>
+  </si>
+  <si>
+    <t>VerifyThatAskedQuestionIsNotAvailableOnTheSearchbar</t>
+  </si>
+  <si>
+    <t>EnterPeriod</t>
+  </si>
+  <si>
+    <t>VerifyThatCreatedDateFilterIsWorking</t>
   </si>
 </sst>
 </file>
@@ -3966,10 +4050,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V187"/>
+  <dimension ref="A1:V198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E116" workbookViewId="0">
-      <selection activeCell="G121" sqref="G121"/>
+    <sheetView tabSelected="1" topLeftCell="I192" workbookViewId="0">
+      <selection activeCell="M204" sqref="M204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10300,6 +10384,340 @@
         <v>6</v>
       </c>
     </row>
+    <row r="188" spans="1:11" ht="28.8">
+      <c r="A188" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B188" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C188" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D188" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E188" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F188" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G188" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H188" s="31" t="s">
+        <v>1054</v>
+      </c>
+      <c r="I188" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="189" spans="1:11" ht="28.8">
+      <c r="A189" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B189" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C189" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D189" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E189" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F189" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G189" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H189" s="31" t="s">
+        <v>1056</v>
+      </c>
+      <c r="I189" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="190" spans="1:11" ht="28.8">
+      <c r="A190" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B190" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C190" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D190" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E190" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F190" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G190" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H190" s="7" t="s">
+        <v>1058</v>
+      </c>
+      <c r="I190" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="191" spans="1:11">
+      <c r="A191" s="31" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B191" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C191" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D191" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E191" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F191" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G191" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H191" s="31" t="s">
+        <v>137</v>
+      </c>
+      <c r="I191" s="31" t="s">
+        <v>150</v>
+      </c>
+      <c r="J191" s="31" t="s">
+        <v>1060</v>
+      </c>
+      <c r="K191" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="192" spans="1:11" ht="28.8">
+      <c r="A192" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B192" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C192" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D192" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E192" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F192" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G192" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="H192" s="7" t="s">
+        <v>1062</v>
+      </c>
+      <c r="I192" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="193" spans="1:13" ht="28.8">
+      <c r="A193" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B193" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C193" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D193" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E193" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F193" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G193" s="31" t="s">
+        <v>998</v>
+      </c>
+      <c r="H193" s="31" t="s">
+        <v>1066</v>
+      </c>
+      <c r="I193" s="31" t="s">
+        <v>1078</v>
+      </c>
+      <c r="J193" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="K193" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L193" s="31" t="s">
+        <v>1079</v>
+      </c>
+      <c r="M193" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="194" spans="1:13" ht="28.8">
+      <c r="A194" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B194" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C194" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D194" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E194" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F194" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G194" s="31" t="s">
+        <v>1068</v>
+      </c>
+      <c r="H194" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="195" spans="1:13" ht="43.2">
+      <c r="A195" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B195" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C195" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D195" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E195" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F195" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G195" s="7" t="s">
+        <v>1070</v>
+      </c>
+      <c r="H195" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="196" spans="1:13" ht="43.2">
+      <c r="A196" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B196" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C196" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D196" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E196" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F196" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G196" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H196" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I196" s="31" t="s">
+        <v>562</v>
+      </c>
+      <c r="J196" s="7" t="s">
+        <v>1076</v>
+      </c>
+      <c r="K196" s="7" t="s">
+        <v>1077</v>
+      </c>
+      <c r="L196" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="197" spans="1:13" ht="28.8">
+      <c r="A197" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B197" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C197" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D197" s="7" t="s">
+        <v>1072</v>
+      </c>
+      <c r="E197" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="198" spans="1:13" ht="28.8">
+      <c r="A198" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B198" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C198" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D198" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E198" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F198" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G198" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H198" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I198" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J198" s="7" t="s">
+        <v>1074</v>
+      </c>
+      <c r="K198" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -10311,11 +10729,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC363"/>
+  <dimension ref="A1:AC374"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A355" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E365" sqref="E365"/>
+      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -19540,6 +19958,205 @@
         <v>761</v>
       </c>
     </row>
+    <row r="364" spans="1:14" ht="28.8">
+      <c r="A364" s="7" t="s">
+        <v>1052</v>
+      </c>
+      <c r="B364" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C364" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D364" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E364" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="365" spans="1:14" ht="28.8">
+      <c r="A365" s="7" t="s">
+        <v>1055</v>
+      </c>
+      <c r="B365" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C365" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D365" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E365" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="366" spans="1:14" ht="28.8">
+      <c r="A366" s="7" t="s">
+        <v>1057</v>
+      </c>
+      <c r="B366" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C366" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D366" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E366" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="367" spans="1:14" ht="28.8">
+      <c r="A367" s="7" t="s">
+        <v>1059</v>
+      </c>
+      <c r="B367" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C367" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D367" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E367" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="368" spans="1:14" ht="43.2">
+      <c r="A368" s="7" t="s">
+        <v>1061</v>
+      </c>
+      <c r="B368" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C368" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D368" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E368" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="369" spans="1:16" ht="28.8">
+      <c r="A369" s="7" t="s">
+        <v>1063</v>
+      </c>
+      <c r="B369" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C369" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D369" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E369" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L369" s="7" t="s">
+        <v>1064</v>
+      </c>
+      <c r="P369" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="370" spans="1:16" ht="28.8">
+      <c r="A370" s="7" t="s">
+        <v>1067</v>
+      </c>
+      <c r="B370" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C370" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D370" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E370" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="371" spans="1:16" ht="43.2">
+      <c r="A371" s="7" t="s">
+        <v>1069</v>
+      </c>
+      <c r="B371" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C371" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D371" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E371" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="43.2">
+      <c r="A372" s="7" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B372" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C372" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D372" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E372" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L372" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="373" spans="1:16" ht="43.2">
+      <c r="A373" s="7" t="s">
+        <v>1071</v>
+      </c>
+      <c r="B373" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C373" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D373" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E373" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="374" spans="1:16" ht="28.8">
+      <c r="A374" s="7" t="s">
+        <v>1073</v>
+      </c>
+      <c r="B374" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C374" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D374" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E374" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L374" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -19549,7 +20166,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E363">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E374">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20072,9 +20689,31 @@
     <hyperlink ref="D360" r:id="rId516"/>
     <hyperlink ref="C363" r:id="rId517"/>
     <hyperlink ref="D363" r:id="rId518"/>
+    <hyperlink ref="C364" r:id="rId519"/>
+    <hyperlink ref="D364" r:id="rId520"/>
+    <hyperlink ref="D365" r:id="rId521"/>
+    <hyperlink ref="C365" r:id="rId522"/>
+    <hyperlink ref="C366" r:id="rId523"/>
+    <hyperlink ref="D366" r:id="rId524"/>
+    <hyperlink ref="C367" r:id="rId525"/>
+    <hyperlink ref="D367" r:id="rId526"/>
+    <hyperlink ref="C368" r:id="rId527"/>
+    <hyperlink ref="D368" r:id="rId528"/>
+    <hyperlink ref="C369" r:id="rId529"/>
+    <hyperlink ref="D369" r:id="rId530"/>
+    <hyperlink ref="C370" r:id="rId531"/>
+    <hyperlink ref="D370" r:id="rId532"/>
+    <hyperlink ref="C371" r:id="rId533"/>
+    <hyperlink ref="D371" r:id="rId534"/>
+    <hyperlink ref="C373" r:id="rId535"/>
+    <hyperlink ref="D373" r:id="rId536"/>
+    <hyperlink ref="C374" r:id="rId537"/>
+    <hyperlink ref="D374" r:id="rId538"/>
+    <hyperlink ref="C372" r:id="rId539"/>
+    <hyperlink ref="D372" r:id="rId540"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId519"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId541"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7297" uniqueCount="1080">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="1084">
   <si>
     <t>TestCase</t>
   </si>
@@ -3301,6 +3301,18 @@
   </si>
   <si>
     <t>VerifyThatCreatedDateFilterIsWorking</t>
+  </si>
+  <si>
+    <t>Verify_That_Files_Can_Be_Associate_With_Avatar</t>
+  </si>
+  <si>
+    <t>VerifyThatFolderCanBeAssociateWithAvatar</t>
+  </si>
+  <si>
+    <t>Verify_That_Expert_Cards_Design_Are_Same</t>
+  </si>
+  <si>
+    <t>VerifyThatExpertCardsDesignAreSame</t>
   </si>
 </sst>
 </file>
@@ -4050,10 +4062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V198"/>
+  <dimension ref="A1:V200"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I192" workbookViewId="0">
-      <selection activeCell="M204" sqref="M204"/>
+    <sheetView topLeftCell="A194" workbookViewId="0">
+      <selection activeCell="H204" activeCellId="1" sqref="H200 H204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10718,6 +10730,76 @@
         <v>6</v>
       </c>
     </row>
+    <row r="199" spans="1:13" ht="28.8">
+      <c r="A199" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B199" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C199" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D199" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E199" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F199" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G199" s="31" t="s">
+        <v>95</v>
+      </c>
+      <c r="H199" s="31" t="s">
+        <v>142</v>
+      </c>
+      <c r="I199" s="31" t="s">
+        <v>816</v>
+      </c>
+      <c r="J199" s="31" t="s">
+        <v>883</v>
+      </c>
+      <c r="K199" s="31" t="s">
+        <v>884</v>
+      </c>
+      <c r="L199" s="7" t="s">
+        <v>1081</v>
+      </c>
+      <c r="M199" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="200" spans="1:13">
+      <c r="A200" s="31" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B200" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C200" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D200" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E200" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F200" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G200" s="31" t="s">
+        <v>1053</v>
+      </c>
+      <c r="H200" s="31" t="s">
+        <v>1083</v>
+      </c>
+      <c r="I200" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -10729,11 +10811,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC374"/>
+  <dimension ref="A1:AC376"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A367" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F372" sqref="F372"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F380" sqref="F380"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20157,6 +20239,40 @@
         <v>163</v>
       </c>
     </row>
+    <row r="375" spans="1:16" ht="28.8">
+      <c r="A375" s="7" t="s">
+        <v>1080</v>
+      </c>
+      <c r="B375" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C375" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D375" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E375" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="376" spans="1:16" ht="28.8">
+      <c r="A376" s="7" t="s">
+        <v>1082</v>
+      </c>
+      <c r="B376" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C376" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D376" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E376" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -20166,7 +20282,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E374">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E376">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20711,9 +20827,13 @@
     <hyperlink ref="D374" r:id="rId538"/>
     <hyperlink ref="C372" r:id="rId539"/>
     <hyperlink ref="D372" r:id="rId540"/>
+    <hyperlink ref="C375" r:id="rId541"/>
+    <hyperlink ref="D375" r:id="rId542"/>
+    <hyperlink ref="C376" r:id="rId543"/>
+    <hyperlink ref="D376" r:id="rId544"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId541"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId545"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7329" uniqueCount="1084">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7358" uniqueCount="1088">
   <si>
     <t>TestCase</t>
   </si>
@@ -3313,6 +3313,18 @@
   </si>
   <si>
     <t>VerifyThatExpertCardsDesignAreSame</t>
+  </si>
+  <si>
+    <t>What is the most common use of renewable energy in the mining industry</t>
+  </si>
+  <si>
+    <t>Verify_That_Summary_Content_Included_in_The_Top_Of_Answer</t>
+  </si>
+  <si>
+    <t>VerifyThatSummaryIsIncludedAtTheTopAnswer</t>
+  </si>
+  <si>
+    <t>Verify_That_Graph_View_Is_Display_On_The_Home_Page_For_Chinhook_Avatar</t>
   </si>
 </sst>
 </file>
@@ -4062,10 +4074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V200"/>
+  <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView topLeftCell="A194" workbookViewId="0">
-      <selection activeCell="H204" activeCellId="1" sqref="H200 H204"/>
+    <sheetView tabSelected="1" topLeftCell="F198" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -10800,6 +10812,64 @@
         <v>6</v>
       </c>
     </row>
+    <row r="201" spans="1:13" ht="28.8">
+      <c r="A201" s="7" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B201" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C201" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D201" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E201" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F201" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G201" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H201" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I201" s="7" t="s">
+        <v>1086</v>
+      </c>
+      <c r="J201" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="202" spans="1:13" ht="28.8">
+      <c r="A202" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B202" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C202" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D202" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E202" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F202" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G202" s="31" t="s">
+        <v>1051</v>
+      </c>
+      <c r="H202" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -10811,11 +10881,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC376"/>
+  <dimension ref="A1:AC378"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A370" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F380" sqref="F380"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E383" sqref="E383"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20273,6 +20343,43 @@
         <v>761</v>
       </c>
     </row>
+    <row r="377" spans="1:16" ht="43.8" customHeight="1">
+      <c r="A377" s="14" t="s">
+        <v>1085</v>
+      </c>
+      <c r="B377" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C377" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D377" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E377" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L377" s="7" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="378" spans="1:16" ht="28.8">
+      <c r="A378" s="7" t="s">
+        <v>1087</v>
+      </c>
+      <c r="B378" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C378" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D378" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E378" s="63" t="s">
+        <v>1036</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -20282,7 +20389,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E376">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E378">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20831,9 +20938,13 @@
     <hyperlink ref="D375" r:id="rId542"/>
     <hyperlink ref="C376" r:id="rId543"/>
     <hyperlink ref="D376" r:id="rId544"/>
+    <hyperlink ref="C377" r:id="rId545"/>
+    <hyperlink ref="D377" r:id="rId546"/>
+    <hyperlink ref="C378" r:id="rId547"/>
+    <hyperlink ref="D378" r:id="rId548"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId545"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId549"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7358" uniqueCount="1088">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="1089">
   <si>
     <t>TestCase</t>
   </si>
@@ -3325,6 +3325,9 @@
   </si>
   <si>
     <t>Verify_That_Graph_View_Is_Display_On_The_Home_Page_For_Chinhook_Avatar</t>
+  </si>
+  <si>
+    <t>VerifyTopicsAreStillUnderAllThemeIfWhenChangedchannels</t>
   </si>
 </sst>
 </file>
@@ -4076,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F198" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="F161" workbookViewId="0">
+      <selection activeCell="H173" sqref="H173"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4290,8 +4293,8 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="15.6" customHeight="1">
-      <c r="A7" s="48" t="s">
+    <row r="7" spans="1:19" ht="34.200000000000003" customHeight="1">
+      <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
       <c r="B7" s="7" t="s">
@@ -4407,7 +4410,7 @@
       <c r="D11" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="E11" s="31" t="s">
+      <c r="E11" s="7" t="s">
         <v>581</v>
       </c>
       <c r="F11" s="7" t="s">
@@ -4765,7 +4768,7 @@
         <v>561</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>611</v>
+        <v>1088</v>
       </c>
       <c r="H24" s="31" t="s">
         <v>6</v>
@@ -5540,7 +5543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="28.8">
+    <row r="49" spans="1:21" ht="28.8">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -5575,7 +5578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.8">
+    <row r="50" spans="1:21" ht="28.8">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -5631,7 +5634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.8">
+    <row r="51" spans="1:21" ht="28.8">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -5665,35 +5668,38 @@
       <c r="K51" s="9" t="s">
         <v>506</v>
       </c>
-      <c r="L51" s="31" t="s">
+      <c r="L51" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="M51" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="M51" s="31" t="s">
+      <c r="N51" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="N51" s="31" t="s">
+      <c r="O51" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="O51" s="31" t="s">
+      <c r="P51" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="P51" s="31" t="s">
+      <c r="Q51" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="Q51" s="31" t="s">
+      <c r="R51" s="31" t="s">
         <v>684</v>
       </c>
-      <c r="R51" s="56" t="s">
+      <c r="S51" s="56" t="s">
         <v>506</v>
       </c>
-      <c r="S51" s="7" t="s">
+      <c r="T51" s="7" t="s">
         <v>685</v>
       </c>
-      <c r="T51" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="52" spans="1:20" ht="28.8">
+      <c r="U51" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52" spans="1:21" ht="28.8">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -5755,7 +5761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="28.8">
+    <row r="53" spans="1:21" ht="28.8">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -5802,7 +5808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.8">
+    <row r="54" spans="1:21" ht="28.8">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -5834,7 +5840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="28.8">
+    <row r="55" spans="1:21" ht="28.8">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -5870,7 +5876,7 @@
       </c>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:20" ht="43.2">
+    <row r="56" spans="1:21" ht="43.2">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -5917,7 +5923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="28.8">
+    <row r="57" spans="1:21" ht="28.8">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -5949,7 +5955,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:20">
+    <row r="58" spans="1:21">
       <c r="A58" s="31" t="s">
         <v>701</v>
       </c>
@@ -5981,7 +5987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.8">
+    <row r="59" spans="1:21" ht="28.8">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -6013,7 +6019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="28.8">
+    <row r="60" spans="1:21" ht="28.8">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -6045,7 +6051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="28.8">
+    <row r="61" spans="1:21" ht="28.8">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -6077,7 +6083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.8">
+    <row r="62" spans="1:21" ht="28.8">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -6124,7 +6130,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="28.8">
+    <row r="63" spans="1:21" ht="28.8">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -6157,7 +6163,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:20" ht="28.8">
+    <row r="64" spans="1:21" ht="28.8">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7359" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7360" uniqueCount="1089">
   <si>
     <t>TestCase</t>
   </si>
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F161" workbookViewId="0">
-      <selection activeCell="H173" sqref="H173"/>
+    <sheetView tabSelected="1" topLeftCell="F136" workbookViewId="0">
+      <selection activeCell="I144" sqref="I144"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -5725,39 +5725,42 @@
         <v>44</v>
       </c>
       <c r="I52" s="31" t="s">
-        <v>672</v>
+        <v>993</v>
       </c>
       <c r="J52" s="31" t="s">
-        <v>807</v>
-      </c>
-      <c r="K52" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="K52" s="9" t="s">
+        <v>506</v>
+      </c>
+      <c r="L52" s="31" t="s">
         <v>812</v>
       </c>
-      <c r="L52" s="31" t="s">
+      <c r="M52" s="31" t="s">
         <v>528</v>
       </c>
-      <c r="M52" s="31" t="s">
+      <c r="N52" s="31" t="s">
         <v>676</v>
       </c>
-      <c r="N52" s="31" t="s">
+      <c r="O52" s="31" t="s">
         <v>677</v>
       </c>
-      <c r="O52" s="31" t="s">
+      <c r="P52" s="31" t="s">
         <v>683</v>
       </c>
-      <c r="P52" s="31" t="s">
+      <c r="Q52" s="31" t="s">
         <v>687</v>
       </c>
-      <c r="Q52" s="31" t="s">
+      <c r="R52" s="31" t="s">
         <v>688</v>
       </c>
-      <c r="R52" s="52" t="s">
+      <c r="S52" s="52" t="s">
         <v>506</v>
       </c>
-      <c r="S52" s="7" t="s">
+      <c r="T52" s="7" t="s">
         <v>689</v>
       </c>
-      <c r="T52" s="31" t="s">
+      <c r="U52" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10889,9 +10892,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC378"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A373" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E383" sqref="E383"/>
+    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M351" sqref="M351"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F136" workbookViewId="0">
-      <selection activeCell="I144" sqref="I144"/>
+    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
+      <selection activeCell="D162" sqref="D162"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7360" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7361" uniqueCount="1089">
   <si>
     <t>TestCase</t>
   </si>
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A154" workbookViewId="0">
-      <selection activeCell="D162" sqref="D162"/>
+    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8569,15 +8569,18 @@
         <v>37</v>
       </c>
       <c r="E130" s="31" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="F130" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G130" s="31" t="s">
         <v>562</v>
       </c>
-      <c r="G130" s="31" t="s">
+      <c r="H130" s="31" t="s">
         <v>902</v>
       </c>
-      <c r="H130" s="31" t="s">
+      <c r="I130" s="31" t="s">
         <v>6</v>
       </c>
     </row>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7361" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="1089">
   <si>
     <t>TestCase</t>
   </si>
@@ -4079,8 +4079,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G18" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
+      <selection activeCell="I45" sqref="I45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4657,15 +4657,18 @@
         <v>559</v>
       </c>
       <c r="F20" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G20" s="31" t="s">
         <v>756</v>
       </c>
-      <c r="G20" s="31" t="s">
+      <c r="H20" s="31" t="s">
         <v>731</v>
       </c>
-      <c r="H20" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="I20" s="7"/>
+      <c r="I20" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="J20" s="7"/>
     </row>
     <row r="21" spans="1:12" ht="28.8" customHeight="1">
       <c r="A21" s="14" t="s">

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STELCO\Desktop\Nesh_Automation\automationtests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -18,7 +13,7 @@
     <sheet name="TestCases" sheetId="3" r:id="rId4"/>
     <sheet name="NewTestCases (backupfile)" sheetId="9" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4069,7 +4064,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4079,35 +4074,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V202"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F38" workbookViewId="0">
-      <selection activeCell="I45" sqref="I45"/>
+    <sheetView tabSelected="1" topLeftCell="I120" workbookViewId="0">
+      <selection activeCell="K126" sqref="K126"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.77734375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.21875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.77734375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.21875" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.21875" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="31"/>
+    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4165,7 +4160,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
+    <row r="3" spans="1:19" ht="34.9" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -4197,7 +4192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -4229,7 +4224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1">
+    <row r="5" spans="1:19" ht="37.9" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -4261,7 +4256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.8" customHeight="1">
+    <row r="6" spans="1:19" ht="31.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -4293,7 +4288,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34.200000000000003" customHeight="1">
+    <row r="7" spans="1:19" ht="34.15" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
@@ -4339,7 +4334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -4371,7 +4366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -4397,7 +4392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -4449,7 +4444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -4495,7 +4490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.8">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -4524,7 +4519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -4582,7 +4577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -4608,7 +4603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -4640,7 +4635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -4670,7 +4665,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="28.8" customHeight="1">
+    <row r="21" spans="1:12" ht="28.9" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>602</v>
       </c>
@@ -4702,7 +4697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.8">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -4722,7 +4717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="43.2">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -4751,7 +4746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -4777,7 +4772,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8">
+    <row r="25" spans="1:12" ht="30">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -4803,7 +4798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.8">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -4835,7 +4830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8">
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -4867,7 +4862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8">
+    <row r="28" spans="1:12" ht="30">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -4905,7 +4900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8">
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -4938,7 +4933,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="28.8">
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -5028,7 +5023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -5048,7 +5043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8">
+    <row r="34" spans="1:15" ht="30">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -5080,7 +5075,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8">
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -5112,7 +5107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8">
+    <row r="36" spans="1:15" ht="30">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -5144,7 +5139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="28.8">
+    <row r="37" spans="1:15" ht="30">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -5176,7 +5171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8">
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -5208,7 +5203,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8">
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -5243,7 +5238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8">
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -5275,7 +5270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8">
+    <row r="41" spans="1:15" ht="30">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -5310,7 +5305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8">
+    <row r="42" spans="1:15" ht="30">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -5342,7 +5337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8">
+    <row r="43" spans="1:15" ht="30">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -5374,7 +5369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8">
+    <row r="44" spans="1:15" ht="30">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -5400,7 +5395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.8">
+    <row r="45" spans="1:15" ht="30">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -5435,7 +5430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8">
+    <row r="46" spans="1:15" ht="30">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -5467,7 +5462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8">
+    <row r="47" spans="1:15" ht="30">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -5499,7 +5494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8">
+    <row r="48" spans="1:15" ht="30">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -5546,7 +5541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="28.8">
+    <row r="49" spans="1:21" ht="30">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -5581,7 +5576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28.8">
+    <row r="50" spans="1:21" ht="30">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -5637,7 +5632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="28.8">
+    <row r="51" spans="1:21" ht="30">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -5702,7 +5697,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="28.8">
+    <row r="52" spans="1:21" ht="30">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -5767,7 +5762,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="28.8">
+    <row r="53" spans="1:21" ht="30">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -5814,7 +5809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8">
+    <row r="54" spans="1:21" ht="30">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -5846,7 +5841,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.8">
+    <row r="55" spans="1:21" ht="30">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -5882,7 +5877,7 @@
       </c>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:21" ht="43.2">
+    <row r="56" spans="1:21" ht="45">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -5929,7 +5924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="28.8">
+    <row r="57" spans="1:21" ht="30">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -5993,7 +5988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="28.8">
+    <row r="59" spans="1:21" ht="30">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -6025,7 +6020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="28.8">
+    <row r="60" spans="1:21" ht="30">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -6057,7 +6052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="28.8">
+    <row r="61" spans="1:21" ht="30">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -6089,7 +6084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="28.8">
+    <row r="62" spans="1:21" ht="30">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -6136,7 +6131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="28.8">
+    <row r="63" spans="1:21" ht="30">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -6169,7 +6164,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:21" ht="28.8">
+    <row r="64" spans="1:21" ht="30">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -6233,7 +6228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="28.8">
+    <row r="66" spans="1:15" ht="30">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -6253,7 +6248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="28.8">
+    <row r="67" spans="1:15" ht="30">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -6285,7 +6280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="28.8">
+    <row r="68" spans="1:15" ht="30">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -6317,7 +6312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="28.8">
+    <row r="69" spans="1:15" ht="30">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -6358,7 +6353,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="43.2">
+    <row r="70" spans="1:15" ht="45">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -6405,7 +6400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="28.8">
+    <row r="71" spans="1:15" ht="30">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -6437,7 +6432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="28.8">
+    <row r="72" spans="1:15" ht="30">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -6507,7 +6502,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="28.8">
+    <row r="74" spans="1:15" ht="30">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -6542,7 +6537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="28.8">
+    <row r="75" spans="1:15" ht="30">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -6574,7 +6569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="28.8">
+    <row r="76" spans="1:15" ht="30">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -6638,7 +6633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="28.8">
+    <row r="78" spans="1:15" ht="45">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -6682,7 +6677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="28.8">
+    <row r="79" spans="1:15" ht="30">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -6717,7 +6712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="28.8">
+    <row r="80" spans="1:15" ht="30">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -6758,7 +6753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="28.8">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -6799,7 +6794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="43.2">
+    <row r="82" spans="1:16" ht="45">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -6834,7 +6829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="28.8">
+    <row r="83" spans="1:16" ht="30">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -6875,7 +6870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8">
+    <row r="84" spans="1:16" ht="30">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -6916,7 +6911,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="43.2">
+    <row r="85" spans="1:16" ht="45">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -6952,7 +6947,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="28.8">
+    <row r="86" spans="1:16" ht="30">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -6987,7 +6982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="28.8">
+    <row r="87" spans="1:16" ht="30">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -7022,7 +7017,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="28.8">
+    <row r="88" spans="1:16" ht="30">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -7057,7 +7052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="28.8">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -7086,7 +7081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="28.8">
+    <row r="90" spans="1:16" ht="30">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -7115,7 +7110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="28.8">
+    <row r="91" spans="1:16" ht="45">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -7194,7 +7189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="43.2">
+    <row r="93" spans="1:16" ht="45">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -7244,7 +7239,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="28.8">
+    <row r="94" spans="1:16" ht="45">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -7294,7 +7289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="28.8">
+    <row r="95" spans="1:16" ht="45">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -7344,7 +7339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="28.8">
+    <row r="96" spans="1:16" ht="30">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -7379,7 +7374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28.8">
+    <row r="97" spans="1:13" ht="30">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -7414,7 +7409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.8">
+    <row r="98" spans="1:13" ht="30">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -7449,7 +7444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8">
+    <row r="99" spans="1:13" ht="30">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -7525,7 +7520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8">
+    <row r="101" spans="1:13" ht="30">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -7545,7 +7540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="28.8">
+    <row r="102" spans="1:13" ht="30">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -7577,7 +7572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="28.8">
+    <row r="103" spans="1:13" ht="30">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -7615,7 +7610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.8">
+    <row r="104" spans="1:13" ht="45">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -7656,7 +7651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="28.8">
+    <row r="105" spans="1:13" ht="30">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -7729,7 +7724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.8">
+    <row r="107" spans="1:13" ht="30">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -7758,7 +7753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.8">
+    <row r="108" spans="1:13" ht="30">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -7848,7 +7843,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="28.8">
+    <row r="111" spans="1:13" ht="30">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -7883,7 +7878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="28.8">
+    <row r="112" spans="1:13" ht="30">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -7915,7 +7910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="28.8">
+    <row r="113" spans="1:22" ht="30">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -7947,7 +7942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="43.2">
+    <row r="114" spans="1:22" ht="45">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -7979,7 +7974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.2" customHeight="1">
+    <row r="115" spans="1:22" ht="43.15" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -8047,7 +8042,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="28.8">
+    <row r="116" spans="1:22" ht="30">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -8082,7 +8077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="28.8">
+    <row r="117" spans="1:22" ht="30">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -8123,7 +8118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="28.8">
+    <row r="118" spans="1:22" ht="30">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -8155,7 +8150,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="28.8">
+    <row r="119" spans="1:22" ht="30">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -8196,7 +8191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="28.8">
+    <row r="120" spans="1:22" ht="30">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -8231,7 +8226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="43.2">
+    <row r="121" spans="1:22" ht="60">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -8304,7 +8299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="28.8">
+    <row r="123" spans="1:22" ht="30">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -8348,7 +8343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="28.8">
+    <row r="124" spans="1:22" ht="30">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -8418,7 +8413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="28.8">
+    <row r="126" spans="1:22" ht="30">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -8526,7 +8521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="28.8">
+    <row r="129" spans="1:13" ht="30">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -8587,7 +8582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.8">
+    <row r="131" spans="1:13" ht="30">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -8639,7 +8634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28.8">
+    <row r="133" spans="1:13" ht="30">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -8671,7 +8666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.8">
+    <row r="134" spans="1:13" ht="30">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -8703,7 +8698,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="28.8">
+    <row r="135" spans="1:13" ht="30">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -8776,7 +8771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.8">
+    <row r="137" spans="1:13" ht="30">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -8799,7 +8794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.8">
+    <row r="138" spans="1:13" ht="30">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -8825,7 +8820,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.8">
+    <row r="139" spans="1:13" ht="45">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -8866,7 +8861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.8">
+    <row r="140" spans="1:13" ht="30">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -8895,7 +8890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="28.8">
+    <row r="141" spans="1:13" ht="30">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -8924,7 +8919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28.8">
+    <row r="142" spans="1:13" ht="30">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -8956,7 +8951,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="28.8">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -9017,7 +9012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="28.8">
+    <row r="145" spans="1:14" ht="30">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -9046,7 +9041,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="28.8">
+    <row r="146" spans="1:14" ht="30">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -9081,7 +9076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="28.8">
+    <row r="147" spans="1:14" ht="30">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -9116,7 +9111,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="28.8">
+    <row r="148" spans="1:14" ht="30">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -9160,7 +9155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="28.8">
+    <row r="149" spans="1:14" ht="45">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -9212,7 +9207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" ht="30">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -9235,7 +9230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="28.8">
+    <row r="152" spans="1:14" ht="30">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -9267,7 +9262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="28.8">
+    <row r="153" spans="1:14" ht="30">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -9287,7 +9282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="28.8">
+    <row r="154" spans="1:14" ht="30">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -9316,7 +9311,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="28.8">
+    <row r="155" spans="1:14" ht="30">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -9345,7 +9340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="28.8">
+    <row r="156" spans="1:14" ht="30">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -9377,7 +9372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="28.8">
+    <row r="157" spans="1:14" ht="30">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -9409,7 +9404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="28.8">
+    <row r="158" spans="1:14" ht="30">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -9476,7 +9471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="28.8">
+    <row r="160" spans="1:14" ht="30">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -9511,7 +9506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8">
+    <row r="161" spans="1:19" ht="30">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -9543,7 +9538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.8">
+    <row r="162" spans="1:19" ht="30">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -9578,7 +9573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="28.8">
+    <row r="163" spans="1:19" ht="30">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -9610,7 +9605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="28.8">
+    <row r="164" spans="1:19" ht="30">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -9642,7 +9637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" ht="30">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -9683,7 +9678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="28.8">
+    <row r="166" spans="1:19" ht="30">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>
@@ -9850,7 +9845,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="28.8">
+    <row r="170" spans="1:19" ht="30">
       <c r="A170" s="7" t="s">
         <v>1005</v>
       </c>
@@ -9882,7 +9877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="28.8">
+    <row r="171" spans="1:19" ht="45">
       <c r="A171" s="7" t="s">
         <v>1007</v>
       </c>
@@ -9961,7 +9956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="28.8">
+    <row r="173" spans="1:19" ht="30">
       <c r="A173" s="7" t="s">
         <v>1016</v>
       </c>
@@ -9993,7 +9988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="28.8">
+    <row r="174" spans="1:19" ht="30">
       <c r="A174" s="7" t="s">
         <v>1019</v>
       </c>
@@ -10025,7 +10020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="28.8">
+    <row r="175" spans="1:19" ht="30">
       <c r="A175" s="7" t="s">
         <v>1022</v>
       </c>
@@ -10098,7 +10093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="28.8">
+    <row r="177" spans="1:11" ht="30">
       <c r="A177" s="7" t="s">
         <v>1020</v>
       </c>
@@ -10162,7 +10157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="28.8">
+    <row r="179" spans="1:11" ht="30">
       <c r="A179" s="7" t="s">
         <v>1028</v>
       </c>
@@ -10191,7 +10186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="28.8">
+    <row r="180" spans="1:11" ht="30">
       <c r="A180" s="7" t="s">
         <v>1030</v>
       </c>
@@ -10211,7 +10206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="28.8">
+    <row r="181" spans="1:11" ht="30">
       <c r="A181" s="7" t="s">
         <v>1032</v>
       </c>
@@ -10243,7 +10238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="28.8">
+    <row r="182" spans="1:11" ht="30">
       <c r="A182" s="7" t="s">
         <v>1035</v>
       </c>
@@ -10301,7 +10296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="43.2">
+    <row r="184" spans="1:11" ht="45">
       <c r="A184" s="7" t="s">
         <v>1046</v>
       </c>
@@ -10327,7 +10322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="28.8">
+    <row r="185" spans="1:11" ht="30">
       <c r="A185" s="7" t="s">
         <v>1041</v>
       </c>
@@ -10397,7 +10392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="28.8">
+    <row r="187" spans="1:11" ht="30">
       <c r="A187" s="7" t="s">
         <v>1050</v>
       </c>
@@ -10423,7 +10418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="28.8">
+    <row r="188" spans="1:11" ht="30">
       <c r="A188" s="7" t="s">
         <v>1052</v>
       </c>
@@ -10452,7 +10447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="28.8">
+    <row r="189" spans="1:11" ht="30">
       <c r="A189" s="7" t="s">
         <v>1055</v>
       </c>
@@ -10481,7 +10476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="28.8">
+    <row r="190" spans="1:11" ht="30">
       <c r="A190" s="7" t="s">
         <v>1057</v>
       </c>
@@ -10545,7 +10540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="28.8">
+    <row r="192" spans="1:11" ht="45">
       <c r="A192" s="7" t="s">
         <v>1061</v>
       </c>
@@ -10574,7 +10569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="28.8">
+    <row r="193" spans="1:13" ht="30">
       <c r="A193" s="7" t="s">
         <v>1063</v>
       </c>
@@ -10615,7 +10610,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="28.8">
+    <row r="194" spans="1:13" ht="30">
       <c r="A194" s="7" t="s">
         <v>1067</v>
       </c>
@@ -10641,7 +10636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="43.2">
+    <row r="195" spans="1:13" ht="45">
       <c r="A195" s="7" t="s">
         <v>1069</v>
       </c>
@@ -10667,7 +10662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="43.2">
+    <row r="196" spans="1:13" ht="45">
       <c r="A196" s="7" t="s">
         <v>1075</v>
       </c>
@@ -10705,7 +10700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="28.8">
+    <row r="197" spans="1:13" ht="45">
       <c r="A197" s="7" t="s">
         <v>1071</v>
       </c>
@@ -10722,7 +10717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="28.8">
+    <row r="198" spans="1:13" ht="30">
       <c r="A198" s="7" t="s">
         <v>1073</v>
       </c>
@@ -10757,7 +10752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="28.8">
+    <row r="199" spans="1:13" ht="30">
       <c r="A199" s="31" t="s">
         <v>1080</v>
       </c>
@@ -10827,7 +10822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="28.8">
+    <row r="201" spans="1:13" ht="30">
       <c r="A201" s="7" t="s">
         <v>1085</v>
       </c>
@@ -10859,7 +10854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="28.8">
+    <row r="202" spans="1:13" ht="30">
       <c r="A202" s="7" t="s">
         <v>1087</v>
       </c>
@@ -10903,30 +10898,30 @@
       <selection pane="bottomLeft" activeCell="M351" sqref="M351"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="26" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.88671875" customWidth="1"/>
-    <col min="13" max="13" width="46.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="46.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="37.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
@@ -11019,7 +11014,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:29" ht="28.8">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -11071,7 +11066,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:29" ht="28.8">
+    <row r="5" spans="1:29" ht="30">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -11123,7 +11118,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="30">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -11149,7 +11144,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="28.8">
+    <row r="8" spans="1:29" ht="30">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
@@ -11175,7 +11170,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8">
+    <row r="9" spans="1:29" ht="30">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
@@ -11201,7 +11196,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="30">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -11227,7 +11222,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="28.8">
+    <row r="11" spans="1:29" ht="30">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -11323,7 +11318,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="28.8">
+    <row r="15" spans="1:29" ht="30">
       <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
@@ -11349,7 +11344,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="28.8">
+    <row r="16" spans="1:29" ht="30">
       <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
@@ -11371,7 +11366,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="28.8">
+    <row r="17" spans="1:16" ht="30">
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11393,7 +11388,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="28.8">
+    <row r="18" spans="1:16" ht="30">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -11425,7 +11420,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:16" ht="28.8">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -11447,7 +11442,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:16" ht="28.8">
+    <row r="20" spans="1:16" ht="30">
       <c r="A20" s="14" t="s">
         <v>83</v>
       </c>
@@ -11471,7 +11466,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:16" ht="28.8">
+    <row r="21" spans="1:16" ht="30">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -11495,7 +11490,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:16" ht="28.8">
+    <row r="22" spans="1:16" ht="45">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -11595,7 +11590,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A26" s="14" t="s">
         <v>266</v>
       </c>
@@ -11621,7 +11616,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A27" s="14" t="s">
         <v>280</v>
       </c>
@@ -11647,7 +11642,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="28.8">
+    <row r="28" spans="1:16" ht="30">
       <c r="A28" s="18" t="s">
         <v>100</v>
       </c>
@@ -11675,7 +11670,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A29" s="14" t="s">
         <v>407</v>
       </c>
@@ -11703,7 +11698,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:16" ht="28.8">
+    <row r="30" spans="1:16" ht="30">
       <c r="A30" s="14" t="s">
         <v>105</v>
       </c>
@@ -11729,7 +11724,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A31" s="14" t="s">
         <v>409</v>
       </c>
@@ -11757,7 +11752,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:16" ht="28.8">
+    <row r="32" spans="1:16" ht="30">
       <c r="A32" s="14" t="s">
         <v>107</v>
       </c>
@@ -11783,7 +11778,7 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="1:16" ht="28.8">
+    <row r="33" spans="1:16" ht="30">
       <c r="A33" s="14" t="s">
         <v>110</v>
       </c>
@@ -11967,7 +11962,7 @@
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" spans="1:16" ht="28.8">
+    <row r="40" spans="1:16" ht="30">
       <c r="A40" s="14" t="s">
         <v>132</v>
       </c>
@@ -12097,7 +12092,7 @@
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" spans="1:16" ht="28.8">
+    <row r="45" spans="1:16" ht="30">
       <c r="A45" s="14" t="s">
         <v>147</v>
       </c>
@@ -12201,7 +12196,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" spans="1:16" ht="28.8">
+    <row r="49" spans="1:16" ht="30">
       <c r="A49" s="14" t="s">
         <v>158</v>
       </c>
@@ -12227,7 +12222,7 @@
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" ht="30">
       <c r="A50" s="18" t="s">
         <v>160</v>
       </c>
@@ -12281,7 +12276,7 @@
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" spans="1:16" ht="28.8">
+    <row r="52" spans="1:16" ht="30">
       <c r="A52" s="14" t="s">
         <v>170</v>
       </c>
@@ -12333,7 +12328,7 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" spans="1:16" ht="28.8">
+    <row r="54" spans="1:16" ht="30">
       <c r="A54" s="14" t="s">
         <v>175</v>
       </c>
@@ -12385,7 +12380,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
     </row>
-    <row r="56" spans="1:16" ht="28.8">
+    <row r="56" spans="1:16" ht="30">
       <c r="A56" s="14" t="s">
         <v>181</v>
       </c>
@@ -12517,7 +12512,7 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
     </row>
-    <row r="61" spans="1:16" ht="28.8">
+    <row r="61" spans="1:16" ht="30">
       <c r="A61" s="14" t="s">
         <v>193</v>
       </c>
@@ -12543,7 +12538,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
     </row>
-    <row r="62" spans="1:16" ht="28.8">
+    <row r="62" spans="1:16" ht="30">
       <c r="A62" s="14" t="s">
         <v>195</v>
       </c>
@@ -12569,7 +12564,7 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
     </row>
-    <row r="63" spans="1:16" ht="28.8">
+    <row r="63" spans="1:16" ht="30">
       <c r="A63" s="14" t="s">
         <v>199</v>
       </c>
@@ -12595,7 +12590,7 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
     </row>
-    <row r="64" spans="1:16" ht="28.8">
+    <row r="64" spans="1:16" ht="30">
       <c r="A64" s="14" t="s">
         <v>202</v>
       </c>
@@ -12699,7 +12694,7 @@
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
     </row>
-    <row r="68" spans="1:16" ht="28.8">
+    <row r="68" spans="1:16" ht="30">
       <c r="A68" s="14" t="s">
         <v>213</v>
       </c>
@@ -12725,7 +12720,7 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="28.8">
+    <row r="69" spans="1:16" ht="30">
       <c r="A69" s="14" t="s">
         <v>220</v>
       </c>
@@ -12777,7 +12772,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
     </row>
-    <row r="71" spans="1:16" ht="28.8">
+    <row r="71" spans="1:16" ht="30">
       <c r="A71" s="14" t="s">
         <v>224</v>
       </c>
@@ -12805,7 +12800,7 @@
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
     </row>
-    <row r="72" spans="1:16" ht="28.8">
+    <row r="72" spans="1:16" ht="30">
       <c r="A72" s="14" t="s">
         <v>226</v>
       </c>
@@ -12833,7 +12828,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:16" ht="28.8">
+    <row r="73" spans="1:16" ht="30">
       <c r="A73" s="14" t="s">
         <v>230</v>
       </c>
@@ -12861,7 +12856,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="28.8">
+    <row r="74" spans="1:16" ht="30">
       <c r="A74" s="14" t="s">
         <v>234</v>
       </c>
@@ -12889,7 +12884,7 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A75" s="14" t="s">
         <v>251</v>
       </c>
@@ -12917,7 +12912,7 @@
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" ht="30">
       <c r="A76" s="14" t="s">
         <v>272</v>
       </c>
@@ -12945,7 +12940,7 @@
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:16" ht="28.8">
+    <row r="77" spans="1:16" ht="30">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -12975,7 +12970,7 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:16" ht="28.8">
+    <row r="78" spans="1:16" ht="30">
       <c r="A78" s="14" t="s">
         <v>247</v>
       </c>
@@ -13003,7 +12998,7 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:16" ht="28.8">
+    <row r="79" spans="1:16" ht="30">
       <c r="A79" s="14" t="s">
         <v>253</v>
       </c>
@@ -13031,7 +13026,7 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:16" ht="28.8">
+    <row r="80" spans="1:16" ht="30">
       <c r="A80" s="14" t="s">
         <v>255</v>
       </c>
@@ -13059,7 +13054,7 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="28.8">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="14" t="s">
         <v>259</v>
       </c>
@@ -13087,7 +13082,7 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="28.8">
+    <row r="82" spans="1:16" ht="30">
       <c r="A82" s="14" t="s">
         <v>262</v>
       </c>
@@ -13115,7 +13110,7 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="28.8">
+    <row r="83" spans="1:16" ht="30">
       <c r="A83" s="14" t="s">
         <v>268</v>
       </c>
@@ -13169,7 +13164,7 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
     </row>
-    <row r="85" spans="1:16" ht="28.8">
+    <row r="85" spans="1:16" ht="30">
       <c r="A85" s="14" t="s">
         <v>278</v>
       </c>
@@ -13195,7 +13190,7 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
     </row>
-    <row r="86" spans="1:16" ht="28.8">
+    <row r="86" spans="1:16" ht="30">
       <c r="A86" s="18" t="s">
         <v>283</v>
       </c>
@@ -13223,7 +13218,7 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
     </row>
-    <row r="87" spans="1:16" ht="28.8">
+    <row r="87" spans="1:16" ht="30">
       <c r="A87" s="18" t="s">
         <v>286</v>
       </c>
@@ -13251,7 +13246,7 @@
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
     </row>
-    <row r="88" spans="1:16" ht="28.8">
+    <row r="88" spans="1:16" ht="30">
       <c r="A88" s="14" t="s">
         <v>289</v>
       </c>
@@ -13279,7 +13274,7 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="1:16" ht="28.8">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89" s="14" t="s">
         <v>293</v>
       </c>
@@ -13307,7 +13302,7 @@
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
     </row>
-    <row r="90" spans="1:16" ht="28.8">
+    <row r="90" spans="1:16" ht="30">
       <c r="A90" s="18" t="s">
         <v>295</v>
       </c>
@@ -13335,7 +13330,7 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
     </row>
-    <row r="91" spans="1:16" ht="43.2">
+    <row r="91" spans="1:16" ht="60">
       <c r="A91" s="18" t="s">
         <v>297</v>
       </c>
@@ -13363,7 +13358,7 @@
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
     </row>
-    <row r="92" spans="1:16" ht="43.2">
+    <row r="92" spans="1:16" ht="45">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -13391,7 +13386,7 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
     </row>
-    <row r="93" spans="1:16" ht="28.8">
+    <row r="93" spans="1:16" ht="30">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -13419,7 +13414,7 @@
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
     </row>
-    <row r="94" spans="1:16" ht="28.8">
+    <row r="94" spans="1:16" ht="45">
       <c r="A94" s="14" t="s">
         <v>303</v>
       </c>
@@ -13447,7 +13442,7 @@
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
     </row>
-    <row r="95" spans="1:16" ht="28.8">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95" s="14" t="s">
         <v>305</v>
       </c>
@@ -13475,7 +13470,7 @@
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
     </row>
-    <row r="96" spans="1:16" ht="43.2">
+    <row r="96" spans="1:16" ht="45">
       <c r="A96" s="14" t="s">
         <v>308</v>
       </c>
@@ -13503,7 +13498,7 @@
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
     </row>
-    <row r="97" spans="1:16" ht="43.2">
+    <row r="97" spans="1:16" ht="45">
       <c r="A97" s="14" t="s">
         <v>310</v>
       </c>
@@ -13531,7 +13526,7 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="98" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A98" s="14" t="s">
         <v>327</v>
       </c>
@@ -13559,7 +13554,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="1:16" ht="43.2">
+    <row r="99" spans="1:16" ht="45">
       <c r="A99" s="14" t="s">
         <v>313</v>
       </c>
@@ -13587,7 +13582,7 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="1:16" ht="43.2">
+    <row r="100" spans="1:16" ht="45">
       <c r="A100" s="14" t="s">
         <v>315</v>
       </c>
@@ -13615,7 +13610,7 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="101" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A101" s="14" t="s">
         <v>330</v>
       </c>
@@ -13643,7 +13638,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="1:16" ht="28.8">
+    <row r="102" spans="1:16" ht="45">
       <c r="A102" s="14" t="s">
         <v>318</v>
       </c>
@@ -13671,7 +13666,7 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="1:16" ht="28.8">
+    <row r="103" spans="1:16" ht="30">
       <c r="A103" s="14" t="s">
         <v>321</v>
       </c>
@@ -13699,7 +13694,7 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="104" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A104" s="14" t="s">
         <v>332</v>
       </c>
@@ -13727,7 +13722,7 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="1:16" ht="28.8">
+    <row r="105" spans="1:16" ht="30">
       <c r="A105" s="14" t="s">
         <v>324</v>
       </c>
@@ -13755,7 +13750,7 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="1:16" ht="28.8">
+    <row r="106" spans="1:16" ht="30">
       <c r="A106" s="14" t="s">
         <v>334</v>
       </c>
@@ -13781,7 +13776,7 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="1:16" ht="43.2">
+    <row r="107" spans="1:16" ht="45">
       <c r="A107" s="14" t="s">
         <v>336</v>
       </c>
@@ -13809,7 +13804,7 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="1:16" ht="43.2">
+    <row r="108" spans="1:16" ht="45">
       <c r="A108" s="14" t="s">
         <v>340</v>
       </c>
@@ -13837,7 +13832,7 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="1:16" ht="28.8">
+    <row r="109" spans="1:16" ht="30">
       <c r="A109" s="14" t="s">
         <v>344</v>
       </c>
@@ -13865,7 +13860,7 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="1:16" ht="28.8">
+    <row r="110" spans="1:16" ht="30">
       <c r="A110" s="14" t="s">
         <v>350</v>
       </c>
@@ -13893,7 +13888,7 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="1:16" ht="28.8">
+    <row r="111" spans="1:16" ht="30">
       <c r="A111" s="14" t="s">
         <v>351</v>
       </c>
@@ -13921,7 +13916,7 @@
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
     </row>
-    <row r="112" spans="1:16" ht="28.8">
+    <row r="112" spans="1:16" ht="30">
       <c r="A112" s="14" t="s">
         <v>354</v>
       </c>
@@ -13949,7 +13944,7 @@
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
     </row>
-    <row r="113" spans="1:16" ht="28.8">
+    <row r="113" spans="1:16" ht="30">
       <c r="A113" s="14" t="s">
         <v>359</v>
       </c>
@@ -13977,7 +13972,7 @@
       <c r="O113" s="18"/>
       <c r="P113" s="18"/>
     </row>
-    <row r="114" spans="1:16" ht="28.8">
+    <row r="114" spans="1:16" ht="30">
       <c r="A114" s="14" t="s">
         <v>360</v>
       </c>
@@ -14005,7 +14000,7 @@
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
     </row>
-    <row r="115" spans="1:16" ht="43.2">
+    <row r="115" spans="1:16" ht="45">
       <c r="A115" s="14" t="s">
         <v>362</v>
       </c>
@@ -14033,7 +14028,7 @@
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
     </row>
-    <row r="116" spans="1:16" ht="43.2">
+    <row r="116" spans="1:16" ht="45">
       <c r="A116" s="14" t="s">
         <v>364</v>
       </c>
@@ -14061,7 +14056,7 @@
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
     </row>
-    <row r="117" spans="1:16" ht="28.8">
+    <row r="117" spans="1:16" ht="30">
       <c r="A117" s="14" t="s">
         <v>367</v>
       </c>
@@ -14087,7 +14082,7 @@
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
     </row>
-    <row r="118" spans="1:16" ht="28.8">
+    <row r="118" spans="1:16" ht="30">
       <c r="A118" s="18" t="s">
         <v>370</v>
       </c>
@@ -14115,7 +14110,7 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="1:16" ht="28.8">
+    <row r="119" spans="1:16" ht="30">
       <c r="A119" s="18" t="s">
         <v>375</v>
       </c>
@@ -14143,7 +14138,7 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="1:16" ht="43.2">
+    <row r="120" spans="1:16" ht="45">
       <c r="A120" s="14" t="s">
         <v>382</v>
       </c>
@@ -14171,7 +14166,7 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="1:16" ht="28.8">
+    <row r="121" spans="1:16" ht="45">
       <c r="A121" s="14" t="s">
         <v>384</v>
       </c>
@@ -14199,7 +14194,7 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="1:16" ht="28.8">
+    <row r="122" spans="1:16" ht="30">
       <c r="A122" s="17" t="s">
         <v>387</v>
       </c>
@@ -14225,7 +14220,7 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="1:16" ht="28.8">
+    <row r="123" spans="1:16" ht="30">
       <c r="A123" s="14" t="s">
         <v>389</v>
       </c>
@@ -14251,7 +14246,7 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="1:16" ht="28.8">
+    <row r="124" spans="1:16" ht="30">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -14279,7 +14274,7 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="1:16" ht="28.8">
+    <row r="125" spans="1:16" ht="30">
       <c r="A125" s="14" t="s">
         <v>399</v>
       </c>
@@ -14307,7 +14302,7 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="1:16" ht="28.8">
+    <row r="126" spans="1:16" ht="30">
       <c r="A126" s="14" t="s">
         <v>402</v>
       </c>
@@ -14335,7 +14330,7 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="1:16" ht="28.8">
+    <row r="127" spans="1:16" ht="30">
       <c r="A127" s="14" t="s">
         <v>411</v>
       </c>
@@ -14363,7 +14358,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="1:16" ht="28.8">
+    <row r="128" spans="1:16" ht="45">
       <c r="A128" s="14" t="s">
         <v>414</v>
       </c>
@@ -14391,7 +14386,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="1:16" ht="28.8">
+    <row r="129" spans="1:16" ht="30">
       <c r="A129" s="14" t="s">
         <v>417</v>
       </c>
@@ -14419,7 +14414,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="1:16" ht="28.8">
+    <row r="130" spans="1:16" ht="45">
       <c r="A130" s="14" t="s">
         <v>419</v>
       </c>
@@ -14447,7 +14442,7 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
-    <row r="131" spans="1:16" ht="28.8">
+    <row r="131" spans="1:16" ht="30">
       <c r="A131" s="14" t="s">
         <v>420</v>
       </c>
@@ -14475,7 +14470,7 @@
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
     </row>
-    <row r="132" spans="1:16" ht="43.2">
+    <row r="132" spans="1:16" ht="45">
       <c r="A132" s="14" t="s">
         <v>422</v>
       </c>
@@ -14503,7 +14498,7 @@
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
     </row>
-    <row r="133" spans="1:16" ht="28.8">
+    <row r="133" spans="1:16" ht="30">
       <c r="A133" s="14" t="s">
         <v>424</v>
       </c>
@@ -14529,7 +14524,7 @@
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
     </row>
-    <row r="134" spans="1:16" ht="28.8">
+    <row r="134" spans="1:16" ht="30">
       <c r="A134" s="14" t="s">
         <v>426</v>
       </c>
@@ -14557,7 +14552,7 @@
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
     </row>
-    <row r="135" spans="1:16" ht="28.8">
+    <row r="135" spans="1:16" ht="45">
       <c r="A135" s="14" t="s">
         <v>429</v>
       </c>
@@ -14585,7 +14580,7 @@
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
     </row>
-    <row r="136" spans="1:16" ht="43.2">
+    <row r="136" spans="1:16" ht="45">
       <c r="A136" s="14" t="s">
         <v>433</v>
       </c>
@@ -14613,7 +14608,7 @@
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
     </row>
-    <row r="137" spans="1:16" ht="43.2">
+    <row r="137" spans="1:16" ht="45">
       <c r="A137" s="14" t="s">
         <v>436</v>
       </c>
@@ -14641,7 +14636,7 @@
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
     </row>
-    <row r="138" spans="1:16" ht="43.2">
+    <row r="138" spans="1:16" ht="45">
       <c r="A138" s="14" t="s">
         <v>439</v>
       </c>
@@ -14669,7 +14664,7 @@
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
     </row>
-    <row r="139" spans="1:16" ht="28.8">
+    <row r="139" spans="1:16" ht="30">
       <c r="A139" s="14" t="s">
         <v>441</v>
       </c>
@@ -14723,7 +14718,7 @@
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
     </row>
-    <row r="141" spans="1:16" ht="28.8">
+    <row r="141" spans="1:16" ht="30">
       <c r="A141" s="14" t="s">
         <v>447</v>
       </c>
@@ -14749,7 +14744,7 @@
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
     </row>
-    <row r="142" spans="1:16" ht="28.8">
+    <row r="142" spans="1:16" ht="30">
       <c r="A142" s="14" t="s">
         <v>449</v>
       </c>
@@ -14775,7 +14770,7 @@
       <c r="O142" s="18"/>
       <c r="P142" s="18"/>
     </row>
-    <row r="143" spans="1:16" ht="28.8">
+    <row r="143" spans="1:16" ht="45">
       <c r="A143" s="14" t="s">
         <v>453</v>
       </c>
@@ -14801,7 +14796,7 @@
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
     </row>
-    <row r="144" spans="1:16" ht="28.8">
+    <row r="144" spans="1:16" ht="45">
       <c r="A144" s="14" t="s">
         <v>456</v>
       </c>
@@ -14829,7 +14824,7 @@
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
     </row>
-    <row r="145" spans="1:16" ht="28.8">
+    <row r="145" spans="1:16" ht="30">
       <c r="A145" s="14" t="s">
         <v>458</v>
       </c>
@@ -14857,7 +14852,7 @@
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
     </row>
-    <row r="146" spans="1:16" ht="28.8">
+    <row r="146" spans="1:16" ht="30">
       <c r="A146" s="14" t="s">
         <v>461</v>
       </c>
@@ -14885,7 +14880,7 @@
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
     </row>
-    <row r="147" spans="1:16" ht="28.8">
+    <row r="147" spans="1:16" ht="30">
       <c r="A147" s="14" t="s">
         <v>464</v>
       </c>
@@ -14913,7 +14908,7 @@
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
     </row>
-    <row r="148" spans="1:16" ht="43.2">
+    <row r="148" spans="1:16" ht="45">
       <c r="A148" s="14" t="s">
         <v>468</v>
       </c>
@@ -14941,7 +14936,7 @@
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
     </row>
-    <row r="149" spans="1:16" ht="28.8">
+    <row r="149" spans="1:16" ht="30">
       <c r="A149" s="14" t="s">
         <v>472</v>
       </c>
@@ -14969,7 +14964,7 @@
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
     </row>
-    <row r="150" spans="1:16" ht="28.8">
+    <row r="150" spans="1:16" ht="30">
       <c r="A150" s="14" t="s">
         <v>474</v>
       </c>
@@ -14997,7 +14992,7 @@
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
     </row>
-    <row r="151" spans="1:16" ht="43.2">
+    <row r="151" spans="1:16" ht="60">
       <c r="A151" s="14" t="s">
         <v>477</v>
       </c>
@@ -15029,7 +15024,7 @@
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
     </row>
-    <row r="152" spans="1:16" ht="28.8">
+    <row r="152" spans="1:16" ht="30">
       <c r="A152" s="14" t="s">
         <v>485</v>
       </c>
@@ -15057,7 +15052,7 @@
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
     </row>
-    <row r="153" spans="1:16" ht="28.8">
+    <row r="153" spans="1:16" ht="30">
       <c r="A153" s="14" t="s">
         <v>486</v>
       </c>
@@ -15085,7 +15080,7 @@
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
     </row>
-    <row r="154" spans="1:16" ht="28.8">
+    <row r="154" spans="1:16" ht="45">
       <c r="A154" s="14" t="s">
         <v>487</v>
       </c>
@@ -15113,7 +15108,7 @@
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
     </row>
-    <row r="155" spans="1:16" ht="28.8">
+    <row r="155" spans="1:16" ht="30">
       <c r="A155" s="14" t="s">
         <v>490</v>
       </c>
@@ -15141,7 +15136,7 @@
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
     </row>
-    <row r="156" spans="1:16" ht="28.8">
+    <row r="156" spans="1:16" ht="30">
       <c r="A156" s="14" t="s">
         <v>492</v>
       </c>
@@ -15167,7 +15162,7 @@
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
     </row>
-    <row r="157" spans="1:16" ht="28.8">
+    <row r="157" spans="1:16" ht="30">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -15193,7 +15188,7 @@
       <c r="O157" s="18"/>
       <c r="P157" s="18"/>
     </row>
-    <row r="158" spans="1:16" ht="28.8">
+    <row r="158" spans="1:16" ht="30">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -15221,7 +15216,7 @@
       <c r="O158" s="18"/>
       <c r="P158" s="18"/>
     </row>
-    <row r="159" spans="1:16" ht="28.8">
+    <row r="159" spans="1:16" ht="30">
       <c r="A159" s="18" t="s">
         <v>499</v>
       </c>
@@ -15275,7 +15270,7 @@
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
     </row>
-    <row r="161" spans="1:16" ht="28.8">
+    <row r="161" spans="1:16" ht="30">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -15301,7 +15296,7 @@
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
     </row>
-    <row r="162" spans="1:16" ht="43.2">
+    <row r="162" spans="1:16" ht="45">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -15327,7 +15322,7 @@
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
     </row>
-    <row r="163" spans="1:16" ht="28.8">
+    <row r="163" spans="1:16" ht="45">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -15353,7 +15348,7 @@
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
     </row>
-    <row r="164" spans="1:16" ht="43.2">
+    <row r="164" spans="1:16" ht="45">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -15405,7 +15400,7 @@
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
     </row>
-    <row r="166" spans="1:16" ht="28.8">
+    <row r="166" spans="1:16" ht="30">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -15433,7 +15428,7 @@
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
     </row>
-    <row r="167" spans="1:16" ht="28.8">
+    <row r="167" spans="1:16" ht="30">
       <c r="A167" s="45" t="s">
         <v>521</v>
       </c>
@@ -15461,7 +15456,7 @@
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
     </row>
-    <row r="168" spans="1:16" ht="28.8">
+    <row r="168" spans="1:16" ht="30">
       <c r="A168" s="14" t="s">
         <v>524</v>
       </c>
@@ -15489,7 +15484,7 @@
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
     </row>
-    <row r="169" spans="1:16" ht="43.2">
+    <row r="169" spans="1:16" ht="45">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -15517,7 +15512,7 @@
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
     </row>
-    <row r="170" spans="1:16" ht="43.2">
+    <row r="170" spans="1:16" ht="45">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -15545,7 +15540,7 @@
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
     </row>
-    <row r="171" spans="1:16" ht="28.8">
+    <row r="171" spans="1:16" ht="30">
       <c r="A171" s="14" t="s">
         <v>538</v>
       </c>
@@ -15573,7 +15568,7 @@
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
     </row>
-    <row r="172" spans="1:16" ht="28.8">
+    <row r="172" spans="1:16" ht="45">
       <c r="A172" s="14" t="s">
         <v>541</v>
       </c>
@@ -15601,7 +15596,7 @@
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
     </row>
-    <row r="173" spans="1:16" ht="28.8">
+    <row r="173" spans="1:16" ht="30">
       <c r="A173" s="14" t="s">
         <v>544</v>
       </c>
@@ -15629,7 +15624,7 @@
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
     </row>
-    <row r="174" spans="1:16" ht="57.6">
+    <row r="174" spans="1:16" ht="60">
       <c r="A174" s="14" t="s">
         <v>547</v>
       </c>
@@ -15655,7 +15650,7 @@
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
     </row>
-    <row r="175" spans="1:16" ht="28.8">
+    <row r="175" spans="1:16" ht="30">
       <c r="A175" s="14" t="s">
         <v>550</v>
       </c>
@@ -15683,7 +15678,7 @@
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
     </row>
-    <row r="176" spans="1:16" ht="28.8">
+    <row r="176" spans="1:16" ht="30">
       <c r="A176" s="14" t="s">
         <v>553</v>
       </c>
@@ -15711,7 +15706,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
     </row>
-    <row r="177" spans="1:16" ht="28.8">
+    <row r="177" spans="1:16" ht="45">
       <c r="A177" s="14" t="s">
         <v>560</v>
       </c>
@@ -15739,7 +15734,7 @@
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
     </row>
-    <row r="178" spans="1:16" ht="28.8">
+    <row r="178" spans="1:16" ht="30">
       <c r="A178" s="14" t="s">
         <v>564</v>
       </c>
@@ -15767,7 +15762,7 @@
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
     </row>
-    <row r="179" spans="1:16" ht="43.2">
+    <row r="179" spans="1:16" ht="45">
       <c r="A179" s="14" t="s">
         <v>566</v>
       </c>
@@ -15795,7 +15790,7 @@
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
     </row>
-    <row r="180" spans="1:16" ht="28.8">
+    <row r="180" spans="1:16" ht="45">
       <c r="A180" s="14" t="s">
         <v>568</v>
       </c>
@@ -15823,7 +15818,7 @@
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
     </row>
-    <row r="181" spans="1:16" ht="28.8">
+    <row r="181" spans="1:16" ht="30">
       <c r="A181" s="25" t="s">
         <v>570</v>
       </c>
@@ -15851,7 +15846,7 @@
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
     </row>
-    <row r="182" spans="1:16" ht="28.8">
+    <row r="182" spans="1:16" ht="30">
       <c r="A182" s="14" t="s">
         <v>574</v>
       </c>
@@ -15905,7 +15900,7 @@
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
     </row>
-    <row r="184" spans="1:16" ht="43.2">
+    <row r="184" spans="1:16" ht="45">
       <c r="A184" s="14" t="s">
         <v>576</v>
       </c>
@@ -15933,7 +15928,7 @@
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
     </row>
-    <row r="185" spans="1:16" ht="28.8">
+    <row r="185" spans="1:16" ht="30">
       <c r="A185" s="14" t="s">
         <v>578</v>
       </c>
@@ -15961,7 +15956,7 @@
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
     </row>
-    <row r="186" spans="1:16" ht="28.8">
+    <row r="186" spans="1:16" ht="30">
       <c r="A186" s="14" t="s">
         <v>580</v>
       </c>
@@ -16015,7 +16010,7 @@
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
     </row>
-    <row r="188" spans="1:16" ht="28.8">
+    <row r="188" spans="1:16" ht="30">
       <c r="A188" s="14" t="s">
         <v>585</v>
       </c>
@@ -16041,7 +16036,7 @@
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
     </row>
-    <row r="189" spans="1:16" s="2" customFormat="1">
+    <row r="189" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A189" s="14" t="s">
         <v>706</v>
       </c>
@@ -16069,7 +16064,7 @@
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
     </row>
-    <row r="190" spans="1:16" ht="43.2">
+    <row r="190" spans="1:16" ht="45">
       <c r="A190" s="14" t="s">
         <v>587</v>
       </c>
@@ -16097,7 +16092,7 @@
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
     </row>
-    <row r="191" spans="1:16" ht="43.2">
+    <row r="191" spans="1:16" ht="45">
       <c r="A191" s="14" t="s">
         <v>589</v>
       </c>
@@ -16127,7 +16122,7 @@
       <c r="O191" s="18"/>
       <c r="P191" s="18"/>
     </row>
-    <row r="192" spans="1:16" ht="28.8">
+    <row r="192" spans="1:16" ht="30">
       <c r="A192" s="14" t="s">
         <v>591</v>
       </c>
@@ -16155,7 +16150,7 @@
       <c r="O192" s="18"/>
       <c r="P192" s="18"/>
     </row>
-    <row r="193" spans="1:16" ht="28.8">
+    <row r="193" spans="1:16" ht="30">
       <c r="A193" s="14" t="s">
         <v>595</v>
       </c>
@@ -16183,7 +16178,7 @@
       <c r="O193" s="18"/>
       <c r="P193" s="18"/>
     </row>
-    <row r="194" spans="1:16" ht="28.8">
+    <row r="194" spans="1:16" ht="30">
       <c r="A194" s="14" t="s">
         <v>597</v>
       </c>
@@ -16211,7 +16206,7 @@
       <c r="O194" s="18"/>
       <c r="P194" s="18"/>
     </row>
-    <row r="195" spans="1:16" ht="28.8">
+    <row r="195" spans="1:16" ht="30">
       <c r="A195" s="14" t="s">
         <v>599</v>
       </c>
@@ -16239,7 +16234,7 @@
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
     </row>
-    <row r="196" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="196" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A196" s="14" t="s">
         <v>730</v>
       </c>
@@ -16267,7 +16262,7 @@
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
     </row>
-    <row r="197" spans="1:16" ht="28.8">
+    <row r="197" spans="1:16" ht="30">
       <c r="A197" s="14" t="s">
         <v>602</v>
       </c>
@@ -16297,7 +16292,7 @@
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
     </row>
-    <row r="198" spans="1:16" ht="43.2">
+    <row r="198" spans="1:16" ht="45">
       <c r="A198" s="14" t="s">
         <v>605</v>
       </c>
@@ -16323,7 +16318,7 @@
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
     </row>
-    <row r="199" spans="1:16" ht="43.2">
+    <row r="199" spans="1:16" ht="45">
       <c r="A199" s="14" t="s">
         <v>609</v>
       </c>
@@ -16351,7 +16346,7 @@
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
     </row>
-    <row r="200" spans="1:16" ht="28.8">
+    <row r="200" spans="1:16" ht="30">
       <c r="A200" s="14" t="s">
         <v>610</v>
       </c>
@@ -16379,7 +16374,7 @@
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
     </row>
-    <row r="201" spans="1:16" ht="28.8">
+    <row r="201" spans="1:16" ht="30">
       <c r="A201" s="14" t="s">
         <v>612</v>
       </c>
@@ -16407,7 +16402,7 @@
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
     </row>
-    <row r="202" spans="1:16" ht="28.8">
+    <row r="202" spans="1:16" ht="30">
       <c r="A202" s="14" t="s">
         <v>614</v>
       </c>
@@ -16437,7 +16432,7 @@
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
     </row>
-    <row r="203" spans="1:16" ht="28.8">
+    <row r="203" spans="1:16" ht="30">
       <c r="A203" s="14" t="s">
         <v>617</v>
       </c>
@@ -16467,7 +16462,7 @@
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
     </row>
-    <row r="204" spans="1:16" ht="28.8">
+    <row r="204" spans="1:16" ht="45">
       <c r="A204" s="14" t="s">
         <v>619</v>
       </c>
@@ -16497,7 +16492,7 @@
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
     </row>
-    <row r="205" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="205" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A205" s="14" t="s">
         <v>625</v>
       </c>
@@ -16527,7 +16522,7 @@
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
     </row>
-    <row r="206" spans="1:16" ht="28.8">
+    <row r="206" spans="1:16" ht="30">
       <c r="A206" s="14" t="s">
         <v>623</v>
       </c>
@@ -16555,7 +16550,7 @@
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
     </row>
-    <row r="207" spans="1:16" ht="28.8">
+    <row r="207" spans="1:16" ht="30">
       <c r="A207" s="14" t="s">
         <v>628</v>
       </c>
@@ -16613,7 +16608,7 @@
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
     </row>
-    <row r="209" spans="1:16" ht="28.8">
+    <row r="209" spans="1:16" ht="30">
       <c r="A209" s="14" t="s">
         <v>632</v>
       </c>
@@ -16641,7 +16636,7 @@
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
     </row>
-    <row r="210" spans="1:16" ht="28.8">
+    <row r="210" spans="1:16" ht="45">
       <c r="A210" s="14" t="s">
         <v>634</v>
       </c>
@@ -16701,7 +16696,7 @@
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
     </row>
-    <row r="212" spans="1:16" ht="28.8">
+    <row r="212" spans="1:16" ht="30">
       <c r="A212" s="14" t="s">
         <v>640</v>
       </c>
@@ -16731,7 +16726,7 @@
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
     </row>
-    <row r="213" spans="1:16" ht="28.8">
+    <row r="213" spans="1:16" ht="30">
       <c r="A213" s="14" t="s">
         <v>645</v>
       </c>
@@ -16761,7 +16756,7 @@
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
     </row>
-    <row r="214" spans="1:16" ht="43.2">
+    <row r="214" spans="1:16" ht="45">
       <c r="A214" s="14" t="s">
         <v>648</v>
       </c>
@@ -16791,7 +16786,7 @@
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
     </row>
-    <row r="215" spans="1:16" ht="43.2">
+    <row r="215" spans="1:16" ht="45">
       <c r="A215" s="14" t="s">
         <v>649</v>
       </c>
@@ -16821,7 +16816,7 @@
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
     </row>
-    <row r="216" spans="1:16" ht="39.6">
+    <row r="216" spans="1:16" ht="45">
       <c r="A216" s="14" t="s">
         <v>651</v>
       </c>
@@ -16851,7 +16846,7 @@
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
     </row>
-    <row r="217" spans="1:16" ht="28.8">
+    <row r="217" spans="1:16" ht="45">
       <c r="A217" s="14" t="s">
         <v>653</v>
       </c>
@@ -16879,7 +16874,7 @@
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
     </row>
-    <row r="218" spans="1:16" ht="28.8">
+    <row r="218" spans="1:16" ht="30">
       <c r="A218" s="14" t="s">
         <v>657</v>
       </c>
@@ -16909,7 +16904,7 @@
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
     </row>
-    <row r="219" spans="1:16" ht="43.2">
+    <row r="219" spans="1:16" ht="45">
       <c r="A219" s="14" t="s">
         <v>659</v>
       </c>
@@ -16939,7 +16934,7 @@
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
     </row>
-    <row r="220" spans="1:16" ht="28.8">
+    <row r="220" spans="1:16" ht="30">
       <c r="A220" s="14" t="s">
         <v>662</v>
       </c>
@@ -16967,7 +16962,7 @@
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
     </row>
-    <row r="221" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="221" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A221" s="14" t="s">
         <v>667</v>
       </c>
@@ -16999,7 +16994,7 @@
       <c r="O221" s="18"/>
       <c r="P221" s="18"/>
     </row>
-    <row r="222" spans="1:16" ht="28.8">
+    <row r="222" spans="1:16" ht="45">
       <c r="A222" s="14" t="s">
         <v>664</v>
       </c>
@@ -17029,7 +17024,7 @@
       <c r="O222" s="18"/>
       <c r="P222" s="18"/>
     </row>
-    <row r="223" spans="1:16" ht="28.8">
+    <row r="223" spans="1:16" ht="30">
       <c r="A223" s="14" t="s">
         <v>669</v>
       </c>
@@ -17059,7 +17054,7 @@
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
     </row>
-    <row r="224" spans="1:16" ht="28.8">
+    <row r="224" spans="1:16" ht="30">
       <c r="A224" s="14" t="s">
         <v>671</v>
       </c>
@@ -17089,7 +17084,7 @@
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
     </row>
-    <row r="225" spans="1:16" ht="28.8">
+    <row r="225" spans="1:16" ht="45">
       <c r="A225" s="14" t="s">
         <v>675</v>
       </c>
@@ -17117,7 +17112,7 @@
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
     </row>
-    <row r="226" spans="1:16" ht="57.6">
+    <row r="226" spans="1:16" ht="60">
       <c r="A226" s="14" t="s">
         <v>679</v>
       </c>
@@ -17149,7 +17144,7 @@
       </c>
       <c r="P226" s="18"/>
     </row>
-    <row r="227" spans="1:16" ht="43.2">
+    <row r="227" spans="1:16" ht="45">
       <c r="A227" s="14" t="s">
         <v>682</v>
       </c>
@@ -17179,7 +17174,7 @@
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
     </row>
-    <row r="228" spans="1:16" ht="47.4" customHeight="1">
+    <row r="228" spans="1:16" ht="47.45" customHeight="1">
       <c r="A228" s="14" t="s">
         <v>686</v>
       </c>
@@ -17209,7 +17204,7 @@
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
     </row>
-    <row r="229" spans="1:16" ht="28.8">
+    <row r="229" spans="1:16" ht="30">
       <c r="A229" s="14" t="s">
         <v>690</v>
       </c>
@@ -17239,7 +17234,7 @@
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
     </row>
-    <row r="230" spans="1:16" ht="28.8">
+    <row r="230" spans="1:16" ht="30">
       <c r="A230" s="14" t="s">
         <v>693</v>
       </c>
@@ -17267,7 +17262,7 @@
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
     </row>
-    <row r="231" spans="1:16" ht="28.8">
+    <row r="231" spans="1:16" ht="30">
       <c r="A231" s="14" t="s">
         <v>695</v>
       </c>
@@ -17297,7 +17292,7 @@
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
     </row>
-    <row r="232" spans="1:16" ht="43.2">
+    <row r="232" spans="1:16" ht="45">
       <c r="A232" s="14" t="s">
         <v>697</v>
       </c>
@@ -17327,7 +17322,7 @@
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
     </row>
-    <row r="233" spans="1:16" ht="28.8">
+    <row r="233" spans="1:16" ht="30">
       <c r="A233" s="14" t="s">
         <v>699</v>
       </c>
@@ -17357,7 +17352,7 @@
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
     </row>
-    <row r="234" spans="1:16" ht="28.8">
+    <row r="234" spans="1:16" ht="30">
       <c r="A234" s="14" t="s">
         <v>701</v>
       </c>
@@ -17387,7 +17382,7 @@
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
     </row>
-    <row r="235" spans="1:16" ht="28.8">
+    <row r="235" spans="1:16" ht="30">
       <c r="A235" s="14" t="s">
         <v>704</v>
       </c>
@@ -17417,7 +17412,7 @@
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
     </row>
-    <row r="236" spans="1:16" ht="28.8">
+    <row r="236" spans="1:16" ht="30">
       <c r="A236" s="14" t="s">
         <v>708</v>
       </c>
@@ -17447,7 +17442,7 @@
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
     </row>
-    <row r="237" spans="1:16" ht="28.8">
+    <row r="237" spans="1:16" ht="30">
       <c r="A237" s="14" t="s">
         <v>710</v>
       </c>
@@ -17477,7 +17472,7 @@
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
     </row>
-    <row r="238" spans="1:16" ht="28.8">
+    <row r="238" spans="1:16" ht="30">
       <c r="A238" s="14" t="s">
         <v>713</v>
       </c>
@@ -17507,7 +17502,7 @@
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
     </row>
-    <row r="239" spans="1:16" ht="43.2">
+    <row r="239" spans="1:16" ht="45">
       <c r="A239" s="14" t="s">
         <v>717</v>
       </c>
@@ -17539,7 +17534,7 @@
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
     </row>
-    <row r="240" spans="1:16" ht="28.8">
+    <row r="240" spans="1:16" ht="45">
       <c r="A240" s="14" t="s">
         <v>720</v>
       </c>
@@ -17569,7 +17564,7 @@
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
     </row>
-    <row r="241" spans="1:16" ht="28.8">
+    <row r="241" spans="1:16" ht="30">
       <c r="A241" s="14" t="s">
         <v>722</v>
       </c>
@@ -17599,7 +17594,7 @@
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
     </row>
-    <row r="242" spans="1:16" ht="28.8">
+    <row r="242" spans="1:16" ht="45">
       <c r="A242" s="14" t="s">
         <v>724</v>
       </c>
@@ -17621,7 +17616,7 @@
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
     </row>
-    <row r="243" spans="1:16" ht="39.6">
+    <row r="243" spans="1:16" ht="38.25">
       <c r="A243" s="14" t="s">
         <v>726</v>
       </c>
@@ -17651,7 +17646,7 @@
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
     </row>
-    <row r="244" spans="1:16" ht="28.8">
+    <row r="244" spans="1:16" ht="45">
       <c r="A244" s="14" t="s">
         <v>728</v>
       </c>
@@ -17681,7 +17676,7 @@
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
     </row>
-    <row r="245" spans="1:16" ht="28.8">
+    <row r="245" spans="1:16" ht="30">
       <c r="A245" s="14" t="s">
         <v>732</v>
       </c>
@@ -17711,7 +17706,7 @@
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
     </row>
-    <row r="246" spans="1:16" ht="66">
+    <row r="246" spans="1:16" ht="63.75">
       <c r="A246" s="14" t="s">
         <v>736</v>
       </c>
@@ -17743,7 +17738,7 @@
       </c>
       <c r="P246" s="18"/>
     </row>
-    <row r="247" spans="1:16" ht="57.6">
+    <row r="247" spans="1:16" ht="60">
       <c r="A247" s="14" t="s">
         <v>739</v>
       </c>
@@ -17777,7 +17772,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="28.8">
+    <row r="248" spans="1:16" ht="30">
       <c r="A248" s="14" t="s">
         <v>743</v>
       </c>
@@ -17807,7 +17802,7 @@
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
     </row>
-    <row r="249" spans="1:16" ht="28.8">
+    <row r="249" spans="1:16" ht="30">
       <c r="A249" s="14" t="s">
         <v>747</v>
       </c>
@@ -17837,7 +17832,7 @@
       <c r="O249" s="18"/>
       <c r="P249" s="18"/>
     </row>
-    <row r="250" spans="1:16" ht="28.8">
+    <row r="250" spans="1:16" ht="30">
       <c r="A250" s="14" t="s">
         <v>750</v>
       </c>
@@ -17865,7 +17860,7 @@
       <c r="O250" s="18"/>
       <c r="P250" s="18"/>
     </row>
-    <row r="251" spans="1:16" ht="28.8">
+    <row r="251" spans="1:16" ht="30">
       <c r="A251" s="14" t="s">
         <v>751</v>
       </c>
@@ -17895,7 +17890,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="252" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A252" s="14" t="s">
         <v>768</v>
       </c>
@@ -17951,7 +17946,7 @@
       <c r="O253" s="18"/>
       <c r="P253" s="18"/>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="254" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A254" s="14" t="s">
         <v>770</v>
       </c>
@@ -17981,7 +17976,7 @@
       <c r="O254" s="18"/>
       <c r="P254" s="18"/>
     </row>
-    <row r="255" spans="1:16" ht="43.2">
+    <row r="255" spans="1:16" ht="45">
       <c r="A255" s="14" t="s">
         <v>755</v>
       </c>
@@ -18011,7 +18006,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="256" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A256" s="14" t="s">
         <v>775</v>
       </c>
@@ -18041,7 +18036,7 @@
       <c r="O256" s="18"/>
       <c r="P256" s="14"/>
     </row>
-    <row r="257" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="257" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A257" s="14" t="s">
         <v>778</v>
       </c>
@@ -18071,7 +18066,7 @@
       <c r="O257" s="18"/>
       <c r="P257" s="14"/>
     </row>
-    <row r="258" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="258" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A258" s="14" t="s">
         <v>780</v>
       </c>
@@ -18101,7 +18096,7 @@
       <c r="O258" s="18"/>
       <c r="P258" s="14"/>
     </row>
-    <row r="259" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="259" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A259" s="14" t="s">
         <v>781</v>
       </c>
@@ -18131,7 +18126,7 @@
       <c r="O259" s="18"/>
       <c r="P259" s="14"/>
     </row>
-    <row r="260" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="260" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A260" s="14" t="s">
         <v>784</v>
       </c>
@@ -18161,7 +18156,7 @@
       <c r="O260" s="18"/>
       <c r="P260" s="14"/>
     </row>
-    <row r="261" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="261" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A261" s="14" t="s">
         <v>787</v>
       </c>
@@ -18191,7 +18186,7 @@
       <c r="O261" s="18"/>
       <c r="P261" s="14"/>
     </row>
-    <row r="262" spans="1:16" ht="28.8">
+    <row r="262" spans="1:16" ht="45">
       <c r="A262" s="14" t="s">
         <v>765</v>
       </c>
@@ -18221,7 +18216,7 @@
       <c r="O262" s="18"/>
       <c r="P262" s="18"/>
     </row>
-    <row r="263" spans="1:16" ht="28.8">
+    <row r="263" spans="1:16" ht="45">
       <c r="A263" s="14" t="s">
         <v>766</v>
       </c>
@@ -18251,7 +18246,7 @@
       <c r="O263" s="18"/>
       <c r="P263" s="18"/>
     </row>
-    <row r="264" spans="1:16" ht="28.8">
+    <row r="264" spans="1:16" ht="45">
       <c r="A264" s="14" t="s">
         <v>767</v>
       </c>
@@ -18281,7 +18276,7 @@
       <c r="O264" s="18"/>
       <c r="P264" s="18"/>
     </row>
-    <row r="265" spans="1:16" ht="28.8">
+    <row r="265" spans="1:16" ht="30">
       <c r="A265" s="14" t="s">
         <v>789</v>
       </c>
@@ -18301,7 +18296,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="28.8">
+    <row r="266" spans="1:16" ht="30">
       <c r="A266" s="14" t="s">
         <v>792</v>
       </c>
@@ -18318,7 +18313,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="43.2">
+    <row r="267" spans="1:16" ht="45">
       <c r="A267" s="14" t="s">
         <v>794</v>
       </c>
@@ -18338,7 +18333,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="43.2">
+    <row r="268" spans="1:16" ht="45">
       <c r="A268" s="7" t="s">
         <v>796</v>
       </c>
@@ -18358,7 +18353,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="28.8">
+    <row r="269" spans="1:16" ht="45">
       <c r="A269" s="7" t="s">
         <v>802</v>
       </c>
@@ -18378,7 +18373,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="28.8">
+    <row r="270" spans="1:16" ht="30">
       <c r="A270" s="7" t="s">
         <v>801</v>
       </c>
@@ -18398,7 +18393,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="43.2">
+    <row r="271" spans="1:16" ht="45">
       <c r="A271" s="7" t="s">
         <v>805</v>
       </c>
@@ -18418,7 +18413,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="43.2">
+    <row r="272" spans="1:16" ht="45">
       <c r="A272" s="7" t="s">
         <v>809</v>
       </c>
@@ -18438,7 +18433,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="43.2">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="7" t="s">
         <v>810</v>
       </c>
@@ -18455,7 +18450,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="43.2">
+    <row r="274" spans="1:17" ht="45">
       <c r="A274" s="7" t="s">
         <v>813</v>
       </c>
@@ -18475,7 +18470,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="28.8">
+    <row r="275" spans="1:17" ht="30">
       <c r="A275" s="49" t="s">
         <v>815</v>
       </c>
@@ -18492,7 +18487,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="69">
+    <row r="276" spans="1:17" ht="64.5">
       <c r="A276" s="14" t="s">
         <v>820</v>
       </c>
@@ -18515,7 +18510,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="55.2">
+    <row r="277" spans="1:17" ht="51.75">
       <c r="A277" s="7" t="s">
         <v>827</v>
       </c>
@@ -18526,7 +18521,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="28.8">
+    <row r="278" spans="1:17" ht="30">
       <c r="A278" s="7" t="s">
         <v>830</v>
       </c>
@@ -18546,7 +18541,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="28.8">
+    <row r="279" spans="1:17" ht="30">
       <c r="A279" s="7" t="s">
         <v>832</v>
       </c>
@@ -18563,7 +18558,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="43.2">
+    <row r="280" spans="1:17" ht="45">
       <c r="A280" s="7" t="s">
         <v>834</v>
       </c>
@@ -18583,7 +18578,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="28.8">
+    <row r="281" spans="1:17" ht="45">
       <c r="A281" s="7" t="s">
         <v>836</v>
       </c>
@@ -18620,7 +18615,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="28.8">
+    <row r="283" spans="1:17" ht="30">
       <c r="A283" s="7" t="s">
         <v>840</v>
       </c>
@@ -18637,7 +18632,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="28.8">
+    <row r="284" spans="1:17" ht="30">
       <c r="A284" s="7" t="s">
         <v>841</v>
       </c>
@@ -18654,7 +18649,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="28.8">
+    <row r="285" spans="1:17" ht="30">
       <c r="A285" s="7" t="s">
         <v>843</v>
       </c>
@@ -18674,7 +18669,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="28.8">
+    <row r="286" spans="1:17" ht="30">
       <c r="A286" s="7" t="s">
         <v>846</v>
       </c>
@@ -18694,7 +18689,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="28.8">
+    <row r="287" spans="1:17" ht="30">
       <c r="A287" s="7" t="s">
         <v>849</v>
       </c>
@@ -18711,7 +18706,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="40.200000000000003">
+    <row r="288" spans="1:17" ht="39">
       <c r="A288" s="14" t="s">
         <v>850</v>
       </c>
@@ -18731,7 +18726,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="28.8">
+    <row r="289" spans="1:15" ht="30">
       <c r="A289" s="7" t="s">
         <v>853</v>
       </c>
@@ -18751,7 +18746,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="43.2">
+    <row r="290" spans="1:15" ht="45">
       <c r="A290" s="7" t="s">
         <v>856</v>
       </c>
@@ -18768,7 +18763,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="40.200000000000003">
+    <row r="291" spans="1:15" ht="39">
       <c r="A291" s="7" t="s">
         <v>857</v>
       </c>
@@ -18791,7 +18786,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="28.8">
+    <row r="292" spans="1:15" ht="45">
       <c r="A292" s="7" t="s">
         <v>864</v>
       </c>
@@ -18809,7 +18804,7 @@
       </c>
       <c r="L292" s="7"/>
     </row>
-    <row r="293" spans="1:15" ht="28.8">
+    <row r="293" spans="1:15" ht="30">
       <c r="A293" s="7" t="s">
         <v>865</v>
       </c>
@@ -18829,7 +18824,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="28.8">
+    <row r="294" spans="1:15" ht="30">
       <c r="A294" s="7" t="s">
         <v>870</v>
       </c>
@@ -18846,7 +18841,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="28.8">
+    <row r="295" spans="1:15" ht="30">
       <c r="A295" s="7" t="s">
         <v>872</v>
       </c>
@@ -18866,7 +18861,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="28.8">
+    <row r="296" spans="1:15" ht="30">
       <c r="A296" s="7" t="s">
         <v>873</v>
       </c>
@@ -18883,7 +18878,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="57.6">
+    <row r="297" spans="1:15" ht="60">
       <c r="A297" s="7" t="s">
         <v>875</v>
       </c>
@@ -18900,7 +18895,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="28.8">
+    <row r="298" spans="1:15" ht="30">
       <c r="A298" s="14" t="s">
         <v>878</v>
       </c>
@@ -18920,7 +18915,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="28.8">
+    <row r="299" spans="1:15" ht="30">
       <c r="A299" s="14" t="s">
         <v>882</v>
       </c>
@@ -18937,7 +18932,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="28.8">
+    <row r="300" spans="1:15" ht="45">
       <c r="A300" s="7" t="s">
         <v>886</v>
       </c>
@@ -18957,7 +18952,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" ht="30">
       <c r="A301" s="7" t="s">
         <v>888</v>
       </c>
@@ -18974,7 +18969,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="28.8">
+    <row r="302" spans="1:15" ht="30">
       <c r="A302" s="7" t="s">
         <v>891</v>
       </c>
@@ -19008,7 +19003,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="28.8">
+    <row r="304" spans="1:15" ht="30">
       <c r="A304" s="7" t="s">
         <v>898</v>
       </c>
@@ -19025,7 +19020,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="28.8">
+    <row r="305" spans="1:12" ht="30">
       <c r="A305" s="7" t="s">
         <v>899</v>
       </c>
@@ -19059,7 +19054,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="28.8">
+    <row r="307" spans="1:12" ht="30">
       <c r="A307" s="7" t="s">
         <v>903</v>
       </c>
@@ -19079,7 +19074,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="28.8">
+    <row r="308" spans="1:12" ht="30">
       <c r="A308" s="7" t="s">
         <v>905</v>
       </c>
@@ -19096,7 +19091,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="43.2">
+    <row r="309" spans="1:12" ht="45">
       <c r="A309" s="7" t="s">
         <v>907</v>
       </c>
@@ -19116,7 +19111,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="28.8">
+    <row r="310" spans="1:12" ht="30">
       <c r="A310" s="7" t="s">
         <v>911</v>
       </c>
@@ -19133,7 +19128,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="28.8">
+    <row r="311" spans="1:12" ht="45">
       <c r="A311" s="7" t="s">
         <v>912</v>
       </c>
@@ -19170,7 +19165,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="28.8">
+    <row r="313" spans="1:12" ht="45">
       <c r="A313" s="7" t="s">
         <v>914</v>
       </c>
@@ -19187,7 +19182,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="28.8">
+    <row r="314" spans="1:12" ht="30">
       <c r="A314" s="7" t="s">
         <v>916</v>
       </c>
@@ -19204,7 +19199,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="43.2">
+    <row r="315" spans="1:12" ht="45">
       <c r="A315" s="7" t="s">
         <v>918</v>
       </c>
@@ -19224,7 +19219,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="28.8">
+    <row r="316" spans="1:12" ht="30">
       <c r="A316" s="7" t="s">
         <v>921</v>
       </c>
@@ -19241,7 +19236,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="28.8">
+    <row r="317" spans="1:12" ht="30">
       <c r="A317" s="7" t="s">
         <v>925</v>
       </c>
@@ -19258,7 +19253,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="28.8">
+    <row r="318" spans="1:12" ht="30">
       <c r="A318" s="7" t="s">
         <v>926</v>
       </c>
@@ -19275,7 +19270,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="28.8">
+    <row r="319" spans="1:12" ht="30">
       <c r="A319" s="7" t="s">
         <v>929</v>
       </c>
@@ -19292,7 +19287,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="27">
+    <row r="320" spans="1:12" ht="26.25">
       <c r="A320" t="s">
         <v>933</v>
       </c>
@@ -19312,7 +19307,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="28.8">
+    <row r="321" spans="1:12" ht="30">
       <c r="A321" s="7" t="s">
         <v>935</v>
       </c>
@@ -19329,7 +19324,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="43.2">
+    <row r="322" spans="1:12" ht="45">
       <c r="A322" s="7" t="s">
         <v>936</v>
       </c>
@@ -19349,7 +19344,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="28.8">
+    <row r="323" spans="1:12" ht="30">
       <c r="A323" s="7" t="s">
         <v>939</v>
       </c>
@@ -19369,7 +19364,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="28.8">
+    <row r="324" spans="1:12" ht="45">
       <c r="A324" s="7" t="s">
         <v>941</v>
       </c>
@@ -19389,7 +19384,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="43.2">
+    <row r="325" spans="1:12" ht="45">
       <c r="A325" s="7" t="s">
         <v>943</v>
       </c>
@@ -19406,7 +19401,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="27">
+    <row r="326" spans="1:12" ht="26.25">
       <c r="A326" t="s">
         <v>945</v>
       </c>
@@ -19426,7 +19421,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="28.8">
+    <row r="327" spans="1:12" ht="30">
       <c r="A327" s="7" t="s">
         <v>947</v>
       </c>
@@ -19437,7 +19432,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="28.8">
+    <row r="328" spans="1:12" ht="45">
       <c r="A328" s="7" t="s">
         <v>951</v>
       </c>
@@ -19454,7 +19449,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="28.8">
+    <row r="329" spans="1:12" ht="45">
       <c r="A329" s="7" t="s">
         <v>955</v>
       </c>
@@ -19468,7 +19463,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="28.8">
+    <row r="330" spans="1:12" ht="30">
       <c r="A330" s="7" t="s">
         <v>957</v>
       </c>
@@ -19485,7 +19480,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="28.8">
+    <row r="331" spans="1:12" ht="45">
       <c r="A331" s="7" t="s">
         <v>959</v>
       </c>
@@ -19502,7 +19497,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="28.8">
+    <row r="332" spans="1:12" ht="30">
       <c r="A332" s="7" t="s">
         <v>961</v>
       </c>
@@ -19522,7 +19517,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="28.8">
+    <row r="333" spans="1:12" ht="30">
       <c r="A333" s="7" t="s">
         <v>964</v>
       </c>
@@ -19539,7 +19534,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="28.8">
+    <row r="334" spans="1:12" ht="30">
       <c r="A334" s="7" t="s">
         <v>966</v>
       </c>
@@ -19556,7 +19551,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="28.8">
+    <row r="335" spans="1:12" ht="30">
       <c r="A335" s="7" t="s">
         <v>968</v>
       </c>
@@ -19573,7 +19568,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="28.8">
+    <row r="336" spans="1:12" ht="30">
       <c r="A336" s="7" t="s">
         <v>971</v>
       </c>
@@ -19590,7 +19585,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="28.8">
+    <row r="337" spans="1:17" ht="30">
       <c r="A337" s="7" t="s">
         <v>972</v>
       </c>
@@ -19610,7 +19605,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="28.8">
+    <row r="338" spans="1:17" ht="30">
       <c r="A338" s="7" t="s">
         <v>974</v>
       </c>
@@ -19627,7 +19622,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="28.8">
+    <row r="339" spans="1:17" ht="30">
       <c r="A339" s="7" t="s">
         <v>982</v>
       </c>
@@ -19647,7 +19642,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="43.2">
+    <row r="340" spans="1:17" ht="45">
       <c r="A340" s="7" t="s">
         <v>984</v>
       </c>
@@ -19667,7 +19662,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="28.8">
+    <row r="341" spans="1:17" ht="30">
       <c r="A341" s="7" t="s">
         <v>986</v>
       </c>
@@ -19687,7 +19682,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="28.8">
+    <row r="342" spans="1:17" ht="30">
       <c r="A342" s="7" t="s">
         <v>988</v>
       </c>
@@ -19750,7 +19745,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="28.8">
+    <row r="345" spans="1:17" ht="30">
       <c r="A345" s="7" t="s">
         <v>1003</v>
       </c>
@@ -19768,7 +19763,7 @@
       </c>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:17" ht="28.8">
+    <row r="346" spans="1:17" ht="30">
       <c r="A346" s="7" t="s">
         <v>1005</v>
       </c>
@@ -19794,7 +19789,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="43.2">
+    <row r="347" spans="1:17" ht="45">
       <c r="A347" s="7" t="s">
         <v>1007</v>
       </c>
@@ -19840,7 +19835,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="28.8">
+    <row r="349" spans="1:17" ht="30">
       <c r="A349" s="7" t="s">
         <v>1016</v>
       </c>
@@ -19860,7 +19855,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="28.8">
+    <row r="350" spans="1:17" ht="30">
       <c r="A350" s="7" t="s">
         <v>1019</v>
       </c>
@@ -19880,7 +19875,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="351" spans="1:17" s="2" customFormat="1" ht="28.8">
+    <row r="351" spans="1:17" s="2" customFormat="1" ht="30">
       <c r="A351" s="7" t="s">
         <v>1022</v>
       </c>
@@ -19898,7 +19893,7 @@
       </c>
       <c r="L351" s="7"/>
     </row>
-    <row r="352" spans="1:17" s="2" customFormat="1" ht="28.8">
+    <row r="352" spans="1:17" s="2" customFormat="1" ht="30">
       <c r="A352" s="7" t="s">
         <v>1024</v>
       </c>
@@ -19916,7 +19911,7 @@
       </c>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:14" ht="28.8">
+    <row r="353" spans="1:14" ht="30">
       <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
@@ -19933,7 +19928,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="43.2">
+    <row r="354" spans="1:14" ht="45">
       <c r="A354" s="14" t="s">
         <v>1025</v>
       </c>
@@ -19953,7 +19948,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="28.8">
+    <row r="355" spans="1:14" ht="30">
       <c r="A355" s="7" t="s">
         <v>1028</v>
       </c>
@@ -19970,7 +19965,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="28.8">
+    <row r="356" spans="1:14" ht="30">
       <c r="A356" s="7" t="s">
         <v>1030</v>
       </c>
@@ -19987,7 +19982,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="28.8">
+    <row r="357" spans="1:14" ht="30">
       <c r="A357" s="7" t="s">
         <v>1032</v>
       </c>
@@ -20007,7 +20002,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="28.8">
+    <row r="358" spans="1:14" ht="30">
       <c r="A358" s="7" t="s">
         <v>1035</v>
       </c>
@@ -20027,7 +20022,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="28.8">
+    <row r="359" spans="1:14" ht="30">
       <c r="A359" s="7" t="s">
         <v>1039</v>
       </c>
@@ -20045,7 +20040,7 @@
       </c>
       <c r="L359" s="7"/>
     </row>
-    <row r="360" spans="1:14" s="2" customFormat="1" ht="43.2">
+    <row r="360" spans="1:14" s="2" customFormat="1" ht="45">
       <c r="A360" s="7" t="s">
         <v>1046</v>
       </c>
@@ -20068,7 +20063,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="43.2">
+    <row r="361" spans="1:14" ht="45">
       <c r="A361" s="7" t="s">
         <v>1041</v>
       </c>
@@ -20088,7 +20083,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="28.8">
+    <row r="362" spans="1:14" ht="30">
       <c r="A362" t="s">
         <v>1044</v>
       </c>
@@ -20108,7 +20103,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="28.8">
+    <row r="363" spans="1:14" ht="30">
       <c r="A363" s="7" t="s">
         <v>1050</v>
       </c>
@@ -20125,7 +20120,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="28.8">
+    <row r="364" spans="1:14" ht="30">
       <c r="A364" s="7" t="s">
         <v>1052</v>
       </c>
@@ -20142,7 +20137,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="28.8">
+    <row r="365" spans="1:14" ht="30">
       <c r="A365" s="7" t="s">
         <v>1055</v>
       </c>
@@ -20159,7 +20154,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="28.8">
+    <row r="366" spans="1:14" ht="30">
       <c r="A366" s="7" t="s">
         <v>1057</v>
       </c>
@@ -20176,7 +20171,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="28.8">
+    <row r="367" spans="1:14" ht="30">
       <c r="A367" s="7" t="s">
         <v>1059</v>
       </c>
@@ -20193,7 +20188,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="43.2">
+    <row r="368" spans="1:14" ht="45">
       <c r="A368" s="7" t="s">
         <v>1061</v>
       </c>
@@ -20210,7 +20205,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="28.8">
+    <row r="369" spans="1:16" ht="30">
       <c r="A369" s="7" t="s">
         <v>1063</v>
       </c>
@@ -20233,7 +20228,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="28.8">
+    <row r="370" spans="1:16" ht="30">
       <c r="A370" s="7" t="s">
         <v>1067</v>
       </c>
@@ -20250,7 +20245,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="43.2">
+    <row r="371" spans="1:16" ht="45">
       <c r="A371" s="7" t="s">
         <v>1069</v>
       </c>
@@ -20267,7 +20262,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A372" s="7" t="s">
         <v>1075</v>
       </c>
@@ -20287,7 +20282,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="43.2">
+    <row r="373" spans="1:16" ht="45">
       <c r="A373" s="7" t="s">
         <v>1071</v>
       </c>
@@ -20304,7 +20299,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="28.8">
+    <row r="374" spans="1:16" ht="30">
       <c r="A374" s="7" t="s">
         <v>1073</v>
       </c>
@@ -20324,7 +20319,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="28.8">
+    <row r="375" spans="1:16" ht="30">
       <c r="A375" s="7" t="s">
         <v>1080</v>
       </c>
@@ -20341,7 +20336,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="28.8">
+    <row r="376" spans="1:16" ht="30">
       <c r="A376" s="7" t="s">
         <v>1082</v>
       </c>
@@ -20358,7 +20353,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="43.8" customHeight="1">
+    <row r="377" spans="1:16" ht="43.9" customHeight="1">
       <c r="A377" s="14" t="s">
         <v>1085</v>
       </c>
@@ -20378,7 +20373,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="28.8">
+    <row r="378" spans="1:16" ht="45">
       <c r="A378" s="7" t="s">
         <v>1087</v>
       </c>
@@ -20971,14 +20966,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -21022,7 +21017,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="158.4">
+    <row r="5" spans="1:3" ht="165">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -21033,7 +21028,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="201.6">
+    <row r="6" spans="1:3" ht="225">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -21059,25 +21054,25 @@
       <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.77734375" style="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
     <col min="6" max="8" width="24" style="18" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.6640625" style="18" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="26.33203125" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.33203125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="19" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29.88671875" style="18" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="18"/>
+    <col min="18" max="18" width="29.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1">
@@ -21125,7 +21120,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="28.8">
+    <row r="3" spans="1:19" ht="30">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -21150,7 +21145,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -21170,7 +21165,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="28.8">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -21192,7 +21187,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="28.8">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -21218,7 +21213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -21238,7 +21233,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="43.2">
+    <row r="8" spans="1:19" ht="45">
       <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
@@ -21261,7 +21256,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="28.8">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
@@ -21281,7 +21276,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="28.8">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
@@ -21305,7 +21300,7 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="28.8">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="17" t="s">
         <v>49</v>
       </c>
@@ -21401,7 +21396,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="28.8">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
@@ -21427,7 +21422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
@@ -21449,7 +21444,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="43.2">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="17" t="s">
         <v>63</v>
       </c>
@@ -21473,7 +21468,7 @@
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
@@ -21499,7 +21494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.2">
+    <row r="19" spans="1:11" ht="45">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -21519,7 +21514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="30">
       <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
@@ -21545,7 +21540,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
@@ -21571,7 +21566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.2">
+    <row r="22" spans="1:11" ht="45">
       <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
@@ -21617,7 +21612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="19" t="s">
         <v>94</v>
       </c>
@@ -21640,7 +21635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="19" t="s">
         <v>97</v>
       </c>
@@ -21663,7 +21658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
@@ -21698,7 +21693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="17" t="s">
         <v>280</v>
       </c>
@@ -21723,7 +21718,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="28.8">
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="19" t="s">
         <v>100</v>
       </c>
@@ -21749,7 +21744,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8">
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="17" t="s">
         <v>407</v>
       </c>
@@ -21775,7 +21770,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.2">
+    <row r="30" spans="1:11" ht="45">
       <c r="A30" s="17" t="s">
         <v>105</v>
       </c>
@@ -21795,7 +21790,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.8" customHeight="1">
+    <row r="31" spans="1:11" ht="25.9" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>409</v>
       </c>
@@ -21821,7 +21816,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8">
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="17" t="s">
         <v>107</v>
       </c>
@@ -21845,7 +21840,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="17" t="s">
         <v>110</v>
       </c>
@@ -21874,7 +21869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="19" t="s">
         <v>114</v>
       </c>
@@ -21900,7 +21895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="19" t="s">
         <v>117</v>
       </c>
@@ -21926,7 +21921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.8">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="19" t="s">
         <v>122</v>
       </c>
@@ -21952,7 +21947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.8">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="19" t="s">
         <v>123</v>
       </c>
@@ -21978,7 +21973,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8">
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="19" t="s">
         <v>126</v>
       </c>
@@ -22004,7 +21999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="43.2">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="19" t="s">
         <v>129</v>
       </c>
@@ -22030,7 +22025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28.8">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="17" t="s">
         <v>132</v>
       </c>
@@ -22053,7 +22048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.8">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="19" t="s">
         <v>135</v>
       </c>
@@ -22079,7 +22074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="43.2">
+    <row r="42" spans="1:9" ht="45">
       <c r="A42" s="19" t="s">
         <v>138</v>
       </c>
@@ -22105,7 +22100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="43.2">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="19" t="s">
         <v>141</v>
       </c>
@@ -22131,7 +22126,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="43.2">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="19" t="s">
         <v>144</v>
       </c>
@@ -22157,7 +22152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8">
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="19" t="s">
         <v>147</v>
       </c>
@@ -22183,7 +22178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="43.2">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="19" t="s">
         <v>149</v>
       </c>
@@ -22212,7 +22207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.2">
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="19" t="s">
         <v>152</v>
       </c>
@@ -22241,7 +22236,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="43.2">
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="19" t="s">
         <v>155</v>
       </c>
@@ -22270,7 +22265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="43.2">
+    <row r="49" spans="1:11" ht="45">
       <c r="A49" s="17" t="s">
         <v>158</v>
       </c>
@@ -22299,7 +22294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8">
+    <row r="50" spans="1:11" ht="30">
       <c r="A50" s="19" t="s">
         <v>160</v>
       </c>
@@ -22331,7 +22326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8">
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="19" t="s">
         <v>165</v>
       </c>
@@ -22357,7 +22352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="43.2">
+    <row r="52" spans="1:11" ht="45">
       <c r="A52" s="17" t="s">
         <v>170</v>
       </c>
@@ -22386,7 +22381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8">
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="19" t="s">
         <v>172</v>
       </c>
@@ -22418,7 +22413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="43.2">
+    <row r="54" spans="1:11" ht="45">
       <c r="A54" s="17" t="s">
         <v>175</v>
       </c>
@@ -22447,7 +22442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.8">
+    <row r="55" spans="1:11" ht="45">
       <c r="A55" s="19" t="s">
         <v>177</v>
       </c>
@@ -22482,7 +22477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="43.2">
+    <row r="56" spans="1:11" ht="60">
       <c r="A56" s="17" t="s">
         <v>181</v>
       </c>
@@ -22508,7 +22503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8">
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="19" t="s">
         <v>374</v>
       </c>
@@ -22543,7 +22538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="43.2">
+    <row r="58" spans="1:11" ht="45">
       <c r="A58" s="17" t="s">
         <v>185</v>
       </c>
@@ -22569,7 +22564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="43.2">
+    <row r="59" spans="1:11" ht="45">
       <c r="A59" s="19" t="s">
         <v>187</v>
       </c>
@@ -22598,7 +22593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="43.2">
+    <row r="60" spans="1:11" ht="45">
       <c r="A60" s="19" t="s">
         <v>190</v>
       </c>
@@ -22627,7 +22622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="43.2">
+    <row r="61" spans="1:11" ht="45">
       <c r="A61" s="17" t="s">
         <v>193</v>
       </c>
@@ -22656,7 +22651,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="43.2">
+    <row r="62" spans="1:11" ht="45">
       <c r="A62" s="17" t="s">
         <v>195</v>
       </c>
@@ -22685,7 +22680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="28.8">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="19" t="s">
         <v>199</v>
       </c>
@@ -22717,7 +22712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.8">
+    <row r="64" spans="1:11" ht="30">
       <c r="A64" s="17" t="s">
         <v>202</v>
       </c>
@@ -22743,7 +22738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="43.2">
+    <row r="65" spans="1:13" ht="45">
       <c r="A65" s="19" t="s">
         <v>205</v>
       </c>
@@ -22772,7 +22767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.8">
+    <row r="66" spans="1:13" ht="45">
       <c r="A66" s="19" t="s">
         <v>208</v>
       </c>
@@ -22801,7 +22796,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.8">
+    <row r="67" spans="1:13" ht="30">
       <c r="A67" s="19" t="s">
         <v>210</v>
       </c>
@@ -22833,7 +22828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.8">
+    <row r="68" spans="1:13" ht="30">
       <c r="A68" s="17" t="s">
         <v>213</v>
       </c>
@@ -22874,7 +22869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.8">
+    <row r="69" spans="1:13" ht="30">
       <c r="A69" s="19" t="s">
         <v>220</v>
       </c>
@@ -22900,7 +22895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.8">
+    <row r="70" spans="1:13" ht="30">
       <c r="A70" s="19" t="s">
         <v>222</v>
       </c>
@@ -22926,7 +22921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.8">
+    <row r="71" spans="1:13" ht="30">
       <c r="A71" s="17" t="s">
         <v>224</v>
       </c>
@@ -22955,7 +22950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="43.2">
+    <row r="72" spans="1:13" ht="45">
       <c r="A72" s="17" t="s">
         <v>226</v>
       </c>
@@ -22990,7 +22985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="43.2">
+    <row r="73" spans="1:13" ht="45">
       <c r="A73" s="17" t="s">
         <v>230</v>
       </c>
@@ -23025,7 +23020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.8">
+    <row r="74" spans="1:13" ht="30">
       <c r="A74" s="17" t="s">
         <v>234</v>
       </c>
@@ -23054,7 +23049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.8">
+    <row r="75" spans="1:13" ht="45">
       <c r="A75" s="17" t="s">
         <v>251</v>
       </c>
@@ -23089,7 +23084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.8">
+    <row r="76" spans="1:13" ht="30">
       <c r="A76" s="19" t="s">
         <v>272</v>
       </c>
@@ -23130,7 +23125,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.8">
+    <row r="77" spans="1:13" ht="30">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -23168,7 +23163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8">
+    <row r="78" spans="1:13" ht="30">
       <c r="A78" s="17" t="s">
         <v>247</v>
       </c>
@@ -23209,7 +23204,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.8">
+    <row r="79" spans="1:13" ht="30">
       <c r="A79" s="17" t="s">
         <v>253</v>
       </c>
@@ -23250,7 +23245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="28.8">
+    <row r="80" spans="1:13" ht="30">
       <c r="A80" s="17" t="s">
         <v>255</v>
       </c>
@@ -23291,7 +23286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.8">
+    <row r="81" spans="1:13" ht="30">
       <c r="A81" s="19" t="s">
         <v>259</v>
       </c>
@@ -23329,7 +23324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8">
+    <row r="82" spans="1:13" ht="45">
       <c r="A82" s="17" t="s">
         <v>262</v>
       </c>
@@ -23370,7 +23365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.8">
+    <row r="83" spans="1:13" ht="30">
       <c r="A83" s="17" t="s">
         <v>268</v>
       </c>
@@ -23399,7 +23394,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="43.2">
+    <row r="84" spans="1:13" ht="45">
       <c r="A84" s="19" t="s">
         <v>273</v>
       </c>
@@ -23422,7 +23417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="28.8">
+    <row r="85" spans="1:13" ht="30">
       <c r="A85" s="17" t="s">
         <v>278</v>
       </c>
@@ -23451,7 +23446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8">
+    <row r="86" spans="1:13" ht="30">
       <c r="A86" s="19" t="s">
         <v>283</v>
       </c>
@@ -23480,7 +23475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28.8">
+    <row r="87" spans="1:13" ht="30">
       <c r="A87" s="19" t="s">
         <v>286</v>
       </c>
@@ -23509,7 +23504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28.8">
+    <row r="88" spans="1:13" ht="30">
       <c r="A88" s="17" t="s">
         <v>289</v>
       </c>
@@ -23538,7 +23533,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="28.8">
+    <row r="89" spans="1:13" ht="30">
       <c r="A89" s="17" t="s">
         <v>293</v>
       </c>
@@ -23567,7 +23562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="28.8">
+    <row r="90" spans="1:13" ht="30">
       <c r="A90" s="19" t="s">
         <v>295</v>
       </c>
@@ -23596,7 +23591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="28.8">
+    <row r="91" spans="1:13" ht="30">
       <c r="A91" s="19" t="s">
         <v>297</v>
       </c>
@@ -23625,7 +23620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="28.8">
+    <row r="92" spans="1:13" ht="30">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -23654,7 +23649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="28.8">
+    <row r="93" spans="1:13" ht="30">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -23683,7 +23678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="28.8">
+    <row r="94" spans="1:13" ht="30">
       <c r="A94" s="17" t="s">
         <v>303</v>
       </c>
@@ -23712,7 +23707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="43.2">
+    <row r="95" spans="1:13" ht="45">
       <c r="A95" s="17" t="s">
         <v>305</v>
       </c>
@@ -23738,7 +23733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="43.2">
+    <row r="96" spans="1:13" ht="45">
       <c r="A96" s="17" t="s">
         <v>308</v>
       </c>
@@ -23764,7 +23759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="43.2">
+    <row r="97" spans="1:10" ht="45">
       <c r="A97" s="17" t="s">
         <v>310</v>
       </c>
@@ -23790,7 +23785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="43.2">
+    <row r="98" spans="1:10" ht="45">
       <c r="A98" s="17" t="s">
         <v>327</v>
       </c>
@@ -23819,7 +23814,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.8" customHeight="1">
+    <row r="99" spans="1:10" ht="43.9" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>313</v>
       </c>
@@ -23845,7 +23840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="43.2">
+    <row r="100" spans="1:10" ht="45">
       <c r="A100" s="17" t="s">
         <v>315</v>
       </c>
@@ -23871,7 +23866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="43.2">
+    <row r="101" spans="1:10" ht="45">
       <c r="A101" s="17" t="s">
         <v>330</v>
       </c>
@@ -23900,7 +23895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="43.2">
+    <row r="102" spans="1:10" ht="60">
       <c r="A102" s="21" t="s">
         <v>318</v>
       </c>
@@ -23926,7 +23921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="28.8">
+    <row r="103" spans="1:10" ht="45">
       <c r="A103" s="17" t="s">
         <v>321</v>
       </c>
@@ -23952,7 +23947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="28.8">
+    <row r="104" spans="1:10" ht="45">
       <c r="A104" s="17" t="s">
         <v>332</v>
       </c>
@@ -23981,7 +23976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="43.2">
+    <row r="105" spans="1:10" ht="45">
       <c r="A105" s="17" t="s">
         <v>324</v>
       </c>
@@ -24007,7 +24002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="28.8">
+    <row r="106" spans="1:10" ht="30">
       <c r="A106" s="17" t="s">
         <v>334</v>
       </c>
@@ -24030,7 +24025,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="43.2">
+    <row r="107" spans="1:10" ht="45">
       <c r="A107" s="17" t="s">
         <v>336</v>
       </c>
@@ -24062,7 +24057,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="43.2">
+    <row r="108" spans="1:10" ht="45">
       <c r="A108" s="17" t="s">
         <v>340</v>
       </c>
@@ -24094,7 +24089,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="28.8">
+    <row r="109" spans="1:10" ht="30">
       <c r="A109" s="17" t="s">
         <v>344</v>
       </c>
@@ -24120,7 +24115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="43.2">
+    <row r="110" spans="1:10" ht="45">
       <c r="A110" s="17" t="s">
         <v>350</v>
       </c>
@@ -24149,7 +24144,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="28.8">
+    <row r="111" spans="1:10" ht="30">
       <c r="A111" s="17" t="s">
         <v>351</v>
       </c>
@@ -24181,7 +24176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="28.8">
+    <row r="112" spans="1:10" ht="30">
       <c r="A112" s="17" t="s">
         <v>354</v>
       </c>
@@ -24213,7 +24208,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="28.8">
+    <row r="113" spans="1:17" ht="30">
       <c r="A113" s="17" t="s">
         <v>359</v>
       </c>
@@ -24239,7 +24234,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="28.8">
+    <row r="114" spans="1:17" ht="30">
       <c r="A114" s="17" t="s">
         <v>360</v>
       </c>
@@ -24268,7 +24263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="43.2">
+    <row r="115" spans="1:17" ht="45">
       <c r="A115" s="17" t="s">
         <v>362</v>
       </c>
@@ -24297,7 +24292,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="43.2">
+    <row r="116" spans="1:17" ht="60">
       <c r="A116" s="17" t="s">
         <v>364</v>
       </c>
@@ -24323,7 +24318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="28.8">
+    <row r="117" spans="1:17" ht="30">
       <c r="A117" s="17" t="s">
         <v>367</v>
       </c>
@@ -24349,7 +24344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="28.8">
+    <row r="118" spans="1:17" ht="30">
       <c r="A118" s="19" t="s">
         <v>370</v>
       </c>
@@ -24375,7 +24370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="28.8">
+    <row r="119" spans="1:17" ht="30">
       <c r="A119" s="19" t="s">
         <v>375</v>
       </c>
@@ -24401,7 +24396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="43.2">
+    <row r="120" spans="1:17" ht="60">
       <c r="A120" s="17" t="s">
         <v>382</v>
       </c>
@@ -24439,7 +24434,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="43.2">
+    <row r="121" spans="1:17" ht="45">
       <c r="A121" s="17" t="s">
         <v>384</v>
       </c>
@@ -24477,7 +24472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="28.8">
+    <row r="122" spans="1:17" ht="30">
       <c r="A122" s="19" t="s">
         <v>387</v>
       </c>
@@ -24500,7 +24495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="28.8">
+    <row r="123" spans="1:17" ht="30">
       <c r="A123" s="17" t="s">
         <v>389</v>
       </c>
@@ -24523,7 +24518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="57.6">
+    <row r="124" spans="1:17" ht="60">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -24576,7 +24571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="28.8">
+    <row r="125" spans="1:17" ht="30">
       <c r="A125" s="17" t="s">
         <v>399</v>
       </c>
@@ -24602,7 +24597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="28.8">
+    <row r="126" spans="1:17" ht="30">
       <c r="A126" s="17" t="s">
         <v>402</v>
       </c>
@@ -24628,7 +24623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="28.8">
+    <row r="127" spans="1:17" ht="30">
       <c r="A127" s="17" t="s">
         <v>411</v>
       </c>
@@ -24657,7 +24652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="28.8">
+    <row r="128" spans="1:17" ht="30">
       <c r="A128" s="17" t="s">
         <v>414</v>
       </c>
@@ -24686,7 +24681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="28.8">
+    <row r="129" spans="1:12" ht="30">
       <c r="A129" s="17" t="s">
         <v>417</v>
       </c>
@@ -24715,7 +24710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.8">
+    <row r="130" spans="1:12" ht="30">
       <c r="A130" s="17" t="s">
         <v>419</v>
       </c>
@@ -24744,7 +24739,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="28.8">
+    <row r="131" spans="1:12" ht="30">
       <c r="A131" s="17" t="s">
         <v>420</v>
       </c>
@@ -24773,7 +24768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.8">
+    <row r="132" spans="1:12" ht="30">
       <c r="A132" s="17" t="s">
         <v>422</v>
       </c>
@@ -24802,7 +24797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28.8">
+    <row r="133" spans="1:12" ht="30">
       <c r="A133" s="19" t="s">
         <v>424</v>
       </c>
@@ -24831,7 +24826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28.8">
+    <row r="134" spans="1:12" ht="30">
       <c r="A134" s="17" t="s">
         <v>426</v>
       </c>
@@ -24857,7 +24852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="43.2">
+    <row r="135" spans="1:12" ht="45">
       <c r="A135" s="17" t="s">
         <v>429</v>
       </c>
@@ -24895,7 +24890,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="43.2">
+    <row r="136" spans="1:12" ht="45">
       <c r="A136" s="17" t="s">
         <v>433</v>
       </c>
@@ -24933,7 +24928,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="43.2">
+    <row r="137" spans="1:12" ht="60">
       <c r="A137" s="17" t="s">
         <v>436</v>
       </c>
@@ -24962,7 +24957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="57.6">
+    <row r="138" spans="1:12" ht="60">
       <c r="A138" s="17" t="s">
         <v>439</v>
       </c>
@@ -24997,7 +24992,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="43.2">
+    <row r="139" spans="1:12" ht="45">
       <c r="A139" s="21" t="s">
         <v>441</v>
       </c>
@@ -25023,7 +25018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="28.8">
+    <row r="140" spans="1:12" ht="30">
       <c r="A140" s="19" t="s">
         <v>445</v>
       </c>
@@ -25046,7 +25041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="28.8">
+    <row r="141" spans="1:12" ht="30">
       <c r="A141" s="17" t="s">
         <v>447</v>
       </c>
@@ -25072,7 +25067,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="28.8">
+    <row r="142" spans="1:12" ht="30">
       <c r="A142" s="17" t="s">
         <v>449</v>
       </c>
@@ -25098,7 +25093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="28.8">
+    <row r="143" spans="1:12" ht="30">
       <c r="A143" s="17" t="s">
         <v>453</v>
       </c>
@@ -25121,7 +25116,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="28.8">
+    <row r="144" spans="1:12" ht="45">
       <c r="A144" s="17" t="s">
         <v>456</v>
       </c>
@@ -25147,7 +25142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="28.8">
+    <row r="145" spans="1:10" ht="30">
       <c r="A145" s="17" t="s">
         <v>458</v>
       </c>
@@ -25173,7 +25168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="28.8">
+    <row r="146" spans="1:10" ht="45">
       <c r="A146" s="17" t="s">
         <v>461</v>
       </c>
@@ -25199,7 +25194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="28.8">
+    <row r="147" spans="1:10" ht="30">
       <c r="A147" s="17" t="s">
         <v>464</v>
       </c>
@@ -25225,7 +25220,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="28.8">
+    <row r="148" spans="1:10" ht="30">
       <c r="A148" s="17" t="s">
         <v>468</v>
       </c>
@@ -25254,7 +25249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="28.8">
+    <row r="149" spans="1:10" ht="30">
       <c r="A149" s="17" t="s">
         <v>472</v>
       </c>
@@ -25280,7 +25275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="28.8">
+    <row r="150" spans="1:10" ht="30">
       <c r="A150" s="19" t="s">
         <v>474</v>
       </c>
@@ -25306,7 +25301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="57.6">
+    <row r="151" spans="1:10" ht="60">
       <c r="A151" s="17" t="s">
         <v>477</v>
       </c>
@@ -25335,7 +25330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="28.8">
+    <row r="152" spans="1:10" ht="30">
       <c r="A152" s="17" t="s">
         <v>485</v>
       </c>
@@ -25361,7 +25356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="28.8">
+    <row r="153" spans="1:10" ht="30">
       <c r="A153" s="17" t="s">
         <v>486</v>
       </c>
@@ -25387,7 +25382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="43.2">
+    <row r="154" spans="1:10" ht="45">
       <c r="A154" s="17" t="s">
         <v>487</v>
       </c>
@@ -25413,7 +25408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="28.8">
+    <row r="155" spans="1:10" ht="45">
       <c r="A155" s="17" t="s">
         <v>490</v>
       </c>
@@ -25445,7 +25440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="28.8">
+    <row r="156" spans="1:10" ht="30">
       <c r="A156" s="11" t="s">
         <v>492</v>
       </c>
@@ -25471,7 +25466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="28.8">
+    <row r="157" spans="1:10" ht="30">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -25500,7 +25495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="28.8">
+    <row r="158" spans="1:10" ht="45">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -25526,7 +25521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="28.8">
+    <row r="159" spans="1:10" ht="30">
       <c r="A159" s="19" t="s">
         <v>499</v>
       </c>
@@ -25552,7 +25547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="28.8">
+    <row r="160" spans="1:10" ht="30">
       <c r="A160" s="19" t="s">
         <v>501</v>
       </c>
@@ -25584,7 +25579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="28.8">
+    <row r="161" spans="1:14" ht="30">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -25622,7 +25617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="43.2">
+    <row r="162" spans="1:14" ht="45">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -25660,7 +25655,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="43.2">
+    <row r="163" spans="1:14" ht="45">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -25698,7 +25693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="43.2">
+    <row r="164" spans="1:14" ht="45">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -25771,7 +25766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="28.8">
+    <row r="166" spans="1:14" ht="30">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -25797,7 +25792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="43.2">
+    <row r="167" spans="1:14" ht="45">
       <c r="A167" s="23" t="s">
         <v>521</v>
       </c>
@@ -25823,7 +25818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="28.8">
+    <row r="168" spans="1:14" ht="30">
       <c r="A168" s="17" t="s">
         <v>524</v>
       </c>
@@ -25855,7 +25850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="43.2">
+    <row r="169" spans="1:14" ht="45">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -25890,7 +25885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="28.8">
+    <row r="170" spans="1:14" ht="30">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -25919,7 +25914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="28.8">
+    <row r="171" spans="1:14" ht="45">
       <c r="A171" s="17" t="s">
         <v>538</v>
       </c>
@@ -25951,7 +25946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="28.8">
+    <row r="172" spans="1:14" ht="30">
       <c r="A172" s="17" t="s">
         <v>541</v>
       </c>
@@ -25983,7 +25978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="43.2">
+    <row r="173" spans="1:14" ht="45">
       <c r="A173" s="17" t="s">
         <v>544</v>
       </c>
@@ -26009,7 +26004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="72">
+    <row r="174" spans="1:14" ht="90">
       <c r="A174" s="17" t="s">
         <v>547</v>
       </c>
@@ -26032,7 +26027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="28.8">
+    <row r="175" spans="1:14" ht="45">
       <c r="A175" s="17" t="s">
         <v>550</v>
       </c>
@@ -26055,7 +26050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="28.8">
+    <row r="176" spans="1:14" ht="30">
       <c r="A176" s="17" t="s">
         <v>553</v>
       </c>
@@ -26093,7 +26088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="43.2">
+    <row r="177" spans="1:10" ht="60">
       <c r="A177" s="14" t="s">
         <v>591</v>
       </c>
@@ -26150,31 +26145,31 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.77734375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.77734375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.21875" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.77734375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.21875" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.21875" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="31"/>
+    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -26232,7 +26227,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.799999999999997" customHeight="1">
+    <row r="3" spans="1:19" ht="34.9" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -26264,7 +26259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -26296,7 +26291,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.799999999999997" customHeight="1">
+    <row r="5" spans="1:19" ht="37.9" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -26328,7 +26323,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.8" customHeight="1">
+    <row r="6" spans="1:19" ht="31.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -26406,7 +26401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -26438,7 +26433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -26464,7 +26459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -26516,7 +26511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -26562,7 +26557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.8">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -26591,7 +26586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -26649,7 +26644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -26675,7 +26670,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -26707,7 +26702,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -26769,7 +26764,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.8">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -26789,7 +26784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="43.2">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -26818,7 +26813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -26844,7 +26839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8">
+    <row r="25" spans="1:12" ht="30">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -26870,7 +26865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.8">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -26902,7 +26897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8">
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -26934,7 +26929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8">
+    <row r="28" spans="1:12" ht="30">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -26972,7 +26967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8">
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -27005,7 +27000,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="28.8">
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -27095,7 +27090,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -27115,7 +27110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8">
+    <row r="34" spans="1:15" ht="30">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -27147,7 +27142,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8">
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -27179,7 +27174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8">
+    <row r="36" spans="1:15" ht="30">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -27211,7 +27206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="28.8">
+    <row r="37" spans="1:15" ht="30">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -27243,7 +27238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8">
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -27275,7 +27270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8">
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -27310,7 +27305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8">
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -27342,7 +27337,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8">
+    <row r="41" spans="1:15" ht="30">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -27377,7 +27372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8">
+    <row r="42" spans="1:15" ht="30">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -27409,7 +27404,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8">
+    <row r="43" spans="1:15" ht="30">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -27441,7 +27436,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8">
+    <row r="44" spans="1:15" ht="30">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -27467,7 +27462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.8">
+    <row r="45" spans="1:15" ht="30">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -27502,7 +27497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8">
+    <row r="46" spans="1:15" ht="30">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -27534,7 +27529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8">
+    <row r="47" spans="1:15" ht="30">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -27566,7 +27561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8">
+    <row r="48" spans="1:15" ht="30">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -27613,7 +27608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="28.8">
+    <row r="49" spans="1:20" ht="30">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -27648,7 +27643,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.8">
+    <row r="50" spans="1:20" ht="30">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -27704,7 +27699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.8">
+    <row r="51" spans="1:20" ht="30">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -27766,7 +27761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="28.8">
+    <row r="52" spans="1:20" ht="30">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -27828,7 +27823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="28.8">
+    <row r="53" spans="1:20" ht="30">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -27875,7 +27870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.8">
+    <row r="54" spans="1:20" ht="30">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -27907,7 +27902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="28.8">
+    <row r="55" spans="1:20" ht="30">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -27954,7 +27949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="43.2">
+    <row r="56" spans="1:20" ht="45">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -28001,7 +27996,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="28.8">
+    <row r="57" spans="1:20" ht="30">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -28065,7 +28060,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.8">
+    <row r="59" spans="1:20" ht="30">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -28097,7 +28092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="28.8">
+    <row r="60" spans="1:20" ht="30">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -28129,7 +28124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="28.8">
+    <row r="61" spans="1:20" ht="30">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -28161,7 +28156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.8">
+    <row r="62" spans="1:20" ht="30">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -28205,7 +28200,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="28.8">
+    <row r="63" spans="1:20" ht="30">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -28238,7 +28233,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:20" ht="28.8">
+    <row r="64" spans="1:20" ht="30">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -28302,7 +28297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="28.8">
+    <row r="66" spans="1:14" ht="30">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -28322,7 +28317,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="28.8">
+    <row r="67" spans="1:14" ht="30">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -28354,7 +28349,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.8">
+    <row r="68" spans="1:14" ht="30">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -28386,7 +28381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="28.8">
+    <row r="69" spans="1:14" ht="30">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -28427,7 +28422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="43.2">
+    <row r="70" spans="1:14" ht="45">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -28471,7 +28466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="28.8">
+    <row r="71" spans="1:14" ht="30">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -28503,7 +28498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="28.8">
+    <row r="72" spans="1:14" ht="30">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -28573,7 +28568,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="28.8">
+    <row r="74" spans="1:14" ht="30">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -28608,7 +28603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="28.8">
+    <row r="75" spans="1:14" ht="30">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -28640,7 +28635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="28.8">
+    <row r="76" spans="1:14" ht="30">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -28704,7 +28699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.8">
+    <row r="78" spans="1:14" ht="45">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -28748,7 +28743,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="28.8">
+    <row r="79" spans="1:14" ht="30">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -28783,7 +28778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="28.8">
+    <row r="80" spans="1:14" ht="30">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -28824,7 +28819,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="28.8">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -28865,7 +28860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="43.2">
+    <row r="82" spans="1:16" ht="45">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -28900,7 +28895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="28.8">
+    <row r="83" spans="1:16" ht="30">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -28941,7 +28936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8">
+    <row r="84" spans="1:16" ht="30">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -28982,7 +28977,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="43.2">
+    <row r="85" spans="1:16" ht="45">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -29018,7 +29013,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="28.8">
+    <row r="86" spans="1:16" ht="30">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -29053,7 +29048,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="28.8">
+    <row r="87" spans="1:16" ht="30">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -29088,7 +29083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="28.8">
+    <row r="88" spans="1:16" ht="30">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -29123,7 +29118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="28.8">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -29152,7 +29147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="28.8">
+    <row r="90" spans="1:16" ht="30">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -29181,7 +29176,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="28.8">
+    <row r="91" spans="1:16" ht="45">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -29260,7 +29255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="43.2">
+    <row r="93" spans="1:16" ht="45">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -29310,7 +29305,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="28.8">
+    <row r="94" spans="1:16" ht="45">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -29360,7 +29355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="28.8">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -29407,7 +29402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="28.8">
+    <row r="96" spans="1:16" ht="30">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -29442,7 +29437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28.8">
+    <row r="97" spans="1:13" ht="30">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -29477,7 +29472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.8">
+    <row r="98" spans="1:13" ht="30">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -29512,7 +29507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8">
+    <row r="99" spans="1:13" ht="30">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -29588,7 +29583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8">
+    <row r="101" spans="1:13" ht="30">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -29608,7 +29603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="28.8">
+    <row r="102" spans="1:13" ht="30">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -29640,7 +29635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="28.8">
+    <row r="103" spans="1:13" ht="30">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -29678,7 +29673,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.8">
+    <row r="104" spans="1:13" ht="45">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -29719,7 +29714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="28.8">
+    <row r="105" spans="1:13" ht="30">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -29789,7 +29784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.8">
+    <row r="107" spans="1:13" ht="30">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -29818,7 +29813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.8">
+    <row r="108" spans="1:13" ht="30">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -29908,7 +29903,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="28.8">
+    <row r="111" spans="1:13" ht="30">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -29943,7 +29938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="28.8">
+    <row r="112" spans="1:13" ht="30">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -29975,7 +29970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="28.8">
+    <row r="113" spans="1:22" ht="30">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -30007,7 +30002,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="43.2">
+    <row r="114" spans="1:22" ht="45">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -30039,7 +30034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.2" customHeight="1">
+    <row r="115" spans="1:22" ht="43.15" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -30107,7 +30102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="28.8">
+    <row r="116" spans="1:22" ht="30">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -30142,7 +30137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="28.8">
+    <row r="117" spans="1:22" ht="30">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -30183,7 +30178,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="28.8">
+    <row r="118" spans="1:22" ht="30">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -30215,7 +30210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="28.8">
+    <row r="119" spans="1:22" ht="30">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -30256,7 +30251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="28.8">
+    <row r="120" spans="1:22" ht="30">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -30291,7 +30286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="43.2">
+    <row r="121" spans="1:22" ht="60">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -30364,7 +30359,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="28.8">
+    <row r="123" spans="1:22" ht="30">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -30408,7 +30403,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="28.8">
+    <row r="124" spans="1:22" ht="30">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -30478,7 +30473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="28.8">
+    <row r="126" spans="1:22" ht="30">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -30586,7 +30581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="28.8">
+    <row r="129" spans="1:13" ht="30">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -30647,7 +30642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.8">
+    <row r="131" spans="1:13" ht="30">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -30699,7 +30694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28.8">
+    <row r="133" spans="1:13" ht="30">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -30731,7 +30726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.8">
+    <row r="134" spans="1:13" ht="30">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -30763,7 +30758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="28.8">
+    <row r="135" spans="1:13" ht="30">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -30836,7 +30831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.8">
+    <row r="137" spans="1:13" ht="30">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -30859,7 +30854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.8">
+    <row r="138" spans="1:13" ht="30">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -30885,7 +30880,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.8">
+    <row r="139" spans="1:13" ht="45">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -30926,7 +30921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.8">
+    <row r="140" spans="1:13" ht="30">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -30955,7 +30950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="28.8">
+    <row r="141" spans="1:13" ht="30">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -30984,7 +30979,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28.8">
+    <row r="142" spans="1:13" ht="30">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -31016,7 +31011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="28.8">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -31077,7 +31072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="28.8">
+    <row r="145" spans="1:14" ht="30">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -31106,7 +31101,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="28.8">
+    <row r="146" spans="1:14" ht="30">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -31141,7 +31136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="28.8">
+    <row r="147" spans="1:14" ht="30">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -31176,7 +31171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="28.8">
+    <row r="148" spans="1:14" ht="30">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -31220,7 +31215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="28.8">
+    <row r="149" spans="1:14" ht="45">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -31272,7 +31267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" ht="30">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -31295,7 +31290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="28.8">
+    <row r="152" spans="1:14" ht="30">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -31327,7 +31322,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="28.8">
+    <row r="153" spans="1:14" ht="30">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -31347,7 +31342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="28.8">
+    <row r="154" spans="1:14" ht="30">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -31376,7 +31371,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="28.8">
+    <row r="155" spans="1:14" ht="30">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -31405,7 +31400,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="28.8">
+    <row r="156" spans="1:14" ht="30">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -31437,7 +31432,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="28.8">
+    <row r="157" spans="1:14" ht="30">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -31469,7 +31464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="28.8">
+    <row r="158" spans="1:14" ht="30">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -31536,7 +31531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="28.8">
+    <row r="160" spans="1:14" ht="30">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -31571,7 +31566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8">
+    <row r="161" spans="1:19" ht="30">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -31603,7 +31598,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.8">
+    <row r="162" spans="1:19" ht="30">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -31641,7 +31636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="28.8">
+    <row r="163" spans="1:19" ht="30">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -31673,7 +31668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="28.8">
+    <row r="164" spans="1:19" ht="30">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -31705,7 +31700,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" ht="30">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -31746,7 +31741,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="28.8">
+    <row r="166" spans="1:19" ht="30">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STELCO\Desktop\Nesh_Automation\automationtests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -23,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7362" uniqueCount="1089">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="1105">
   <si>
     <t>TestCase</t>
   </si>
@@ -3323,6 +3328,54 @@
   </si>
   <si>
     <t>VerifyTopicsAreStillUnderAllThemeIfWhenChangedchannels</t>
+  </si>
+  <si>
+    <t>Verify_That_Decision_Section_Is_Display_In_The_The_Side_Panel</t>
+  </si>
+  <si>
+    <t>VerifyThatDecisionSectionIsDisplayedInTheSidePanel</t>
+  </si>
+  <si>
+    <t>Verify_That_Expert_Is_Not_Able_To_Submit_Empty_Answer</t>
+  </si>
+  <si>
+    <t>VerifyThatUserIsNotAbleToSubmitEmptyAnswer</t>
+  </si>
+  <si>
+    <t>Verify_That_Avatar_Section_Is_Aligned</t>
+  </si>
+  <si>
+    <t>VerifyThatAvatarSectionIsAligned</t>
+  </si>
+  <si>
+    <t>Verify_That_Summary_View_And_Source_View_Toggle_Is_Display</t>
+  </si>
+  <si>
+    <t>VerifyThatSummaryViewAndSourceViewIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_Multiple_Tag_Is_Available_At_The_Source_View</t>
+  </si>
+  <si>
+    <t>ClickOnSourceViewOption</t>
+  </si>
+  <si>
+    <t>VerifyThatMultipleTagIsAvailableAtTheSourceViewPage</t>
+  </si>
+  <si>
+    <t>Verify_That_Inside_Source_View_Passages_Option_Is_Working_Such_As_Normal_Passage</t>
+  </si>
+  <si>
+    <t>ClickOnSourceViewDownIcon</t>
+  </si>
+  <si>
+    <t>VerifyThatSourcePassageIsWorkingSuchAsNormalPassage</t>
+  </si>
+  <si>
+    <t>VerifyThatBubbleMessageIsDisplayOnChinookAvatar</t>
+  </si>
+  <si>
+    <t>Verify_That_Bubble_Message_Is_Display_On_Chinook_Avatar</t>
   </si>
 </sst>
 </file>
@@ -3608,7 +3661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="71">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3772,6 +3825,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4064,7 +4120,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4072,63 +4128,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V202"/>
+  <dimension ref="A1:V209"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I120" workbookViewId="0">
-      <selection activeCell="K126" sqref="K126"/>
+    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
+      <selection activeCell="F213" sqref="F213"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="31"/>
+    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -4160,7 +4216,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.9" customHeight="1">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -4192,7 +4248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="28.8">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -4224,7 +4280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.9" customHeight="1">
+    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -4256,7 +4312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.9" customHeight="1">
+    <row r="6" spans="1:19" ht="31.95" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -4288,7 +4344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34.15" customHeight="1">
+    <row r="7" spans="1:19" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
@@ -4334,7 +4390,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -4366,7 +4422,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -4392,7 +4448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -4444,7 +4500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30">
+    <row r="13" spans="1:19" ht="28.8">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -4490,7 +4546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -4519,7 +4575,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -4577,7 +4633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -4603,7 +4659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -4635,7 +4691,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -4665,7 +4721,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="28.9" customHeight="1">
+    <row r="21" spans="1:12" ht="28.95" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>602</v>
       </c>
@@ -4697,7 +4753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="28.8">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -4717,7 +4773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="43.2">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -4746,7 +4802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="28.8">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -4772,7 +4828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30">
+    <row r="25" spans="1:12" ht="28.8">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -4798,7 +4854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -4830,7 +4886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -4862,7 +4918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -4900,7 +4956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -4933,7 +4989,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -5023,7 +5079,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="28.8">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -5043,7 +5099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30">
+    <row r="34" spans="1:15" ht="28.8">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -5075,7 +5131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="28.8">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -5107,7 +5163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30">
+    <row r="36" spans="1:15" ht="28.8">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -5139,7 +5195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30">
+    <row r="37" spans="1:15" ht="28.8">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -5171,7 +5227,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="28.8">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -5203,7 +5259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="28.8">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -5238,7 +5294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="28.8">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -5270,7 +5326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="30">
+    <row r="41" spans="1:15" ht="28.8">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -5305,7 +5361,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30">
+    <row r="42" spans="1:15" ht="28.8">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -5337,7 +5393,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="28.8">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -5369,7 +5425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row r="44" spans="1:15" ht="28.8">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -5395,7 +5451,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30">
+    <row r="45" spans="1:15" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -5430,7 +5486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30">
+    <row r="46" spans="1:15" ht="28.8">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -5462,7 +5518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30">
+    <row r="47" spans="1:15" ht="28.8">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -5494,7 +5550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="28.8">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -5541,7 +5597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="30">
+    <row r="49" spans="1:21" ht="28.8">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -5576,7 +5632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="30">
+    <row r="50" spans="1:21" ht="28.8">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -5632,7 +5688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30">
+    <row r="51" spans="1:21" ht="28.8">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -5697,7 +5753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="30">
+    <row r="52" spans="1:21" ht="28.8">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -5762,7 +5818,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="30">
+    <row r="53" spans="1:21" ht="28.8">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -5809,7 +5865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30">
+    <row r="54" spans="1:21" ht="28.8">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -5841,7 +5897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="30">
+    <row r="55" spans="1:21" ht="28.8">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -5877,7 +5933,7 @@
       </c>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:21" ht="45">
+    <row r="56" spans="1:21" ht="43.2">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -5924,7 +5980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="30">
+    <row r="57" spans="1:21" ht="28.8">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -5988,7 +6044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="30">
+    <row r="59" spans="1:21" ht="28.8">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -6020,7 +6076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="30">
+    <row r="60" spans="1:21" ht="28.8">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -6052,7 +6108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30">
+    <row r="61" spans="1:21" ht="28.8">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -6084,7 +6140,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="30">
+    <row r="62" spans="1:21" ht="28.8">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -6131,7 +6187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="30">
+    <row r="63" spans="1:21" ht="28.8">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -6164,7 +6220,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:21" ht="30">
+    <row r="64" spans="1:21" ht="28.8">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -6228,7 +6284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15" ht="28.8">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -6248,7 +6304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="30">
+    <row r="67" spans="1:15" ht="28.8">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -6280,7 +6336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="30">
+    <row r="68" spans="1:15" ht="28.8">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -6312,7 +6368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="30">
+    <row r="69" spans="1:15" ht="28.8">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -6353,7 +6409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="45">
+    <row r="70" spans="1:15" ht="43.2">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -6400,7 +6456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="30">
+    <row r="71" spans="1:15" ht="28.8">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -6432,7 +6488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="30">
+    <row r="72" spans="1:15" ht="28.8">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -6502,7 +6558,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="30">
+    <row r="74" spans="1:15" ht="28.8">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -6537,7 +6593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="30">
+    <row r="75" spans="1:15" ht="28.8">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -6569,7 +6625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30">
+    <row r="76" spans="1:15" ht="28.8">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -6633,7 +6689,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="45">
+    <row r="78" spans="1:15" ht="28.8">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -6677,7 +6733,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="30">
+    <row r="79" spans="1:15" ht="28.8">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -6712,7 +6768,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="30">
+    <row r="80" spans="1:15" ht="28.8">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -6753,7 +6809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="28.8">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -6794,7 +6850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45">
+    <row r="82" spans="1:16" ht="43.2">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -6829,7 +6885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30">
+    <row r="83" spans="1:16" ht="28.8">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -6870,7 +6926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30">
+    <row r="84" spans="1:16" ht="28.8">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -6911,7 +6967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="45">
+    <row r="85" spans="1:16" ht="43.2">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -6947,7 +7003,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="30">
+    <row r="86" spans="1:16" ht="28.8">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -6982,7 +7038,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30">
+    <row r="87" spans="1:16" ht="28.8">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -7017,7 +7073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30">
+    <row r="88" spans="1:16" ht="28.8">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -7052,7 +7108,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30">
+    <row r="89" spans="1:16" ht="28.8">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -7081,7 +7137,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30">
+    <row r="90" spans="1:16" ht="28.8">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -7110,7 +7166,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="45">
+    <row r="91" spans="1:16" ht="28.8">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -7189,7 +7245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="45">
+    <row r="93" spans="1:16" ht="43.2">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -7239,7 +7295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="45">
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -7289,7 +7345,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="45">
+    <row r="95" spans="1:16" ht="28.8">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -7339,7 +7395,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30">
+    <row r="96" spans="1:16" ht="28.8">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -7374,7 +7430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30">
+    <row r="97" spans="1:13" ht="28.8">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -7409,7 +7465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30">
+    <row r="98" spans="1:13" ht="28.8">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -7444,7 +7500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30">
+    <row r="99" spans="1:13" ht="28.8">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -7520,7 +7576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30">
+    <row r="101" spans="1:13" ht="28.8">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -7540,7 +7596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30">
+    <row r="102" spans="1:13" ht="28.8">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -7572,7 +7628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30">
+    <row r="103" spans="1:13" ht="28.8">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -7610,7 +7666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="45">
+    <row r="104" spans="1:13" ht="28.8">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -7651,7 +7707,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30">
+    <row r="105" spans="1:13" ht="28.8">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -7724,7 +7780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30">
+    <row r="107" spans="1:13" ht="28.8">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -7753,7 +7809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30">
+    <row r="108" spans="1:13" ht="28.8">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -7843,7 +7899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30">
+    <row r="111" spans="1:13" ht="28.8">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -7878,7 +7934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30">
+    <row r="112" spans="1:13" ht="28.8">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -7910,7 +7966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="30">
+    <row r="113" spans="1:22" ht="28.8">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -7942,7 +7998,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="45">
+    <row r="114" spans="1:22" ht="43.2">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -7974,7 +8030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.15" customHeight="1">
+    <row r="115" spans="1:22" ht="43.2" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -8042,7 +8098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="30">
+    <row r="116" spans="1:22" ht="28.8">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -8077,7 +8133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="30">
+    <row r="117" spans="1:22" ht="28.8">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -8118,7 +8174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="30">
+    <row r="118" spans="1:22" ht="28.8">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -8150,7 +8206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="30">
+    <row r="119" spans="1:22" ht="28.8">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -8191,7 +8247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="30">
+    <row r="120" spans="1:22" ht="28.8">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -8226,7 +8282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="60">
+    <row r="121" spans="1:22" ht="43.2">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -8299,7 +8355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="30">
+    <row r="123" spans="1:22" ht="28.8">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -8343,7 +8399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="30">
+    <row r="124" spans="1:22" ht="28.8">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -8413,7 +8469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="30">
+    <row r="126" spans="1:22" ht="28.8">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -8521,7 +8577,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30">
+    <row r="129" spans="1:13" ht="28.8">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -8582,7 +8638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30">
+    <row r="131" spans="1:13" ht="28.8">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -8634,7 +8690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30">
+    <row r="133" spans="1:13" ht="28.8">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -8666,7 +8722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30">
+    <row r="134" spans="1:13" ht="28.8">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -8698,7 +8754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30">
+    <row r="135" spans="1:13" ht="28.8">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -8771,7 +8827,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30">
+    <row r="137" spans="1:13" ht="28.8">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -8794,7 +8850,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30">
+    <row r="138" spans="1:13" ht="28.8">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -8820,7 +8876,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="45">
+    <row r="139" spans="1:13" ht="28.8">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -8861,7 +8917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30">
+    <row r="140" spans="1:13" ht="28.8">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -8890,7 +8946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30">
+    <row r="141" spans="1:13" ht="28.8">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -8919,7 +8975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30">
+    <row r="142" spans="1:13" ht="28.8">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -8951,7 +9007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="28.8">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -9012,7 +9068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30">
+    <row r="145" spans="1:14" ht="28.8">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -9041,7 +9097,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="30">
+    <row r="146" spans="1:14" ht="28.8">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -9076,7 +9132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="30">
+    <row r="147" spans="1:14" ht="28.8">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -9111,7 +9167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30">
+    <row r="148" spans="1:14" ht="28.8">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -9155,7 +9211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="45">
+    <row r="149" spans="1:14" ht="28.8">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -9207,7 +9263,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30">
+    <row r="151" spans="1:14">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -9230,7 +9286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="30">
+    <row r="152" spans="1:14" ht="28.8">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -9262,7 +9318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="30">
+    <row r="153" spans="1:14" ht="28.8">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -9282,7 +9338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="30">
+    <row r="154" spans="1:14" ht="28.8">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -9311,7 +9367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="30">
+    <row r="155" spans="1:14" ht="28.8">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -9340,7 +9396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="30">
+    <row r="156" spans="1:14" ht="28.8">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -9372,7 +9428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="30">
+    <row r="157" spans="1:14" ht="28.8">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -9404,7 +9460,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30">
+    <row r="158" spans="1:14" ht="28.8">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -9471,7 +9527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="30">
+    <row r="160" spans="1:14" ht="28.8">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -9506,7 +9562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="30">
+    <row r="161" spans="1:19" ht="28.8">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -9538,7 +9594,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="30">
+    <row r="162" spans="1:19" ht="28.8">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -9573,7 +9629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="30">
+    <row r="163" spans="1:19" ht="28.8">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -9605,7 +9661,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="30">
+    <row r="164" spans="1:19" ht="28.8">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -9637,7 +9693,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="30">
+    <row r="165" spans="1:19">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -9678,7 +9734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30">
+    <row r="166" spans="1:19" ht="28.8">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>
@@ -9845,7 +9901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="30">
+    <row r="170" spans="1:19" ht="28.8">
       <c r="A170" s="7" t="s">
         <v>1005</v>
       </c>
@@ -9877,7 +9933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="45">
+    <row r="171" spans="1:19" ht="28.8">
       <c r="A171" s="7" t="s">
         <v>1007</v>
       </c>
@@ -9956,7 +10012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="30">
+    <row r="173" spans="1:19" ht="28.8">
       <c r="A173" s="7" t="s">
         <v>1016</v>
       </c>
@@ -9988,7 +10044,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="30">
+    <row r="174" spans="1:19" ht="28.8">
       <c r="A174" s="7" t="s">
         <v>1019</v>
       </c>
@@ -10020,7 +10076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="30">
+    <row r="175" spans="1:19" ht="28.8">
       <c r="A175" s="7" t="s">
         <v>1022</v>
       </c>
@@ -10093,7 +10149,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30">
+    <row r="177" spans="1:11" ht="28.8">
       <c r="A177" s="7" t="s">
         <v>1020</v>
       </c>
@@ -10157,7 +10213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="30">
+    <row r="179" spans="1:11" ht="28.8">
       <c r="A179" s="7" t="s">
         <v>1028</v>
       </c>
@@ -10186,7 +10242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="30">
+    <row r="180" spans="1:11" ht="28.8">
       <c r="A180" s="7" t="s">
         <v>1030</v>
       </c>
@@ -10206,7 +10262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="30">
+    <row r="181" spans="1:11" ht="28.8">
       <c r="A181" s="7" t="s">
         <v>1032</v>
       </c>
@@ -10238,7 +10294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30">
+    <row r="182" spans="1:11" ht="28.8">
       <c r="A182" s="7" t="s">
         <v>1035</v>
       </c>
@@ -10296,7 +10352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="45">
+    <row r="184" spans="1:11" ht="43.2">
       <c r="A184" s="7" t="s">
         <v>1046</v>
       </c>
@@ -10322,7 +10378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="30">
+    <row r="185" spans="1:11" ht="28.8">
       <c r="A185" s="7" t="s">
         <v>1041</v>
       </c>
@@ -10392,7 +10448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30">
+    <row r="187" spans="1:11" ht="28.8">
       <c r="A187" s="7" t="s">
         <v>1050</v>
       </c>
@@ -10418,7 +10474,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="30">
+    <row r="188" spans="1:11" ht="28.8">
       <c r="A188" s="7" t="s">
         <v>1052</v>
       </c>
@@ -10447,7 +10503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="30">
+    <row r="189" spans="1:11" ht="28.8">
       <c r="A189" s="7" t="s">
         <v>1055</v>
       </c>
@@ -10476,7 +10532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30">
+    <row r="190" spans="1:11" ht="28.8">
       <c r="A190" s="7" t="s">
         <v>1057</v>
       </c>
@@ -10540,7 +10596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="45">
+    <row r="192" spans="1:11" ht="28.8">
       <c r="A192" s="7" t="s">
         <v>1061</v>
       </c>
@@ -10569,7 +10625,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:13" ht="30">
+    <row r="193" spans="1:15" ht="28.8">
       <c r="A193" s="7" t="s">
         <v>1063</v>
       </c>
@@ -10610,7 +10666,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:13" ht="30">
+    <row r="194" spans="1:15" ht="28.8">
       <c r="A194" s="7" t="s">
         <v>1067</v>
       </c>
@@ -10636,7 +10692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:13" ht="45">
+    <row r="195" spans="1:15" ht="43.2">
       <c r="A195" s="7" t="s">
         <v>1069</v>
       </c>
@@ -10662,7 +10718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:13" ht="45">
+    <row r="196" spans="1:15" ht="43.2">
       <c r="A196" s="7" t="s">
         <v>1075</v>
       </c>
@@ -10700,7 +10756,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:13" ht="45">
+    <row r="197" spans="1:15" ht="28.8">
       <c r="A197" s="7" t="s">
         <v>1071</v>
       </c>
@@ -10717,7 +10773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:13" ht="30">
+    <row r="198" spans="1:15" ht="28.8">
       <c r="A198" s="7" t="s">
         <v>1073</v>
       </c>
@@ -10752,7 +10808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:13" ht="30">
+    <row r="199" spans="1:15" ht="28.8">
       <c r="A199" s="31" t="s">
         <v>1080</v>
       </c>
@@ -10793,7 +10849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="200" spans="1:13">
+    <row r="200" spans="1:15">
       <c r="A200" s="31" t="s">
         <v>1082</v>
       </c>
@@ -10822,7 +10878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:13" ht="30">
+    <row r="201" spans="1:15" ht="28.8">
       <c r="A201" s="7" t="s">
         <v>1085</v>
       </c>
@@ -10854,7 +10910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:13" ht="30">
+    <row r="202" spans="1:15" ht="28.8">
       <c r="A202" s="7" t="s">
         <v>1087</v>
       </c>
@@ -10877,6 +10933,230 @@
         <v>1051</v>
       </c>
       <c r="H202" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="203" spans="1:15" ht="26.4">
+      <c r="A203" s="64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B203" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C203" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D203" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E203" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F203" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G203" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H203" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I203" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J203" s="31" t="s">
+        <v>1090</v>
+      </c>
+      <c r="K203" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="204" spans="1:15" ht="28.8">
+      <c r="A204" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B204" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C204" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D204" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E204" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F204" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G204" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H204" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I204" s="31" t="s">
+        <v>867</v>
+      </c>
+      <c r="J204" s="31" t="s">
+        <v>868</v>
+      </c>
+      <c r="K204" s="31" t="s">
+        <v>506</v>
+      </c>
+      <c r="L204" s="9" t="s">
+        <v>812</v>
+      </c>
+      <c r="M204" s="31" t="s">
+        <v>528</v>
+      </c>
+      <c r="N204" s="7" t="s">
+        <v>1092</v>
+      </c>
+      <c r="O204" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="205" spans="1:15">
+      <c r="A205" s="31" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B205" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C205" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D205" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E205" s="31" t="s">
+        <v>1094</v>
+      </c>
+      <c r="F205" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="206" spans="1:15" ht="28.8">
+      <c r="A206" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B206" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C206" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D206" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E206" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F206" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G206" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H206" s="31" t="s">
+        <v>1096</v>
+      </c>
+      <c r="I206" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="207" spans="1:15" ht="28.8">
+      <c r="A207" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B207" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C207" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D207" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E207" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F207" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G207" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H207" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I207" s="7" t="s">
+        <v>1099</v>
+      </c>
+      <c r="J207" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="208" spans="1:15" ht="28.8">
+      <c r="A208" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B208" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C208" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D208" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E208" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F208" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G208" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H208" s="31" t="s">
+        <v>1098</v>
+      </c>
+      <c r="I208" s="31" t="s">
+        <v>1101</v>
+      </c>
+      <c r="J208" s="31" t="s">
+        <v>556</v>
+      </c>
+      <c r="K208" s="7" t="s">
+        <v>1102</v>
+      </c>
+      <c r="L208" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" ht="28.8">
+      <c r="A209" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B209" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C209" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D209" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E209" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F209" s="31" t="s">
+        <v>1103</v>
+      </c>
+      <c r="G209" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -10891,37 +11171,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC378"/>
+  <dimension ref="A1:AC385"/>
   <sheetViews>
-    <sheetView topLeftCell="L1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A340" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="M351" sqref="M351"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="26" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="46.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.88671875" customWidth="1"/>
+    <col min="13" max="13" width="46.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
@@ -11014,7 +11294,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="28.8">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -11066,7 +11346,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:29" ht="30">
+    <row r="5" spans="1:29" ht="28.8">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -11118,7 +11398,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="30">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -11144,7 +11424,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="30">
+    <row r="8" spans="1:29" ht="28.8">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
@@ -11170,7 +11450,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="30">
+    <row r="9" spans="1:29" ht="28.8">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
@@ -11196,7 +11476,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="30">
+    <row r="10" spans="1:29">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -11222,7 +11502,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="30">
+    <row r="11" spans="1:29" ht="28.8">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -11318,7 +11598,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="30">
+    <row r="15" spans="1:29" ht="28.8">
       <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
@@ -11344,7 +11624,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="30">
+    <row r="16" spans="1:29" ht="28.8">
       <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
@@ -11366,7 +11646,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="30">
+    <row r="17" spans="1:16" ht="28.8">
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11388,7 +11668,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="30">
+    <row r="18" spans="1:16" ht="28.8">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -11420,7 +11700,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:16" ht="30">
+    <row r="19" spans="1:16" ht="28.8">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -11442,7 +11722,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:16" ht="30">
+    <row r="20" spans="1:16" ht="28.8">
       <c r="A20" s="14" t="s">
         <v>83</v>
       </c>
@@ -11466,7 +11746,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:16" ht="30">
+    <row r="21" spans="1:16" ht="28.8">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -11490,7 +11770,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:16" ht="45">
+    <row r="22" spans="1:16" ht="28.8">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -11590,7 +11870,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A26" s="14" t="s">
         <v>266</v>
       </c>
@@ -11616,7 +11896,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A27" s="14" t="s">
         <v>280</v>
       </c>
@@ -11642,7 +11922,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="30">
+    <row r="28" spans="1:16" ht="28.8">
       <c r="A28" s="18" t="s">
         <v>100</v>
       </c>
@@ -11670,7 +11950,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A29" s="14" t="s">
         <v>407</v>
       </c>
@@ -11698,7 +11978,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:16" ht="30">
+    <row r="30" spans="1:16" ht="28.8">
       <c r="A30" s="14" t="s">
         <v>105</v>
       </c>
@@ -11724,7 +12004,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A31" s="14" t="s">
         <v>409</v>
       </c>
@@ -11752,7 +12032,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:16" ht="30">
+    <row r="32" spans="1:16" ht="28.8">
       <c r="A32" s="14" t="s">
         <v>107</v>
       </c>
@@ -11778,7 +12058,7 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="1:16" ht="30">
+    <row r="33" spans="1:16" ht="28.8">
       <c r="A33" s="14" t="s">
         <v>110</v>
       </c>
@@ -11962,7 +12242,7 @@
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" spans="1:16" ht="30">
+    <row r="40" spans="1:16" ht="28.8">
       <c r="A40" s="14" t="s">
         <v>132</v>
       </c>
@@ -12092,7 +12372,7 @@
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" spans="1:16" ht="30">
+    <row r="45" spans="1:16" ht="28.8">
       <c r="A45" s="14" t="s">
         <v>147</v>
       </c>
@@ -12196,7 +12476,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" spans="1:16" ht="30">
+    <row r="49" spans="1:16" ht="28.8">
       <c r="A49" s="14" t="s">
         <v>158</v>
       </c>
@@ -12222,7 +12502,7 @@
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
     </row>
-    <row r="50" spans="1:16" ht="30">
+    <row r="50" spans="1:16">
       <c r="A50" s="18" t="s">
         <v>160</v>
       </c>
@@ -12276,7 +12556,7 @@
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" spans="1:16" ht="30">
+    <row r="52" spans="1:16" ht="28.8">
       <c r="A52" s="14" t="s">
         <v>170</v>
       </c>
@@ -12328,7 +12608,7 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" spans="1:16" ht="30">
+    <row r="54" spans="1:16" ht="28.8">
       <c r="A54" s="14" t="s">
         <v>175</v>
       </c>
@@ -12380,7 +12660,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
     </row>
-    <row r="56" spans="1:16" ht="30">
+    <row r="56" spans="1:16" ht="28.8">
       <c r="A56" s="14" t="s">
         <v>181</v>
       </c>
@@ -12512,7 +12792,7 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
     </row>
-    <row r="61" spans="1:16" ht="30">
+    <row r="61" spans="1:16" ht="28.8">
       <c r="A61" s="14" t="s">
         <v>193</v>
       </c>
@@ -12538,7 +12818,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
     </row>
-    <row r="62" spans="1:16" ht="30">
+    <row r="62" spans="1:16" ht="28.8">
       <c r="A62" s="14" t="s">
         <v>195</v>
       </c>
@@ -12564,7 +12844,7 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
     </row>
-    <row r="63" spans="1:16" ht="30">
+    <row r="63" spans="1:16" ht="28.8">
       <c r="A63" s="14" t="s">
         <v>199</v>
       </c>
@@ -12590,7 +12870,7 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
     </row>
-    <row r="64" spans="1:16" ht="30">
+    <row r="64" spans="1:16" ht="28.8">
       <c r="A64" s="14" t="s">
         <v>202</v>
       </c>
@@ -12694,7 +12974,7 @@
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
     </row>
-    <row r="68" spans="1:16" ht="30">
+    <row r="68" spans="1:16" ht="28.8">
       <c r="A68" s="14" t="s">
         <v>213</v>
       </c>
@@ -12720,7 +13000,7 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="30">
+    <row r="69" spans="1:16" ht="28.8">
       <c r="A69" s="14" t="s">
         <v>220</v>
       </c>
@@ -12772,7 +13052,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
     </row>
-    <row r="71" spans="1:16" ht="30">
+    <row r="71" spans="1:16" ht="28.8">
       <c r="A71" s="14" t="s">
         <v>224</v>
       </c>
@@ -12800,7 +13080,7 @@
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
     </row>
-    <row r="72" spans="1:16" ht="30">
+    <row r="72" spans="1:16" ht="28.8">
       <c r="A72" s="14" t="s">
         <v>226</v>
       </c>
@@ -12828,7 +13108,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:16" ht="30">
+    <row r="73" spans="1:16" ht="28.8">
       <c r="A73" s="14" t="s">
         <v>230</v>
       </c>
@@ -12856,7 +13136,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="30">
+    <row r="74" spans="1:16" ht="28.8">
       <c r="A74" s="14" t="s">
         <v>234</v>
       </c>
@@ -12884,7 +13164,7 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A75" s="14" t="s">
         <v>251</v>
       </c>
@@ -12912,7 +13192,7 @@
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:16" ht="30">
+    <row r="76" spans="1:16">
       <c r="A76" s="14" t="s">
         <v>272</v>
       </c>
@@ -12940,7 +13220,7 @@
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:16" ht="30">
+    <row r="77" spans="1:16" ht="28.8">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -12970,7 +13250,7 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:16" ht="30">
+    <row r="78" spans="1:16" ht="28.8">
       <c r="A78" s="14" t="s">
         <v>247</v>
       </c>
@@ -12998,7 +13278,7 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:16" ht="30">
+    <row r="79" spans="1:16" ht="28.8">
       <c r="A79" s="14" t="s">
         <v>253</v>
       </c>
@@ -13026,7 +13306,7 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:16" ht="30">
+    <row r="80" spans="1:16" ht="28.8">
       <c r="A80" s="14" t="s">
         <v>255</v>
       </c>
@@ -13054,7 +13334,7 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="28.8">
       <c r="A81" s="14" t="s">
         <v>259</v>
       </c>
@@ -13082,7 +13362,7 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="30">
+    <row r="82" spans="1:16" ht="28.8">
       <c r="A82" s="14" t="s">
         <v>262</v>
       </c>
@@ -13110,7 +13390,7 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="30">
+    <row r="83" spans="1:16" ht="28.8">
       <c r="A83" s="14" t="s">
         <v>268</v>
       </c>
@@ -13164,7 +13444,7 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
     </row>
-    <row r="85" spans="1:16" ht="30">
+    <row r="85" spans="1:16" ht="28.8">
       <c r="A85" s="14" t="s">
         <v>278</v>
       </c>
@@ -13190,7 +13470,7 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
     </row>
-    <row r="86" spans="1:16" ht="30">
+    <row r="86" spans="1:16" ht="28.8">
       <c r="A86" s="18" t="s">
         <v>283</v>
       </c>
@@ -13218,7 +13498,7 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
     </row>
-    <row r="87" spans="1:16" ht="30">
+    <row r="87" spans="1:16" ht="28.8">
       <c r="A87" s="18" t="s">
         <v>286</v>
       </c>
@@ -13246,7 +13526,7 @@
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
     </row>
-    <row r="88" spans="1:16" ht="30">
+    <row r="88" spans="1:16" ht="28.8">
       <c r="A88" s="14" t="s">
         <v>289</v>
       </c>
@@ -13274,7 +13554,7 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="1:16" ht="30">
+    <row r="89" spans="1:16" ht="28.8">
       <c r="A89" s="14" t="s">
         <v>293</v>
       </c>
@@ -13302,7 +13582,7 @@
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
     </row>
-    <row r="90" spans="1:16" ht="30">
+    <row r="90" spans="1:16" ht="28.8">
       <c r="A90" s="18" t="s">
         <v>295</v>
       </c>
@@ -13330,7 +13610,7 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
     </row>
-    <row r="91" spans="1:16" ht="60">
+    <row r="91" spans="1:16" ht="43.2">
       <c r="A91" s="18" t="s">
         <v>297</v>
       </c>
@@ -13358,7 +13638,7 @@
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
     </row>
-    <row r="92" spans="1:16" ht="45">
+    <row r="92" spans="1:16" ht="43.2">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -13386,7 +13666,7 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
     </row>
-    <row r="93" spans="1:16" ht="30">
+    <row r="93" spans="1:16" ht="28.8">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -13414,7 +13694,7 @@
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
     </row>
-    <row r="94" spans="1:16" ht="45">
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="14" t="s">
         <v>303</v>
       </c>
@@ -13442,7 +13722,7 @@
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
     </row>
-    <row r="95" spans="1:16" ht="30">
+    <row r="95" spans="1:16" ht="28.8">
       <c r="A95" s="14" t="s">
         <v>305</v>
       </c>
@@ -13470,7 +13750,7 @@
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
     </row>
-    <row r="96" spans="1:16" ht="45">
+    <row r="96" spans="1:16" ht="43.2">
       <c r="A96" s="14" t="s">
         <v>308</v>
       </c>
@@ -13498,7 +13778,7 @@
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
     </row>
-    <row r="97" spans="1:16" ht="45">
+    <row r="97" spans="1:16" ht="43.2">
       <c r="A97" s="14" t="s">
         <v>310</v>
       </c>
@@ -13526,7 +13806,7 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="98" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A98" s="14" t="s">
         <v>327</v>
       </c>
@@ -13554,7 +13834,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="1:16" ht="45">
+    <row r="99" spans="1:16" ht="43.2">
       <c r="A99" s="14" t="s">
         <v>313</v>
       </c>
@@ -13582,7 +13862,7 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="1:16" ht="45">
+    <row r="100" spans="1:16" ht="43.2">
       <c r="A100" s="14" t="s">
         <v>315</v>
       </c>
@@ -13610,7 +13890,7 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="101" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A101" s="14" t="s">
         <v>330</v>
       </c>
@@ -13638,7 +13918,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="1:16" ht="45">
+    <row r="102" spans="1:16" ht="28.8">
       <c r="A102" s="14" t="s">
         <v>318</v>
       </c>
@@ -13666,7 +13946,7 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="1:16" ht="30">
+    <row r="103" spans="1:16" ht="28.8">
       <c r="A103" s="14" t="s">
         <v>321</v>
       </c>
@@ -13694,7 +13974,7 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="104" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A104" s="14" t="s">
         <v>332</v>
       </c>
@@ -13722,7 +14002,7 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="1:16" ht="30">
+    <row r="105" spans="1:16" ht="28.8">
       <c r="A105" s="14" t="s">
         <v>324</v>
       </c>
@@ -13750,7 +14030,7 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="1:16" ht="30">
+    <row r="106" spans="1:16" ht="28.8">
       <c r="A106" s="14" t="s">
         <v>334</v>
       </c>
@@ -13776,7 +14056,7 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="1:16" ht="45">
+    <row r="107" spans="1:16" ht="43.2">
       <c r="A107" s="14" t="s">
         <v>336</v>
       </c>
@@ -13804,7 +14084,7 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="1:16" ht="45">
+    <row r="108" spans="1:16" ht="43.2">
       <c r="A108" s="14" t="s">
         <v>340</v>
       </c>
@@ -13832,7 +14112,7 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="1:16" ht="30">
+    <row r="109" spans="1:16" ht="28.8">
       <c r="A109" s="14" t="s">
         <v>344</v>
       </c>
@@ -13860,7 +14140,7 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="1:16" ht="30">
+    <row r="110" spans="1:16" ht="28.8">
       <c r="A110" s="14" t="s">
         <v>350</v>
       </c>
@@ -13888,7 +14168,7 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="1:16" ht="30">
+    <row r="111" spans="1:16" ht="28.8">
       <c r="A111" s="14" t="s">
         <v>351</v>
       </c>
@@ -13916,7 +14196,7 @@
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
     </row>
-    <row r="112" spans="1:16" ht="30">
+    <row r="112" spans="1:16" ht="28.8">
       <c r="A112" s="14" t="s">
         <v>354</v>
       </c>
@@ -13944,7 +14224,7 @@
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
     </row>
-    <row r="113" spans="1:16" ht="30">
+    <row r="113" spans="1:16" ht="28.8">
       <c r="A113" s="14" t="s">
         <v>359</v>
       </c>
@@ -13972,7 +14252,7 @@
       <c r="O113" s="18"/>
       <c r="P113" s="18"/>
     </row>
-    <row r="114" spans="1:16" ht="30">
+    <row r="114" spans="1:16" ht="28.8">
       <c r="A114" s="14" t="s">
         <v>360</v>
       </c>
@@ -14000,7 +14280,7 @@
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
     </row>
-    <row r="115" spans="1:16" ht="45">
+    <row r="115" spans="1:16" ht="43.2">
       <c r="A115" s="14" t="s">
         <v>362</v>
       </c>
@@ -14028,7 +14308,7 @@
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
     </row>
-    <row r="116" spans="1:16" ht="45">
+    <row r="116" spans="1:16" ht="43.2">
       <c r="A116" s="14" t="s">
         <v>364</v>
       </c>
@@ -14056,7 +14336,7 @@
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
     </row>
-    <row r="117" spans="1:16" ht="30">
+    <row r="117" spans="1:16" ht="28.8">
       <c r="A117" s="14" t="s">
         <v>367</v>
       </c>
@@ -14082,7 +14362,7 @@
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
     </row>
-    <row r="118" spans="1:16" ht="30">
+    <row r="118" spans="1:16" ht="28.8">
       <c r="A118" s="18" t="s">
         <v>370</v>
       </c>
@@ -14110,7 +14390,7 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="1:16" ht="30">
+    <row r="119" spans="1:16" ht="28.8">
       <c r="A119" s="18" t="s">
         <v>375</v>
       </c>
@@ -14138,7 +14418,7 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="1:16" ht="45">
+    <row r="120" spans="1:16" ht="43.2">
       <c r="A120" s="14" t="s">
         <v>382</v>
       </c>
@@ -14166,7 +14446,7 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="1:16" ht="45">
+    <row r="121" spans="1:16" ht="28.8">
       <c r="A121" s="14" t="s">
         <v>384</v>
       </c>
@@ -14194,7 +14474,7 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="1:16" ht="30">
+    <row r="122" spans="1:16" ht="28.8">
       <c r="A122" s="17" t="s">
         <v>387</v>
       </c>
@@ -14220,7 +14500,7 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="1:16" ht="30">
+    <row r="123" spans="1:16" ht="28.8">
       <c r="A123" s="14" t="s">
         <v>389</v>
       </c>
@@ -14246,7 +14526,7 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="1:16" ht="30">
+    <row r="124" spans="1:16" ht="28.8">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -14274,7 +14554,7 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="1:16" ht="30">
+    <row r="125" spans="1:16" ht="28.8">
       <c r="A125" s="14" t="s">
         <v>399</v>
       </c>
@@ -14302,7 +14582,7 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="1:16" ht="30">
+    <row r="126" spans="1:16" ht="28.8">
       <c r="A126" s="14" t="s">
         <v>402</v>
       </c>
@@ -14330,7 +14610,7 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="1:16" ht="30">
+    <row r="127" spans="1:16" ht="28.8">
       <c r="A127" s="14" t="s">
         <v>411</v>
       </c>
@@ -14358,7 +14638,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="1:16" ht="45">
+    <row r="128" spans="1:16" ht="28.8">
       <c r="A128" s="14" t="s">
         <v>414</v>
       </c>
@@ -14386,7 +14666,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="1:16" ht="30">
+    <row r="129" spans="1:16" ht="28.8">
       <c r="A129" s="14" t="s">
         <v>417</v>
       </c>
@@ -14414,7 +14694,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="1:16" ht="45">
+    <row r="130" spans="1:16" ht="28.8">
       <c r="A130" s="14" t="s">
         <v>419</v>
       </c>
@@ -14442,7 +14722,7 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
-    <row r="131" spans="1:16" ht="30">
+    <row r="131" spans="1:16" ht="28.8">
       <c r="A131" s="14" t="s">
         <v>420</v>
       </c>
@@ -14470,7 +14750,7 @@
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
     </row>
-    <row r="132" spans="1:16" ht="45">
+    <row r="132" spans="1:16" ht="43.2">
       <c r="A132" s="14" t="s">
         <v>422</v>
       </c>
@@ -14498,7 +14778,7 @@
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
     </row>
-    <row r="133" spans="1:16" ht="30">
+    <row r="133" spans="1:16" ht="28.8">
       <c r="A133" s="14" t="s">
         <v>424</v>
       </c>
@@ -14524,7 +14804,7 @@
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
     </row>
-    <row r="134" spans="1:16" ht="30">
+    <row r="134" spans="1:16" ht="28.8">
       <c r="A134" s="14" t="s">
         <v>426</v>
       </c>
@@ -14552,7 +14832,7 @@
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
     </row>
-    <row r="135" spans="1:16" ht="45">
+    <row r="135" spans="1:16" ht="28.8">
       <c r="A135" s="14" t="s">
         <v>429</v>
       </c>
@@ -14580,7 +14860,7 @@
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
     </row>
-    <row r="136" spans="1:16" ht="45">
+    <row r="136" spans="1:16" ht="43.2">
       <c r="A136" s="14" t="s">
         <v>433</v>
       </c>
@@ -14608,7 +14888,7 @@
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
     </row>
-    <row r="137" spans="1:16" ht="45">
+    <row r="137" spans="1:16" ht="43.2">
       <c r="A137" s="14" t="s">
         <v>436</v>
       </c>
@@ -14636,7 +14916,7 @@
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
     </row>
-    <row r="138" spans="1:16" ht="45">
+    <row r="138" spans="1:16" ht="43.2">
       <c r="A138" s="14" t="s">
         <v>439</v>
       </c>
@@ -14664,7 +14944,7 @@
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
     </row>
-    <row r="139" spans="1:16" ht="30">
+    <row r="139" spans="1:16" ht="28.8">
       <c r="A139" s="14" t="s">
         <v>441</v>
       </c>
@@ -14718,7 +14998,7 @@
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
     </row>
-    <row r="141" spans="1:16" ht="30">
+    <row r="141" spans="1:16" ht="28.8">
       <c r="A141" s="14" t="s">
         <v>447</v>
       </c>
@@ -14744,7 +15024,7 @@
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
     </row>
-    <row r="142" spans="1:16" ht="30">
+    <row r="142" spans="1:16" ht="28.8">
       <c r="A142" s="14" t="s">
         <v>449</v>
       </c>
@@ -14770,7 +15050,7 @@
       <c r="O142" s="18"/>
       <c r="P142" s="18"/>
     </row>
-    <row r="143" spans="1:16" ht="45">
+    <row r="143" spans="1:16" ht="28.8">
       <c r="A143" s="14" t="s">
         <v>453</v>
       </c>
@@ -14796,7 +15076,7 @@
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
     </row>
-    <row r="144" spans="1:16" ht="45">
+    <row r="144" spans="1:16" ht="28.8">
       <c r="A144" s="14" t="s">
         <v>456</v>
       </c>
@@ -14824,7 +15104,7 @@
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
     </row>
-    <row r="145" spans="1:16" ht="30">
+    <row r="145" spans="1:16" ht="28.8">
       <c r="A145" s="14" t="s">
         <v>458</v>
       </c>
@@ -14852,7 +15132,7 @@
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
     </row>
-    <row r="146" spans="1:16" ht="30">
+    <row r="146" spans="1:16" ht="28.8">
       <c r="A146" s="14" t="s">
         <v>461</v>
       </c>
@@ -14880,7 +15160,7 @@
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
     </row>
-    <row r="147" spans="1:16" ht="30">
+    <row r="147" spans="1:16" ht="28.8">
       <c r="A147" s="14" t="s">
         <v>464</v>
       </c>
@@ -14908,7 +15188,7 @@
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
     </row>
-    <row r="148" spans="1:16" ht="45">
+    <row r="148" spans="1:16" ht="43.2">
       <c r="A148" s="14" t="s">
         <v>468</v>
       </c>
@@ -14936,7 +15216,7 @@
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
     </row>
-    <row r="149" spans="1:16" ht="30">
+    <row r="149" spans="1:16" ht="28.8">
       <c r="A149" s="14" t="s">
         <v>472</v>
       </c>
@@ -14964,7 +15244,7 @@
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
     </row>
-    <row r="150" spans="1:16" ht="30">
+    <row r="150" spans="1:16" ht="28.8">
       <c r="A150" s="14" t="s">
         <v>474</v>
       </c>
@@ -14992,7 +15272,7 @@
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
     </row>
-    <row r="151" spans="1:16" ht="60">
+    <row r="151" spans="1:16" ht="43.2">
       <c r="A151" s="14" t="s">
         <v>477</v>
       </c>
@@ -15024,7 +15304,7 @@
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
     </row>
-    <row r="152" spans="1:16" ht="30">
+    <row r="152" spans="1:16" ht="28.8">
       <c r="A152" s="14" t="s">
         <v>485</v>
       </c>
@@ -15052,7 +15332,7 @@
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
     </row>
-    <row r="153" spans="1:16" ht="30">
+    <row r="153" spans="1:16" ht="28.8">
       <c r="A153" s="14" t="s">
         <v>486</v>
       </c>
@@ -15080,7 +15360,7 @@
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
     </row>
-    <row r="154" spans="1:16" ht="45">
+    <row r="154" spans="1:16" ht="28.8">
       <c r="A154" s="14" t="s">
         <v>487</v>
       </c>
@@ -15108,7 +15388,7 @@
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
     </row>
-    <row r="155" spans="1:16" ht="30">
+    <row r="155" spans="1:16" ht="28.8">
       <c r="A155" s="14" t="s">
         <v>490</v>
       </c>
@@ -15136,7 +15416,7 @@
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
     </row>
-    <row r="156" spans="1:16" ht="30">
+    <row r="156" spans="1:16" ht="28.8">
       <c r="A156" s="14" t="s">
         <v>492</v>
       </c>
@@ -15162,7 +15442,7 @@
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
     </row>
-    <row r="157" spans="1:16" ht="30">
+    <row r="157" spans="1:16" ht="28.8">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -15188,7 +15468,7 @@
       <c r="O157" s="18"/>
       <c r="P157" s="18"/>
     </row>
-    <row r="158" spans="1:16" ht="30">
+    <row r="158" spans="1:16" ht="28.8">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -15216,7 +15496,7 @@
       <c r="O158" s="18"/>
       <c r="P158" s="18"/>
     </row>
-    <row r="159" spans="1:16" ht="30">
+    <row r="159" spans="1:16" ht="28.8">
       <c r="A159" s="18" t="s">
         <v>499</v>
       </c>
@@ -15270,7 +15550,7 @@
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
     </row>
-    <row r="161" spans="1:16" ht="30">
+    <row r="161" spans="1:16" ht="28.8">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -15296,7 +15576,7 @@
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
     </row>
-    <row r="162" spans="1:16" ht="45">
+    <row r="162" spans="1:16" ht="43.2">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -15322,7 +15602,7 @@
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
     </row>
-    <row r="163" spans="1:16" ht="45">
+    <row r="163" spans="1:16" ht="28.8">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -15348,7 +15628,7 @@
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
     </row>
-    <row r="164" spans="1:16" ht="45">
+    <row r="164" spans="1:16" ht="43.2">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -15400,7 +15680,7 @@
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
     </row>
-    <row r="166" spans="1:16" ht="30">
+    <row r="166" spans="1:16" ht="28.8">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -15428,7 +15708,7 @@
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
     </row>
-    <row r="167" spans="1:16" ht="30">
+    <row r="167" spans="1:16" ht="28.8">
       <c r="A167" s="45" t="s">
         <v>521</v>
       </c>
@@ -15456,7 +15736,7 @@
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
     </row>
-    <row r="168" spans="1:16" ht="30">
+    <row r="168" spans="1:16" ht="28.8">
       <c r="A168" s="14" t="s">
         <v>524</v>
       </c>
@@ -15484,7 +15764,7 @@
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
     </row>
-    <row r="169" spans="1:16" ht="45">
+    <row r="169" spans="1:16" ht="43.2">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -15512,7 +15792,7 @@
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
     </row>
-    <row r="170" spans="1:16" ht="45">
+    <row r="170" spans="1:16" ht="43.2">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -15540,7 +15820,7 @@
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
     </row>
-    <row r="171" spans="1:16" ht="30">
+    <row r="171" spans="1:16" ht="28.8">
       <c r="A171" s="14" t="s">
         <v>538</v>
       </c>
@@ -15568,7 +15848,7 @@
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
     </row>
-    <row r="172" spans="1:16" ht="45">
+    <row r="172" spans="1:16" ht="28.8">
       <c r="A172" s="14" t="s">
         <v>541</v>
       </c>
@@ -15596,7 +15876,7 @@
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
     </row>
-    <row r="173" spans="1:16" ht="30">
+    <row r="173" spans="1:16" ht="28.8">
       <c r="A173" s="14" t="s">
         <v>544</v>
       </c>
@@ -15624,7 +15904,7 @@
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
     </row>
-    <row r="174" spans="1:16" ht="60">
+    <row r="174" spans="1:16" ht="57.6">
       <c r="A174" s="14" t="s">
         <v>547</v>
       </c>
@@ -15650,7 +15930,7 @@
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
     </row>
-    <row r="175" spans="1:16" ht="30">
+    <row r="175" spans="1:16" ht="28.8">
       <c r="A175" s="14" t="s">
         <v>550</v>
       </c>
@@ -15678,7 +15958,7 @@
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
     </row>
-    <row r="176" spans="1:16" ht="30">
+    <row r="176" spans="1:16" ht="28.8">
       <c r="A176" s="14" t="s">
         <v>553</v>
       </c>
@@ -15706,7 +15986,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
     </row>
-    <row r="177" spans="1:16" ht="45">
+    <row r="177" spans="1:16" ht="28.8">
       <c r="A177" s="14" t="s">
         <v>560</v>
       </c>
@@ -15734,7 +16014,7 @@
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
     </row>
-    <row r="178" spans="1:16" ht="30">
+    <row r="178" spans="1:16" ht="28.8">
       <c r="A178" s="14" t="s">
         <v>564</v>
       </c>
@@ -15762,7 +16042,7 @@
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
     </row>
-    <row r="179" spans="1:16" ht="45">
+    <row r="179" spans="1:16" ht="43.2">
       <c r="A179" s="14" t="s">
         <v>566</v>
       </c>
@@ -15790,7 +16070,7 @@
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
     </row>
-    <row r="180" spans="1:16" ht="45">
+    <row r="180" spans="1:16" ht="28.8">
       <c r="A180" s="14" t="s">
         <v>568</v>
       </c>
@@ -15818,7 +16098,7 @@
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
     </row>
-    <row r="181" spans="1:16" ht="30">
+    <row r="181" spans="1:16" ht="28.8">
       <c r="A181" s="25" t="s">
         <v>570</v>
       </c>
@@ -15846,7 +16126,7 @@
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
     </row>
-    <row r="182" spans="1:16" ht="30">
+    <row r="182" spans="1:16" ht="28.8">
       <c r="A182" s="14" t="s">
         <v>574</v>
       </c>
@@ -15900,7 +16180,7 @@
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
     </row>
-    <row r="184" spans="1:16" ht="45">
+    <row r="184" spans="1:16" ht="43.2">
       <c r="A184" s="14" t="s">
         <v>576</v>
       </c>
@@ -15928,7 +16208,7 @@
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
     </row>
-    <row r="185" spans="1:16" ht="30">
+    <row r="185" spans="1:16" ht="28.8">
       <c r="A185" s="14" t="s">
         <v>578</v>
       </c>
@@ -15956,7 +16236,7 @@
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
     </row>
-    <row r="186" spans="1:16" ht="30">
+    <row r="186" spans="1:16" ht="28.8">
       <c r="A186" s="14" t="s">
         <v>580</v>
       </c>
@@ -16010,7 +16290,7 @@
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
     </row>
-    <row r="188" spans="1:16" ht="30">
+    <row r="188" spans="1:16" ht="28.8">
       <c r="A188" s="14" t="s">
         <v>585</v>
       </c>
@@ -16036,7 +16316,7 @@
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
     </row>
-    <row r="189" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="189" spans="1:16" s="2" customFormat="1">
       <c r="A189" s="14" t="s">
         <v>706</v>
       </c>
@@ -16064,7 +16344,7 @@
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
     </row>
-    <row r="190" spans="1:16" ht="45">
+    <row r="190" spans="1:16" ht="43.2">
       <c r="A190" s="14" t="s">
         <v>587</v>
       </c>
@@ -16092,7 +16372,7 @@
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
     </row>
-    <row r="191" spans="1:16" ht="45">
+    <row r="191" spans="1:16" ht="43.2">
       <c r="A191" s="14" t="s">
         <v>589</v>
       </c>
@@ -16122,7 +16402,7 @@
       <c r="O191" s="18"/>
       <c r="P191" s="18"/>
     </row>
-    <row r="192" spans="1:16" ht="30">
+    <row r="192" spans="1:16" ht="28.8">
       <c r="A192" s="14" t="s">
         <v>591</v>
       </c>
@@ -16150,7 +16430,7 @@
       <c r="O192" s="18"/>
       <c r="P192" s="18"/>
     </row>
-    <row r="193" spans="1:16" ht="30">
+    <row r="193" spans="1:16" ht="28.8">
       <c r="A193" s="14" t="s">
         <v>595</v>
       </c>
@@ -16178,7 +16458,7 @@
       <c r="O193" s="18"/>
       <c r="P193" s="18"/>
     </row>
-    <row r="194" spans="1:16" ht="30">
+    <row r="194" spans="1:16" ht="28.8">
       <c r="A194" s="14" t="s">
         <v>597</v>
       </c>
@@ -16206,7 +16486,7 @@
       <c r="O194" s="18"/>
       <c r="P194" s="18"/>
     </row>
-    <row r="195" spans="1:16" ht="30">
+    <row r="195" spans="1:16" ht="28.8">
       <c r="A195" s="14" t="s">
         <v>599</v>
       </c>
@@ -16234,7 +16514,7 @@
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
     </row>
-    <row r="196" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="196" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A196" s="14" t="s">
         <v>730</v>
       </c>
@@ -16262,7 +16542,7 @@
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
     </row>
-    <row r="197" spans="1:16" ht="30">
+    <row r="197" spans="1:16" ht="28.8">
       <c r="A197" s="14" t="s">
         <v>602</v>
       </c>
@@ -16292,7 +16572,7 @@
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
     </row>
-    <row r="198" spans="1:16" ht="45">
+    <row r="198" spans="1:16" ht="43.2">
       <c r="A198" s="14" t="s">
         <v>605</v>
       </c>
@@ -16318,7 +16598,7 @@
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
     </row>
-    <row r="199" spans="1:16" ht="45">
+    <row r="199" spans="1:16" ht="43.2">
       <c r="A199" s="14" t="s">
         <v>609</v>
       </c>
@@ -16346,7 +16626,7 @@
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
     </row>
-    <row r="200" spans="1:16" ht="30">
+    <row r="200" spans="1:16" ht="28.8">
       <c r="A200" s="14" t="s">
         <v>610</v>
       </c>
@@ -16374,7 +16654,7 @@
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
     </row>
-    <row r="201" spans="1:16" ht="30">
+    <row r="201" spans="1:16" ht="28.8">
       <c r="A201" s="14" t="s">
         <v>612</v>
       </c>
@@ -16402,7 +16682,7 @@
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
     </row>
-    <row r="202" spans="1:16" ht="30">
+    <row r="202" spans="1:16" ht="28.8">
       <c r="A202" s="14" t="s">
         <v>614</v>
       </c>
@@ -16432,7 +16712,7 @@
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
     </row>
-    <row r="203" spans="1:16" ht="30">
+    <row r="203" spans="1:16" ht="28.8">
       <c r="A203" s="14" t="s">
         <v>617</v>
       </c>
@@ -16462,7 +16742,7 @@
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
     </row>
-    <row r="204" spans="1:16" ht="45">
+    <row r="204" spans="1:16" ht="28.8">
       <c r="A204" s="14" t="s">
         <v>619</v>
       </c>
@@ -16492,7 +16772,7 @@
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
     </row>
-    <row r="205" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="205" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A205" s="14" t="s">
         <v>625</v>
       </c>
@@ -16522,7 +16802,7 @@
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
     </row>
-    <row r="206" spans="1:16" ht="30">
+    <row r="206" spans="1:16" ht="28.8">
       <c r="A206" s="14" t="s">
         <v>623</v>
       </c>
@@ -16550,7 +16830,7 @@
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
     </row>
-    <row r="207" spans="1:16" ht="30">
+    <row r="207" spans="1:16" ht="28.8">
       <c r="A207" s="14" t="s">
         <v>628</v>
       </c>
@@ -16608,7 +16888,7 @@
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
     </row>
-    <row r="209" spans="1:16" ht="30">
+    <row r="209" spans="1:16" ht="28.8">
       <c r="A209" s="14" t="s">
         <v>632</v>
       </c>
@@ -16636,7 +16916,7 @@
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
     </row>
-    <row r="210" spans="1:16" ht="45">
+    <row r="210" spans="1:16" ht="28.8">
       <c r="A210" s="14" t="s">
         <v>634</v>
       </c>
@@ -16696,7 +16976,7 @@
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
     </row>
-    <row r="212" spans="1:16" ht="30">
+    <row r="212" spans="1:16" ht="28.8">
       <c r="A212" s="14" t="s">
         <v>640</v>
       </c>
@@ -16726,7 +17006,7 @@
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
     </row>
-    <row r="213" spans="1:16" ht="30">
+    <row r="213" spans="1:16" ht="28.8">
       <c r="A213" s="14" t="s">
         <v>645</v>
       </c>
@@ -16756,7 +17036,7 @@
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
     </row>
-    <row r="214" spans="1:16" ht="45">
+    <row r="214" spans="1:16" ht="43.2">
       <c r="A214" s="14" t="s">
         <v>648</v>
       </c>
@@ -16786,7 +17066,7 @@
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
     </row>
-    <row r="215" spans="1:16" ht="45">
+    <row r="215" spans="1:16" ht="43.2">
       <c r="A215" s="14" t="s">
         <v>649</v>
       </c>
@@ -16816,7 +17096,7 @@
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
     </row>
-    <row r="216" spans="1:16" ht="45">
+    <row r="216" spans="1:16" ht="39.6">
       <c r="A216" s="14" t="s">
         <v>651</v>
       </c>
@@ -16846,7 +17126,7 @@
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
     </row>
-    <row r="217" spans="1:16" ht="45">
+    <row r="217" spans="1:16" ht="28.8">
       <c r="A217" s="14" t="s">
         <v>653</v>
       </c>
@@ -16874,7 +17154,7 @@
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
     </row>
-    <row r="218" spans="1:16" ht="30">
+    <row r="218" spans="1:16" ht="28.8">
       <c r="A218" s="14" t="s">
         <v>657</v>
       </c>
@@ -16904,7 +17184,7 @@
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
     </row>
-    <row r="219" spans="1:16" ht="45">
+    <row r="219" spans="1:16" ht="43.2">
       <c r="A219" s="14" t="s">
         <v>659</v>
       </c>
@@ -16934,7 +17214,7 @@
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
     </row>
-    <row r="220" spans="1:16" ht="30">
+    <row r="220" spans="1:16" ht="28.8">
       <c r="A220" s="14" t="s">
         <v>662</v>
       </c>
@@ -16962,7 +17242,7 @@
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
     </row>
-    <row r="221" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="221" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A221" s="14" t="s">
         <v>667</v>
       </c>
@@ -16994,7 +17274,7 @@
       <c r="O221" s="18"/>
       <c r="P221" s="18"/>
     </row>
-    <row r="222" spans="1:16" ht="45">
+    <row r="222" spans="1:16" ht="28.8">
       <c r="A222" s="14" t="s">
         <v>664</v>
       </c>
@@ -17024,7 +17304,7 @@
       <c r="O222" s="18"/>
       <c r="P222" s="18"/>
     </row>
-    <row r="223" spans="1:16" ht="30">
+    <row r="223" spans="1:16" ht="28.8">
       <c r="A223" s="14" t="s">
         <v>669</v>
       </c>
@@ -17054,7 +17334,7 @@
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
     </row>
-    <row r="224" spans="1:16" ht="30">
+    <row r="224" spans="1:16" ht="28.8">
       <c r="A224" s="14" t="s">
         <v>671</v>
       </c>
@@ -17084,7 +17364,7 @@
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
     </row>
-    <row r="225" spans="1:16" ht="45">
+    <row r="225" spans="1:16" ht="28.8">
       <c r="A225" s="14" t="s">
         <v>675</v>
       </c>
@@ -17112,7 +17392,7 @@
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
     </row>
-    <row r="226" spans="1:16" ht="60">
+    <row r="226" spans="1:16" ht="57.6">
       <c r="A226" s="14" t="s">
         <v>679</v>
       </c>
@@ -17144,7 +17424,7 @@
       </c>
       <c r="P226" s="18"/>
     </row>
-    <row r="227" spans="1:16" ht="45">
+    <row r="227" spans="1:16" ht="43.2">
       <c r="A227" s="14" t="s">
         <v>682</v>
       </c>
@@ -17174,7 +17454,7 @@
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
     </row>
-    <row r="228" spans="1:16" ht="47.45" customHeight="1">
+    <row r="228" spans="1:16" ht="47.4" customHeight="1">
       <c r="A228" s="14" t="s">
         <v>686</v>
       </c>
@@ -17204,7 +17484,7 @@
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
     </row>
-    <row r="229" spans="1:16" ht="30">
+    <row r="229" spans="1:16" ht="28.8">
       <c r="A229" s="14" t="s">
         <v>690</v>
       </c>
@@ -17234,7 +17514,7 @@
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
     </row>
-    <row r="230" spans="1:16" ht="30">
+    <row r="230" spans="1:16" ht="28.8">
       <c r="A230" s="14" t="s">
         <v>693</v>
       </c>
@@ -17262,7 +17542,7 @@
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
     </row>
-    <row r="231" spans="1:16" ht="30">
+    <row r="231" spans="1:16" ht="28.8">
       <c r="A231" s="14" t="s">
         <v>695</v>
       </c>
@@ -17292,7 +17572,7 @@
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
     </row>
-    <row r="232" spans="1:16" ht="45">
+    <row r="232" spans="1:16" ht="43.2">
       <c r="A232" s="14" t="s">
         <v>697</v>
       </c>
@@ -17322,7 +17602,7 @@
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
     </row>
-    <row r="233" spans="1:16" ht="30">
+    <row r="233" spans="1:16" ht="28.8">
       <c r="A233" s="14" t="s">
         <v>699</v>
       </c>
@@ -17352,7 +17632,7 @@
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
     </row>
-    <row r="234" spans="1:16" ht="30">
+    <row r="234" spans="1:16" ht="28.8">
       <c r="A234" s="14" t="s">
         <v>701</v>
       </c>
@@ -17382,7 +17662,7 @@
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
     </row>
-    <row r="235" spans="1:16" ht="30">
+    <row r="235" spans="1:16" ht="28.8">
       <c r="A235" s="14" t="s">
         <v>704</v>
       </c>
@@ -17412,7 +17692,7 @@
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
     </row>
-    <row r="236" spans="1:16" ht="30">
+    <row r="236" spans="1:16" ht="28.8">
       <c r="A236" s="14" t="s">
         <v>708</v>
       </c>
@@ -17442,7 +17722,7 @@
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
     </row>
-    <row r="237" spans="1:16" ht="30">
+    <row r="237" spans="1:16" ht="28.8">
       <c r="A237" s="14" t="s">
         <v>710</v>
       </c>
@@ -17472,7 +17752,7 @@
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
     </row>
-    <row r="238" spans="1:16" ht="30">
+    <row r="238" spans="1:16" ht="28.8">
       <c r="A238" s="14" t="s">
         <v>713</v>
       </c>
@@ -17502,7 +17782,7 @@
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
     </row>
-    <row r="239" spans="1:16" ht="45">
+    <row r="239" spans="1:16" ht="43.2">
       <c r="A239" s="14" t="s">
         <v>717</v>
       </c>
@@ -17534,7 +17814,7 @@
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
     </row>
-    <row r="240" spans="1:16" ht="45">
+    <row r="240" spans="1:16" ht="28.8">
       <c r="A240" s="14" t="s">
         <v>720</v>
       </c>
@@ -17564,7 +17844,7 @@
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
     </row>
-    <row r="241" spans="1:16" ht="30">
+    <row r="241" spans="1:16" ht="28.8">
       <c r="A241" s="14" t="s">
         <v>722</v>
       </c>
@@ -17594,7 +17874,7 @@
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
     </row>
-    <row r="242" spans="1:16" ht="45">
+    <row r="242" spans="1:16" ht="28.8">
       <c r="A242" s="14" t="s">
         <v>724</v>
       </c>
@@ -17616,7 +17896,7 @@
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
     </row>
-    <row r="243" spans="1:16" ht="38.25">
+    <row r="243" spans="1:16" ht="39.6">
       <c r="A243" s="14" t="s">
         <v>726</v>
       </c>
@@ -17646,7 +17926,7 @@
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
     </row>
-    <row r="244" spans="1:16" ht="45">
+    <row r="244" spans="1:16" ht="28.8">
       <c r="A244" s="14" t="s">
         <v>728</v>
       </c>
@@ -17676,7 +17956,7 @@
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
     </row>
-    <row r="245" spans="1:16" ht="30">
+    <row r="245" spans="1:16" ht="28.8">
       <c r="A245" s="14" t="s">
         <v>732</v>
       </c>
@@ -17706,7 +17986,7 @@
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
     </row>
-    <row r="246" spans="1:16" ht="63.75">
+    <row r="246" spans="1:16" ht="66">
       <c r="A246" s="14" t="s">
         <v>736</v>
       </c>
@@ -17738,7 +18018,7 @@
       </c>
       <c r="P246" s="18"/>
     </row>
-    <row r="247" spans="1:16" ht="60">
+    <row r="247" spans="1:16" ht="57.6">
       <c r="A247" s="14" t="s">
         <v>739</v>
       </c>
@@ -17772,7 +18052,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="30">
+    <row r="248" spans="1:16" ht="28.8">
       <c r="A248" s="14" t="s">
         <v>743</v>
       </c>
@@ -17802,7 +18082,7 @@
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
     </row>
-    <row r="249" spans="1:16" ht="30">
+    <row r="249" spans="1:16" ht="28.8">
       <c r="A249" s="14" t="s">
         <v>747</v>
       </c>
@@ -17832,7 +18112,7 @@
       <c r="O249" s="18"/>
       <c r="P249" s="18"/>
     </row>
-    <row r="250" spans="1:16" ht="30">
+    <row r="250" spans="1:16" ht="28.8">
       <c r="A250" s="14" t="s">
         <v>750</v>
       </c>
@@ -17860,7 +18140,7 @@
       <c r="O250" s="18"/>
       <c r="P250" s="18"/>
     </row>
-    <row r="251" spans="1:16" ht="30">
+    <row r="251" spans="1:16" ht="28.8">
       <c r="A251" s="14" t="s">
         <v>751</v>
       </c>
@@ -17890,7 +18170,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="252" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A252" s="14" t="s">
         <v>768</v>
       </c>
@@ -17946,7 +18226,7 @@
       <c r="O253" s="18"/>
       <c r="P253" s="18"/>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="254" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A254" s="14" t="s">
         <v>770</v>
       </c>
@@ -17976,7 +18256,7 @@
       <c r="O254" s="18"/>
       <c r="P254" s="18"/>
     </row>
-    <row r="255" spans="1:16" ht="45">
+    <row r="255" spans="1:16" ht="43.2">
       <c r="A255" s="14" t="s">
         <v>755</v>
       </c>
@@ -18006,7 +18286,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="256" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A256" s="14" t="s">
         <v>775</v>
       </c>
@@ -18036,7 +18316,7 @@
       <c r="O256" s="18"/>
       <c r="P256" s="14"/>
     </row>
-    <row r="257" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="257" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A257" s="14" t="s">
         <v>778</v>
       </c>
@@ -18066,7 +18346,7 @@
       <c r="O257" s="18"/>
       <c r="P257" s="14"/>
     </row>
-    <row r="258" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="258" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A258" s="14" t="s">
         <v>780</v>
       </c>
@@ -18096,7 +18376,7 @@
       <c r="O258" s="18"/>
       <c r="P258" s="14"/>
     </row>
-    <row r="259" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="259" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A259" s="14" t="s">
         <v>781</v>
       </c>
@@ -18126,7 +18406,7 @@
       <c r="O259" s="18"/>
       <c r="P259" s="14"/>
     </row>
-    <row r="260" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="260" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A260" s="14" t="s">
         <v>784</v>
       </c>
@@ -18156,7 +18436,7 @@
       <c r="O260" s="18"/>
       <c r="P260" s="14"/>
     </row>
-    <row r="261" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="261" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A261" s="14" t="s">
         <v>787</v>
       </c>
@@ -18186,7 +18466,7 @@
       <c r="O261" s="18"/>
       <c r="P261" s="14"/>
     </row>
-    <row r="262" spans="1:16" ht="45">
+    <row r="262" spans="1:16" ht="28.8">
       <c r="A262" s="14" t="s">
         <v>765</v>
       </c>
@@ -18216,7 +18496,7 @@
       <c r="O262" s="18"/>
       <c r="P262" s="18"/>
     </row>
-    <row r="263" spans="1:16" ht="45">
+    <row r="263" spans="1:16" ht="28.8">
       <c r="A263" s="14" t="s">
         <v>766</v>
       </c>
@@ -18246,7 +18526,7 @@
       <c r="O263" s="18"/>
       <c r="P263" s="18"/>
     </row>
-    <row r="264" spans="1:16" ht="45">
+    <row r="264" spans="1:16" ht="28.8">
       <c r="A264" s="14" t="s">
         <v>767</v>
       </c>
@@ -18276,7 +18556,7 @@
       <c r="O264" s="18"/>
       <c r="P264" s="18"/>
     </row>
-    <row r="265" spans="1:16" ht="30">
+    <row r="265" spans="1:16" ht="28.8">
       <c r="A265" s="14" t="s">
         <v>789</v>
       </c>
@@ -18296,7 +18576,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="30">
+    <row r="266" spans="1:16" ht="28.8">
       <c r="A266" s="14" t="s">
         <v>792</v>
       </c>
@@ -18313,7 +18593,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="45">
+    <row r="267" spans="1:16" ht="43.2">
       <c r="A267" s="14" t="s">
         <v>794</v>
       </c>
@@ -18333,7 +18613,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="45">
+    <row r="268" spans="1:16" ht="43.2">
       <c r="A268" s="7" t="s">
         <v>796</v>
       </c>
@@ -18353,7 +18633,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="45">
+    <row r="269" spans="1:16" ht="28.8">
       <c r="A269" s="7" t="s">
         <v>802</v>
       </c>
@@ -18373,7 +18653,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="30">
+    <row r="270" spans="1:16" ht="28.8">
       <c r="A270" s="7" t="s">
         <v>801</v>
       </c>
@@ -18393,7 +18673,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="45">
+    <row r="271" spans="1:16" ht="43.2">
       <c r="A271" s="7" t="s">
         <v>805</v>
       </c>
@@ -18413,7 +18693,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="45">
+    <row r="272" spans="1:16" ht="43.2">
       <c r="A272" s="7" t="s">
         <v>809</v>
       </c>
@@ -18433,7 +18713,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="45">
+    <row r="273" spans="1:17" ht="43.2">
       <c r="A273" s="7" t="s">
         <v>810</v>
       </c>
@@ -18450,7 +18730,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="45">
+    <row r="274" spans="1:17" ht="43.2">
       <c r="A274" s="7" t="s">
         <v>813</v>
       </c>
@@ -18470,7 +18750,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="30">
+    <row r="275" spans="1:17" ht="28.8">
       <c r="A275" s="49" t="s">
         <v>815</v>
       </c>
@@ -18487,7 +18767,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="64.5">
+    <row r="276" spans="1:17" ht="69">
       <c r="A276" s="14" t="s">
         <v>820</v>
       </c>
@@ -18510,7 +18790,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="51.75">
+    <row r="277" spans="1:17" ht="55.2">
       <c r="A277" s="7" t="s">
         <v>827</v>
       </c>
@@ -18521,7 +18801,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="30">
+    <row r="278" spans="1:17" ht="28.8">
       <c r="A278" s="7" t="s">
         <v>830</v>
       </c>
@@ -18541,7 +18821,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="30">
+    <row r="279" spans="1:17" ht="28.8">
       <c r="A279" s="7" t="s">
         <v>832</v>
       </c>
@@ -18558,7 +18838,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="45">
+    <row r="280" spans="1:17" ht="43.2">
       <c r="A280" s="7" t="s">
         <v>834</v>
       </c>
@@ -18578,7 +18858,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="45">
+    <row r="281" spans="1:17" ht="28.8">
       <c r="A281" s="7" t="s">
         <v>836</v>
       </c>
@@ -18615,7 +18895,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="30">
+    <row r="283" spans="1:17" ht="28.8">
       <c r="A283" s="7" t="s">
         <v>840</v>
       </c>
@@ -18632,7 +18912,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="30">
+    <row r="284" spans="1:17" ht="28.8">
       <c r="A284" s="7" t="s">
         <v>841</v>
       </c>
@@ -18649,7 +18929,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="30">
+    <row r="285" spans="1:17" ht="28.8">
       <c r="A285" s="7" t="s">
         <v>843</v>
       </c>
@@ -18669,7 +18949,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="30">
+    <row r="286" spans="1:17" ht="28.8">
       <c r="A286" s="7" t="s">
         <v>846</v>
       </c>
@@ -18689,7 +18969,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="30">
+    <row r="287" spans="1:17" ht="28.8">
       <c r="A287" s="7" t="s">
         <v>849</v>
       </c>
@@ -18706,7 +18986,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="39">
+    <row r="288" spans="1:17" ht="40.200000000000003">
       <c r="A288" s="14" t="s">
         <v>850</v>
       </c>
@@ -18726,7 +19006,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="30">
+    <row r="289" spans="1:15" ht="28.8">
       <c r="A289" s="7" t="s">
         <v>853</v>
       </c>
@@ -18746,7 +19026,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="45">
+    <row r="290" spans="1:15" ht="43.2">
       <c r="A290" s="7" t="s">
         <v>856</v>
       </c>
@@ -18763,7 +19043,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="39">
+    <row r="291" spans="1:15" ht="40.200000000000003">
       <c r="A291" s="7" t="s">
         <v>857</v>
       </c>
@@ -18786,7 +19066,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="45">
+    <row r="292" spans="1:15" ht="28.8">
       <c r="A292" s="7" t="s">
         <v>864</v>
       </c>
@@ -18804,7 +19084,7 @@
       </c>
       <c r="L292" s="7"/>
     </row>
-    <row r="293" spans="1:15" ht="30">
+    <row r="293" spans="1:15" ht="28.8">
       <c r="A293" s="7" t="s">
         <v>865</v>
       </c>
@@ -18824,7 +19104,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="30">
+    <row r="294" spans="1:15" ht="28.8">
       <c r="A294" s="7" t="s">
         <v>870</v>
       </c>
@@ -18841,7 +19121,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="30">
+    <row r="295" spans="1:15" ht="28.8">
       <c r="A295" s="7" t="s">
         <v>872</v>
       </c>
@@ -18861,7 +19141,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="30">
+    <row r="296" spans="1:15" ht="28.8">
       <c r="A296" s="7" t="s">
         <v>873</v>
       </c>
@@ -18878,7 +19158,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="60">
+    <row r="297" spans="1:15" ht="57.6">
       <c r="A297" s="7" t="s">
         <v>875</v>
       </c>
@@ -18895,7 +19175,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="30">
+    <row r="298" spans="1:15" ht="28.8">
       <c r="A298" s="14" t="s">
         <v>878</v>
       </c>
@@ -18915,7 +19195,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="30">
+    <row r="299" spans="1:15" ht="28.8">
       <c r="A299" s="14" t="s">
         <v>882</v>
       </c>
@@ -18932,7 +19212,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="45">
+    <row r="300" spans="1:15" ht="28.8">
       <c r="A300" s="7" t="s">
         <v>886</v>
       </c>
@@ -18952,7 +19232,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="30">
+    <row r="301" spans="1:15">
       <c r="A301" s="7" t="s">
         <v>888</v>
       </c>
@@ -18969,7 +19249,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="30">
+    <row r="302" spans="1:15" ht="28.8">
       <c r="A302" s="7" t="s">
         <v>891</v>
       </c>
@@ -19003,7 +19283,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="30">
+    <row r="304" spans="1:15" ht="28.8">
       <c r="A304" s="7" t="s">
         <v>898</v>
       </c>
@@ -19020,7 +19300,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="30">
+    <row r="305" spans="1:12" ht="28.8">
       <c r="A305" s="7" t="s">
         <v>899</v>
       </c>
@@ -19054,7 +19334,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="30">
+    <row r="307" spans="1:12" ht="28.8">
       <c r="A307" s="7" t="s">
         <v>903</v>
       </c>
@@ -19074,7 +19354,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="30">
+    <row r="308" spans="1:12" ht="28.8">
       <c r="A308" s="7" t="s">
         <v>905</v>
       </c>
@@ -19091,7 +19371,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="45">
+    <row r="309" spans="1:12" ht="43.2">
       <c r="A309" s="7" t="s">
         <v>907</v>
       </c>
@@ -19111,7 +19391,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="30">
+    <row r="310" spans="1:12" ht="28.8">
       <c r="A310" s="7" t="s">
         <v>911</v>
       </c>
@@ -19128,7 +19408,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="45">
+    <row r="311" spans="1:12" ht="28.8">
       <c r="A311" s="7" t="s">
         <v>912</v>
       </c>
@@ -19165,7 +19445,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="45">
+    <row r="313" spans="1:12" ht="28.8">
       <c r="A313" s="7" t="s">
         <v>914</v>
       </c>
@@ -19182,7 +19462,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="30">
+    <row r="314" spans="1:12" ht="28.8">
       <c r="A314" s="7" t="s">
         <v>916</v>
       </c>
@@ -19199,7 +19479,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="45">
+    <row r="315" spans="1:12" ht="43.2">
       <c r="A315" s="7" t="s">
         <v>918</v>
       </c>
@@ -19219,7 +19499,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="30">
+    <row r="316" spans="1:12" ht="28.8">
       <c r="A316" s="7" t="s">
         <v>921</v>
       </c>
@@ -19236,7 +19516,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="30">
+    <row r="317" spans="1:12" ht="28.8">
       <c r="A317" s="7" t="s">
         <v>925</v>
       </c>
@@ -19253,7 +19533,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="30">
+    <row r="318" spans="1:12" ht="28.8">
       <c r="A318" s="7" t="s">
         <v>926</v>
       </c>
@@ -19270,7 +19550,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="30">
+    <row r="319" spans="1:12" ht="28.8">
       <c r="A319" s="7" t="s">
         <v>929</v>
       </c>
@@ -19287,7 +19567,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="26.25">
+    <row r="320" spans="1:12" ht="27">
       <c r="A320" t="s">
         <v>933</v>
       </c>
@@ -19307,7 +19587,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="30">
+    <row r="321" spans="1:12" ht="28.8">
       <c r="A321" s="7" t="s">
         <v>935</v>
       </c>
@@ -19324,7 +19604,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="45">
+    <row r="322" spans="1:12" ht="43.2">
       <c r="A322" s="7" t="s">
         <v>936</v>
       </c>
@@ -19344,7 +19624,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="30">
+    <row r="323" spans="1:12" ht="28.8">
       <c r="A323" s="7" t="s">
         <v>939</v>
       </c>
@@ -19364,7 +19644,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="45">
+    <row r="324" spans="1:12" ht="28.8">
       <c r="A324" s="7" t="s">
         <v>941</v>
       </c>
@@ -19384,7 +19664,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="45">
+    <row r="325" spans="1:12" ht="43.2">
       <c r="A325" s="7" t="s">
         <v>943</v>
       </c>
@@ -19401,7 +19681,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="26.25">
+    <row r="326" spans="1:12" ht="27">
       <c r="A326" t="s">
         <v>945</v>
       </c>
@@ -19421,7 +19701,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="30">
+    <row r="327" spans="1:12" ht="28.8">
       <c r="A327" s="7" t="s">
         <v>947</v>
       </c>
@@ -19432,7 +19712,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="45">
+    <row r="328" spans="1:12" ht="28.8">
       <c r="A328" s="7" t="s">
         <v>951</v>
       </c>
@@ -19449,7 +19729,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="45">
+    <row r="329" spans="1:12" ht="28.8">
       <c r="A329" s="7" t="s">
         <v>955</v>
       </c>
@@ -19463,7 +19743,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="30">
+    <row r="330" spans="1:12" ht="28.8">
       <c r="A330" s="7" t="s">
         <v>957</v>
       </c>
@@ -19480,7 +19760,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="45">
+    <row r="331" spans="1:12" ht="28.8">
       <c r="A331" s="7" t="s">
         <v>959</v>
       </c>
@@ -19497,7 +19777,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="30">
+    <row r="332" spans="1:12" ht="28.8">
       <c r="A332" s="7" t="s">
         <v>961</v>
       </c>
@@ -19517,7 +19797,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="30">
+    <row r="333" spans="1:12" ht="28.8">
       <c r="A333" s="7" t="s">
         <v>964</v>
       </c>
@@ -19534,7 +19814,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="30">
+    <row r="334" spans="1:12" ht="28.8">
       <c r="A334" s="7" t="s">
         <v>966</v>
       </c>
@@ -19551,7 +19831,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="30">
+    <row r="335" spans="1:12" ht="28.8">
       <c r="A335" s="7" t="s">
         <v>968</v>
       </c>
@@ -19568,7 +19848,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="30">
+    <row r="336" spans="1:12" ht="28.8">
       <c r="A336" s="7" t="s">
         <v>971</v>
       </c>
@@ -19585,7 +19865,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="30">
+    <row r="337" spans="1:17" ht="28.8">
       <c r="A337" s="7" t="s">
         <v>972</v>
       </c>
@@ -19605,7 +19885,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="30">
+    <row r="338" spans="1:17" ht="28.8">
       <c r="A338" s="7" t="s">
         <v>974</v>
       </c>
@@ -19622,7 +19902,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="30">
+    <row r="339" spans="1:17" ht="28.8">
       <c r="A339" s="7" t="s">
         <v>982</v>
       </c>
@@ -19642,7 +19922,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="45">
+    <row r="340" spans="1:17" ht="43.2">
       <c r="A340" s="7" t="s">
         <v>984</v>
       </c>
@@ -19662,7 +19942,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="30">
+    <row r="341" spans="1:17" ht="28.8">
       <c r="A341" s="7" t="s">
         <v>986</v>
       </c>
@@ -19682,7 +19962,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="30">
+    <row r="342" spans="1:17" ht="28.8">
       <c r="A342" s="7" t="s">
         <v>988</v>
       </c>
@@ -19745,7 +20025,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="30">
+    <row r="345" spans="1:17" ht="28.8">
       <c r="A345" s="7" t="s">
         <v>1003</v>
       </c>
@@ -19763,7 +20043,7 @@
       </c>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:17" ht="30">
+    <row r="346" spans="1:17" ht="28.8">
       <c r="A346" s="7" t="s">
         <v>1005</v>
       </c>
@@ -19789,7 +20069,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="45">
+    <row r="347" spans="1:17" ht="43.2">
       <c r="A347" s="7" t="s">
         <v>1007</v>
       </c>
@@ -19835,7 +20115,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="30">
+    <row r="349" spans="1:17" ht="28.8">
       <c r="A349" s="7" t="s">
         <v>1016</v>
       </c>
@@ -19855,7 +20135,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="30">
+    <row r="350" spans="1:17" ht="28.8">
       <c r="A350" s="7" t="s">
         <v>1019</v>
       </c>
@@ -19875,7 +20155,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="351" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="351" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A351" s="7" t="s">
         <v>1022</v>
       </c>
@@ -19893,7 +20173,7 @@
       </c>
       <c r="L351" s="7"/>
     </row>
-    <row r="352" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="352" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A352" s="7" t="s">
         <v>1024</v>
       </c>
@@ -19911,7 +20191,7 @@
       </c>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:14" ht="30">
+    <row r="353" spans="1:14" ht="28.8">
       <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
@@ -19928,7 +20208,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="45">
+    <row r="354" spans="1:14" ht="43.2">
       <c r="A354" s="14" t="s">
         <v>1025</v>
       </c>
@@ -19948,7 +20228,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="30">
+    <row r="355" spans="1:14" ht="28.8">
       <c r="A355" s="7" t="s">
         <v>1028</v>
       </c>
@@ -19965,7 +20245,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="30">
+    <row r="356" spans="1:14" ht="28.8">
       <c r="A356" s="7" t="s">
         <v>1030</v>
       </c>
@@ -19982,7 +20262,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="30">
+    <row r="357" spans="1:14" ht="28.8">
       <c r="A357" s="7" t="s">
         <v>1032</v>
       </c>
@@ -20002,7 +20282,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="30">
+    <row r="358" spans="1:14" ht="28.8">
       <c r="A358" s="7" t="s">
         <v>1035</v>
       </c>
@@ -20022,7 +20302,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="30">
+    <row r="359" spans="1:14" ht="28.8">
       <c r="A359" s="7" t="s">
         <v>1039</v>
       </c>
@@ -20040,7 +20320,7 @@
       </c>
       <c r="L359" s="7"/>
     </row>
-    <row r="360" spans="1:14" s="2" customFormat="1" ht="45">
+    <row r="360" spans="1:14" s="2" customFormat="1" ht="43.2">
       <c r="A360" s="7" t="s">
         <v>1046</v>
       </c>
@@ -20063,7 +20343,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="45">
+    <row r="361" spans="1:14" ht="43.2">
       <c r="A361" s="7" t="s">
         <v>1041</v>
       </c>
@@ -20083,7 +20363,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="30">
+    <row r="362" spans="1:14" ht="28.8">
       <c r="A362" t="s">
         <v>1044</v>
       </c>
@@ -20103,7 +20383,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="30">
+    <row r="363" spans="1:14" ht="28.8">
       <c r="A363" s="7" t="s">
         <v>1050</v>
       </c>
@@ -20120,7 +20400,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="30">
+    <row r="364" spans="1:14" ht="28.8">
       <c r="A364" s="7" t="s">
         <v>1052</v>
       </c>
@@ -20137,7 +20417,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="30">
+    <row r="365" spans="1:14" ht="28.8">
       <c r="A365" s="7" t="s">
         <v>1055</v>
       </c>
@@ -20154,7 +20434,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="30">
+    <row r="366" spans="1:14" ht="28.8">
       <c r="A366" s="7" t="s">
         <v>1057</v>
       </c>
@@ -20171,7 +20451,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="30">
+    <row r="367" spans="1:14" ht="28.8">
       <c r="A367" s="7" t="s">
         <v>1059</v>
       </c>
@@ -20188,7 +20468,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="45">
+    <row r="368" spans="1:14" ht="43.2">
       <c r="A368" s="7" t="s">
         <v>1061</v>
       </c>
@@ -20205,7 +20485,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="30">
+    <row r="369" spans="1:16" ht="28.8">
       <c r="A369" s="7" t="s">
         <v>1063</v>
       </c>
@@ -20228,7 +20508,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="30">
+    <row r="370" spans="1:16" ht="28.8">
       <c r="A370" s="7" t="s">
         <v>1067</v>
       </c>
@@ -20245,7 +20525,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="45">
+    <row r="371" spans="1:16" ht="43.2">
       <c r="A371" s="7" t="s">
         <v>1069</v>
       </c>
@@ -20262,7 +20542,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A372" s="7" t="s">
         <v>1075</v>
       </c>
@@ -20282,7 +20562,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="45">
+    <row r="373" spans="1:16" ht="43.2">
       <c r="A373" s="7" t="s">
         <v>1071</v>
       </c>
@@ -20299,7 +20579,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="30">
+    <row r="374" spans="1:16" ht="28.8">
       <c r="A374" s="7" t="s">
         <v>1073</v>
       </c>
@@ -20319,7 +20599,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="30">
+    <row r="375" spans="1:16" ht="28.8">
       <c r="A375" s="7" t="s">
         <v>1080</v>
       </c>
@@ -20336,7 +20616,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="30">
+    <row r="376" spans="1:16" ht="28.8">
       <c r="A376" s="7" t="s">
         <v>1082</v>
       </c>
@@ -20353,7 +20633,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="43.9" customHeight="1">
+    <row r="377" spans="1:16" ht="43.95" customHeight="1">
       <c r="A377" s="14" t="s">
         <v>1085</v>
       </c>
@@ -20373,7 +20653,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="45">
+    <row r="378" spans="1:16" ht="28.8">
       <c r="A378" s="7" t="s">
         <v>1087</v>
       </c>
@@ -20387,6 +20667,141 @@
         <v>378</v>
       </c>
       <c r="E378" s="63" t="s">
+        <v>1036</v>
+      </c>
+      <c r="L378" s="7"/>
+    </row>
+    <row r="379" spans="1:16" ht="28.8">
+      <c r="A379" s="64" t="s">
+        <v>1089</v>
+      </c>
+      <c r="B379" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C379" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D379" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E379" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L379" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="380" spans="1:16" ht="28.8">
+      <c r="A380" s="7" t="s">
+        <v>1091</v>
+      </c>
+      <c r="B380" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C380" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D380" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E380" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L380" s="7" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="381" spans="1:16">
+      <c r="A381" t="s">
+        <v>1093</v>
+      </c>
+      <c r="B381" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C381" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D381" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E381" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="382" spans="1:16" ht="28.8">
+      <c r="A382" s="7" t="s">
+        <v>1095</v>
+      </c>
+      <c r="B382" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C382" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D382" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E382" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L382" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="383" spans="1:16" ht="28.8">
+      <c r="A383" s="7" t="s">
+        <v>1097</v>
+      </c>
+      <c r="B383" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C383" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D383" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E383" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L383" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="384" spans="1:16" ht="43.2">
+      <c r="A384" s="7" t="s">
+        <v>1100</v>
+      </c>
+      <c r="B384" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C384" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D384" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E384" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L384" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="385" spans="1:5" ht="28.8">
+      <c r="A385" s="7" t="s">
+        <v>1104</v>
+      </c>
+      <c r="B385" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C385" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D385" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E385" s="63" t="s">
         <v>1036</v>
       </c>
     </row>
@@ -20399,7 +20814,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E378">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E385">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -20952,9 +21367,23 @@
     <hyperlink ref="D377" r:id="rId546"/>
     <hyperlink ref="C378" r:id="rId547"/>
     <hyperlink ref="D378" r:id="rId548"/>
+    <hyperlink ref="C379" r:id="rId549"/>
+    <hyperlink ref="D379" r:id="rId550"/>
+    <hyperlink ref="C380" r:id="rId551"/>
+    <hyperlink ref="D380" r:id="rId552"/>
+    <hyperlink ref="C381" r:id="rId553"/>
+    <hyperlink ref="D381" r:id="rId554"/>
+    <hyperlink ref="C382" r:id="rId555"/>
+    <hyperlink ref="D382" r:id="rId556"/>
+    <hyperlink ref="C383" r:id="rId557"/>
+    <hyperlink ref="D383" r:id="rId558"/>
+    <hyperlink ref="C384" r:id="rId559"/>
+    <hyperlink ref="D384" r:id="rId560"/>
+    <hyperlink ref="C385" r:id="rId561"/>
+    <hyperlink ref="D385" r:id="rId562"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId549"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId563"/>
 </worksheet>
 </file>
 
@@ -20966,14 +21395,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -21017,7 +21446,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="165">
+    <row r="5" spans="1:3" ht="158.4">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -21028,7 +21457,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="225">
+    <row r="6" spans="1:3" ht="201.6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -21054,51 +21483,51 @@
       <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.6640625" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
     <col min="6" max="8" width="24" style="18" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="26.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" style="18" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.33203125" style="18" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.33203125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="19" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="18"/>
+    <col min="18" max="18" width="29.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="67" t="s">
+      <c r="B1" s="68" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="70"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
@@ -21120,7 +21549,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="30">
+    <row r="3" spans="1:19" ht="28.8">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -21145,7 +21574,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -21165,7 +21594,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="28.8">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -21187,7 +21616,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:19" ht="28.8">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -21213,7 +21642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="28.8">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -21233,7 +21662,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="45">
+    <row r="8" spans="1:19" ht="43.2">
       <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
@@ -21256,7 +21685,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
@@ -21276,7 +21705,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
@@ -21300,7 +21729,7 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" s="17" t="s">
         <v>49</v>
       </c>
@@ -21396,7 +21825,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
@@ -21422,7 +21851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
@@ -21444,7 +21873,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="43.2">
       <c r="A17" s="17" t="s">
         <v>63</v>
       </c>
@@ -21468,7 +21897,7 @@
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
@@ -21494,7 +21923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45">
+    <row r="19" spans="1:11" ht="43.2">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -21514,7 +21943,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
@@ -21540,7 +21969,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
@@ -21566,7 +21995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45">
+    <row r="22" spans="1:11" ht="43.2">
       <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
@@ -21612,7 +22041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="A24" s="19" t="s">
         <v>94</v>
       </c>
@@ -21635,7 +22064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="A25" s="19" t="s">
         <v>97</v>
       </c>
@@ -21658,7 +22087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
@@ -21693,7 +22122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="28.8">
       <c r="A27" s="17" t="s">
         <v>280</v>
       </c>
@@ -21718,7 +22147,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="28.8">
       <c r="A28" s="19" t="s">
         <v>100</v>
       </c>
@@ -21744,7 +22173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30">
+    <row r="29" spans="1:11" ht="28.8">
       <c r="A29" s="17" t="s">
         <v>407</v>
       </c>
@@ -21770,7 +22199,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45">
+    <row r="30" spans="1:11" ht="43.2">
       <c r="A30" s="17" t="s">
         <v>105</v>
       </c>
@@ -21790,7 +22219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.9" customHeight="1">
+    <row r="31" spans="1:11" ht="25.95" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>409</v>
       </c>
@@ -21816,7 +22245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
+    <row r="32" spans="1:11" ht="28.8">
       <c r="A32" s="17" t="s">
         <v>107</v>
       </c>
@@ -21840,7 +22269,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="28.8">
       <c r="A33" s="17" t="s">
         <v>110</v>
       </c>
@@ -21869,7 +22298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="28.8">
       <c r="A34" s="19" t="s">
         <v>114</v>
       </c>
@@ -21895,7 +22324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="28.8">
       <c r="A35" s="19" t="s">
         <v>117</v>
       </c>
@@ -21921,7 +22350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="28.8">
       <c r="A36" s="19" t="s">
         <v>122</v>
       </c>
@@ -21947,7 +22376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="28.8">
       <c r="A37" s="19" t="s">
         <v>123</v>
       </c>
@@ -21973,7 +22402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="28.8">
       <c r="A38" s="19" t="s">
         <v>126</v>
       </c>
@@ -21999,7 +22428,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45">
+    <row r="39" spans="1:9" ht="43.2">
       <c r="A39" s="19" t="s">
         <v>129</v>
       </c>
@@ -22025,7 +22454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45">
+    <row r="40" spans="1:9" ht="28.8">
       <c r="A40" s="17" t="s">
         <v>132</v>
       </c>
@@ -22048,7 +22477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:9" ht="28.8">
       <c r="A41" s="19" t="s">
         <v>135</v>
       </c>
@@ -22074,7 +22503,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45">
+    <row r="42" spans="1:9" ht="43.2">
       <c r="A42" s="19" t="s">
         <v>138</v>
       </c>
@@ -22100,7 +22529,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45">
+    <row r="43" spans="1:9" ht="43.2">
       <c r="A43" s="19" t="s">
         <v>141</v>
       </c>
@@ -22126,7 +22555,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="45">
+    <row r="44" spans="1:9" ht="43.2">
       <c r="A44" s="19" t="s">
         <v>144</v>
       </c>
@@ -22152,7 +22581,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45">
+    <row r="45" spans="1:9" ht="28.8">
       <c r="A45" s="19" t="s">
         <v>147</v>
       </c>
@@ -22178,7 +22607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="45">
+    <row r="46" spans="1:9" ht="43.2">
       <c r="A46" s="19" t="s">
         <v>149</v>
       </c>
@@ -22207,7 +22636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45">
+    <row r="47" spans="1:9" ht="43.2">
       <c r="A47" s="19" t="s">
         <v>152</v>
       </c>
@@ -22236,7 +22665,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="45">
+    <row r="48" spans="1:9" ht="43.2">
       <c r="A48" s="19" t="s">
         <v>155</v>
       </c>
@@ -22265,7 +22694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="45">
+    <row r="49" spans="1:11" ht="43.2">
       <c r="A49" s="17" t="s">
         <v>158</v>
       </c>
@@ -22294,7 +22723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11" ht="28.8">
       <c r="A50" s="19" t="s">
         <v>160</v>
       </c>
@@ -22326,7 +22755,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30">
+    <row r="51" spans="1:11" ht="28.8">
       <c r="A51" s="19" t="s">
         <v>165</v>
       </c>
@@ -22352,7 +22781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="45">
+    <row r="52" spans="1:11" ht="43.2">
       <c r="A52" s="17" t="s">
         <v>170</v>
       </c>
@@ -22381,7 +22810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30">
+    <row r="53" spans="1:11" ht="28.8">
       <c r="A53" s="19" t="s">
         <v>172</v>
       </c>
@@ -22413,7 +22842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45">
+    <row r="54" spans="1:11" ht="43.2">
       <c r="A54" s="17" t="s">
         <v>175</v>
       </c>
@@ -22442,7 +22871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="45">
+    <row r="55" spans="1:11" ht="28.8">
       <c r="A55" s="19" t="s">
         <v>177</v>
       </c>
@@ -22477,7 +22906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="60">
+    <row r="56" spans="1:11" ht="43.2">
       <c r="A56" s="17" t="s">
         <v>181</v>
       </c>
@@ -22503,7 +22932,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30">
+    <row r="57" spans="1:11" ht="28.8">
       <c r="A57" s="19" t="s">
         <v>374</v>
       </c>
@@ -22538,7 +22967,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="45">
+    <row r="58" spans="1:11" ht="43.2">
       <c r="A58" s="17" t="s">
         <v>185</v>
       </c>
@@ -22564,7 +22993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45">
+    <row r="59" spans="1:11" ht="43.2">
       <c r="A59" s="19" t="s">
         <v>187</v>
       </c>
@@ -22593,7 +23022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="45">
+    <row r="60" spans="1:11" ht="43.2">
       <c r="A60" s="19" t="s">
         <v>190</v>
       </c>
@@ -22622,7 +23051,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45">
+    <row r="61" spans="1:11" ht="43.2">
       <c r="A61" s="17" t="s">
         <v>193</v>
       </c>
@@ -22651,7 +23080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="45">
+    <row r="62" spans="1:11" ht="43.2">
       <c r="A62" s="17" t="s">
         <v>195</v>
       </c>
@@ -22680,7 +23109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="28.8">
       <c r="A63" s="19" t="s">
         <v>199</v>
       </c>
@@ -22712,7 +23141,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30">
+    <row r="64" spans="1:11" ht="28.8">
       <c r="A64" s="17" t="s">
         <v>202</v>
       </c>
@@ -22738,7 +23167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="45">
+    <row r="65" spans="1:13" ht="43.2">
       <c r="A65" s="19" t="s">
         <v>205</v>
       </c>
@@ -22767,7 +23196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="45">
+    <row r="66" spans="1:13" ht="28.8">
       <c r="A66" s="19" t="s">
         <v>208</v>
       </c>
@@ -22796,7 +23225,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="28.8">
       <c r="A67" s="19" t="s">
         <v>210</v>
       </c>
@@ -22828,7 +23257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="28.8">
       <c r="A68" s="17" t="s">
         <v>213</v>
       </c>
@@ -22869,7 +23298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30">
+    <row r="69" spans="1:13" ht="28.8">
       <c r="A69" s="19" t="s">
         <v>220</v>
       </c>
@@ -22895,7 +23324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30">
+    <row r="70" spans="1:13" ht="28.8">
       <c r="A70" s="19" t="s">
         <v>222</v>
       </c>
@@ -22921,7 +23350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30">
+    <row r="71" spans="1:13" ht="28.8">
       <c r="A71" s="17" t="s">
         <v>224</v>
       </c>
@@ -22950,7 +23379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="45">
+    <row r="72" spans="1:13" ht="43.2">
       <c r="A72" s="17" t="s">
         <v>226</v>
       </c>
@@ -22985,7 +23414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="45">
+    <row r="73" spans="1:13" ht="43.2">
       <c r="A73" s="17" t="s">
         <v>230</v>
       </c>
@@ -23020,7 +23449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30">
+    <row r="74" spans="1:13" ht="28.8">
       <c r="A74" s="17" t="s">
         <v>234</v>
       </c>
@@ -23049,7 +23478,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="45">
+    <row r="75" spans="1:13" ht="28.8">
       <c r="A75" s="17" t="s">
         <v>251</v>
       </c>
@@ -23084,7 +23513,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30">
+    <row r="76" spans="1:13" ht="28.8">
       <c r="A76" s="19" t="s">
         <v>272</v>
       </c>
@@ -23125,7 +23554,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30">
+    <row r="77" spans="1:13" ht="28.8">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -23163,7 +23592,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="28.8">
       <c r="A78" s="17" t="s">
         <v>247</v>
       </c>
@@ -23204,7 +23633,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30">
+    <row r="79" spans="1:13" ht="28.8">
       <c r="A79" s="17" t="s">
         <v>253</v>
       </c>
@@ -23245,7 +23674,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30">
+    <row r="80" spans="1:13" ht="28.8">
       <c r="A80" s="17" t="s">
         <v>255</v>
       </c>
@@ -23286,7 +23715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30">
+    <row r="81" spans="1:13" ht="28.8">
       <c r="A81" s="19" t="s">
         <v>259</v>
       </c>
@@ -23324,7 +23753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="45">
+    <row r="82" spans="1:13" ht="28.8">
       <c r="A82" s="17" t="s">
         <v>262</v>
       </c>
@@ -23365,7 +23794,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30">
+    <row r="83" spans="1:13" ht="28.8">
       <c r="A83" s="17" t="s">
         <v>268</v>
       </c>
@@ -23394,7 +23823,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="45">
+    <row r="84" spans="1:13" ht="43.2">
       <c r="A84" s="19" t="s">
         <v>273</v>
       </c>
@@ -23417,7 +23846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30">
+    <row r="85" spans="1:13" ht="28.8">
       <c r="A85" s="17" t="s">
         <v>278</v>
       </c>
@@ -23446,7 +23875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30">
+    <row r="86" spans="1:13" ht="28.8">
       <c r="A86" s="19" t="s">
         <v>283</v>
       </c>
@@ -23475,7 +23904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="30">
+    <row r="87" spans="1:13" ht="28.8">
       <c r="A87" s="19" t="s">
         <v>286</v>
       </c>
@@ -23504,7 +23933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="30">
+    <row r="88" spans="1:13" ht="28.8">
       <c r="A88" s="17" t="s">
         <v>289</v>
       </c>
@@ -23533,7 +23962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="30">
+    <row r="89" spans="1:13" ht="28.8">
       <c r="A89" s="17" t="s">
         <v>293</v>
       </c>
@@ -23562,7 +23991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="30">
+    <row r="90" spans="1:13" ht="28.8">
       <c r="A90" s="19" t="s">
         <v>295</v>
       </c>
@@ -23591,7 +24020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30">
+    <row r="91" spans="1:13" ht="28.8">
       <c r="A91" s="19" t="s">
         <v>297</v>
       </c>
@@ -23620,7 +24049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30">
+    <row r="92" spans="1:13" ht="28.8">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -23649,7 +24078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30">
+    <row r="93" spans="1:13" ht="28.8">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -23678,7 +24107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30">
+    <row r="94" spans="1:13" ht="28.8">
       <c r="A94" s="17" t="s">
         <v>303</v>
       </c>
@@ -23707,7 +24136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="45">
+    <row r="95" spans="1:13" ht="43.2">
       <c r="A95" s="17" t="s">
         <v>305</v>
       </c>
@@ -23733,7 +24162,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="45">
+    <row r="96" spans="1:13" ht="43.2">
       <c r="A96" s="17" t="s">
         <v>308</v>
       </c>
@@ -23759,7 +24188,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45">
+    <row r="97" spans="1:10" ht="43.2">
       <c r="A97" s="17" t="s">
         <v>310</v>
       </c>
@@ -23785,7 +24214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="45">
+    <row r="98" spans="1:10" ht="43.2">
       <c r="A98" s="17" t="s">
         <v>327</v>
       </c>
@@ -23814,7 +24243,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.9" customHeight="1">
+    <row r="99" spans="1:10" ht="43.95" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>313</v>
       </c>
@@ -23840,7 +24269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45">
+    <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="17" t="s">
         <v>315</v>
       </c>
@@ -23866,7 +24295,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="45">
+    <row r="101" spans="1:10" ht="43.2">
       <c r="A101" s="17" t="s">
         <v>330</v>
       </c>
@@ -23895,7 +24324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="60">
+    <row r="102" spans="1:10" ht="43.2">
       <c r="A102" s="21" t="s">
         <v>318</v>
       </c>
@@ -23921,7 +24350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="45">
+    <row r="103" spans="1:10" ht="28.8">
       <c r="A103" s="17" t="s">
         <v>321</v>
       </c>
@@ -23947,7 +24376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="45">
+    <row r="104" spans="1:10" ht="28.8">
       <c r="A104" s="17" t="s">
         <v>332</v>
       </c>
@@ -23976,7 +24405,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="45">
+    <row r="105" spans="1:10" ht="43.2">
       <c r="A105" s="17" t="s">
         <v>324</v>
       </c>
@@ -24002,7 +24431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30">
+    <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="17" t="s">
         <v>334</v>
       </c>
@@ -24025,7 +24454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="45">
+    <row r="107" spans="1:10" ht="43.2">
       <c r="A107" s="17" t="s">
         <v>336</v>
       </c>
@@ -24057,7 +24486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45">
+    <row r="108" spans="1:10" ht="43.2">
       <c r="A108" s="17" t="s">
         <v>340</v>
       </c>
@@ -24089,7 +24518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30">
+    <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="17" t="s">
         <v>344</v>
       </c>
@@ -24115,7 +24544,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45">
+    <row r="110" spans="1:10" ht="43.2">
       <c r="A110" s="17" t="s">
         <v>350</v>
       </c>
@@ -24144,7 +24573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="30">
+    <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="17" t="s">
         <v>351</v>
       </c>
@@ -24176,7 +24605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30">
+    <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="17" t="s">
         <v>354</v>
       </c>
@@ -24208,7 +24637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="30">
+    <row r="113" spans="1:17" ht="28.8">
       <c r="A113" s="17" t="s">
         <v>359</v>
       </c>
@@ -24234,7 +24663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="30">
+    <row r="114" spans="1:17" ht="28.8">
       <c r="A114" s="17" t="s">
         <v>360</v>
       </c>
@@ -24263,7 +24692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="45">
+    <row r="115" spans="1:17" ht="43.2">
       <c r="A115" s="17" t="s">
         <v>362</v>
       </c>
@@ -24292,7 +24721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="60">
+    <row r="116" spans="1:17" ht="43.2">
       <c r="A116" s="17" t="s">
         <v>364</v>
       </c>
@@ -24318,7 +24747,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="30">
+    <row r="117" spans="1:17" ht="28.8">
       <c r="A117" s="17" t="s">
         <v>367</v>
       </c>
@@ -24344,7 +24773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="30">
+    <row r="118" spans="1:17" ht="28.8">
       <c r="A118" s="19" t="s">
         <v>370</v>
       </c>
@@ -24370,7 +24799,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="30">
+    <row r="119" spans="1:17" ht="28.8">
       <c r="A119" s="19" t="s">
         <v>375</v>
       </c>
@@ -24396,7 +24825,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="60">
+    <row r="120" spans="1:17" ht="43.2">
       <c r="A120" s="17" t="s">
         <v>382</v>
       </c>
@@ -24434,7 +24863,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="45">
+    <row r="121" spans="1:17" ht="43.2">
       <c r="A121" s="17" t="s">
         <v>384</v>
       </c>
@@ -24472,7 +24901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="30">
+    <row r="122" spans="1:17" ht="28.8">
       <c r="A122" s="19" t="s">
         <v>387</v>
       </c>
@@ -24495,7 +24924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="30">
+    <row r="123" spans="1:17" ht="28.8">
       <c r="A123" s="17" t="s">
         <v>389</v>
       </c>
@@ -24518,7 +24947,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="60">
+    <row r="124" spans="1:17" ht="57.6">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -24571,7 +25000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="30">
+    <row r="125" spans="1:17" ht="28.8">
       <c r="A125" s="17" t="s">
         <v>399</v>
       </c>
@@ -24597,7 +25026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="30">
+    <row r="126" spans="1:17" ht="28.8">
       <c r="A126" s="17" t="s">
         <v>402</v>
       </c>
@@ -24623,7 +25052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="30">
+    <row r="127" spans="1:17" ht="28.8">
       <c r="A127" s="17" t="s">
         <v>411</v>
       </c>
@@ -24652,7 +25081,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="30">
+    <row r="128" spans="1:17" ht="28.8">
       <c r="A128" s="17" t="s">
         <v>414</v>
       </c>
@@ -24681,7 +25110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="30">
+    <row r="129" spans="1:12" ht="28.8">
       <c r="A129" s="17" t="s">
         <v>417</v>
       </c>
@@ -24710,7 +25139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="30">
+    <row r="130" spans="1:12" ht="28.8">
       <c r="A130" s="17" t="s">
         <v>419</v>
       </c>
@@ -24739,7 +25168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30">
+    <row r="131" spans="1:12" ht="28.8">
       <c r="A131" s="17" t="s">
         <v>420</v>
       </c>
@@ -24768,7 +25197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30">
+    <row r="132" spans="1:12" ht="28.8">
       <c r="A132" s="17" t="s">
         <v>422</v>
       </c>
@@ -24797,7 +25226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30">
+    <row r="133" spans="1:12" ht="28.8">
       <c r="A133" s="19" t="s">
         <v>424</v>
       </c>
@@ -24826,7 +25255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="30">
+    <row r="134" spans="1:12" ht="28.8">
       <c r="A134" s="17" t="s">
         <v>426</v>
       </c>
@@ -24852,7 +25281,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="43.2">
       <c r="A135" s="17" t="s">
         <v>429</v>
       </c>
@@ -24890,7 +25319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45">
+    <row r="136" spans="1:12" ht="43.2">
       <c r="A136" s="17" t="s">
         <v>433</v>
       </c>
@@ -24928,7 +25357,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="60">
+    <row r="137" spans="1:12" ht="43.2">
       <c r="A137" s="17" t="s">
         <v>436</v>
       </c>
@@ -24957,7 +25386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="60">
+    <row r="138" spans="1:12" ht="57.6">
       <c r="A138" s="17" t="s">
         <v>439</v>
       </c>
@@ -24992,7 +25421,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45">
+    <row r="139" spans="1:12" ht="43.2">
       <c r="A139" s="21" t="s">
         <v>441</v>
       </c>
@@ -25018,7 +25447,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="30">
+    <row r="140" spans="1:12" ht="28.8">
       <c r="A140" s="19" t="s">
         <v>445</v>
       </c>
@@ -25041,7 +25470,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="30">
+    <row r="141" spans="1:12" ht="28.8">
       <c r="A141" s="17" t="s">
         <v>447</v>
       </c>
@@ -25067,7 +25496,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="30">
+    <row r="142" spans="1:12" ht="28.8">
       <c r="A142" s="17" t="s">
         <v>449</v>
       </c>
@@ -25093,7 +25522,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="30">
+    <row r="143" spans="1:12" ht="28.8">
       <c r="A143" s="17" t="s">
         <v>453</v>
       </c>
@@ -25116,7 +25545,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45">
+    <row r="144" spans="1:12" ht="28.8">
       <c r="A144" s="17" t="s">
         <v>456</v>
       </c>
@@ -25142,7 +25571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="30">
+    <row r="145" spans="1:10" ht="28.8">
       <c r="A145" s="17" t="s">
         <v>458</v>
       </c>
@@ -25168,7 +25597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="45">
+    <row r="146" spans="1:10" ht="28.8">
       <c r="A146" s="17" t="s">
         <v>461</v>
       </c>
@@ -25194,7 +25623,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="30">
+    <row r="147" spans="1:10" ht="28.8">
       <c r="A147" s="17" t="s">
         <v>464</v>
       </c>
@@ -25220,7 +25649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="30">
+    <row r="148" spans="1:10" ht="28.8">
       <c r="A148" s="17" t="s">
         <v>468</v>
       </c>
@@ -25249,7 +25678,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="30">
+    <row r="149" spans="1:10" ht="28.8">
       <c r="A149" s="17" t="s">
         <v>472</v>
       </c>
@@ -25275,7 +25704,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="30">
+    <row r="150" spans="1:10" ht="28.8">
       <c r="A150" s="19" t="s">
         <v>474</v>
       </c>
@@ -25301,7 +25730,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="60">
+    <row r="151" spans="1:10" ht="57.6">
       <c r="A151" s="17" t="s">
         <v>477</v>
       </c>
@@ -25330,7 +25759,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="30">
+    <row r="152" spans="1:10" ht="28.8">
       <c r="A152" s="17" t="s">
         <v>485</v>
       </c>
@@ -25356,7 +25785,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="30">
+    <row r="153" spans="1:10" ht="28.8">
       <c r="A153" s="17" t="s">
         <v>486</v>
       </c>
@@ -25382,7 +25811,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="45">
+    <row r="154" spans="1:10" ht="43.2">
       <c r="A154" s="17" t="s">
         <v>487</v>
       </c>
@@ -25408,7 +25837,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="45">
+    <row r="155" spans="1:10" ht="28.8">
       <c r="A155" s="17" t="s">
         <v>490</v>
       </c>
@@ -25440,7 +25869,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="30">
+    <row r="156" spans="1:10" ht="28.8">
       <c r="A156" s="11" t="s">
         <v>492</v>
       </c>
@@ -25466,7 +25895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="30">
+    <row r="157" spans="1:10" ht="28.8">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -25495,7 +25924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="45">
+    <row r="158" spans="1:10" ht="28.8">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -25521,7 +25950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="30">
+    <row r="159" spans="1:10" ht="28.8">
       <c r="A159" s="19" t="s">
         <v>499</v>
       </c>
@@ -25547,7 +25976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="30">
+    <row r="160" spans="1:10" ht="28.8">
       <c r="A160" s="19" t="s">
         <v>501</v>
       </c>
@@ -25579,7 +26008,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="30">
+    <row r="161" spans="1:14" ht="28.8">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -25617,7 +26046,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="45">
+    <row r="162" spans="1:14" ht="43.2">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -25655,7 +26084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="45">
+    <row r="163" spans="1:14" ht="43.2">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -25693,7 +26122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="45">
+    <row r="164" spans="1:14" ht="43.2">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -25766,7 +26195,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="30">
+    <row r="166" spans="1:14" ht="28.8">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -25792,7 +26221,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="45">
+    <row r="167" spans="1:14" ht="43.2">
       <c r="A167" s="23" t="s">
         <v>521</v>
       </c>
@@ -25818,7 +26247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="30">
+    <row r="168" spans="1:14" ht="28.8">
       <c r="A168" s="17" t="s">
         <v>524</v>
       </c>
@@ -25850,7 +26279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="45">
+    <row r="169" spans="1:14" ht="43.2">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -25885,7 +26314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="30">
+    <row r="170" spans="1:14" ht="28.8">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -25914,7 +26343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="45">
+    <row r="171" spans="1:14" ht="28.8">
       <c r="A171" s="17" t="s">
         <v>538</v>
       </c>
@@ -25946,7 +26375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="30">
+    <row r="172" spans="1:14" ht="28.8">
       <c r="A172" s="17" t="s">
         <v>541</v>
       </c>
@@ -25978,7 +26407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="45">
+    <row r="173" spans="1:14" ht="43.2">
       <c r="A173" s="17" t="s">
         <v>544</v>
       </c>
@@ -26004,7 +26433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="90">
+    <row r="174" spans="1:14" ht="72">
       <c r="A174" s="17" t="s">
         <v>547</v>
       </c>
@@ -26027,7 +26456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="45">
+    <row r="175" spans="1:14" ht="28.8">
       <c r="A175" s="17" t="s">
         <v>550</v>
       </c>
@@ -26050,7 +26479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="30">
+    <row r="176" spans="1:14" ht="28.8">
       <c r="A176" s="17" t="s">
         <v>553</v>
       </c>
@@ -26088,7 +26517,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="60">
+    <row r="177" spans="1:10" ht="43.2">
       <c r="A177" s="14" t="s">
         <v>591</v>
       </c>
@@ -26145,57 +26574,57 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="31"/>
+    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="64" t="s">
+      <c r="B1" s="65" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="66"/>
+      <c r="C1" s="66"/>
+      <c r="D1" s="66"/>
+      <c r="E1" s="66"/>
+      <c r="F1" s="66"/>
+      <c r="G1" s="66"/>
+      <c r="H1" s="66"/>
+      <c r="I1" s="66"/>
+      <c r="J1" s="66"/>
+      <c r="K1" s="66"/>
+      <c r="L1" s="66"/>
+      <c r="M1" s="66"/>
+      <c r="N1" s="66"/>
+      <c r="O1" s="66"/>
+      <c r="P1" s="66"/>
+      <c r="Q1" s="66"/>
+      <c r="R1" s="66"/>
+      <c r="S1" s="67"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -26227,7 +26656,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.9" customHeight="1">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -26259,7 +26688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="28.8">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -26291,7 +26720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.9" customHeight="1">
+    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -26323,7 +26752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.9" customHeight="1">
+    <row r="6" spans="1:19" ht="31.95" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -26401,7 +26830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -26433,7 +26862,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -26459,7 +26888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -26511,7 +26940,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30">
+    <row r="13" spans="1:19" ht="28.8">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -26557,7 +26986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -26586,7 +27015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -26644,7 +27073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -26670,7 +27099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -26702,7 +27131,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -26764,7 +27193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="28.8">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -26784,7 +27213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="43.2">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -26813,7 +27242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="28.8">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -26839,7 +27268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30">
+    <row r="25" spans="1:12" ht="28.8">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -26865,7 +27294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -26897,7 +27326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -26929,7 +27358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -26967,7 +27396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -27000,7 +27429,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -27090,7 +27519,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="28.8">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -27110,7 +27539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30">
+    <row r="34" spans="1:15" ht="28.8">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -27142,7 +27571,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="28.8">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -27174,7 +27603,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30">
+    <row r="36" spans="1:15" ht="28.8">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -27206,7 +27635,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30">
+    <row r="37" spans="1:15" ht="28.8">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -27238,7 +27667,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="28.8">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -27270,7 +27699,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="28.8">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -27305,7 +27734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="28.8">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -27337,7 +27766,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="30">
+    <row r="41" spans="1:15" ht="28.8">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -27372,7 +27801,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30">
+    <row r="42" spans="1:15" ht="28.8">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -27404,7 +27833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="28.8">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -27436,7 +27865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row r="44" spans="1:15" ht="28.8">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -27462,7 +27891,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30">
+    <row r="45" spans="1:15" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -27497,7 +27926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30">
+    <row r="46" spans="1:15" ht="28.8">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -27529,7 +27958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30">
+    <row r="47" spans="1:15" ht="28.8">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -27561,7 +27990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="28.8">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -27608,7 +28037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="30">
+    <row r="49" spans="1:20" ht="28.8">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -27643,7 +28072,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="30">
+    <row r="50" spans="1:20" ht="28.8">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -27699,7 +28128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="30">
+    <row r="51" spans="1:20" ht="28.8">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -27761,7 +28190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="30">
+    <row r="52" spans="1:20" ht="28.8">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -27823,7 +28252,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="30">
+    <row r="53" spans="1:20" ht="28.8">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -27870,7 +28299,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="30">
+    <row r="54" spans="1:20" ht="28.8">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -27902,7 +28331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="30">
+    <row r="55" spans="1:20" ht="28.8">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -27949,7 +28378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="45">
+    <row r="56" spans="1:20" ht="43.2">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -27996,7 +28425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="30">
+    <row r="57" spans="1:20" ht="28.8">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -28060,7 +28489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="30">
+    <row r="59" spans="1:20" ht="28.8">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -28092,7 +28521,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="30">
+    <row r="60" spans="1:20" ht="28.8">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -28124,7 +28553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="30">
+    <row r="61" spans="1:20" ht="28.8">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -28156,7 +28585,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="30">
+    <row r="62" spans="1:20" ht="28.8">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -28200,7 +28629,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="30">
+    <row r="63" spans="1:20" ht="28.8">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -28233,7 +28662,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:20" ht="30">
+    <row r="64" spans="1:20" ht="28.8">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -28297,7 +28726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30">
+    <row r="66" spans="1:14" ht="28.8">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -28317,7 +28746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30">
+    <row r="67" spans="1:14" ht="28.8">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -28349,7 +28778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30">
+    <row r="68" spans="1:14" ht="28.8">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -28381,7 +28810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30">
+    <row r="69" spans="1:14" ht="28.8">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -28422,7 +28851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="45">
+    <row r="70" spans="1:14" ht="43.2">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -28466,7 +28895,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="30">
+    <row r="71" spans="1:14" ht="28.8">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -28498,7 +28927,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="30">
+    <row r="72" spans="1:14" ht="28.8">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -28568,7 +28997,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="30">
+    <row r="74" spans="1:14" ht="28.8">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -28603,7 +29032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="30">
+    <row r="75" spans="1:14" ht="28.8">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -28635,7 +29064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="30">
+    <row r="76" spans="1:14" ht="28.8">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -28699,7 +29128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="45">
+    <row r="78" spans="1:14" ht="28.8">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -28743,7 +29172,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30">
+    <row r="79" spans="1:14" ht="28.8">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -28778,7 +29207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="30">
+    <row r="80" spans="1:14" ht="28.8">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -28819,7 +29248,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="28.8">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -28860,7 +29289,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45">
+    <row r="82" spans="1:16" ht="43.2">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -28895,7 +29324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30">
+    <row r="83" spans="1:16" ht="28.8">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -28936,7 +29365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30">
+    <row r="84" spans="1:16" ht="28.8">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -28977,7 +29406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="45">
+    <row r="85" spans="1:16" ht="43.2">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -29013,7 +29442,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="30">
+    <row r="86" spans="1:16" ht="28.8">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -29048,7 +29477,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30">
+    <row r="87" spans="1:16" ht="28.8">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -29083,7 +29512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30">
+    <row r="88" spans="1:16" ht="28.8">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -29118,7 +29547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30">
+    <row r="89" spans="1:16" ht="28.8">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -29147,7 +29576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30">
+    <row r="90" spans="1:16" ht="28.8">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -29176,7 +29605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="45">
+    <row r="91" spans="1:16" ht="28.8">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -29255,7 +29684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="45">
+    <row r="93" spans="1:16" ht="43.2">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -29305,7 +29734,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="45">
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -29355,7 +29784,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30">
+    <row r="95" spans="1:16" ht="28.8">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -29402,7 +29831,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30">
+    <row r="96" spans="1:16" ht="28.8">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -29437,7 +29866,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30">
+    <row r="97" spans="1:13" ht="28.8">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -29472,7 +29901,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30">
+    <row r="98" spans="1:13" ht="28.8">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -29507,7 +29936,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30">
+    <row r="99" spans="1:13" ht="28.8">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -29583,7 +30012,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30">
+    <row r="101" spans="1:13" ht="28.8">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -29603,7 +30032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30">
+    <row r="102" spans="1:13" ht="28.8">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -29635,7 +30064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30">
+    <row r="103" spans="1:13" ht="28.8">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -29673,7 +30102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="45">
+    <row r="104" spans="1:13" ht="28.8">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -29714,7 +30143,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30">
+    <row r="105" spans="1:13" ht="28.8">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -29784,7 +30213,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30">
+    <row r="107" spans="1:13" ht="28.8">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -29813,7 +30242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30">
+    <row r="108" spans="1:13" ht="28.8">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -29903,7 +30332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30">
+    <row r="111" spans="1:13" ht="28.8">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -29938,7 +30367,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30">
+    <row r="112" spans="1:13" ht="28.8">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -29970,7 +30399,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="30">
+    <row r="113" spans="1:22" ht="28.8">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -30002,7 +30431,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="45">
+    <row r="114" spans="1:22" ht="43.2">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -30034,7 +30463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.15" customHeight="1">
+    <row r="115" spans="1:22" ht="43.2" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -30102,7 +30531,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="30">
+    <row r="116" spans="1:22" ht="28.8">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -30137,7 +30566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="30">
+    <row r="117" spans="1:22" ht="28.8">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -30178,7 +30607,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="30">
+    <row r="118" spans="1:22" ht="28.8">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -30210,7 +30639,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="30">
+    <row r="119" spans="1:22" ht="28.8">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -30251,7 +30680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="30">
+    <row r="120" spans="1:22" ht="28.8">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -30286,7 +30715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="60">
+    <row r="121" spans="1:22" ht="43.2">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -30359,7 +30788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="30">
+    <row r="123" spans="1:22" ht="28.8">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -30403,7 +30832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="30">
+    <row r="124" spans="1:22" ht="28.8">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -30473,7 +30902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="30">
+    <row r="126" spans="1:22" ht="28.8">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -30581,7 +31010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30">
+    <row r="129" spans="1:13" ht="28.8">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -30642,7 +31071,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30">
+    <row r="131" spans="1:13" ht="28.8">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -30694,7 +31123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30">
+    <row r="133" spans="1:13" ht="28.8">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -30726,7 +31155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30">
+    <row r="134" spans="1:13" ht="28.8">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -30758,7 +31187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30">
+    <row r="135" spans="1:13" ht="28.8">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -30831,7 +31260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30">
+    <row r="137" spans="1:13" ht="28.8">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -30854,7 +31283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30">
+    <row r="138" spans="1:13" ht="28.8">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -30880,7 +31309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="45">
+    <row r="139" spans="1:13" ht="28.8">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -30921,7 +31350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30">
+    <row r="140" spans="1:13" ht="28.8">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -30950,7 +31379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30">
+    <row r="141" spans="1:13" ht="28.8">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -30979,7 +31408,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30">
+    <row r="142" spans="1:13" ht="28.8">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -31011,7 +31440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="28.8">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -31072,7 +31501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30">
+    <row r="145" spans="1:14" ht="28.8">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -31101,7 +31530,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="30">
+    <row r="146" spans="1:14" ht="28.8">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -31136,7 +31565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="30">
+    <row r="147" spans="1:14" ht="28.8">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -31171,7 +31600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30">
+    <row r="148" spans="1:14" ht="28.8">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -31215,7 +31644,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="45">
+    <row r="149" spans="1:14" ht="28.8">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -31267,7 +31696,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30">
+    <row r="151" spans="1:14">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -31290,7 +31719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="30">
+    <row r="152" spans="1:14" ht="28.8">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -31322,7 +31751,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="30">
+    <row r="153" spans="1:14" ht="28.8">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -31342,7 +31771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="30">
+    <row r="154" spans="1:14" ht="28.8">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -31371,7 +31800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="30">
+    <row r="155" spans="1:14" ht="28.8">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -31400,7 +31829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="30">
+    <row r="156" spans="1:14" ht="28.8">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -31432,7 +31861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="30">
+    <row r="157" spans="1:14" ht="28.8">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -31464,7 +31893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30">
+    <row r="158" spans="1:14" ht="28.8">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -31531,7 +31960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="30">
+    <row r="160" spans="1:14" ht="28.8">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -31566,7 +31995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="30">
+    <row r="161" spans="1:19" ht="28.8">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -31598,7 +32027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="30">
+    <row r="162" spans="1:19" ht="28.8">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -31636,7 +32065,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="30">
+    <row r="163" spans="1:19" ht="28.8">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -31668,7 +32097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="30">
+    <row r="164" spans="1:19" ht="28.8">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -31700,7 +32129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="30">
+    <row r="165" spans="1:19">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -31741,7 +32170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30">
+    <row r="166" spans="1:19" ht="28.8">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STELCO\Desktop\Nesh_Automation\automationtests\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="5205"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -19,6 +14,7 @@
     <sheet name="NewTestCases (backupfile)" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -28,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7472" uniqueCount="1105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7491" uniqueCount="1107">
   <si>
     <t>TestCase</t>
   </si>
@@ -3377,12 +3373,18 @@
   <si>
     <t>Verify_That_Bubble_Message_Is_Display_On_Chinook_Avatar</t>
   </si>
+  <si>
+    <t>Verify_That_Same_Filter_Is_Not_Applying_For_Multiple_Time</t>
+  </si>
+  <si>
+    <t>VerifyThatSameFilterIsNotWorkingForMultipleTime</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="13">
+  <fonts count="14">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3467,6 +3469,12 @@
       <sz val="10"/>
       <color rgb="FF202124"/>
       <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -3661,7 +3669,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="71">
+  <cellXfs count="75">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
@@ -3828,6 +3836,18 @@
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -4120,7 +4140,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4128,63 +4148,63 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V209"/>
+  <dimension ref="A1:V210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C199" workbookViewId="0">
-      <selection activeCell="F213" sqref="F213"/>
+    <sheetView tabSelected="1" topLeftCell="D199" workbookViewId="0">
+      <selection activeCell="G206" sqref="G206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="31"/>
+    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -4216,7 +4236,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="3" spans="1:19" ht="34.9" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -4248,7 +4268,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -4280,7 +4300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
+    <row r="5" spans="1:19" ht="37.9" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -4312,7 +4332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.95" customHeight="1">
+    <row r="6" spans="1:19" ht="31.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -4344,7 +4364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34.200000000000003" customHeight="1">
+    <row r="7" spans="1:19" ht="34.15" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
@@ -4390,7 +4410,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -4422,7 +4442,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -4448,7 +4468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -4500,7 +4520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -4546,7 +4566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.8">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -4575,7 +4595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -4633,7 +4653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -4659,7 +4679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -4691,7 +4711,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -4721,7 +4741,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="28.95" customHeight="1">
+    <row r="21" spans="1:12" ht="28.9" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>602</v>
       </c>
@@ -4753,7 +4773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.8">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -4773,7 +4793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="43.2">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -4802,7 +4822,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -4828,7 +4848,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8">
+    <row r="25" spans="1:12" ht="30">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -4854,7 +4874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.8">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -4886,7 +4906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8">
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -4918,7 +4938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8">
+    <row r="28" spans="1:12" ht="30">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -4956,7 +4976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8">
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -4989,7 +5009,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="28.8">
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -5079,7 +5099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -5099,7 +5119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8">
+    <row r="34" spans="1:15" ht="30">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -5131,7 +5151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8">
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -5163,7 +5183,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8">
+    <row r="36" spans="1:15" ht="30">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -5195,7 +5215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="28.8">
+    <row r="37" spans="1:15" ht="30">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -5227,7 +5247,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8">
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -5259,7 +5279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8">
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -5294,7 +5314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8">
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -5326,7 +5346,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8">
+    <row r="41" spans="1:15" ht="30">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -5361,7 +5381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8">
+    <row r="42" spans="1:15" ht="30">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -5393,7 +5413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8">
+    <row r="43" spans="1:15" ht="30">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -5425,7 +5445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8">
+    <row r="44" spans="1:15" ht="30">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -5451,7 +5471,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.8">
+    <row r="45" spans="1:15" ht="30">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -5486,7 +5506,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8">
+    <row r="46" spans="1:15" ht="30">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -5518,7 +5538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8">
+    <row r="47" spans="1:15" ht="30">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -5550,7 +5570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8">
+    <row r="48" spans="1:15" ht="30">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -5597,7 +5617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="28.8">
+    <row r="49" spans="1:21" ht="30">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -5632,7 +5652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="28.8">
+    <row r="50" spans="1:21" ht="30">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -5688,7 +5708,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="28.8">
+    <row r="51" spans="1:21" ht="30">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -5753,7 +5773,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="28.8">
+    <row r="52" spans="1:21" ht="30">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -5818,7 +5838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="28.8">
+    <row r="53" spans="1:21" ht="30">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -5865,7 +5885,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="28.8">
+    <row r="54" spans="1:21" ht="30">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -5897,7 +5917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="28.8">
+    <row r="55" spans="1:21" ht="30">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -5933,7 +5953,7 @@
       </c>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:21" ht="43.2">
+    <row r="56" spans="1:21" ht="45">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -5980,7 +6000,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="28.8">
+    <row r="57" spans="1:21" ht="30">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -6044,7 +6064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="28.8">
+    <row r="59" spans="1:21" ht="30">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -6076,7 +6096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="28.8">
+    <row r="60" spans="1:21" ht="30">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -6108,7 +6128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="28.8">
+    <row r="61" spans="1:21" ht="30">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -6140,7 +6160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="28.8">
+    <row r="62" spans="1:21" ht="30">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -6187,7 +6207,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="28.8">
+    <row r="63" spans="1:21" ht="30">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -6220,7 +6240,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:21" ht="28.8">
+    <row r="64" spans="1:21" ht="30">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -6284,7 +6304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="28.8">
+    <row r="66" spans="1:15" ht="30">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -6304,7 +6324,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="28.8">
+    <row r="67" spans="1:15" ht="30">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -6336,7 +6356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="28.8">
+    <row r="68" spans="1:15" ht="30">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -6368,7 +6388,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="28.8">
+    <row r="69" spans="1:15" ht="30">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -6409,7 +6429,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="43.2">
+    <row r="70" spans="1:15" ht="45">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -6456,7 +6476,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="28.8">
+    <row r="71" spans="1:15" ht="30">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -6488,7 +6508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="28.8">
+    <row r="72" spans="1:15" ht="30">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -6558,7 +6578,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="28.8">
+    <row r="74" spans="1:15" ht="30">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -6593,7 +6613,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="28.8">
+    <row r="75" spans="1:15" ht="30">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -6625,7 +6645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="28.8">
+    <row r="76" spans="1:15" ht="30">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -6689,7 +6709,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="28.8">
+    <row r="78" spans="1:15" ht="45">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -6733,7 +6753,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="28.8">
+    <row r="79" spans="1:15" ht="30">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -6768,7 +6788,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="28.8">
+    <row r="80" spans="1:15" ht="30">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -6809,7 +6829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="28.8">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -6850,7 +6870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="43.2">
+    <row r="82" spans="1:16" ht="45">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -6885,7 +6905,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="28.8">
+    <row r="83" spans="1:16" ht="30">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -6926,7 +6946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8">
+    <row r="84" spans="1:16" ht="30">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -6967,7 +6987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="43.2">
+    <row r="85" spans="1:16" ht="45">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -7003,7 +7023,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="28.8">
+    <row r="86" spans="1:16" ht="30">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -7038,7 +7058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="28.8">
+    <row r="87" spans="1:16" ht="30">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -7073,7 +7093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="28.8">
+    <row r="88" spans="1:16" ht="30">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -7108,7 +7128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="28.8">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -7137,7 +7157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="28.8">
+    <row r="90" spans="1:16" ht="30">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -7166,7 +7186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="28.8">
+    <row r="91" spans="1:16" ht="45">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -7245,7 +7265,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="43.2">
+    <row r="93" spans="1:16" ht="45">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -7295,7 +7315,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="28.8">
+    <row r="94" spans="1:16" ht="45">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -7345,7 +7365,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="28.8">
+    <row r="95" spans="1:16" ht="45">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -7395,7 +7415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="28.8">
+    <row r="96" spans="1:16" ht="30">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -7430,7 +7450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28.8">
+    <row r="97" spans="1:13" ht="30">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -7465,7 +7485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.8">
+    <row r="98" spans="1:13" ht="30">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -7500,7 +7520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8">
+    <row r="99" spans="1:13" ht="30">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -7576,7 +7596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8">
+    <row r="101" spans="1:13" ht="30">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -7596,7 +7616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="28.8">
+    <row r="102" spans="1:13" ht="30">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -7628,7 +7648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="28.8">
+    <row r="103" spans="1:13" ht="30">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -7666,7 +7686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.8">
+    <row r="104" spans="1:13" ht="45">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -7707,7 +7727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="28.8">
+    <row r="105" spans="1:13" ht="30">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -7780,7 +7800,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.8">
+    <row r="107" spans="1:13" ht="30">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -7809,7 +7829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.8">
+    <row r="108" spans="1:13" ht="30">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -7899,7 +7919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="28.8">
+    <row r="111" spans="1:13" ht="30">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -7934,7 +7954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="28.8">
+    <row r="112" spans="1:13" ht="30">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -7966,7 +7986,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="28.8">
+    <row r="113" spans="1:22" ht="30">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -7998,7 +8018,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="43.2">
+    <row r="114" spans="1:22" ht="45">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -8030,7 +8050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.2" customHeight="1">
+    <row r="115" spans="1:22" ht="43.15" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -8098,7 +8118,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="28.8">
+    <row r="116" spans="1:22" ht="30">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -8133,7 +8153,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="28.8">
+    <row r="117" spans="1:22" ht="30">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -8174,7 +8194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="28.8">
+    <row r="118" spans="1:22" ht="30">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -8206,7 +8226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="28.8">
+    <row r="119" spans="1:22" ht="30">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -8247,7 +8267,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="28.8">
+    <row r="120" spans="1:22" ht="30">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -8282,7 +8302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="43.2">
+    <row r="121" spans="1:22" ht="60">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -8355,7 +8375,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="28.8">
+    <row r="123" spans="1:22" ht="30">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -8399,7 +8419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="28.8">
+    <row r="124" spans="1:22" ht="30">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -8469,7 +8489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="28.8">
+    <row r="126" spans="1:22" ht="30">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -8577,7 +8597,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="28.8">
+    <row r="129" spans="1:13" ht="30">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -8638,7 +8658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.8">
+    <row r="131" spans="1:13" ht="30">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -8690,7 +8710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28.8">
+    <row r="133" spans="1:13" ht="30">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -8722,7 +8742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.8">
+    <row r="134" spans="1:13" ht="30">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -8754,7 +8774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="28.8">
+    <row r="135" spans="1:13" ht="30">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -8827,7 +8847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.8">
+    <row r="137" spans="1:13" ht="30">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -8850,7 +8870,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.8">
+    <row r="138" spans="1:13" ht="30">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -8876,7 +8896,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.8">
+    <row r="139" spans="1:13" ht="45">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -8917,7 +8937,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.8">
+    <row r="140" spans="1:13" ht="30">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -8946,7 +8966,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="28.8">
+    <row r="141" spans="1:13" ht="30">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -8975,7 +8995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28.8">
+    <row r="142" spans="1:13" ht="30">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -9007,7 +9027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="28.8">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -9068,7 +9088,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="28.8">
+    <row r="145" spans="1:14" ht="30">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -9097,7 +9117,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="28.8">
+    <row r="146" spans="1:14" ht="30">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -9132,7 +9152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="28.8">
+    <row r="147" spans="1:14" ht="30">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -9167,7 +9187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="28.8">
+    <row r="148" spans="1:14" ht="30">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -9211,7 +9231,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="28.8">
+    <row r="149" spans="1:14" ht="45">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -9263,7 +9283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" ht="30">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -9286,7 +9306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="28.8">
+    <row r="152" spans="1:14" ht="30">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -9318,7 +9338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="28.8">
+    <row r="153" spans="1:14" ht="30">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -9338,7 +9358,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="28.8">
+    <row r="154" spans="1:14" ht="30">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -9367,7 +9387,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="28.8">
+    <row r="155" spans="1:14" ht="30">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -9396,7 +9416,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="28.8">
+    <row r="156" spans="1:14" ht="30">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -9428,7 +9448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="28.8">
+    <row r="157" spans="1:14" ht="30">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -9460,7 +9480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="28.8">
+    <row r="158" spans="1:14" ht="30">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -9527,7 +9547,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="28.8">
+    <row r="160" spans="1:14" ht="30">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -9562,7 +9582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8">
+    <row r="161" spans="1:19" ht="30">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -9594,7 +9614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.8">
+    <row r="162" spans="1:19" ht="30">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -9629,7 +9649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="28.8">
+    <row r="163" spans="1:19" ht="30">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -9661,7 +9681,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="28.8">
+    <row r="164" spans="1:19" ht="30">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -9693,7 +9713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" ht="30">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -9734,7 +9754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="28.8">
+    <row r="166" spans="1:19" ht="30">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>
@@ -9901,7 +9921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="28.8">
+    <row r="170" spans="1:19" ht="30">
       <c r="A170" s="7" t="s">
         <v>1005</v>
       </c>
@@ -9933,7 +9953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="28.8">
+    <row r="171" spans="1:19" ht="45">
       <c r="A171" s="7" t="s">
         <v>1007</v>
       </c>
@@ -10012,7 +10032,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="28.8">
+    <row r="173" spans="1:19" ht="30">
       <c r="A173" s="7" t="s">
         <v>1016</v>
       </c>
@@ -10044,7 +10064,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="28.8">
+    <row r="174" spans="1:19" ht="30">
       <c r="A174" s="7" t="s">
         <v>1019</v>
       </c>
@@ -10076,7 +10096,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="28.8">
+    <row r="175" spans="1:19" ht="30">
       <c r="A175" s="7" t="s">
         <v>1022</v>
       </c>
@@ -10149,7 +10169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="28.8">
+    <row r="177" spans="1:11" ht="30">
       <c r="A177" s="7" t="s">
         <v>1020</v>
       </c>
@@ -10213,7 +10233,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="28.8">
+    <row r="179" spans="1:11" ht="30">
       <c r="A179" s="7" t="s">
         <v>1028</v>
       </c>
@@ -10242,7 +10262,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="28.8">
+    <row r="180" spans="1:11" ht="30">
       <c r="A180" s="7" t="s">
         <v>1030</v>
       </c>
@@ -10262,7 +10282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="28.8">
+    <row r="181" spans="1:11" ht="30">
       <c r="A181" s="7" t="s">
         <v>1032</v>
       </c>
@@ -10294,7 +10314,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="28.8">
+    <row r="182" spans="1:11" ht="30">
       <c r="A182" s="7" t="s">
         <v>1035</v>
       </c>
@@ -10352,7 +10372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="43.2">
+    <row r="184" spans="1:11" ht="45">
       <c r="A184" s="7" t="s">
         <v>1046</v>
       </c>
@@ -10378,7 +10398,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="28.8">
+    <row r="185" spans="1:11" ht="30">
       <c r="A185" s="7" t="s">
         <v>1041</v>
       </c>
@@ -10448,7 +10468,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="28.8">
+    <row r="187" spans="1:11" ht="30">
       <c r="A187" s="7" t="s">
         <v>1050</v>
       </c>
@@ -10474,7 +10494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="28.8">
+    <row r="188" spans="1:11" ht="30">
       <c r="A188" s="7" t="s">
         <v>1052</v>
       </c>
@@ -10503,7 +10523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="28.8">
+    <row r="189" spans="1:11" ht="30">
       <c r="A189" s="7" t="s">
         <v>1055</v>
       </c>
@@ -10532,7 +10552,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="28.8">
+    <row r="190" spans="1:11" ht="30">
       <c r="A190" s="7" t="s">
         <v>1057</v>
       </c>
@@ -10596,7 +10616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="28.8">
+    <row r="192" spans="1:11" ht="45">
       <c r="A192" s="7" t="s">
         <v>1061</v>
       </c>
@@ -10625,7 +10645,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="28.8">
+    <row r="193" spans="1:15" ht="30">
       <c r="A193" s="7" t="s">
         <v>1063</v>
       </c>
@@ -10666,7 +10686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="28.8">
+    <row r="194" spans="1:15" ht="30">
       <c r="A194" s="7" t="s">
         <v>1067</v>
       </c>
@@ -10692,7 +10712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="43.2">
+    <row r="195" spans="1:15" ht="45">
       <c r="A195" s="7" t="s">
         <v>1069</v>
       </c>
@@ -10718,7 +10738,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="43.2">
+    <row r="196" spans="1:15" ht="45">
       <c r="A196" s="7" t="s">
         <v>1075</v>
       </c>
@@ -10756,7 +10776,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="28.8">
+    <row r="197" spans="1:15" ht="45">
       <c r="A197" s="7" t="s">
         <v>1071</v>
       </c>
@@ -10773,7 +10793,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="28.8">
+    <row r="198" spans="1:15" ht="30">
       <c r="A198" s="7" t="s">
         <v>1073</v>
       </c>
@@ -10808,7 +10828,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="28.8">
+    <row r="199" spans="1:15" ht="30">
       <c r="A199" s="31" t="s">
         <v>1080</v>
       </c>
@@ -10878,7 +10898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="28.8">
+    <row r="201" spans="1:15" ht="30">
       <c r="A201" s="7" t="s">
         <v>1085</v>
       </c>
@@ -10910,7 +10930,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="28.8">
+    <row r="202" spans="1:15" ht="30">
       <c r="A202" s="7" t="s">
         <v>1087</v>
       </c>
@@ -10936,7 +10956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="26.4">
+    <row r="203" spans="1:15" ht="25.5">
       <c r="A203" s="64" t="s">
         <v>1089</v>
       </c>
@@ -10971,7 +10991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="28.8">
+    <row r="204" spans="1:15" ht="30">
       <c r="A204" s="7" t="s">
         <v>1091</v>
       </c>
@@ -11038,7 +11058,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="28.8">
+    <row r="206" spans="1:15" ht="30">
       <c r="A206" s="7" t="s">
         <v>1095</v>
       </c>
@@ -11067,7 +11087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="28.8">
+    <row r="207" spans="1:15" ht="30">
       <c r="A207" s="7" t="s">
         <v>1097</v>
       </c>
@@ -11099,7 +11119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="28.8">
+    <row r="208" spans="1:15" ht="30">
       <c r="A208" s="7" t="s">
         <v>1100</v>
       </c>
@@ -11137,7 +11157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:7" ht="28.8">
+    <row r="209" spans="1:11" ht="30">
       <c r="A209" s="7" t="s">
         <v>1104</v>
       </c>
@@ -11153,10 +11173,45 @@
       <c r="E209" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="F209" s="31" t="s">
+      <c r="F209" s="7" t="s">
         <v>1103</v>
       </c>
       <c r="G209" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:11" ht="30">
+      <c r="A210" s="66" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B210" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C210" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D210" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E210" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F210" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="G210" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="H210" s="67" t="s">
+        <v>998</v>
+      </c>
+      <c r="I210" s="68" t="s">
+        <v>999</v>
+      </c>
+      <c r="J210" s="65" t="s">
+        <v>1106</v>
+      </c>
+      <c r="K210" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11171,37 +11226,37 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC385"/>
+  <dimension ref="A1:AC386"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A382" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A389" sqref="A389"/>
+      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="J392" sqref="J392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.88671875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.85546875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="26" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.88671875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.88671875" customWidth="1"/>
-    <col min="13" max="13" width="46.6640625" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.85546875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.85546875" customWidth="1"/>
+    <col min="13" max="13" width="46.7109375" customWidth="1"/>
+    <col min="14" max="14" width="18.7109375" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="37.33203125" customWidth="1"/>
-    <col min="19" max="19" width="19.109375" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.44140625" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.28515625" customWidth="1"/>
+    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.42578125" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
@@ -11294,7 +11349,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:29" ht="28.8">
+    <row r="3" spans="1:29" ht="30">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -11346,7 +11401,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:29" ht="28.8">
+    <row r="5" spans="1:29" ht="30">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -11398,7 +11453,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="28.8">
+    <row r="7" spans="1:29" ht="30">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -11424,7 +11479,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="28.8">
+    <row r="8" spans="1:29" ht="30">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
@@ -11450,7 +11505,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="28.8">
+    <row r="9" spans="1:29" ht="30">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
@@ -11476,7 +11531,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:29">
+    <row r="10" spans="1:29" ht="30">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -11502,7 +11557,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="28.8">
+    <row r="11" spans="1:29" ht="30">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -11598,7 +11653,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="28.8">
+    <row r="15" spans="1:29" ht="30">
       <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
@@ -11624,7 +11679,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="28.8">
+    <row r="16" spans="1:29" ht="30">
       <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
@@ -11646,7 +11701,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="28.8">
+    <row r="17" spans="1:16" ht="30">
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11668,7 +11723,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="28.8">
+    <row r="18" spans="1:16" ht="30">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -11700,7 +11755,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:16" ht="28.8">
+    <row r="19" spans="1:16" ht="30">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -11722,7 +11777,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:16" ht="28.8">
+    <row r="20" spans="1:16" ht="30">
       <c r="A20" s="14" t="s">
         <v>83</v>
       </c>
@@ -11746,7 +11801,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:16" ht="28.8">
+    <row r="21" spans="1:16" ht="30">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -11770,7 +11825,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:16" ht="28.8">
+    <row r="22" spans="1:16" ht="45">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -11870,7 +11925,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A26" s="14" t="s">
         <v>266</v>
       </c>
@@ -11896,7 +11951,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A27" s="14" t="s">
         <v>280</v>
       </c>
@@ -11922,7 +11977,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="28.8">
+    <row r="28" spans="1:16" ht="30">
       <c r="A28" s="18" t="s">
         <v>100</v>
       </c>
@@ -11950,7 +12005,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A29" s="14" t="s">
         <v>407</v>
       </c>
@@ -11978,7 +12033,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:16" ht="28.8">
+    <row r="30" spans="1:16" ht="30">
       <c r="A30" s="14" t="s">
         <v>105</v>
       </c>
@@ -12004,7 +12059,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A31" s="14" t="s">
         <v>409</v>
       </c>
@@ -12032,7 +12087,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:16" ht="28.8">
+    <row r="32" spans="1:16" ht="30">
       <c r="A32" s="14" t="s">
         <v>107</v>
       </c>
@@ -12058,7 +12113,7 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="1:16" ht="28.8">
+    <row r="33" spans="1:16" ht="30">
       <c r="A33" s="14" t="s">
         <v>110</v>
       </c>
@@ -12242,7 +12297,7 @@
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" spans="1:16" ht="28.8">
+    <row r="40" spans="1:16" ht="30">
       <c r="A40" s="14" t="s">
         <v>132</v>
       </c>
@@ -12372,7 +12427,7 @@
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" spans="1:16" ht="28.8">
+    <row r="45" spans="1:16" ht="30">
       <c r="A45" s="14" t="s">
         <v>147</v>
       </c>
@@ -12476,7 +12531,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" spans="1:16" ht="28.8">
+    <row r="49" spans="1:16" ht="30">
       <c r="A49" s="14" t="s">
         <v>158</v>
       </c>
@@ -12502,7 +12557,7 @@
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
     </row>
-    <row r="50" spans="1:16">
+    <row r="50" spans="1:16" ht="30">
       <c r="A50" s="18" t="s">
         <v>160</v>
       </c>
@@ -12556,7 +12611,7 @@
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" spans="1:16" ht="28.8">
+    <row r="52" spans="1:16" ht="30">
       <c r="A52" s="14" t="s">
         <v>170</v>
       </c>
@@ -12608,7 +12663,7 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" spans="1:16" ht="28.8">
+    <row r="54" spans="1:16" ht="30">
       <c r="A54" s="14" t="s">
         <v>175</v>
       </c>
@@ -12660,7 +12715,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
     </row>
-    <row r="56" spans="1:16" ht="28.8">
+    <row r="56" spans="1:16" ht="30">
       <c r="A56" s="14" t="s">
         <v>181</v>
       </c>
@@ -12792,7 +12847,7 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
     </row>
-    <row r="61" spans="1:16" ht="28.8">
+    <row r="61" spans="1:16" ht="30">
       <c r="A61" s="14" t="s">
         <v>193</v>
       </c>
@@ -12818,7 +12873,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
     </row>
-    <row r="62" spans="1:16" ht="28.8">
+    <row r="62" spans="1:16" ht="30">
       <c r="A62" s="14" t="s">
         <v>195</v>
       </c>
@@ -12844,7 +12899,7 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
     </row>
-    <row r="63" spans="1:16" ht="28.8">
+    <row r="63" spans="1:16" ht="30">
       <c r="A63" s="14" t="s">
         <v>199</v>
       </c>
@@ -12870,7 +12925,7 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
     </row>
-    <row r="64" spans="1:16" ht="28.8">
+    <row r="64" spans="1:16" ht="30">
       <c r="A64" s="14" t="s">
         <v>202</v>
       </c>
@@ -12974,7 +13029,7 @@
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
     </row>
-    <row r="68" spans="1:16" ht="28.8">
+    <row r="68" spans="1:16" ht="30">
       <c r="A68" s="14" t="s">
         <v>213</v>
       </c>
@@ -13000,7 +13055,7 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="28.8">
+    <row r="69" spans="1:16" ht="30">
       <c r="A69" s="14" t="s">
         <v>220</v>
       </c>
@@ -13052,7 +13107,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
     </row>
-    <row r="71" spans="1:16" ht="28.8">
+    <row r="71" spans="1:16" ht="30">
       <c r="A71" s="14" t="s">
         <v>224</v>
       </c>
@@ -13080,7 +13135,7 @@
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
     </row>
-    <row r="72" spans="1:16" ht="28.8">
+    <row r="72" spans="1:16" ht="30">
       <c r="A72" s="14" t="s">
         <v>226</v>
       </c>
@@ -13108,7 +13163,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:16" ht="28.8">
+    <row r="73" spans="1:16" ht="30">
       <c r="A73" s="14" t="s">
         <v>230</v>
       </c>
@@ -13136,7 +13191,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="28.8">
+    <row r="74" spans="1:16" ht="30">
       <c r="A74" s="14" t="s">
         <v>234</v>
       </c>
@@ -13164,7 +13219,7 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A75" s="14" t="s">
         <v>251</v>
       </c>
@@ -13192,7 +13247,7 @@
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:16">
+    <row r="76" spans="1:16" ht="30">
       <c r="A76" s="14" t="s">
         <v>272</v>
       </c>
@@ -13220,7 +13275,7 @@
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:16" ht="28.8">
+    <row r="77" spans="1:16" ht="30">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -13250,7 +13305,7 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:16" ht="28.8">
+    <row r="78" spans="1:16" ht="30">
       <c r="A78" s="14" t="s">
         <v>247</v>
       </c>
@@ -13278,7 +13333,7 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:16" ht="28.8">
+    <row r="79" spans="1:16" ht="30">
       <c r="A79" s="14" t="s">
         <v>253</v>
       </c>
@@ -13306,7 +13361,7 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:16" ht="28.8">
+    <row r="80" spans="1:16" ht="30">
       <c r="A80" s="14" t="s">
         <v>255</v>
       </c>
@@ -13334,7 +13389,7 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="28.8">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="14" t="s">
         <v>259</v>
       </c>
@@ -13362,7 +13417,7 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="28.8">
+    <row r="82" spans="1:16" ht="30">
       <c r="A82" s="14" t="s">
         <v>262</v>
       </c>
@@ -13390,7 +13445,7 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="28.8">
+    <row r="83" spans="1:16" ht="30">
       <c r="A83" s="14" t="s">
         <v>268</v>
       </c>
@@ -13444,7 +13499,7 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
     </row>
-    <row r="85" spans="1:16" ht="28.8">
+    <row r="85" spans="1:16" ht="30">
       <c r="A85" s="14" t="s">
         <v>278</v>
       </c>
@@ -13470,7 +13525,7 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
     </row>
-    <row r="86" spans="1:16" ht="28.8">
+    <row r="86" spans="1:16" ht="30">
       <c r="A86" s="18" t="s">
         <v>283</v>
       </c>
@@ -13498,7 +13553,7 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
     </row>
-    <row r="87" spans="1:16" ht="28.8">
+    <row r="87" spans="1:16" ht="30">
       <c r="A87" s="18" t="s">
         <v>286</v>
       </c>
@@ -13526,7 +13581,7 @@
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
     </row>
-    <row r="88" spans="1:16" ht="28.8">
+    <row r="88" spans="1:16" ht="30">
       <c r="A88" s="14" t="s">
         <v>289</v>
       </c>
@@ -13554,7 +13609,7 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="1:16" ht="28.8">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89" s="14" t="s">
         <v>293</v>
       </c>
@@ -13582,7 +13637,7 @@
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
     </row>
-    <row r="90" spans="1:16" ht="28.8">
+    <row r="90" spans="1:16" ht="30">
       <c r="A90" s="18" t="s">
         <v>295</v>
       </c>
@@ -13610,7 +13665,7 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
     </row>
-    <row r="91" spans="1:16" ht="43.2">
+    <row r="91" spans="1:16" ht="60">
       <c r="A91" s="18" t="s">
         <v>297</v>
       </c>
@@ -13638,7 +13693,7 @@
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
     </row>
-    <row r="92" spans="1:16" ht="43.2">
+    <row r="92" spans="1:16" ht="45">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -13666,7 +13721,7 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
     </row>
-    <row r="93" spans="1:16" ht="28.8">
+    <row r="93" spans="1:16" ht="30">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -13694,7 +13749,7 @@
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
     </row>
-    <row r="94" spans="1:16" ht="28.8">
+    <row r="94" spans="1:16" ht="45">
       <c r="A94" s="14" t="s">
         <v>303</v>
       </c>
@@ -13722,7 +13777,7 @@
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
     </row>
-    <row r="95" spans="1:16" ht="28.8">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95" s="14" t="s">
         <v>305</v>
       </c>
@@ -13750,7 +13805,7 @@
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
     </row>
-    <row r="96" spans="1:16" ht="43.2">
+    <row r="96" spans="1:16" ht="45">
       <c r="A96" s="14" t="s">
         <v>308</v>
       </c>
@@ -13778,7 +13833,7 @@
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
     </row>
-    <row r="97" spans="1:16" ht="43.2">
+    <row r="97" spans="1:16" ht="45">
       <c r="A97" s="14" t="s">
         <v>310</v>
       </c>
@@ -13806,7 +13861,7 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="98" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A98" s="14" t="s">
         <v>327</v>
       </c>
@@ -13834,7 +13889,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="1:16" ht="43.2">
+    <row r="99" spans="1:16" ht="45">
       <c r="A99" s="14" t="s">
         <v>313</v>
       </c>
@@ -13862,7 +13917,7 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="1:16" ht="43.2">
+    <row r="100" spans="1:16" ht="45">
       <c r="A100" s="14" t="s">
         <v>315</v>
       </c>
@@ -13890,7 +13945,7 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="101" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A101" s="14" t="s">
         <v>330</v>
       </c>
@@ -13918,7 +13973,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="1:16" ht="28.8">
+    <row r="102" spans="1:16" ht="45">
       <c r="A102" s="14" t="s">
         <v>318</v>
       </c>
@@ -13946,7 +14001,7 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="1:16" ht="28.8">
+    <row r="103" spans="1:16" ht="30">
       <c r="A103" s="14" t="s">
         <v>321</v>
       </c>
@@ -13974,7 +14029,7 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="104" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A104" s="14" t="s">
         <v>332</v>
       </c>
@@ -14002,7 +14057,7 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="1:16" ht="28.8">
+    <row r="105" spans="1:16" ht="30">
       <c r="A105" s="14" t="s">
         <v>324</v>
       </c>
@@ -14030,7 +14085,7 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="1:16" ht="28.8">
+    <row r="106" spans="1:16" ht="30">
       <c r="A106" s="14" t="s">
         <v>334</v>
       </c>
@@ -14056,7 +14111,7 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="1:16" ht="43.2">
+    <row r="107" spans="1:16" ht="45">
       <c r="A107" s="14" t="s">
         <v>336</v>
       </c>
@@ -14084,7 +14139,7 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="1:16" ht="43.2">
+    <row r="108" spans="1:16" ht="45">
       <c r="A108" s="14" t="s">
         <v>340</v>
       </c>
@@ -14112,7 +14167,7 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="1:16" ht="28.8">
+    <row r="109" spans="1:16" ht="30">
       <c r="A109" s="14" t="s">
         <v>344</v>
       </c>
@@ -14140,7 +14195,7 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="1:16" ht="28.8">
+    <row r="110" spans="1:16" ht="30">
       <c r="A110" s="14" t="s">
         <v>350</v>
       </c>
@@ -14168,7 +14223,7 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="1:16" ht="28.8">
+    <row r="111" spans="1:16" ht="30">
       <c r="A111" s="14" t="s">
         <v>351</v>
       </c>
@@ -14196,7 +14251,7 @@
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
     </row>
-    <row r="112" spans="1:16" ht="28.8">
+    <row r="112" spans="1:16" ht="30">
       <c r="A112" s="14" t="s">
         <v>354</v>
       </c>
@@ -14224,7 +14279,7 @@
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
     </row>
-    <row r="113" spans="1:16" ht="28.8">
+    <row r="113" spans="1:16" ht="30">
       <c r="A113" s="14" t="s">
         <v>359</v>
       </c>
@@ -14252,7 +14307,7 @@
       <c r="O113" s="18"/>
       <c r="P113" s="18"/>
     </row>
-    <row r="114" spans="1:16" ht="28.8">
+    <row r="114" spans="1:16" ht="30">
       <c r="A114" s="14" t="s">
         <v>360</v>
       </c>
@@ -14280,7 +14335,7 @@
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
     </row>
-    <row r="115" spans="1:16" ht="43.2">
+    <row r="115" spans="1:16" ht="45">
       <c r="A115" s="14" t="s">
         <v>362</v>
       </c>
@@ -14308,7 +14363,7 @@
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
     </row>
-    <row r="116" spans="1:16" ht="43.2">
+    <row r="116" spans="1:16" ht="45">
       <c r="A116" s="14" t="s">
         <v>364</v>
       </c>
@@ -14336,7 +14391,7 @@
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
     </row>
-    <row r="117" spans="1:16" ht="28.8">
+    <row r="117" spans="1:16" ht="30">
       <c r="A117" s="14" t="s">
         <v>367</v>
       </c>
@@ -14362,7 +14417,7 @@
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
     </row>
-    <row r="118" spans="1:16" ht="28.8">
+    <row r="118" spans="1:16" ht="30">
       <c r="A118" s="18" t="s">
         <v>370</v>
       </c>
@@ -14390,7 +14445,7 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="1:16" ht="28.8">
+    <row r="119" spans="1:16" ht="30">
       <c r="A119" s="18" t="s">
         <v>375</v>
       </c>
@@ -14418,7 +14473,7 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="1:16" ht="43.2">
+    <row r="120" spans="1:16" ht="45">
       <c r="A120" s="14" t="s">
         <v>382</v>
       </c>
@@ -14446,7 +14501,7 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="1:16" ht="28.8">
+    <row r="121" spans="1:16" ht="45">
       <c r="A121" s="14" t="s">
         <v>384</v>
       </c>
@@ -14474,7 +14529,7 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="1:16" ht="28.8">
+    <row r="122" spans="1:16" ht="30">
       <c r="A122" s="17" t="s">
         <v>387</v>
       </c>
@@ -14500,7 +14555,7 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="1:16" ht="28.8">
+    <row r="123" spans="1:16" ht="30">
       <c r="A123" s="14" t="s">
         <v>389</v>
       </c>
@@ -14526,7 +14581,7 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="1:16" ht="28.8">
+    <row r="124" spans="1:16" ht="30">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -14554,7 +14609,7 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="1:16" ht="28.8">
+    <row r="125" spans="1:16" ht="30">
       <c r="A125" s="14" t="s">
         <v>399</v>
       </c>
@@ -14582,7 +14637,7 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="1:16" ht="28.8">
+    <row r="126" spans="1:16" ht="30">
       <c r="A126" s="14" t="s">
         <v>402</v>
       </c>
@@ -14610,7 +14665,7 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="1:16" ht="28.8">
+    <row r="127" spans="1:16" ht="30">
       <c r="A127" s="14" t="s">
         <v>411</v>
       </c>
@@ -14638,7 +14693,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="1:16" ht="28.8">
+    <row r="128" spans="1:16" ht="45">
       <c r="A128" s="14" t="s">
         <v>414</v>
       </c>
@@ -14666,7 +14721,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="1:16" ht="28.8">
+    <row r="129" spans="1:16" ht="30">
       <c r="A129" s="14" t="s">
         <v>417</v>
       </c>
@@ -14694,7 +14749,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="1:16" ht="28.8">
+    <row r="130" spans="1:16" ht="45">
       <c r="A130" s="14" t="s">
         <v>419</v>
       </c>
@@ -14722,7 +14777,7 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
-    <row r="131" spans="1:16" ht="28.8">
+    <row r="131" spans="1:16" ht="30">
       <c r="A131" s="14" t="s">
         <v>420</v>
       </c>
@@ -14750,7 +14805,7 @@
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
     </row>
-    <row r="132" spans="1:16" ht="43.2">
+    <row r="132" spans="1:16" ht="45">
       <c r="A132" s="14" t="s">
         <v>422</v>
       </c>
@@ -14778,7 +14833,7 @@
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
     </row>
-    <row r="133" spans="1:16" ht="28.8">
+    <row r="133" spans="1:16" ht="30">
       <c r="A133" s="14" t="s">
         <v>424</v>
       </c>
@@ -14804,7 +14859,7 @@
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
     </row>
-    <row r="134" spans="1:16" ht="28.8">
+    <row r="134" spans="1:16" ht="30">
       <c r="A134" s="14" t="s">
         <v>426</v>
       </c>
@@ -14832,7 +14887,7 @@
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
     </row>
-    <row r="135" spans="1:16" ht="28.8">
+    <row r="135" spans="1:16" ht="45">
       <c r="A135" s="14" t="s">
         <v>429</v>
       </c>
@@ -14860,7 +14915,7 @@
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
     </row>
-    <row r="136" spans="1:16" ht="43.2">
+    <row r="136" spans="1:16" ht="45">
       <c r="A136" s="14" t="s">
         <v>433</v>
       </c>
@@ -14888,7 +14943,7 @@
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
     </row>
-    <row r="137" spans="1:16" ht="43.2">
+    <row r="137" spans="1:16" ht="45">
       <c r="A137" s="14" t="s">
         <v>436</v>
       </c>
@@ -14916,7 +14971,7 @@
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
     </row>
-    <row r="138" spans="1:16" ht="43.2">
+    <row r="138" spans="1:16" ht="45">
       <c r="A138" s="14" t="s">
         <v>439</v>
       </c>
@@ -14944,7 +14999,7 @@
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
     </row>
-    <row r="139" spans="1:16" ht="28.8">
+    <row r="139" spans="1:16" ht="30">
       <c r="A139" s="14" t="s">
         <v>441</v>
       </c>
@@ -14998,7 +15053,7 @@
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
     </row>
-    <row r="141" spans="1:16" ht="28.8">
+    <row r="141" spans="1:16" ht="30">
       <c r="A141" s="14" t="s">
         <v>447</v>
       </c>
@@ -15024,7 +15079,7 @@
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
     </row>
-    <row r="142" spans="1:16" ht="28.8">
+    <row r="142" spans="1:16" ht="30">
       <c r="A142" s="14" t="s">
         <v>449</v>
       </c>
@@ -15050,7 +15105,7 @@
       <c r="O142" s="18"/>
       <c r="P142" s="18"/>
     </row>
-    <row r="143" spans="1:16" ht="28.8">
+    <row r="143" spans="1:16" ht="45">
       <c r="A143" s="14" t="s">
         <v>453</v>
       </c>
@@ -15076,7 +15131,7 @@
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
     </row>
-    <row r="144" spans="1:16" ht="28.8">
+    <row r="144" spans="1:16" ht="45">
       <c r="A144" s="14" t="s">
         <v>456</v>
       </c>
@@ -15104,7 +15159,7 @@
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
     </row>
-    <row r="145" spans="1:16" ht="28.8">
+    <row r="145" spans="1:16" ht="30">
       <c r="A145" s="14" t="s">
         <v>458</v>
       </c>
@@ -15132,7 +15187,7 @@
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
     </row>
-    <row r="146" spans="1:16" ht="28.8">
+    <row r="146" spans="1:16" ht="30">
       <c r="A146" s="14" t="s">
         <v>461</v>
       </c>
@@ -15160,7 +15215,7 @@
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
     </row>
-    <row r="147" spans="1:16" ht="28.8">
+    <row r="147" spans="1:16" ht="30">
       <c r="A147" s="14" t="s">
         <v>464</v>
       </c>
@@ -15188,7 +15243,7 @@
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
     </row>
-    <row r="148" spans="1:16" ht="43.2">
+    <row r="148" spans="1:16" ht="45">
       <c r="A148" s="14" t="s">
         <v>468</v>
       </c>
@@ -15216,7 +15271,7 @@
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
     </row>
-    <row r="149" spans="1:16" ht="28.8">
+    <row r="149" spans="1:16" ht="30">
       <c r="A149" s="14" t="s">
         <v>472</v>
       </c>
@@ -15244,7 +15299,7 @@
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
     </row>
-    <row r="150" spans="1:16" ht="28.8">
+    <row r="150" spans="1:16" ht="30">
       <c r="A150" s="14" t="s">
         <v>474</v>
       </c>
@@ -15272,7 +15327,7 @@
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
     </row>
-    <row r="151" spans="1:16" ht="43.2">
+    <row r="151" spans="1:16" ht="60">
       <c r="A151" s="14" t="s">
         <v>477</v>
       </c>
@@ -15304,7 +15359,7 @@
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
     </row>
-    <row r="152" spans="1:16" ht="28.8">
+    <row r="152" spans="1:16" ht="30">
       <c r="A152" s="14" t="s">
         <v>485</v>
       </c>
@@ -15332,7 +15387,7 @@
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
     </row>
-    <row r="153" spans="1:16" ht="28.8">
+    <row r="153" spans="1:16" ht="30">
       <c r="A153" s="14" t="s">
         <v>486</v>
       </c>
@@ -15360,7 +15415,7 @@
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
     </row>
-    <row r="154" spans="1:16" ht="28.8">
+    <row r="154" spans="1:16" ht="45">
       <c r="A154" s="14" t="s">
         <v>487</v>
       </c>
@@ -15388,7 +15443,7 @@
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
     </row>
-    <row r="155" spans="1:16" ht="28.8">
+    <row r="155" spans="1:16" ht="30">
       <c r="A155" s="14" t="s">
         <v>490</v>
       </c>
@@ -15416,7 +15471,7 @@
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
     </row>
-    <row r="156" spans="1:16" ht="28.8">
+    <row r="156" spans="1:16" ht="30">
       <c r="A156" s="14" t="s">
         <v>492</v>
       </c>
@@ -15442,7 +15497,7 @@
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
     </row>
-    <row r="157" spans="1:16" ht="28.8">
+    <row r="157" spans="1:16" ht="30">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -15468,7 +15523,7 @@
       <c r="O157" s="18"/>
       <c r="P157" s="18"/>
     </row>
-    <row r="158" spans="1:16" ht="28.8">
+    <row r="158" spans="1:16" ht="30">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -15496,7 +15551,7 @@
       <c r="O158" s="18"/>
       <c r="P158" s="18"/>
     </row>
-    <row r="159" spans="1:16" ht="28.8">
+    <row r="159" spans="1:16" ht="30">
       <c r="A159" s="18" t="s">
         <v>499</v>
       </c>
@@ -15550,7 +15605,7 @@
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
     </row>
-    <row r="161" spans="1:16" ht="28.8">
+    <row r="161" spans="1:16" ht="30">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -15576,7 +15631,7 @@
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
     </row>
-    <row r="162" spans="1:16" ht="43.2">
+    <row r="162" spans="1:16" ht="45">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -15602,7 +15657,7 @@
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
     </row>
-    <row r="163" spans="1:16" ht="28.8">
+    <row r="163" spans="1:16" ht="45">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -15628,7 +15683,7 @@
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
     </row>
-    <row r="164" spans="1:16" ht="43.2">
+    <row r="164" spans="1:16" ht="45">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -15680,7 +15735,7 @@
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
     </row>
-    <row r="166" spans="1:16" ht="28.8">
+    <row r="166" spans="1:16" ht="30">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -15708,7 +15763,7 @@
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
     </row>
-    <row r="167" spans="1:16" ht="28.8">
+    <row r="167" spans="1:16" ht="30">
       <c r="A167" s="45" t="s">
         <v>521</v>
       </c>
@@ -15736,7 +15791,7 @@
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
     </row>
-    <row r="168" spans="1:16" ht="28.8">
+    <row r="168" spans="1:16" ht="30">
       <c r="A168" s="14" t="s">
         <v>524</v>
       </c>
@@ -15764,7 +15819,7 @@
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
     </row>
-    <row r="169" spans="1:16" ht="43.2">
+    <row r="169" spans="1:16" ht="45">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -15792,7 +15847,7 @@
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
     </row>
-    <row r="170" spans="1:16" ht="43.2">
+    <row r="170" spans="1:16" ht="45">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -15820,7 +15875,7 @@
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
     </row>
-    <row r="171" spans="1:16" ht="28.8">
+    <row r="171" spans="1:16" ht="30">
       <c r="A171" s="14" t="s">
         <v>538</v>
       </c>
@@ -15848,7 +15903,7 @@
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
     </row>
-    <row r="172" spans="1:16" ht="28.8">
+    <row r="172" spans="1:16" ht="45">
       <c r="A172" s="14" t="s">
         <v>541</v>
       </c>
@@ -15876,7 +15931,7 @@
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
     </row>
-    <row r="173" spans="1:16" ht="28.8">
+    <row r="173" spans="1:16" ht="30">
       <c r="A173" s="14" t="s">
         <v>544</v>
       </c>
@@ -15904,7 +15959,7 @@
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
     </row>
-    <row r="174" spans="1:16" ht="57.6">
+    <row r="174" spans="1:16" ht="60">
       <c r="A174" s="14" t="s">
         <v>547</v>
       </c>
@@ -15930,7 +15985,7 @@
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
     </row>
-    <row r="175" spans="1:16" ht="28.8">
+    <row r="175" spans="1:16" ht="30">
       <c r="A175" s="14" t="s">
         <v>550</v>
       </c>
@@ -15958,7 +16013,7 @@
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
     </row>
-    <row r="176" spans="1:16" ht="28.8">
+    <row r="176" spans="1:16" ht="30">
       <c r="A176" s="14" t="s">
         <v>553</v>
       </c>
@@ -15986,7 +16041,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
     </row>
-    <row r="177" spans="1:16" ht="28.8">
+    <row r="177" spans="1:16" ht="45">
       <c r="A177" s="14" t="s">
         <v>560</v>
       </c>
@@ -16014,7 +16069,7 @@
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
     </row>
-    <row r="178" spans="1:16" ht="28.8">
+    <row r="178" spans="1:16" ht="30">
       <c r="A178" s="14" t="s">
         <v>564</v>
       </c>
@@ -16042,7 +16097,7 @@
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
     </row>
-    <row r="179" spans="1:16" ht="43.2">
+    <row r="179" spans="1:16" ht="45">
       <c r="A179" s="14" t="s">
         <v>566</v>
       </c>
@@ -16070,7 +16125,7 @@
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
     </row>
-    <row r="180" spans="1:16" ht="28.8">
+    <row r="180" spans="1:16" ht="45">
       <c r="A180" s="14" t="s">
         <v>568</v>
       </c>
@@ -16098,7 +16153,7 @@
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
     </row>
-    <row r="181" spans="1:16" ht="28.8">
+    <row r="181" spans="1:16" ht="30">
       <c r="A181" s="25" t="s">
         <v>570</v>
       </c>
@@ -16126,7 +16181,7 @@
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
     </row>
-    <row r="182" spans="1:16" ht="28.8">
+    <row r="182" spans="1:16" ht="30">
       <c r="A182" s="14" t="s">
         <v>574</v>
       </c>
@@ -16180,7 +16235,7 @@
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
     </row>
-    <row r="184" spans="1:16" ht="43.2">
+    <row r="184" spans="1:16" ht="45">
       <c r="A184" s="14" t="s">
         <v>576</v>
       </c>
@@ -16208,7 +16263,7 @@
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
     </row>
-    <row r="185" spans="1:16" ht="28.8">
+    <row r="185" spans="1:16" ht="30">
       <c r="A185" s="14" t="s">
         <v>578</v>
       </c>
@@ -16236,7 +16291,7 @@
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
     </row>
-    <row r="186" spans="1:16" ht="28.8">
+    <row r="186" spans="1:16" ht="30">
       <c r="A186" s="14" t="s">
         <v>580</v>
       </c>
@@ -16290,7 +16345,7 @@
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
     </row>
-    <row r="188" spans="1:16" ht="28.8">
+    <row r="188" spans="1:16" ht="30">
       <c r="A188" s="14" t="s">
         <v>585</v>
       </c>
@@ -16316,7 +16371,7 @@
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
     </row>
-    <row r="189" spans="1:16" s="2" customFormat="1">
+    <row r="189" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A189" s="14" t="s">
         <v>706</v>
       </c>
@@ -16344,7 +16399,7 @@
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
     </row>
-    <row r="190" spans="1:16" ht="43.2">
+    <row r="190" spans="1:16" ht="45">
       <c r="A190" s="14" t="s">
         <v>587</v>
       </c>
@@ -16372,7 +16427,7 @@
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
     </row>
-    <row r="191" spans="1:16" ht="43.2">
+    <row r="191" spans="1:16" ht="45">
       <c r="A191" s="14" t="s">
         <v>589</v>
       </c>
@@ -16402,7 +16457,7 @@
       <c r="O191" s="18"/>
       <c r="P191" s="18"/>
     </row>
-    <row r="192" spans="1:16" ht="28.8">
+    <row r="192" spans="1:16" ht="30">
       <c r="A192" s="14" t="s">
         <v>591</v>
       </c>
@@ -16430,7 +16485,7 @@
       <c r="O192" s="18"/>
       <c r="P192" s="18"/>
     </row>
-    <row r="193" spans="1:16" ht="28.8">
+    <row r="193" spans="1:16" ht="30">
       <c r="A193" s="14" t="s">
         <v>595</v>
       </c>
@@ -16458,7 +16513,7 @@
       <c r="O193" s="18"/>
       <c r="P193" s="18"/>
     </row>
-    <row r="194" spans="1:16" ht="28.8">
+    <row r="194" spans="1:16" ht="30">
       <c r="A194" s="14" t="s">
         <v>597</v>
       </c>
@@ -16486,7 +16541,7 @@
       <c r="O194" s="18"/>
       <c r="P194" s="18"/>
     </row>
-    <row r="195" spans="1:16" ht="28.8">
+    <row r="195" spans="1:16" ht="30">
       <c r="A195" s="14" t="s">
         <v>599</v>
       </c>
@@ -16514,7 +16569,7 @@
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
     </row>
-    <row r="196" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="196" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A196" s="14" t="s">
         <v>730</v>
       </c>
@@ -16542,7 +16597,7 @@
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
     </row>
-    <row r="197" spans="1:16" ht="28.8">
+    <row r="197" spans="1:16" ht="30">
       <c r="A197" s="14" t="s">
         <v>602</v>
       </c>
@@ -16572,7 +16627,7 @@
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
     </row>
-    <row r="198" spans="1:16" ht="43.2">
+    <row r="198" spans="1:16" ht="45">
       <c r="A198" s="14" t="s">
         <v>605</v>
       </c>
@@ -16598,7 +16653,7 @@
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
     </row>
-    <row r="199" spans="1:16" ht="43.2">
+    <row r="199" spans="1:16" ht="45">
       <c r="A199" s="14" t="s">
         <v>609</v>
       </c>
@@ -16626,7 +16681,7 @@
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
     </row>
-    <row r="200" spans="1:16" ht="28.8">
+    <row r="200" spans="1:16" ht="30">
       <c r="A200" s="14" t="s">
         <v>610</v>
       </c>
@@ -16654,7 +16709,7 @@
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
     </row>
-    <row r="201" spans="1:16" ht="28.8">
+    <row r="201" spans="1:16" ht="30">
       <c r="A201" s="14" t="s">
         <v>612</v>
       </c>
@@ -16682,7 +16737,7 @@
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
     </row>
-    <row r="202" spans="1:16" ht="28.8">
+    <row r="202" spans="1:16" ht="30">
       <c r="A202" s="14" t="s">
         <v>614</v>
       </c>
@@ -16712,7 +16767,7 @@
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
     </row>
-    <row r="203" spans="1:16" ht="28.8">
+    <row r="203" spans="1:16" ht="30">
       <c r="A203" s="14" t="s">
         <v>617</v>
       </c>
@@ -16742,7 +16797,7 @@
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
     </row>
-    <row r="204" spans="1:16" ht="28.8">
+    <row r="204" spans="1:16" ht="45">
       <c r="A204" s="14" t="s">
         <v>619</v>
       </c>
@@ -16772,7 +16827,7 @@
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
     </row>
-    <row r="205" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="205" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A205" s="14" t="s">
         <v>625</v>
       </c>
@@ -16802,7 +16857,7 @@
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
     </row>
-    <row r="206" spans="1:16" ht="28.8">
+    <row r="206" spans="1:16" ht="30">
       <c r="A206" s="14" t="s">
         <v>623</v>
       </c>
@@ -16830,7 +16885,7 @@
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
     </row>
-    <row r="207" spans="1:16" ht="28.8">
+    <row r="207" spans="1:16" ht="30">
       <c r="A207" s="14" t="s">
         <v>628</v>
       </c>
@@ -16888,7 +16943,7 @@
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
     </row>
-    <row r="209" spans="1:16" ht="28.8">
+    <row r="209" spans="1:16" ht="30">
       <c r="A209" s="14" t="s">
         <v>632</v>
       </c>
@@ -16916,7 +16971,7 @@
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
     </row>
-    <row r="210" spans="1:16" ht="28.8">
+    <row r="210" spans="1:16" ht="45">
       <c r="A210" s="14" t="s">
         <v>634</v>
       </c>
@@ -16976,7 +17031,7 @@
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
     </row>
-    <row r="212" spans="1:16" ht="28.8">
+    <row r="212" spans="1:16" ht="30">
       <c r="A212" s="14" t="s">
         <v>640</v>
       </c>
@@ -17006,7 +17061,7 @@
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
     </row>
-    <row r="213" spans="1:16" ht="28.8">
+    <row r="213" spans="1:16" ht="30">
       <c r="A213" s="14" t="s">
         <v>645</v>
       </c>
@@ -17036,7 +17091,7 @@
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
     </row>
-    <row r="214" spans="1:16" ht="43.2">
+    <row r="214" spans="1:16" ht="45">
       <c r="A214" s="14" t="s">
         <v>648</v>
       </c>
@@ -17066,7 +17121,7 @@
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
     </row>
-    <row r="215" spans="1:16" ht="43.2">
+    <row r="215" spans="1:16" ht="45">
       <c r="A215" s="14" t="s">
         <v>649</v>
       </c>
@@ -17096,7 +17151,7 @@
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
     </row>
-    <row r="216" spans="1:16" ht="39.6">
+    <row r="216" spans="1:16" ht="45">
       <c r="A216" s="14" t="s">
         <v>651</v>
       </c>
@@ -17126,7 +17181,7 @@
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
     </row>
-    <row r="217" spans="1:16" ht="28.8">
+    <row r="217" spans="1:16" ht="45">
       <c r="A217" s="14" t="s">
         <v>653</v>
       </c>
@@ -17154,7 +17209,7 @@
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
     </row>
-    <row r="218" spans="1:16" ht="28.8">
+    <row r="218" spans="1:16" ht="30">
       <c r="A218" s="14" t="s">
         <v>657</v>
       </c>
@@ -17184,7 +17239,7 @@
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
     </row>
-    <row r="219" spans="1:16" ht="43.2">
+    <row r="219" spans="1:16" ht="45">
       <c r="A219" s="14" t="s">
         <v>659</v>
       </c>
@@ -17214,7 +17269,7 @@
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
     </row>
-    <row r="220" spans="1:16" ht="28.8">
+    <row r="220" spans="1:16" ht="30">
       <c r="A220" s="14" t="s">
         <v>662</v>
       </c>
@@ -17242,7 +17297,7 @@
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
     </row>
-    <row r="221" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="221" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A221" s="14" t="s">
         <v>667</v>
       </c>
@@ -17274,7 +17329,7 @@
       <c r="O221" s="18"/>
       <c r="P221" s="18"/>
     </row>
-    <row r="222" spans="1:16" ht="28.8">
+    <row r="222" spans="1:16" ht="45">
       <c r="A222" s="14" t="s">
         <v>664</v>
       </c>
@@ -17304,7 +17359,7 @@
       <c r="O222" s="18"/>
       <c r="P222" s="18"/>
     </row>
-    <row r="223" spans="1:16" ht="28.8">
+    <row r="223" spans="1:16" ht="30">
       <c r="A223" s="14" t="s">
         <v>669</v>
       </c>
@@ -17334,7 +17389,7 @@
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
     </row>
-    <row r="224" spans="1:16" ht="28.8">
+    <row r="224" spans="1:16" ht="30">
       <c r="A224" s="14" t="s">
         <v>671</v>
       </c>
@@ -17364,7 +17419,7 @@
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
     </row>
-    <row r="225" spans="1:16" ht="28.8">
+    <row r="225" spans="1:16" ht="45">
       <c r="A225" s="14" t="s">
         <v>675</v>
       </c>
@@ -17392,7 +17447,7 @@
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
     </row>
-    <row r="226" spans="1:16" ht="57.6">
+    <row r="226" spans="1:16" ht="60">
       <c r="A226" s="14" t="s">
         <v>679</v>
       </c>
@@ -17424,7 +17479,7 @@
       </c>
       <c r="P226" s="18"/>
     </row>
-    <row r="227" spans="1:16" ht="43.2">
+    <row r="227" spans="1:16" ht="45">
       <c r="A227" s="14" t="s">
         <v>682</v>
       </c>
@@ -17454,7 +17509,7 @@
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
     </row>
-    <row r="228" spans="1:16" ht="47.4" customHeight="1">
+    <row r="228" spans="1:16" ht="47.45" customHeight="1">
       <c r="A228" s="14" t="s">
         <v>686</v>
       </c>
@@ -17484,7 +17539,7 @@
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
     </row>
-    <row r="229" spans="1:16" ht="28.8">
+    <row r="229" spans="1:16" ht="30">
       <c r="A229" s="14" t="s">
         <v>690</v>
       </c>
@@ -17514,7 +17569,7 @@
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
     </row>
-    <row r="230" spans="1:16" ht="28.8">
+    <row r="230" spans="1:16" ht="30">
       <c r="A230" s="14" t="s">
         <v>693</v>
       </c>
@@ -17542,7 +17597,7 @@
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
     </row>
-    <row r="231" spans="1:16" ht="28.8">
+    <row r="231" spans="1:16" ht="30">
       <c r="A231" s="14" t="s">
         <v>695</v>
       </c>
@@ -17572,7 +17627,7 @@
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
     </row>
-    <row r="232" spans="1:16" ht="43.2">
+    <row r="232" spans="1:16" ht="45">
       <c r="A232" s="14" t="s">
         <v>697</v>
       </c>
@@ -17602,7 +17657,7 @@
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
     </row>
-    <row r="233" spans="1:16" ht="28.8">
+    <row r="233" spans="1:16" ht="30">
       <c r="A233" s="14" t="s">
         <v>699</v>
       </c>
@@ -17632,7 +17687,7 @@
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
     </row>
-    <row r="234" spans="1:16" ht="28.8">
+    <row r="234" spans="1:16" ht="30">
       <c r="A234" s="14" t="s">
         <v>701</v>
       </c>
@@ -17662,7 +17717,7 @@
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
     </row>
-    <row r="235" spans="1:16" ht="28.8">
+    <row r="235" spans="1:16" ht="30">
       <c r="A235" s="14" t="s">
         <v>704</v>
       </c>
@@ -17692,7 +17747,7 @@
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
     </row>
-    <row r="236" spans="1:16" ht="28.8">
+    <row r="236" spans="1:16" ht="30">
       <c r="A236" s="14" t="s">
         <v>708</v>
       </c>
@@ -17722,7 +17777,7 @@
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
     </row>
-    <row r="237" spans="1:16" ht="28.8">
+    <row r="237" spans="1:16" ht="30">
       <c r="A237" s="14" t="s">
         <v>710</v>
       </c>
@@ -17752,7 +17807,7 @@
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
     </row>
-    <row r="238" spans="1:16" ht="28.8">
+    <row r="238" spans="1:16" ht="30">
       <c r="A238" s="14" t="s">
         <v>713</v>
       </c>
@@ -17782,7 +17837,7 @@
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
     </row>
-    <row r="239" spans="1:16" ht="43.2">
+    <row r="239" spans="1:16" ht="45">
       <c r="A239" s="14" t="s">
         <v>717</v>
       </c>
@@ -17814,7 +17869,7 @@
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
     </row>
-    <row r="240" spans="1:16" ht="28.8">
+    <row r="240" spans="1:16" ht="45">
       <c r="A240" s="14" t="s">
         <v>720</v>
       </c>
@@ -17844,7 +17899,7 @@
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
     </row>
-    <row r="241" spans="1:16" ht="28.8">
+    <row r="241" spans="1:16" ht="30">
       <c r="A241" s="14" t="s">
         <v>722</v>
       </c>
@@ -17874,7 +17929,7 @@
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
     </row>
-    <row r="242" spans="1:16" ht="28.8">
+    <row r="242" spans="1:16" ht="45">
       <c r="A242" s="14" t="s">
         <v>724</v>
       </c>
@@ -17896,7 +17951,7 @@
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
     </row>
-    <row r="243" spans="1:16" ht="39.6">
+    <row r="243" spans="1:16" ht="38.25">
       <c r="A243" s="14" t="s">
         <v>726</v>
       </c>
@@ -17926,7 +17981,7 @@
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
     </row>
-    <row r="244" spans="1:16" ht="28.8">
+    <row r="244" spans="1:16" ht="45">
       <c r="A244" s="14" t="s">
         <v>728</v>
       </c>
@@ -17956,7 +18011,7 @@
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
     </row>
-    <row r="245" spans="1:16" ht="28.8">
+    <row r="245" spans="1:16" ht="30">
       <c r="A245" s="14" t="s">
         <v>732</v>
       </c>
@@ -17986,7 +18041,7 @@
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
     </row>
-    <row r="246" spans="1:16" ht="66">
+    <row r="246" spans="1:16" ht="63.75">
       <c r="A246" s="14" t="s">
         <v>736</v>
       </c>
@@ -18018,7 +18073,7 @@
       </c>
       <c r="P246" s="18"/>
     </row>
-    <row r="247" spans="1:16" ht="57.6">
+    <row r="247" spans="1:16" ht="60">
       <c r="A247" s="14" t="s">
         <v>739</v>
       </c>
@@ -18052,7 +18107,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="28.8">
+    <row r="248" spans="1:16" ht="30">
       <c r="A248" s="14" t="s">
         <v>743</v>
       </c>
@@ -18082,7 +18137,7 @@
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
     </row>
-    <row r="249" spans="1:16" ht="28.8">
+    <row r="249" spans="1:16" ht="30">
       <c r="A249" s="14" t="s">
         <v>747</v>
       </c>
@@ -18112,7 +18167,7 @@
       <c r="O249" s="18"/>
       <c r="P249" s="18"/>
     </row>
-    <row r="250" spans="1:16" ht="28.8">
+    <row r="250" spans="1:16" ht="30">
       <c r="A250" s="14" t="s">
         <v>750</v>
       </c>
@@ -18140,7 +18195,7 @@
       <c r="O250" s="18"/>
       <c r="P250" s="18"/>
     </row>
-    <row r="251" spans="1:16" ht="28.8">
+    <row r="251" spans="1:16" ht="30">
       <c r="A251" s="14" t="s">
         <v>751</v>
       </c>
@@ -18170,7 +18225,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="252" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A252" s="14" t="s">
         <v>768</v>
       </c>
@@ -18226,7 +18281,7 @@
       <c r="O253" s="18"/>
       <c r="P253" s="18"/>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="254" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A254" s="14" t="s">
         <v>770</v>
       </c>
@@ -18256,7 +18311,7 @@
       <c r="O254" s="18"/>
       <c r="P254" s="18"/>
     </row>
-    <row r="255" spans="1:16" ht="43.2">
+    <row r="255" spans="1:16" ht="45">
       <c r="A255" s="14" t="s">
         <v>755</v>
       </c>
@@ -18286,7 +18341,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="256" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A256" s="14" t="s">
         <v>775</v>
       </c>
@@ -18316,7 +18371,7 @@
       <c r="O256" s="18"/>
       <c r="P256" s="14"/>
     </row>
-    <row r="257" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="257" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A257" s="14" t="s">
         <v>778</v>
       </c>
@@ -18346,7 +18401,7 @@
       <c r="O257" s="18"/>
       <c r="P257" s="14"/>
     </row>
-    <row r="258" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="258" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A258" s="14" t="s">
         <v>780</v>
       </c>
@@ -18376,7 +18431,7 @@
       <c r="O258" s="18"/>
       <c r="P258" s="14"/>
     </row>
-    <row r="259" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="259" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A259" s="14" t="s">
         <v>781</v>
       </c>
@@ -18406,7 +18461,7 @@
       <c r="O259" s="18"/>
       <c r="P259" s="14"/>
     </row>
-    <row r="260" spans="1:16" s="2" customFormat="1" ht="28.8">
+    <row r="260" spans="1:16" s="2" customFormat="1" ht="30">
       <c r="A260" s="14" t="s">
         <v>784</v>
       </c>
@@ -18436,7 +18491,7 @@
       <c r="O260" s="18"/>
       <c r="P260" s="14"/>
     </row>
-    <row r="261" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="261" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A261" s="14" t="s">
         <v>787</v>
       </c>
@@ -18466,7 +18521,7 @@
       <c r="O261" s="18"/>
       <c r="P261" s="14"/>
     </row>
-    <row r="262" spans="1:16" ht="28.8">
+    <row r="262" spans="1:16" ht="45">
       <c r="A262" s="14" t="s">
         <v>765</v>
       </c>
@@ -18496,7 +18551,7 @@
       <c r="O262" s="18"/>
       <c r="P262" s="18"/>
     </row>
-    <row r="263" spans="1:16" ht="28.8">
+    <row r="263" spans="1:16" ht="45">
       <c r="A263" s="14" t="s">
         <v>766</v>
       </c>
@@ -18526,7 +18581,7 @@
       <c r="O263" s="18"/>
       <c r="P263" s="18"/>
     </row>
-    <row r="264" spans="1:16" ht="28.8">
+    <row r="264" spans="1:16" ht="45">
       <c r="A264" s="14" t="s">
         <v>767</v>
       </c>
@@ -18556,7 +18611,7 @@
       <c r="O264" s="18"/>
       <c r="P264" s="18"/>
     </row>
-    <row r="265" spans="1:16" ht="28.8">
+    <row r="265" spans="1:16" ht="30">
       <c r="A265" s="14" t="s">
         <v>789</v>
       </c>
@@ -18576,7 +18631,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="28.8">
+    <row r="266" spans="1:16" ht="30">
       <c r="A266" s="14" t="s">
         <v>792</v>
       </c>
@@ -18593,7 +18648,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="43.2">
+    <row r="267" spans="1:16" ht="45">
       <c r="A267" s="14" t="s">
         <v>794</v>
       </c>
@@ -18613,7 +18668,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="43.2">
+    <row r="268" spans="1:16" ht="45">
       <c r="A268" s="7" t="s">
         <v>796</v>
       </c>
@@ -18633,7 +18688,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="28.8">
+    <row r="269" spans="1:16" ht="45">
       <c r="A269" s="7" t="s">
         <v>802</v>
       </c>
@@ -18653,7 +18708,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="28.8">
+    <row r="270" spans="1:16" ht="30">
       <c r="A270" s="7" t="s">
         <v>801</v>
       </c>
@@ -18673,7 +18728,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="43.2">
+    <row r="271" spans="1:16" ht="45">
       <c r="A271" s="7" t="s">
         <v>805</v>
       </c>
@@ -18693,7 +18748,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="43.2">
+    <row r="272" spans="1:16" ht="45">
       <c r="A272" s="7" t="s">
         <v>809</v>
       </c>
@@ -18713,7 +18768,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="43.2">
+    <row r="273" spans="1:17" ht="45">
       <c r="A273" s="7" t="s">
         <v>810</v>
       </c>
@@ -18730,7 +18785,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="43.2">
+    <row r="274" spans="1:17" ht="45">
       <c r="A274" s="7" t="s">
         <v>813</v>
       </c>
@@ -18750,7 +18805,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="28.8">
+    <row r="275" spans="1:17" ht="30">
       <c r="A275" s="49" t="s">
         <v>815</v>
       </c>
@@ -18767,7 +18822,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="69">
+    <row r="276" spans="1:17" ht="64.5">
       <c r="A276" s="14" t="s">
         <v>820</v>
       </c>
@@ -18790,7 +18845,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="55.2">
+    <row r="277" spans="1:17" ht="51.75">
       <c r="A277" s="7" t="s">
         <v>827</v>
       </c>
@@ -18801,7 +18856,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="28.8">
+    <row r="278" spans="1:17" ht="30">
       <c r="A278" s="7" t="s">
         <v>830</v>
       </c>
@@ -18821,7 +18876,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="28.8">
+    <row r="279" spans="1:17" ht="30">
       <c r="A279" s="7" t="s">
         <v>832</v>
       </c>
@@ -18838,7 +18893,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="43.2">
+    <row r="280" spans="1:17" ht="45">
       <c r="A280" s="7" t="s">
         <v>834</v>
       </c>
@@ -18858,7 +18913,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="28.8">
+    <row r="281" spans="1:17" ht="45">
       <c r="A281" s="7" t="s">
         <v>836</v>
       </c>
@@ -18895,7 +18950,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="28.8">
+    <row r="283" spans="1:17" ht="30">
       <c r="A283" s="7" t="s">
         <v>840</v>
       </c>
@@ -18912,7 +18967,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="28.8">
+    <row r="284" spans="1:17" ht="30">
       <c r="A284" s="7" t="s">
         <v>841</v>
       </c>
@@ -18929,7 +18984,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="28.8">
+    <row r="285" spans="1:17" ht="30">
       <c r="A285" s="7" t="s">
         <v>843</v>
       </c>
@@ -18949,7 +19004,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="28.8">
+    <row r="286" spans="1:17" ht="30">
       <c r="A286" s="7" t="s">
         <v>846</v>
       </c>
@@ -18969,7 +19024,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="28.8">
+    <row r="287" spans="1:17" ht="30">
       <c r="A287" s="7" t="s">
         <v>849</v>
       </c>
@@ -18986,7 +19041,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="40.200000000000003">
+    <row r="288" spans="1:17" ht="39">
       <c r="A288" s="14" t="s">
         <v>850</v>
       </c>
@@ -19006,7 +19061,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="28.8">
+    <row r="289" spans="1:15" ht="30">
       <c r="A289" s="7" t="s">
         <v>853</v>
       </c>
@@ -19026,7 +19081,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="43.2">
+    <row r="290" spans="1:15" ht="45">
       <c r="A290" s="7" t="s">
         <v>856</v>
       </c>
@@ -19043,7 +19098,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="40.200000000000003">
+    <row r="291" spans="1:15" ht="39">
       <c r="A291" s="7" t="s">
         <v>857</v>
       </c>
@@ -19066,7 +19121,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="28.8">
+    <row r="292" spans="1:15" ht="45">
       <c r="A292" s="7" t="s">
         <v>864</v>
       </c>
@@ -19084,7 +19139,7 @@
       </c>
       <c r="L292" s="7"/>
     </row>
-    <row r="293" spans="1:15" ht="28.8">
+    <row r="293" spans="1:15" ht="30">
       <c r="A293" s="7" t="s">
         <v>865</v>
       </c>
@@ -19104,7 +19159,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="28.8">
+    <row r="294" spans="1:15" ht="30">
       <c r="A294" s="7" t="s">
         <v>870</v>
       </c>
@@ -19121,7 +19176,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="28.8">
+    <row r="295" spans="1:15" ht="30">
       <c r="A295" s="7" t="s">
         <v>872</v>
       </c>
@@ -19141,7 +19196,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="28.8">
+    <row r="296" spans="1:15" ht="30">
       <c r="A296" s="7" t="s">
         <v>873</v>
       </c>
@@ -19158,7 +19213,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="57.6">
+    <row r="297" spans="1:15" ht="60">
       <c r="A297" s="7" t="s">
         <v>875</v>
       </c>
@@ -19175,7 +19230,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="28.8">
+    <row r="298" spans="1:15" ht="30">
       <c r="A298" s="14" t="s">
         <v>878</v>
       </c>
@@ -19195,7 +19250,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="28.8">
+    <row r="299" spans="1:15" ht="30">
       <c r="A299" s="14" t="s">
         <v>882</v>
       </c>
@@ -19212,7 +19267,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="28.8">
+    <row r="300" spans="1:15" ht="45">
       <c r="A300" s="7" t="s">
         <v>886</v>
       </c>
@@ -19232,7 +19287,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="301" spans="1:15">
+    <row r="301" spans="1:15" ht="30">
       <c r="A301" s="7" t="s">
         <v>888</v>
       </c>
@@ -19249,7 +19304,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="28.8">
+    <row r="302" spans="1:15" ht="30">
       <c r="A302" s="7" t="s">
         <v>891</v>
       </c>
@@ -19283,7 +19338,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="28.8">
+    <row r="304" spans="1:15" ht="30">
       <c r="A304" s="7" t="s">
         <v>898</v>
       </c>
@@ -19300,7 +19355,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="28.8">
+    <row r="305" spans="1:12" ht="30">
       <c r="A305" s="7" t="s">
         <v>899</v>
       </c>
@@ -19334,7 +19389,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="28.8">
+    <row r="307" spans="1:12" ht="30">
       <c r="A307" s="7" t="s">
         <v>903</v>
       </c>
@@ -19354,7 +19409,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="28.8">
+    <row r="308" spans="1:12" ht="30">
       <c r="A308" s="7" t="s">
         <v>905</v>
       </c>
@@ -19371,7 +19426,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="43.2">
+    <row r="309" spans="1:12" ht="45">
       <c r="A309" s="7" t="s">
         <v>907</v>
       </c>
@@ -19391,7 +19446,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="28.8">
+    <row r="310" spans="1:12" ht="30">
       <c r="A310" s="7" t="s">
         <v>911</v>
       </c>
@@ -19408,7 +19463,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="28.8">
+    <row r="311" spans="1:12" ht="45">
       <c r="A311" s="7" t="s">
         <v>912</v>
       </c>
@@ -19445,7 +19500,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="28.8">
+    <row r="313" spans="1:12" ht="45">
       <c r="A313" s="7" t="s">
         <v>914</v>
       </c>
@@ -19462,7 +19517,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="28.8">
+    <row r="314" spans="1:12" ht="30">
       <c r="A314" s="7" t="s">
         <v>916</v>
       </c>
@@ -19479,7 +19534,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="43.2">
+    <row r="315" spans="1:12" ht="45">
       <c r="A315" s="7" t="s">
         <v>918</v>
       </c>
@@ -19499,7 +19554,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="28.8">
+    <row r="316" spans="1:12" ht="30">
       <c r="A316" s="7" t="s">
         <v>921</v>
       </c>
@@ -19516,7 +19571,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="28.8">
+    <row r="317" spans="1:12" ht="30">
       <c r="A317" s="7" t="s">
         <v>925</v>
       </c>
@@ -19533,7 +19588,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="28.8">
+    <row r="318" spans="1:12" ht="30">
       <c r="A318" s="7" t="s">
         <v>926</v>
       </c>
@@ -19550,7 +19605,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="28.8">
+    <row r="319" spans="1:12" ht="30">
       <c r="A319" s="7" t="s">
         <v>929</v>
       </c>
@@ -19567,7 +19622,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="27">
+    <row r="320" spans="1:12" ht="26.25">
       <c r="A320" t="s">
         <v>933</v>
       </c>
@@ -19587,7 +19642,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="28.8">
+    <row r="321" spans="1:12" ht="30">
       <c r="A321" s="7" t="s">
         <v>935</v>
       </c>
@@ -19604,7 +19659,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="43.2">
+    <row r="322" spans="1:12" ht="45">
       <c r="A322" s="7" t="s">
         <v>936</v>
       </c>
@@ -19624,7 +19679,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="28.8">
+    <row r="323" spans="1:12" ht="30">
       <c r="A323" s="7" t="s">
         <v>939</v>
       </c>
@@ -19644,7 +19699,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="28.8">
+    <row r="324" spans="1:12" ht="45">
       <c r="A324" s="7" t="s">
         <v>941</v>
       </c>
@@ -19664,7 +19719,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="43.2">
+    <row r="325" spans="1:12" ht="45">
       <c r="A325" s="7" t="s">
         <v>943</v>
       </c>
@@ -19681,7 +19736,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="27">
+    <row r="326" spans="1:12" ht="26.25">
       <c r="A326" t="s">
         <v>945</v>
       </c>
@@ -19701,7 +19756,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="28.8">
+    <row r="327" spans="1:12" ht="30">
       <c r="A327" s="7" t="s">
         <v>947</v>
       </c>
@@ -19712,7 +19767,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="28.8">
+    <row r="328" spans="1:12" ht="45">
       <c r="A328" s="7" t="s">
         <v>951</v>
       </c>
@@ -19729,7 +19784,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="28.8">
+    <row r="329" spans="1:12" ht="45">
       <c r="A329" s="7" t="s">
         <v>955</v>
       </c>
@@ -19743,7 +19798,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="28.8">
+    <row r="330" spans="1:12" ht="30">
       <c r="A330" s="7" t="s">
         <v>957</v>
       </c>
@@ -19760,7 +19815,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="28.8">
+    <row r="331" spans="1:12" ht="45">
       <c r="A331" s="7" t="s">
         <v>959</v>
       </c>
@@ -19777,7 +19832,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="28.8">
+    <row r="332" spans="1:12" ht="30">
       <c r="A332" s="7" t="s">
         <v>961</v>
       </c>
@@ -19797,7 +19852,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="28.8">
+    <row r="333" spans="1:12" ht="30">
       <c r="A333" s="7" t="s">
         <v>964</v>
       </c>
@@ -19814,7 +19869,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="28.8">
+    <row r="334" spans="1:12" ht="30">
       <c r="A334" s="7" t="s">
         <v>966</v>
       </c>
@@ -19831,7 +19886,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="28.8">
+    <row r="335" spans="1:12" ht="30">
       <c r="A335" s="7" t="s">
         <v>968</v>
       </c>
@@ -19848,7 +19903,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="28.8">
+    <row r="336" spans="1:12" ht="30">
       <c r="A336" s="7" t="s">
         <v>971</v>
       </c>
@@ -19865,7 +19920,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="28.8">
+    <row r="337" spans="1:17" ht="30">
       <c r="A337" s="7" t="s">
         <v>972</v>
       </c>
@@ -19885,7 +19940,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="28.8">
+    <row r="338" spans="1:17" ht="30">
       <c r="A338" s="7" t="s">
         <v>974</v>
       </c>
@@ -19902,7 +19957,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="28.8">
+    <row r="339" spans="1:17" ht="30">
       <c r="A339" s="7" t="s">
         <v>982</v>
       </c>
@@ -19922,7 +19977,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="43.2">
+    <row r="340" spans="1:17" ht="45">
       <c r="A340" s="7" t="s">
         <v>984</v>
       </c>
@@ -19942,7 +19997,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="28.8">
+    <row r="341" spans="1:17" ht="30">
       <c r="A341" s="7" t="s">
         <v>986</v>
       </c>
@@ -19962,7 +20017,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="28.8">
+    <row r="342" spans="1:17" ht="30">
       <c r="A342" s="7" t="s">
         <v>988</v>
       </c>
@@ -20025,7 +20080,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="28.8">
+    <row r="345" spans="1:17" ht="30">
       <c r="A345" s="7" t="s">
         <v>1003</v>
       </c>
@@ -20043,7 +20098,7 @@
       </c>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:17" ht="28.8">
+    <row r="346" spans="1:17" ht="30">
       <c r="A346" s="7" t="s">
         <v>1005</v>
       </c>
@@ -20069,7 +20124,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="43.2">
+    <row r="347" spans="1:17" ht="45">
       <c r="A347" s="7" t="s">
         <v>1007</v>
       </c>
@@ -20115,7 +20170,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="28.8">
+    <row r="349" spans="1:17" ht="30">
       <c r="A349" s="7" t="s">
         <v>1016</v>
       </c>
@@ -20135,7 +20190,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="28.8">
+    <row r="350" spans="1:17" ht="30">
       <c r="A350" s="7" t="s">
         <v>1019</v>
       </c>
@@ -20155,7 +20210,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="351" spans="1:17" s="2" customFormat="1" ht="28.8">
+    <row r="351" spans="1:17" s="2" customFormat="1" ht="30">
       <c r="A351" s="7" t="s">
         <v>1022</v>
       </c>
@@ -20173,7 +20228,7 @@
       </c>
       <c r="L351" s="7"/>
     </row>
-    <row r="352" spans="1:17" s="2" customFormat="1" ht="28.8">
+    <row r="352" spans="1:17" s="2" customFormat="1" ht="30">
       <c r="A352" s="7" t="s">
         <v>1024</v>
       </c>
@@ -20191,7 +20246,7 @@
       </c>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:14" ht="28.8">
+    <row r="353" spans="1:14" ht="30">
       <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
@@ -20208,7 +20263,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="43.2">
+    <row r="354" spans="1:14" ht="45">
       <c r="A354" s="14" t="s">
         <v>1025</v>
       </c>
@@ -20228,7 +20283,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="28.8">
+    <row r="355" spans="1:14" ht="30">
       <c r="A355" s="7" t="s">
         <v>1028</v>
       </c>
@@ -20245,7 +20300,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="28.8">
+    <row r="356" spans="1:14" ht="30">
       <c r="A356" s="7" t="s">
         <v>1030</v>
       </c>
@@ -20262,7 +20317,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="28.8">
+    <row r="357" spans="1:14" ht="30">
       <c r="A357" s="7" t="s">
         <v>1032</v>
       </c>
@@ -20282,7 +20337,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="28.8">
+    <row r="358" spans="1:14" ht="30">
       <c r="A358" s="7" t="s">
         <v>1035</v>
       </c>
@@ -20302,7 +20357,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="28.8">
+    <row r="359" spans="1:14" ht="30">
       <c r="A359" s="7" t="s">
         <v>1039</v>
       </c>
@@ -20320,7 +20375,7 @@
       </c>
       <c r="L359" s="7"/>
     </row>
-    <row r="360" spans="1:14" s="2" customFormat="1" ht="43.2">
+    <row r="360" spans="1:14" s="2" customFormat="1" ht="45">
       <c r="A360" s="7" t="s">
         <v>1046</v>
       </c>
@@ -20343,7 +20398,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="43.2">
+    <row r="361" spans="1:14" ht="45">
       <c r="A361" s="7" t="s">
         <v>1041</v>
       </c>
@@ -20363,7 +20418,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="28.8">
+    <row r="362" spans="1:14" ht="30">
       <c r="A362" t="s">
         <v>1044</v>
       </c>
@@ -20383,7 +20438,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="28.8">
+    <row r="363" spans="1:14" ht="30">
       <c r="A363" s="7" t="s">
         <v>1050</v>
       </c>
@@ -20400,7 +20455,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="28.8">
+    <row r="364" spans="1:14" ht="30">
       <c r="A364" s="7" t="s">
         <v>1052</v>
       </c>
@@ -20417,7 +20472,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="28.8">
+    <row r="365" spans="1:14" ht="30">
       <c r="A365" s="7" t="s">
         <v>1055</v>
       </c>
@@ -20434,7 +20489,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="28.8">
+    <row r="366" spans="1:14" ht="30">
       <c r="A366" s="7" t="s">
         <v>1057</v>
       </c>
@@ -20451,7 +20506,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="28.8">
+    <row r="367" spans="1:14" ht="30">
       <c r="A367" s="7" t="s">
         <v>1059</v>
       </c>
@@ -20468,7 +20523,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="43.2">
+    <row r="368" spans="1:14" ht="45">
       <c r="A368" s="7" t="s">
         <v>1061</v>
       </c>
@@ -20485,7 +20540,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="28.8">
+    <row r="369" spans="1:16" ht="30">
       <c r="A369" s="7" t="s">
         <v>1063</v>
       </c>
@@ -20508,7 +20563,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="28.8">
+    <row r="370" spans="1:16" ht="30">
       <c r="A370" s="7" t="s">
         <v>1067</v>
       </c>
@@ -20525,7 +20580,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="43.2">
+    <row r="371" spans="1:16" ht="45">
       <c r="A371" s="7" t="s">
         <v>1069</v>
       </c>
@@ -20542,7 +20597,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:16" s="2" customFormat="1" ht="43.2">
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="45">
       <c r="A372" s="7" t="s">
         <v>1075</v>
       </c>
@@ -20562,7 +20617,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="43.2">
+    <row r="373" spans="1:16" ht="45">
       <c r="A373" s="7" t="s">
         <v>1071</v>
       </c>
@@ -20579,7 +20634,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="28.8">
+    <row r="374" spans="1:16" ht="30">
       <c r="A374" s="7" t="s">
         <v>1073</v>
       </c>
@@ -20599,7 +20654,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="28.8">
+    <row r="375" spans="1:16" ht="30">
       <c r="A375" s="7" t="s">
         <v>1080</v>
       </c>
@@ -20616,7 +20671,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="28.8">
+    <row r="376" spans="1:16" ht="30">
       <c r="A376" s="7" t="s">
         <v>1082</v>
       </c>
@@ -20633,7 +20688,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="43.95" customHeight="1">
+    <row r="377" spans="1:16" ht="43.9" customHeight="1">
       <c r="A377" s="14" t="s">
         <v>1085</v>
       </c>
@@ -20653,7 +20708,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="28.8">
+    <row r="378" spans="1:16" ht="45">
       <c r="A378" s="7" t="s">
         <v>1087</v>
       </c>
@@ -20671,7 +20726,7 @@
       </c>
       <c r="L378" s="7"/>
     </row>
-    <row r="379" spans="1:16" ht="28.8">
+    <row r="379" spans="1:16" ht="30">
       <c r="A379" s="64" t="s">
         <v>1089</v>
       </c>
@@ -20691,7 +20746,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="28.8">
+    <row r="380" spans="1:16" ht="30">
       <c r="A380" s="7" t="s">
         <v>1091</v>
       </c>
@@ -20728,7 +20783,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="28.8">
+    <row r="382" spans="1:16" ht="30">
       <c r="A382" s="7" t="s">
         <v>1095</v>
       </c>
@@ -20748,7 +20803,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="28.8">
+    <row r="383" spans="1:16" ht="30">
       <c r="A383" s="7" t="s">
         <v>1097</v>
       </c>
@@ -20768,7 +20823,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="43.2">
+    <row r="384" spans="1:16" ht="45">
       <c r="A384" s="7" t="s">
         <v>1100</v>
       </c>
@@ -20788,7 +20843,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="385" spans="1:5" ht="28.8">
+    <row r="385" spans="1:17" ht="30">
       <c r="A385" s="7" t="s">
         <v>1104</v>
       </c>
@@ -20803,6 +20858,32 @@
       </c>
       <c r="E385" s="63" t="s">
         <v>1036</v>
+      </c>
+    </row>
+    <row r="386" spans="1:17" ht="30">
+      <c r="A386" s="7" t="s">
+        <v>1105</v>
+      </c>
+      <c r="B386" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C386" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D386" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E386" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L386" s="7" t="s">
+        <v>163</v>
+      </c>
+      <c r="P386" s="2" t="s">
+        <v>1001</v>
+      </c>
+      <c r="Q386" s="2" t="s">
+        <v>1002</v>
       </c>
     </row>
   </sheetData>
@@ -20814,7 +20895,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E385">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E386">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21381,9 +21462,11 @@
     <hyperlink ref="D384" r:id="rId560"/>
     <hyperlink ref="C385" r:id="rId561"/>
     <hyperlink ref="D385" r:id="rId562"/>
+    <hyperlink ref="C386" r:id="rId563"/>
+    <hyperlink ref="D386" r:id="rId564"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId563"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId565"/>
 </worksheet>
 </file>
 
@@ -21395,14 +21478,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="46.33203125" customWidth="1"/>
-    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.28515625" customWidth="1"/>
+    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15" thickBot="1">
+    <row r="1" spans="1:3" ht="15.75" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -21446,7 +21529,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="158.4">
+    <row r="5" spans="1:3" ht="165">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -21457,7 +21540,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="201.6">
+    <row r="6" spans="1:3" ht="225">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -21483,51 +21566,51 @@
       <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="40.6640625" style="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.7109375" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5703125" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
     <col min="6" max="8" width="24" style="18" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.6640625" style="18" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="26.33203125" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.33203125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.7109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.28515625" style="18" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="19" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29.88671875" style="18" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.88671875" style="18"/>
+    <col min="18" max="18" width="29.85546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.85546875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1">
       <c r="A1" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="68" t="s">
+      <c r="B1" s="72" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="70"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+      <c r="E1" s="73"/>
+      <c r="F1" s="73"/>
+      <c r="G1" s="73"/>
+      <c r="H1" s="73"/>
+      <c r="I1" s="73"/>
+      <c r="J1" s="73"/>
+      <c r="K1" s="73"/>
+      <c r="L1" s="73"/>
+      <c r="M1" s="73"/>
+      <c r="N1" s="73"/>
+      <c r="O1" s="73"/>
+      <c r="P1" s="73"/>
+      <c r="Q1" s="73"/>
+      <c r="R1" s="73"/>
+      <c r="S1" s="74"/>
     </row>
     <row r="2" spans="1:19">
       <c r="A2" s="17" t="s">
@@ -21549,7 +21632,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="28.8">
+    <row r="3" spans="1:19" ht="30">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -21574,7 +21657,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:19">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -21594,7 +21677,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="28.8">
+    <row r="5" spans="1:19" ht="30">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -21616,7 +21699,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="28.8">
+    <row r="6" spans="1:19" ht="30">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -21642,7 +21725,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="28.8">
+    <row r="7" spans="1:19" ht="30">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -21662,7 +21745,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="43.2">
+    <row r="8" spans="1:19" ht="45">
       <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
@@ -21685,7 +21768,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="28.8">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
@@ -21705,7 +21788,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="28.8">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
@@ -21729,7 +21812,7 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="28.8">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="17" t="s">
         <v>49</v>
       </c>
@@ -21825,7 +21908,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="28.8">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
@@ -21851,7 +21934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
@@ -21873,7 +21956,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="43.2">
+    <row r="17" spans="1:11" ht="45">
       <c r="A17" s="17" t="s">
         <v>63</v>
       </c>
@@ -21897,7 +21980,7 @@
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="28.8">
+    <row r="18" spans="1:11" ht="30">
       <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
@@ -21923,7 +22006,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="43.2">
+    <row r="19" spans="1:11" ht="45">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -21943,7 +22026,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="28.8">
+    <row r="20" spans="1:11" ht="30">
       <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
@@ -21969,7 +22052,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="28.8">
+    <row r="21" spans="1:11" ht="30">
       <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
@@ -21995,7 +22078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="43.2">
+    <row r="22" spans="1:11" ht="45">
       <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
@@ -22041,7 +22124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="28.8">
+    <row r="24" spans="1:11" ht="30">
       <c r="A24" s="19" t="s">
         <v>94</v>
       </c>
@@ -22064,7 +22147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="28.8">
+    <row r="25" spans="1:11" ht="30">
       <c r="A25" s="19" t="s">
         <v>97</v>
       </c>
@@ -22087,7 +22170,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="28.8">
+    <row r="26" spans="1:11" ht="30">
       <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
@@ -22122,7 +22205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="28.8">
+    <row r="27" spans="1:11" ht="30">
       <c r="A27" s="17" t="s">
         <v>280</v>
       </c>
@@ -22147,7 +22230,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="28.8">
+    <row r="28" spans="1:11" ht="30">
       <c r="A28" s="19" t="s">
         <v>100</v>
       </c>
@@ -22173,7 +22256,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="28.8">
+    <row r="29" spans="1:11" ht="30">
       <c r="A29" s="17" t="s">
         <v>407</v>
       </c>
@@ -22199,7 +22282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="43.2">
+    <row r="30" spans="1:11" ht="45">
       <c r="A30" s="17" t="s">
         <v>105</v>
       </c>
@@ -22219,7 +22302,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.95" customHeight="1">
+    <row r="31" spans="1:11" ht="25.9" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>409</v>
       </c>
@@ -22245,7 +22328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="28.8">
+    <row r="32" spans="1:11" ht="30">
       <c r="A32" s="17" t="s">
         <v>107</v>
       </c>
@@ -22269,7 +22352,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="28.8">
+    <row r="33" spans="1:9" ht="30">
       <c r="A33" s="17" t="s">
         <v>110</v>
       </c>
@@ -22298,7 +22381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="28.8">
+    <row r="34" spans="1:9" ht="30">
       <c r="A34" s="19" t="s">
         <v>114</v>
       </c>
@@ -22324,7 +22407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="28.8">
+    <row r="35" spans="1:9" ht="30">
       <c r="A35" s="19" t="s">
         <v>117</v>
       </c>
@@ -22350,7 +22433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="28.8">
+    <row r="36" spans="1:9" ht="30">
       <c r="A36" s="19" t="s">
         <v>122</v>
       </c>
@@ -22376,7 +22459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="28.8">
+    <row r="37" spans="1:9" ht="30">
       <c r="A37" s="19" t="s">
         <v>123</v>
       </c>
@@ -22402,7 +22485,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="28.8">
+    <row r="38" spans="1:9" ht="45">
       <c r="A38" s="19" t="s">
         <v>126</v>
       </c>
@@ -22428,7 +22511,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="43.2">
+    <row r="39" spans="1:9" ht="45">
       <c r="A39" s="19" t="s">
         <v>129</v>
       </c>
@@ -22454,7 +22537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="28.8">
+    <row r="40" spans="1:9" ht="45">
       <c r="A40" s="17" t="s">
         <v>132</v>
       </c>
@@ -22477,7 +22560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="28.8">
+    <row r="41" spans="1:9" ht="45">
       <c r="A41" s="19" t="s">
         <v>135</v>
       </c>
@@ -22503,7 +22586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="43.2">
+    <row r="42" spans="1:9" ht="45">
       <c r="A42" s="19" t="s">
         <v>138</v>
       </c>
@@ -22529,7 +22612,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="43.2">
+    <row r="43" spans="1:9" ht="45">
       <c r="A43" s="19" t="s">
         <v>141</v>
       </c>
@@ -22555,7 +22638,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="43.2">
+    <row r="44" spans="1:9" ht="45">
       <c r="A44" s="19" t="s">
         <v>144</v>
       </c>
@@ -22581,7 +22664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="28.8">
+    <row r="45" spans="1:9" ht="45">
       <c r="A45" s="19" t="s">
         <v>147</v>
       </c>
@@ -22607,7 +22690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="43.2">
+    <row r="46" spans="1:9" ht="45">
       <c r="A46" s="19" t="s">
         <v>149</v>
       </c>
@@ -22636,7 +22719,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="43.2">
+    <row r="47" spans="1:9" ht="45">
       <c r="A47" s="19" t="s">
         <v>152</v>
       </c>
@@ -22665,7 +22748,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="43.2">
+    <row r="48" spans="1:9" ht="45">
       <c r="A48" s="19" t="s">
         <v>155</v>
       </c>
@@ -22694,7 +22777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="43.2">
+    <row r="49" spans="1:11" ht="45">
       <c r="A49" s="17" t="s">
         <v>158</v>
       </c>
@@ -22723,7 +22806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="28.8">
+    <row r="50" spans="1:11" ht="30">
       <c r="A50" s="19" t="s">
         <v>160</v>
       </c>
@@ -22755,7 +22838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="28.8">
+    <row r="51" spans="1:11" ht="30">
       <c r="A51" s="19" t="s">
         <v>165</v>
       </c>
@@ -22781,7 +22864,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="43.2">
+    <row r="52" spans="1:11" ht="45">
       <c r="A52" s="17" t="s">
         <v>170</v>
       </c>
@@ -22810,7 +22893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="28.8">
+    <row r="53" spans="1:11" ht="30">
       <c r="A53" s="19" t="s">
         <v>172</v>
       </c>
@@ -22842,7 +22925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="43.2">
+    <row r="54" spans="1:11" ht="45">
       <c r="A54" s="17" t="s">
         <v>175</v>
       </c>
@@ -22871,7 +22954,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="28.8">
+    <row r="55" spans="1:11" ht="45">
       <c r="A55" s="19" t="s">
         <v>177</v>
       </c>
@@ -22906,7 +22989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="43.2">
+    <row r="56" spans="1:11" ht="60">
       <c r="A56" s="17" t="s">
         <v>181</v>
       </c>
@@ -22932,7 +23015,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="28.8">
+    <row r="57" spans="1:11" ht="30">
       <c r="A57" s="19" t="s">
         <v>374</v>
       </c>
@@ -22967,7 +23050,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="43.2">
+    <row r="58" spans="1:11" ht="45">
       <c r="A58" s="17" t="s">
         <v>185</v>
       </c>
@@ -22993,7 +23076,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="43.2">
+    <row r="59" spans="1:11" ht="45">
       <c r="A59" s="19" t="s">
         <v>187</v>
       </c>
@@ -23022,7 +23105,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="43.2">
+    <row r="60" spans="1:11" ht="45">
       <c r="A60" s="19" t="s">
         <v>190</v>
       </c>
@@ -23051,7 +23134,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="43.2">
+    <row r="61" spans="1:11" ht="45">
       <c r="A61" s="17" t="s">
         <v>193</v>
       </c>
@@ -23080,7 +23163,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="43.2">
+    <row r="62" spans="1:11" ht="45">
       <c r="A62" s="17" t="s">
         <v>195</v>
       </c>
@@ -23109,7 +23192,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="28.8">
+    <row r="63" spans="1:11" ht="30">
       <c r="A63" s="19" t="s">
         <v>199</v>
       </c>
@@ -23141,7 +23224,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="28.8">
+    <row r="64" spans="1:11" ht="30">
       <c r="A64" s="17" t="s">
         <v>202</v>
       </c>
@@ -23167,7 +23250,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="43.2">
+    <row r="65" spans="1:13" ht="45">
       <c r="A65" s="19" t="s">
         <v>205</v>
       </c>
@@ -23196,7 +23279,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="28.8">
+    <row r="66" spans="1:13" ht="45">
       <c r="A66" s="19" t="s">
         <v>208</v>
       </c>
@@ -23225,7 +23308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="28.8">
+    <row r="67" spans="1:13" ht="30">
       <c r="A67" s="19" t="s">
         <v>210</v>
       </c>
@@ -23257,7 +23340,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="28.8">
+    <row r="68" spans="1:13" ht="30">
       <c r="A68" s="17" t="s">
         <v>213</v>
       </c>
@@ -23298,7 +23381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="28.8">
+    <row r="69" spans="1:13" ht="30">
       <c r="A69" s="19" t="s">
         <v>220</v>
       </c>
@@ -23324,7 +23407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="28.8">
+    <row r="70" spans="1:13" ht="30">
       <c r="A70" s="19" t="s">
         <v>222</v>
       </c>
@@ -23350,7 +23433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="28.8">
+    <row r="71" spans="1:13" ht="30">
       <c r="A71" s="17" t="s">
         <v>224</v>
       </c>
@@ -23379,7 +23462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="43.2">
+    <row r="72" spans="1:13" ht="45">
       <c r="A72" s="17" t="s">
         <v>226</v>
       </c>
@@ -23414,7 +23497,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="43.2">
+    <row r="73" spans="1:13" ht="45">
       <c r="A73" s="17" t="s">
         <v>230</v>
       </c>
@@ -23449,7 +23532,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="28.8">
+    <row r="74" spans="1:13" ht="30">
       <c r="A74" s="17" t="s">
         <v>234</v>
       </c>
@@ -23478,7 +23561,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="28.8">
+    <row r="75" spans="1:13" ht="45">
       <c r="A75" s="17" t="s">
         <v>251</v>
       </c>
@@ -23513,7 +23596,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="28.8">
+    <row r="76" spans="1:13" ht="30">
       <c r="A76" s="19" t="s">
         <v>272</v>
       </c>
@@ -23554,7 +23637,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="28.8">
+    <row r="77" spans="1:13" ht="30">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -23592,7 +23675,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="28.8">
+    <row r="78" spans="1:13" ht="30">
       <c r="A78" s="17" t="s">
         <v>247</v>
       </c>
@@ -23633,7 +23716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="28.8">
+    <row r="79" spans="1:13" ht="30">
       <c r="A79" s="17" t="s">
         <v>253</v>
       </c>
@@ -23674,7 +23757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="28.8">
+    <row r="80" spans="1:13" ht="30">
       <c r="A80" s="17" t="s">
         <v>255</v>
       </c>
@@ -23715,7 +23798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="28.8">
+    <row r="81" spans="1:13" ht="30">
       <c r="A81" s="19" t="s">
         <v>259</v>
       </c>
@@ -23753,7 +23836,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="28.8">
+    <row r="82" spans="1:13" ht="45">
       <c r="A82" s="17" t="s">
         <v>262</v>
       </c>
@@ -23794,7 +23877,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="28.8">
+    <row r="83" spans="1:13" ht="30">
       <c r="A83" s="17" t="s">
         <v>268</v>
       </c>
@@ -23823,7 +23906,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="43.2">
+    <row r="84" spans="1:13" ht="45">
       <c r="A84" s="19" t="s">
         <v>273</v>
       </c>
@@ -23846,7 +23929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="28.8">
+    <row r="85" spans="1:13" ht="30">
       <c r="A85" s="17" t="s">
         <v>278</v>
       </c>
@@ -23875,7 +23958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="28.8">
+    <row r="86" spans="1:13" ht="30">
       <c r="A86" s="19" t="s">
         <v>283</v>
       </c>
@@ -23904,7 +23987,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="28.8">
+    <row r="87" spans="1:13" ht="30">
       <c r="A87" s="19" t="s">
         <v>286</v>
       </c>
@@ -23933,7 +24016,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="28.8">
+    <row r="88" spans="1:13" ht="30">
       <c r="A88" s="17" t="s">
         <v>289</v>
       </c>
@@ -23962,7 +24045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="28.8">
+    <row r="89" spans="1:13" ht="30">
       <c r="A89" s="17" t="s">
         <v>293</v>
       </c>
@@ -23991,7 +24074,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="28.8">
+    <row r="90" spans="1:13" ht="30">
       <c r="A90" s="19" t="s">
         <v>295</v>
       </c>
@@ -24020,7 +24103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="28.8">
+    <row r="91" spans="1:13" ht="30">
       <c r="A91" s="19" t="s">
         <v>297</v>
       </c>
@@ -24049,7 +24132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="28.8">
+    <row r="92" spans="1:13" ht="30">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -24078,7 +24161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="28.8">
+    <row r="93" spans="1:13" ht="30">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -24107,7 +24190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="28.8">
+    <row r="94" spans="1:13" ht="30">
       <c r="A94" s="17" t="s">
         <v>303</v>
       </c>
@@ -24136,7 +24219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="43.2">
+    <row r="95" spans="1:13" ht="45">
       <c r="A95" s="17" t="s">
         <v>305</v>
       </c>
@@ -24162,7 +24245,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="43.2">
+    <row r="96" spans="1:13" ht="45">
       <c r="A96" s="17" t="s">
         <v>308</v>
       </c>
@@ -24188,7 +24271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="43.2">
+    <row r="97" spans="1:10" ht="45">
       <c r="A97" s="17" t="s">
         <v>310</v>
       </c>
@@ -24214,7 +24297,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="43.2">
+    <row r="98" spans="1:10" ht="45">
       <c r="A98" s="17" t="s">
         <v>327</v>
       </c>
@@ -24243,7 +24326,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.95" customHeight="1">
+    <row r="99" spans="1:10" ht="43.9" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>313</v>
       </c>
@@ -24269,7 +24352,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="43.2">
+    <row r="100" spans="1:10" ht="45">
       <c r="A100" s="17" t="s">
         <v>315</v>
       </c>
@@ -24295,7 +24378,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="43.2">
+    <row r="101" spans="1:10" ht="45">
       <c r="A101" s="17" t="s">
         <v>330</v>
       </c>
@@ -24324,7 +24407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="43.2">
+    <row r="102" spans="1:10" ht="60">
       <c r="A102" s="21" t="s">
         <v>318</v>
       </c>
@@ -24350,7 +24433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="28.8">
+    <row r="103" spans="1:10" ht="45">
       <c r="A103" s="17" t="s">
         <v>321</v>
       </c>
@@ -24376,7 +24459,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="28.8">
+    <row r="104" spans="1:10" ht="45">
       <c r="A104" s="17" t="s">
         <v>332</v>
       </c>
@@ -24405,7 +24488,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="43.2">
+    <row r="105" spans="1:10" ht="45">
       <c r="A105" s="17" t="s">
         <v>324</v>
       </c>
@@ -24431,7 +24514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="28.8">
+    <row r="106" spans="1:10" ht="30">
       <c r="A106" s="17" t="s">
         <v>334</v>
       </c>
@@ -24454,7 +24537,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="43.2">
+    <row r="107" spans="1:10" ht="45">
       <c r="A107" s="17" t="s">
         <v>336</v>
       </c>
@@ -24486,7 +24569,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="43.2">
+    <row r="108" spans="1:10" ht="45">
       <c r="A108" s="17" t="s">
         <v>340</v>
       </c>
@@ -24518,7 +24601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="28.8">
+    <row r="109" spans="1:10" ht="30">
       <c r="A109" s="17" t="s">
         <v>344</v>
       </c>
@@ -24544,7 +24627,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="43.2">
+    <row r="110" spans="1:10" ht="45">
       <c r="A110" s="17" t="s">
         <v>350</v>
       </c>
@@ -24573,7 +24656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="28.8">
+    <row r="111" spans="1:10" ht="30">
       <c r="A111" s="17" t="s">
         <v>351</v>
       </c>
@@ -24605,7 +24688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="28.8">
+    <row r="112" spans="1:10" ht="30">
       <c r="A112" s="17" t="s">
         <v>354</v>
       </c>
@@ -24637,7 +24720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="28.8">
+    <row r="113" spans="1:17" ht="30">
       <c r="A113" s="17" t="s">
         <v>359</v>
       </c>
@@ -24663,7 +24746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="28.8">
+    <row r="114" spans="1:17" ht="30">
       <c r="A114" s="17" t="s">
         <v>360</v>
       </c>
@@ -24692,7 +24775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="43.2">
+    <row r="115" spans="1:17" ht="45">
       <c r="A115" s="17" t="s">
         <v>362</v>
       </c>
@@ -24721,7 +24804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="43.2">
+    <row r="116" spans="1:17" ht="60">
       <c r="A116" s="17" t="s">
         <v>364</v>
       </c>
@@ -24747,7 +24830,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="28.8">
+    <row r="117" spans="1:17" ht="30">
       <c r="A117" s="17" t="s">
         <v>367</v>
       </c>
@@ -24773,7 +24856,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="28.8">
+    <row r="118" spans="1:17" ht="30">
       <c r="A118" s="19" t="s">
         <v>370</v>
       </c>
@@ -24799,7 +24882,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="28.8">
+    <row r="119" spans="1:17" ht="30">
       <c r="A119" s="19" t="s">
         <v>375</v>
       </c>
@@ -24825,7 +24908,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="43.2">
+    <row r="120" spans="1:17" ht="60">
       <c r="A120" s="17" t="s">
         <v>382</v>
       </c>
@@ -24863,7 +24946,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="43.2">
+    <row r="121" spans="1:17" ht="45">
       <c r="A121" s="17" t="s">
         <v>384</v>
       </c>
@@ -24901,7 +24984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="28.8">
+    <row r="122" spans="1:17" ht="30">
       <c r="A122" s="19" t="s">
         <v>387</v>
       </c>
@@ -24924,7 +25007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="28.8">
+    <row r="123" spans="1:17" ht="30">
       <c r="A123" s="17" t="s">
         <v>389</v>
       </c>
@@ -24947,7 +25030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="57.6">
+    <row r="124" spans="1:17" ht="60">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -25000,7 +25083,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="28.8">
+    <row r="125" spans="1:17" ht="30">
       <c r="A125" s="17" t="s">
         <v>399</v>
       </c>
@@ -25026,7 +25109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="28.8">
+    <row r="126" spans="1:17" ht="30">
       <c r="A126" s="17" t="s">
         <v>402</v>
       </c>
@@ -25052,7 +25135,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="28.8">
+    <row r="127" spans="1:17" ht="30">
       <c r="A127" s="17" t="s">
         <v>411</v>
       </c>
@@ -25081,7 +25164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="28.8">
+    <row r="128" spans="1:17" ht="30">
       <c r="A128" s="17" t="s">
         <v>414</v>
       </c>
@@ -25110,7 +25193,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="28.8">
+    <row r="129" spans="1:12" ht="30">
       <c r="A129" s="17" t="s">
         <v>417</v>
       </c>
@@ -25139,7 +25222,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="28.8">
+    <row r="130" spans="1:12" ht="30">
       <c r="A130" s="17" t="s">
         <v>419</v>
       </c>
@@ -25168,7 +25251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="28.8">
+    <row r="131" spans="1:12" ht="30">
       <c r="A131" s="17" t="s">
         <v>420</v>
       </c>
@@ -25197,7 +25280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="28.8">
+    <row r="132" spans="1:12" ht="30">
       <c r="A132" s="17" t="s">
         <v>422</v>
       </c>
@@ -25226,7 +25309,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="28.8">
+    <row r="133" spans="1:12" ht="30">
       <c r="A133" s="19" t="s">
         <v>424</v>
       </c>
@@ -25255,7 +25338,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="28.8">
+    <row r="134" spans="1:12" ht="30">
       <c r="A134" s="17" t="s">
         <v>426</v>
       </c>
@@ -25281,7 +25364,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="43.2">
+    <row r="135" spans="1:12" ht="45">
       <c r="A135" s="17" t="s">
         <v>429</v>
       </c>
@@ -25319,7 +25402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="43.2">
+    <row r="136" spans="1:12" ht="45">
       <c r="A136" s="17" t="s">
         <v>433</v>
       </c>
@@ -25357,7 +25440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="43.2">
+    <row r="137" spans="1:12" ht="60">
       <c r="A137" s="17" t="s">
         <v>436</v>
       </c>
@@ -25386,7 +25469,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="57.6">
+    <row r="138" spans="1:12" ht="60">
       <c r="A138" s="17" t="s">
         <v>439</v>
       </c>
@@ -25421,7 +25504,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="43.2">
+    <row r="139" spans="1:12" ht="45">
       <c r="A139" s="21" t="s">
         <v>441</v>
       </c>
@@ -25447,7 +25530,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="28.8">
+    <row r="140" spans="1:12" ht="30">
       <c r="A140" s="19" t="s">
         <v>445</v>
       </c>
@@ -25470,7 +25553,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="28.8">
+    <row r="141" spans="1:12" ht="30">
       <c r="A141" s="17" t="s">
         <v>447</v>
       </c>
@@ -25496,7 +25579,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="28.8">
+    <row r="142" spans="1:12" ht="30">
       <c r="A142" s="17" t="s">
         <v>449</v>
       </c>
@@ -25522,7 +25605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="28.8">
+    <row r="143" spans="1:12" ht="30">
       <c r="A143" s="17" t="s">
         <v>453</v>
       </c>
@@ -25545,7 +25628,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="28.8">
+    <row r="144" spans="1:12" ht="45">
       <c r="A144" s="17" t="s">
         <v>456</v>
       </c>
@@ -25571,7 +25654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="28.8">
+    <row r="145" spans="1:10" ht="30">
       <c r="A145" s="17" t="s">
         <v>458</v>
       </c>
@@ -25597,7 +25680,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="28.8">
+    <row r="146" spans="1:10" ht="45">
       <c r="A146" s="17" t="s">
         <v>461</v>
       </c>
@@ -25623,7 +25706,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="28.8">
+    <row r="147" spans="1:10" ht="30">
       <c r="A147" s="17" t="s">
         <v>464</v>
       </c>
@@ -25649,7 +25732,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="28.8">
+    <row r="148" spans="1:10" ht="30">
       <c r="A148" s="17" t="s">
         <v>468</v>
       </c>
@@ -25678,7 +25761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="28.8">
+    <row r="149" spans="1:10" ht="30">
       <c r="A149" s="17" t="s">
         <v>472</v>
       </c>
@@ -25704,7 +25787,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="28.8">
+    <row r="150" spans="1:10" ht="30">
       <c r="A150" s="19" t="s">
         <v>474</v>
       </c>
@@ -25730,7 +25813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="57.6">
+    <row r="151" spans="1:10" ht="60">
       <c r="A151" s="17" t="s">
         <v>477</v>
       </c>
@@ -25759,7 +25842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="28.8">
+    <row r="152" spans="1:10" ht="30">
       <c r="A152" s="17" t="s">
         <v>485</v>
       </c>
@@ -25785,7 +25868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="28.8">
+    <row r="153" spans="1:10" ht="30">
       <c r="A153" s="17" t="s">
         <v>486</v>
       </c>
@@ -25811,7 +25894,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="43.2">
+    <row r="154" spans="1:10" ht="45">
       <c r="A154" s="17" t="s">
         <v>487</v>
       </c>
@@ -25837,7 +25920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="28.8">
+    <row r="155" spans="1:10" ht="45">
       <c r="A155" s="17" t="s">
         <v>490</v>
       </c>
@@ -25869,7 +25952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="28.8">
+    <row r="156" spans="1:10" ht="30">
       <c r="A156" s="11" t="s">
         <v>492</v>
       </c>
@@ -25895,7 +25978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="28.8">
+    <row r="157" spans="1:10" ht="30">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -25924,7 +26007,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="28.8">
+    <row r="158" spans="1:10" ht="45">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -25950,7 +26033,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="28.8">
+    <row r="159" spans="1:10" ht="30">
       <c r="A159" s="19" t="s">
         <v>499</v>
       </c>
@@ -25976,7 +26059,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="28.8">
+    <row r="160" spans="1:10" ht="30">
       <c r="A160" s="19" t="s">
         <v>501</v>
       </c>
@@ -26008,7 +26091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="28.8">
+    <row r="161" spans="1:14" ht="30">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -26046,7 +26129,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="43.2">
+    <row r="162" spans="1:14" ht="45">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -26084,7 +26167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="43.2">
+    <row r="163" spans="1:14" ht="45">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -26122,7 +26205,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="43.2">
+    <row r="164" spans="1:14" ht="45">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -26195,7 +26278,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="28.8">
+    <row r="166" spans="1:14" ht="30">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -26221,7 +26304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="43.2">
+    <row r="167" spans="1:14" ht="45">
       <c r="A167" s="23" t="s">
         <v>521</v>
       </c>
@@ -26247,7 +26330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="28.8">
+    <row r="168" spans="1:14" ht="30">
       <c r="A168" s="17" t="s">
         <v>524</v>
       </c>
@@ -26279,7 +26362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="43.2">
+    <row r="169" spans="1:14" ht="45">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -26314,7 +26397,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="28.8">
+    <row r="170" spans="1:14" ht="30">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -26343,7 +26426,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="28.8">
+    <row r="171" spans="1:14" ht="45">
       <c r="A171" s="17" t="s">
         <v>538</v>
       </c>
@@ -26375,7 +26458,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="28.8">
+    <row r="172" spans="1:14" ht="30">
       <c r="A172" s="17" t="s">
         <v>541</v>
       </c>
@@ -26407,7 +26490,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="43.2">
+    <row r="173" spans="1:14" ht="45">
       <c r="A173" s="17" t="s">
         <v>544</v>
       </c>
@@ -26433,7 +26516,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="72">
+    <row r="174" spans="1:14" ht="90">
       <c r="A174" s="17" t="s">
         <v>547</v>
       </c>
@@ -26456,7 +26539,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="28.8">
+    <row r="175" spans="1:14" ht="45">
       <c r="A175" s="17" t="s">
         <v>550</v>
       </c>
@@ -26479,7 +26562,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="28.8">
+    <row r="176" spans="1:14" ht="30">
       <c r="A176" s="17" t="s">
         <v>553</v>
       </c>
@@ -26517,7 +26600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="43.2">
+    <row r="177" spans="1:10" ht="60">
       <c r="A177" s="14" t="s">
         <v>591</v>
       </c>
@@ -26574,57 +26657,57 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.88671875" style="31"/>
+    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.85546875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="47" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="65" t="s">
+      <c r="B1" s="69" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="66"/>
-      <c r="D1" s="66"/>
-      <c r="E1" s="66"/>
-      <c r="F1" s="66"/>
-      <c r="G1" s="66"/>
-      <c r="H1" s="66"/>
-      <c r="I1" s="66"/>
-      <c r="J1" s="66"/>
-      <c r="K1" s="66"/>
-      <c r="L1" s="66"/>
-      <c r="M1" s="66"/>
-      <c r="N1" s="66"/>
-      <c r="O1" s="66"/>
-      <c r="P1" s="66"/>
-      <c r="Q1" s="66"/>
-      <c r="R1" s="66"/>
-      <c r="S1" s="67"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
+      <c r="E1" s="70"/>
+      <c r="F1" s="70"/>
+      <c r="G1" s="70"/>
+      <c r="H1" s="70"/>
+      <c r="I1" s="70"/>
+      <c r="J1" s="70"/>
+      <c r="K1" s="70"/>
+      <c r="L1" s="70"/>
+      <c r="M1" s="70"/>
+      <c r="N1" s="70"/>
+      <c r="O1" s="70"/>
+      <c r="P1" s="70"/>
+      <c r="Q1" s="70"/>
+      <c r="R1" s="70"/>
+      <c r="S1" s="71"/>
     </row>
     <row r="2" spans="1:19" ht="36" customHeight="1">
       <c r="A2" s="7" t="s">
@@ -26656,7 +26739,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
+    <row r="3" spans="1:19" ht="34.9" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -26688,7 +26771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="28.8">
+    <row r="4" spans="1:19" ht="30">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -26720,7 +26803,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
+    <row r="5" spans="1:19" ht="37.9" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -26752,7 +26835,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.95" customHeight="1">
+    <row r="6" spans="1:19" ht="31.9" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -26830,7 +26913,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="28.8">
+    <row r="9" spans="1:19" ht="30">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -26862,7 +26945,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="28.8">
+    <row r="10" spans="1:19" ht="30">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -26888,7 +26971,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="28.8">
+    <row r="11" spans="1:19" ht="30">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -26940,7 +27023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="28.8">
+    <row r="13" spans="1:19" ht="30">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -26986,7 +27069,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="28.8">
+    <row r="15" spans="1:19" ht="30">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -27015,7 +27098,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="28.8">
+    <row r="16" spans="1:19" ht="30">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -27073,7 +27156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="28.8">
+    <row r="18" spans="1:12" ht="30">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -27099,7 +27182,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="28.8">
+    <row r="19" spans="1:12" ht="30">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -27131,7 +27214,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="28.8">
+    <row r="20" spans="1:12" ht="30">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -27193,7 +27276,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="28.8">
+    <row r="22" spans="1:12" ht="45">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -27213,7 +27296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="43.2">
+    <row r="23" spans="1:12" ht="45">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -27242,7 +27325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="28.8">
+    <row r="24" spans="1:12" ht="30">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -27268,7 +27351,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="28.8">
+    <row r="25" spans="1:12" ht="30">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -27294,7 +27377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="28.8">
+    <row r="26" spans="1:12" ht="30">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -27326,7 +27409,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="28.8">
+    <row r="27" spans="1:12" ht="30">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -27358,7 +27441,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="28.8">
+    <row r="28" spans="1:12" ht="30">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -27396,7 +27479,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="28.8">
+    <row r="29" spans="1:12" ht="30">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -27429,7 +27512,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="28.8">
+    <row r="30" spans="1:12" ht="30">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -27519,7 +27602,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="28.8">
+    <row r="33" spans="1:15" ht="30">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -27539,7 +27622,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="28.8">
+    <row r="34" spans="1:15" ht="30">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -27571,7 +27654,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="28.8">
+    <row r="35" spans="1:15" ht="30">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -27603,7 +27686,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="28.8">
+    <row r="36" spans="1:15" ht="30">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -27635,7 +27718,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="28.8">
+    <row r="37" spans="1:15" ht="30">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -27667,7 +27750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="28.8">
+    <row r="38" spans="1:15" ht="30">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -27699,7 +27782,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="28.8">
+    <row r="39" spans="1:15" ht="30">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -27734,7 +27817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="28.8">
+    <row r="40" spans="1:15" ht="30">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -27766,7 +27849,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="28.8">
+    <row r="41" spans="1:15" ht="30">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -27801,7 +27884,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="28.8">
+    <row r="42" spans="1:15" ht="30">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -27833,7 +27916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="28.8">
+    <row r="43" spans="1:15" ht="30">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -27865,7 +27948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="28.8">
+    <row r="44" spans="1:15" ht="30">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -27891,7 +27974,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="28.8">
+    <row r="45" spans="1:15" ht="30">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -27926,7 +28009,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="28.8">
+    <row r="46" spans="1:15" ht="30">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -27958,7 +28041,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="28.8">
+    <row r="47" spans="1:15" ht="30">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -27990,7 +28073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="28.8">
+    <row r="48" spans="1:15" ht="30">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -28037,7 +28120,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="28.8">
+    <row r="49" spans="1:20" ht="30">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -28072,7 +28155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="28.8">
+    <row r="50" spans="1:20" ht="30">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -28128,7 +28211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="28.8">
+    <row r="51" spans="1:20" ht="30">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -28190,7 +28273,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="28.8">
+    <row r="52" spans="1:20" ht="30">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -28252,7 +28335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="28.8">
+    <row r="53" spans="1:20" ht="30">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -28299,7 +28382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="28.8">
+    <row r="54" spans="1:20" ht="30">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -28331,7 +28414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="28.8">
+    <row r="55" spans="1:20" ht="30">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -28378,7 +28461,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="43.2">
+    <row r="56" spans="1:20" ht="45">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -28425,7 +28508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="28.8">
+    <row r="57" spans="1:20" ht="30">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -28489,7 +28572,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="28.8">
+    <row r="59" spans="1:20" ht="30">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -28521,7 +28604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="28.8">
+    <row r="60" spans="1:20" ht="30">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -28553,7 +28636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="28.8">
+    <row r="61" spans="1:20" ht="30">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -28585,7 +28668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="28.8">
+    <row r="62" spans="1:20" ht="30">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -28629,7 +28712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="28.8">
+    <row r="63" spans="1:20" ht="30">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -28662,7 +28745,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:20" ht="28.8">
+    <row r="64" spans="1:20" ht="30">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -28726,7 +28809,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="28.8">
+    <row r="66" spans="1:14" ht="30">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -28746,7 +28829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="28.8">
+    <row r="67" spans="1:14" ht="30">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -28778,7 +28861,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="28.8">
+    <row r="68" spans="1:14" ht="30">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -28810,7 +28893,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="28.8">
+    <row r="69" spans="1:14" ht="30">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -28851,7 +28934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="43.2">
+    <row r="70" spans="1:14" ht="45">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -28895,7 +28978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="28.8">
+    <row r="71" spans="1:14" ht="30">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -28927,7 +29010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="28.8">
+    <row r="72" spans="1:14" ht="30">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -28997,7 +29080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="28.8">
+    <row r="74" spans="1:14" ht="30">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -29032,7 +29115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="28.8">
+    <row r="75" spans="1:14" ht="30">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -29064,7 +29147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="28.8">
+    <row r="76" spans="1:14" ht="30">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -29128,7 +29211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="28.8">
+    <row r="78" spans="1:14" ht="45">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -29172,7 +29255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="28.8">
+    <row r="79" spans="1:14" ht="30">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -29207,7 +29290,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="28.8">
+    <row r="80" spans="1:14" ht="30">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -29248,7 +29331,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="28.8">
+    <row r="81" spans="1:16" ht="30">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -29289,7 +29372,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="43.2">
+    <row r="82" spans="1:16" ht="45">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -29324,7 +29407,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="28.8">
+    <row r="83" spans="1:16" ht="30">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -29365,7 +29448,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="28.8">
+    <row r="84" spans="1:16" ht="30">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -29406,7 +29489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="43.2">
+    <row r="85" spans="1:16" ht="45">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -29442,7 +29525,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="28.8">
+    <row r="86" spans="1:16" ht="30">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -29477,7 +29560,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="28.8">
+    <row r="87" spans="1:16" ht="30">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -29512,7 +29595,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="28.8">
+    <row r="88" spans="1:16" ht="30">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -29547,7 +29630,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="28.8">
+    <row r="89" spans="1:16" ht="30">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -29576,7 +29659,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="28.8">
+    <row r="90" spans="1:16" ht="30">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -29605,7 +29688,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="28.8">
+    <row r="91" spans="1:16" ht="45">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -29684,7 +29767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="43.2">
+    <row r="93" spans="1:16" ht="45">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -29734,7 +29817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="28.8">
+    <row r="94" spans="1:16" ht="45">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -29784,7 +29867,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="28.8">
+    <row r="95" spans="1:16" ht="30">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -29831,7 +29914,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="28.8">
+    <row r="96" spans="1:16" ht="30">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -29866,7 +29949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="28.8">
+    <row r="97" spans="1:13" ht="30">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -29901,7 +29984,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="28.8">
+    <row r="98" spans="1:13" ht="30">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -29936,7 +30019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="28.8">
+    <row r="99" spans="1:13" ht="30">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -30012,7 +30095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="28.8">
+    <row r="101" spans="1:13" ht="30">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -30032,7 +30115,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="28.8">
+    <row r="102" spans="1:13" ht="30">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -30064,7 +30147,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="28.8">
+    <row r="103" spans="1:13" ht="30">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -30102,7 +30185,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="28.8">
+    <row r="104" spans="1:13" ht="45">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -30143,7 +30226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="28.8">
+    <row r="105" spans="1:13" ht="30">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -30213,7 +30296,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="28.8">
+    <row r="107" spans="1:13" ht="30">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -30242,7 +30325,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="28.8">
+    <row r="108" spans="1:13" ht="30">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -30332,7 +30415,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="28.8">
+    <row r="111" spans="1:13" ht="30">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -30367,7 +30450,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="28.8">
+    <row r="112" spans="1:13" ht="30">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -30399,7 +30482,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="28.8">
+    <row r="113" spans="1:22" ht="30">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -30431,7 +30514,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="43.2">
+    <row r="114" spans="1:22" ht="45">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -30463,7 +30546,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.2" customHeight="1">
+    <row r="115" spans="1:22" ht="43.15" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -30531,7 +30614,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="28.8">
+    <row r="116" spans="1:22" ht="30">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -30566,7 +30649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="28.8">
+    <row r="117" spans="1:22" ht="30">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -30607,7 +30690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="28.8">
+    <row r="118" spans="1:22" ht="30">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -30639,7 +30722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="28.8">
+    <row r="119" spans="1:22" ht="30">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -30680,7 +30763,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="28.8">
+    <row r="120" spans="1:22" ht="30">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -30715,7 +30798,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="43.2">
+    <row r="121" spans="1:22" ht="60">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -30788,7 +30871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="28.8">
+    <row r="123" spans="1:22" ht="30">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -30832,7 +30915,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="28.8">
+    <row r="124" spans="1:22" ht="30">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -30902,7 +30985,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="28.8">
+    <row r="126" spans="1:22" ht="30">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -31010,7 +31093,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="28.8">
+    <row r="129" spans="1:13" ht="30">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -31071,7 +31154,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="28.8">
+    <row r="131" spans="1:13" ht="30">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -31123,7 +31206,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="28.8">
+    <row r="133" spans="1:13" ht="30">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -31155,7 +31238,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="28.8">
+    <row r="134" spans="1:13" ht="30">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -31187,7 +31270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="28.8">
+    <row r="135" spans="1:13" ht="30">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -31260,7 +31343,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="28.8">
+    <row r="137" spans="1:13" ht="30">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -31283,7 +31366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="28.8">
+    <row r="138" spans="1:13" ht="30">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -31309,7 +31392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="28.8">
+    <row r="139" spans="1:13" ht="45">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -31350,7 +31433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="28.8">
+    <row r="140" spans="1:13" ht="30">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -31379,7 +31462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="28.8">
+    <row r="141" spans="1:13" ht="30">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -31408,7 +31491,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="28.8">
+    <row r="142" spans="1:13" ht="30">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -31440,7 +31523,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="28.8">
+    <row r="143" spans="1:13" ht="30">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -31501,7 +31584,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="28.8">
+    <row r="145" spans="1:14" ht="30">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -31530,7 +31613,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="28.8">
+    <row r="146" spans="1:14" ht="30">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -31565,7 +31648,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="28.8">
+    <row r="147" spans="1:14" ht="30">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -31600,7 +31683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="28.8">
+    <row r="148" spans="1:14" ht="30">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -31644,7 +31727,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="28.8">
+    <row r="149" spans="1:14" ht="45">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -31696,7 +31779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14">
+    <row r="151" spans="1:14" ht="30">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -31719,7 +31802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="28.8">
+    <row r="152" spans="1:14" ht="30">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -31751,7 +31834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="28.8">
+    <row r="153" spans="1:14" ht="30">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -31771,7 +31854,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="28.8">
+    <row r="154" spans="1:14" ht="30">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -31800,7 +31883,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="28.8">
+    <row r="155" spans="1:14" ht="30">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -31829,7 +31912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="28.8">
+    <row r="156" spans="1:14" ht="30">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -31861,7 +31944,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="28.8">
+    <row r="157" spans="1:14" ht="30">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -31893,7 +31976,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="28.8">
+    <row r="158" spans="1:14" ht="30">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -31960,7 +32043,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="28.8">
+    <row r="160" spans="1:14" ht="30">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -31995,7 +32078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="28.8">
+    <row r="161" spans="1:19" ht="30">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -32027,7 +32110,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="28.8">
+    <row r="162" spans="1:19" ht="30">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -32065,7 +32148,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="28.8">
+    <row r="163" spans="1:19" ht="30">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -32097,7 +32180,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="28.8">
+    <row r="164" spans="1:19" ht="30">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -32129,7 +32212,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19">
+    <row r="165" spans="1:19" ht="30">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -32170,7 +32253,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="28.8">
+    <row r="166" spans="1:19" ht="30">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\STELCO\Desktop\Nesh_Automation\automationtests\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12870" windowHeight="5205"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -14,7 +19,6 @@
     <sheet name="NewTestCases (backupfile)" sheetId="9" r:id="rId5"/>
   </sheets>
   <calcPr calcId="145621"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -4140,7 +4144,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -4150,35 +4154,35 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D199" workbookViewId="0">
-      <selection activeCell="G206" sqref="G206"/>
+    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
+      <selection activeCell="G14" sqref="G14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="31"/>
+    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -4236,7 +4240,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.9" customHeight="1">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -4268,7 +4272,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="28.8">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -4300,7 +4304,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.9" customHeight="1">
+    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -4332,7 +4336,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.9" customHeight="1">
+    <row r="6" spans="1:19" ht="31.95" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -4364,7 +4368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="34.15" customHeight="1">
+    <row r="7" spans="1:19" ht="34.200000000000003" customHeight="1">
       <c r="A7" s="23" t="s">
         <v>574</v>
       </c>
@@ -4410,7 +4414,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -4442,7 +4446,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -4468,7 +4472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -4520,7 +4524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30">
+    <row r="13" spans="1:19" ht="28.8">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -4566,7 +4570,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -4595,7 +4599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -4653,7 +4657,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -4679,7 +4683,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -4711,7 +4715,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -4741,7 +4745,7 @@
       </c>
       <c r="J20" s="7"/>
     </row>
-    <row r="21" spans="1:12" ht="28.9" customHeight="1">
+    <row r="21" spans="1:12" ht="28.95" customHeight="1">
       <c r="A21" s="14" t="s">
         <v>602</v>
       </c>
@@ -4773,7 +4777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="28.8">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -4793,7 +4797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="43.2">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -4822,7 +4826,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="28.8">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -4848,7 +4852,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30">
+    <row r="25" spans="1:12" ht="28.8">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -4874,7 +4878,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -4906,7 +4910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -4938,7 +4942,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -4976,7 +4980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -5009,7 +5013,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -5099,7 +5103,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="28.8">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -5119,7 +5123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30">
+    <row r="34" spans="1:15" ht="28.8">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -5151,7 +5155,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="28.8">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -5183,7 +5187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30">
+    <row r="36" spans="1:15" ht="28.8">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -5215,7 +5219,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30">
+    <row r="37" spans="1:15" ht="28.8">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -5247,7 +5251,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="28.8">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -5279,7 +5283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="28.8">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -5314,7 +5318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="28.8">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -5346,7 +5350,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="30">
+    <row r="41" spans="1:15" ht="28.8">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -5381,7 +5385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30">
+    <row r="42" spans="1:15" ht="28.8">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -5413,7 +5417,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="28.8">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -5445,7 +5449,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row r="44" spans="1:15" ht="28.8">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -5471,7 +5475,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30">
+    <row r="45" spans="1:15" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -5506,7 +5510,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30">
+    <row r="46" spans="1:15" ht="28.8">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -5538,7 +5542,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30">
+    <row r="47" spans="1:15" ht="28.8">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -5570,7 +5574,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="28.8">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -5617,7 +5621,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:21" ht="30">
+    <row r="49" spans="1:21" ht="28.8">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -5652,7 +5656,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:21" ht="30">
+    <row r="50" spans="1:21" ht="28.8">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -5708,7 +5712,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:21" ht="30">
+    <row r="51" spans="1:21" ht="28.8">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -5773,7 +5777,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:21" ht="30">
+    <row r="52" spans="1:21" ht="28.8">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -5838,7 +5842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:21" ht="30">
+    <row r="53" spans="1:21" ht="28.8">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -5885,7 +5889,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:21" ht="30">
+    <row r="54" spans="1:21" ht="28.8">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -5917,7 +5921,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:21" ht="30">
+    <row r="55" spans="1:21" ht="28.8">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -5953,7 +5957,7 @@
       </c>
       <c r="N55" s="7"/>
     </row>
-    <row r="56" spans="1:21" ht="45">
+    <row r="56" spans="1:21" ht="43.2">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -6000,7 +6004,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:21" ht="30">
+    <row r="57" spans="1:21" ht="28.8">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -6064,7 +6068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:21" ht="30">
+    <row r="59" spans="1:21" ht="28.8">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -6096,7 +6100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:21" ht="30">
+    <row r="60" spans="1:21" ht="28.8">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -6128,7 +6132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:21" ht="30">
+    <row r="61" spans="1:21" ht="28.8">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -6160,7 +6164,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:21" ht="30">
+    <row r="62" spans="1:21" ht="28.8">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -6207,7 +6211,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:21" ht="30">
+    <row r="63" spans="1:21" ht="28.8">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -6240,7 +6244,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:21" ht="30">
+    <row r="64" spans="1:21" ht="28.8">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -6304,7 +6308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:15" ht="30">
+    <row r="66" spans="1:15" ht="28.8">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -6324,7 +6328,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:15" ht="30">
+    <row r="67" spans="1:15" ht="28.8">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -6356,7 +6360,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:15" ht="30">
+    <row r="68" spans="1:15" ht="28.8">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -6388,7 +6392,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:15" ht="30">
+    <row r="69" spans="1:15" ht="28.8">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -6429,7 +6433,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:15" ht="45">
+    <row r="70" spans="1:15" ht="43.2">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -6476,7 +6480,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:15" ht="30">
+    <row r="71" spans="1:15" ht="28.8">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -6508,7 +6512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:15" ht="30">
+    <row r="72" spans="1:15" ht="28.8">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -6578,7 +6582,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:15" ht="30">
+    <row r="74" spans="1:15" ht="28.8">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -6613,7 +6617,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:15" ht="30">
+    <row r="75" spans="1:15" ht="28.8">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -6645,7 +6649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:15" ht="30">
+    <row r="76" spans="1:15" ht="28.8">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -6709,7 +6713,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:15" ht="45">
+    <row r="78" spans="1:15" ht="28.8">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -6753,7 +6757,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:15" ht="30">
+    <row r="79" spans="1:15" ht="28.8">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -6788,7 +6792,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:15" ht="30">
+    <row r="80" spans="1:15" ht="28.8">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -6829,7 +6833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="28.8">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -6870,7 +6874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45">
+    <row r="82" spans="1:16" ht="43.2">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -6905,7 +6909,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30">
+    <row r="83" spans="1:16" ht="28.8">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -6946,7 +6950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30">
+    <row r="84" spans="1:16" ht="28.8">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -6987,7 +6991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="45">
+    <row r="85" spans="1:16" ht="43.2">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -7023,7 +7027,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="30">
+    <row r="86" spans="1:16" ht="28.8">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -7058,7 +7062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30">
+    <row r="87" spans="1:16" ht="28.8">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -7093,7 +7097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30">
+    <row r="88" spans="1:16" ht="28.8">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -7128,7 +7132,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30">
+    <row r="89" spans="1:16" ht="28.8">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -7157,7 +7161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30">
+    <row r="90" spans="1:16" ht="28.8">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -7186,7 +7190,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="45">
+    <row r="91" spans="1:16" ht="28.8">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -7265,7 +7269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="45">
+    <row r="93" spans="1:16" ht="43.2">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -7315,7 +7319,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="45">
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -7365,7 +7369,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="45">
+    <row r="95" spans="1:16" ht="28.8">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -7415,7 +7419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30">
+    <row r="96" spans="1:16" ht="28.8">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -7450,7 +7454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30">
+    <row r="97" spans="1:13" ht="28.8">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -7485,7 +7489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30">
+    <row r="98" spans="1:13" ht="28.8">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -7520,7 +7524,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30">
+    <row r="99" spans="1:13" ht="28.8">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -7596,7 +7600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30">
+    <row r="101" spans="1:13" ht="28.8">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -7616,7 +7620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30">
+    <row r="102" spans="1:13" ht="28.8">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -7648,7 +7652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30">
+    <row r="103" spans="1:13" ht="28.8">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -7686,7 +7690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="45">
+    <row r="104" spans="1:13" ht="28.8">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -7727,7 +7731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30">
+    <row r="105" spans="1:13" ht="28.8">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -7800,7 +7804,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30">
+    <row r="107" spans="1:13" ht="28.8">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -7829,7 +7833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30">
+    <row r="108" spans="1:13" ht="28.8">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -7919,7 +7923,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30">
+    <row r="111" spans="1:13" ht="28.8">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -7954,7 +7958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30">
+    <row r="112" spans="1:13" ht="28.8">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -7986,7 +7990,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="30">
+    <row r="113" spans="1:22" ht="28.8">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -8018,7 +8022,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="45">
+    <row r="114" spans="1:22" ht="43.2">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -8050,7 +8054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.15" customHeight="1">
+    <row r="115" spans="1:22" ht="43.2" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -8118,7 +8122,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="30">
+    <row r="116" spans="1:22" ht="28.8">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -8153,7 +8157,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="30">
+    <row r="117" spans="1:22" ht="28.8">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -8194,7 +8198,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="30">
+    <row r="118" spans="1:22" ht="28.8">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -8226,7 +8230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="30">
+    <row r="119" spans="1:22" ht="28.8">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -8267,7 +8271,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="30">
+    <row r="120" spans="1:22" ht="28.8">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -8302,7 +8306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="60">
+    <row r="121" spans="1:22" ht="43.2">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -8375,7 +8379,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="30">
+    <row r="123" spans="1:22" ht="28.8">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -8419,7 +8423,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="30">
+    <row r="124" spans="1:22" ht="28.8">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -8489,7 +8493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="30">
+    <row r="126" spans="1:22" ht="28.8">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -8597,7 +8601,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30">
+    <row r="129" spans="1:13" ht="28.8">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -8658,7 +8662,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30">
+    <row r="131" spans="1:13" ht="28.8">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -8710,7 +8714,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30">
+    <row r="133" spans="1:13" ht="28.8">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -8742,7 +8746,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30">
+    <row r="134" spans="1:13" ht="28.8">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -8774,7 +8778,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30">
+    <row r="135" spans="1:13" ht="28.8">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -8847,7 +8851,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30">
+    <row r="137" spans="1:13" ht="28.8">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -8870,7 +8874,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30">
+    <row r="138" spans="1:13" ht="28.8">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -8896,7 +8900,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="45">
+    <row r="139" spans="1:13" ht="28.8">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -8937,7 +8941,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30">
+    <row r="140" spans="1:13" ht="28.8">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -8966,7 +8970,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30">
+    <row r="141" spans="1:13" ht="28.8">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -8995,7 +8999,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30">
+    <row r="142" spans="1:13" ht="28.8">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -9027,7 +9031,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="28.8">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -9088,7 +9092,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30">
+    <row r="145" spans="1:14" ht="28.8">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -9117,7 +9121,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="30">
+    <row r="146" spans="1:14" ht="28.8">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -9152,7 +9156,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="30">
+    <row r="147" spans="1:14" ht="28.8">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -9187,7 +9191,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30">
+    <row r="148" spans="1:14" ht="28.8">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -9231,7 +9235,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="45">
+    <row r="149" spans="1:14" ht="28.8">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -9283,7 +9287,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30">
+    <row r="151" spans="1:14">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -9306,7 +9310,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="30">
+    <row r="152" spans="1:14" ht="28.8">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -9338,7 +9342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="30">
+    <row r="153" spans="1:14" ht="28.8">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -9358,7 +9362,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="30">
+    <row r="154" spans="1:14" ht="28.8">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -9387,7 +9391,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="30">
+    <row r="155" spans="1:14" ht="28.8">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -9416,7 +9420,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="30">
+    <row r="156" spans="1:14" ht="28.8">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -9448,7 +9452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="30">
+    <row r="157" spans="1:14" ht="28.8">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -9480,7 +9484,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30">
+    <row r="158" spans="1:14" ht="28.8">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -9547,7 +9551,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="30">
+    <row r="160" spans="1:14" ht="28.8">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -9582,7 +9586,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="30">
+    <row r="161" spans="1:19" ht="28.8">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -9614,7 +9618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="30">
+    <row r="162" spans="1:19" ht="28.8">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -9649,7 +9653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="30">
+    <row r="163" spans="1:19" ht="28.8">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -9681,7 +9685,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="30">
+    <row r="164" spans="1:19" ht="28.8">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -9713,7 +9717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="30">
+    <row r="165" spans="1:19">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -9754,7 +9758,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30">
+    <row r="166" spans="1:19" ht="28.8">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>
@@ -9921,7 +9925,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:19" ht="30">
+    <row r="170" spans="1:19" ht="28.8">
       <c r="A170" s="7" t="s">
         <v>1005</v>
       </c>
@@ -9953,7 +9957,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:19" ht="45">
+    <row r="171" spans="1:19" ht="28.8">
       <c r="A171" s="7" t="s">
         <v>1007</v>
       </c>
@@ -10032,7 +10036,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:19" ht="30">
+    <row r="173" spans="1:19" ht="28.8">
       <c r="A173" s="7" t="s">
         <v>1016</v>
       </c>
@@ -10064,7 +10068,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:19" ht="30">
+    <row r="174" spans="1:19" ht="28.8">
       <c r="A174" s="7" t="s">
         <v>1019</v>
       </c>
@@ -10096,7 +10100,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:19" ht="30">
+    <row r="175" spans="1:19" ht="28.8">
       <c r="A175" s="7" t="s">
         <v>1022</v>
       </c>
@@ -10169,7 +10173,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:11" ht="30">
+    <row r="177" spans="1:11" ht="28.8">
       <c r="A177" s="7" t="s">
         <v>1020</v>
       </c>
@@ -10233,7 +10237,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="179" spans="1:11" ht="30">
+    <row r="179" spans="1:11" ht="28.8">
       <c r="A179" s="7" t="s">
         <v>1028</v>
       </c>
@@ -10262,7 +10266,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="180" spans="1:11" ht="30">
+    <row r="180" spans="1:11" ht="28.8">
       <c r="A180" s="7" t="s">
         <v>1030</v>
       </c>
@@ -10282,7 +10286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="181" spans="1:11" ht="30">
+    <row r="181" spans="1:11" ht="28.8">
       <c r="A181" s="7" t="s">
         <v>1032</v>
       </c>
@@ -10314,7 +10318,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="182" spans="1:11" ht="30">
+    <row r="182" spans="1:11" ht="28.8">
       <c r="A182" s="7" t="s">
         <v>1035</v>
       </c>
@@ -10372,7 +10376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="184" spans="1:11" ht="45">
+    <row r="184" spans="1:11" ht="43.2">
       <c r="A184" s="7" t="s">
         <v>1046</v>
       </c>
@@ -10398,7 +10402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="185" spans="1:11" ht="30">
+    <row r="185" spans="1:11" ht="28.8">
       <c r="A185" s="7" t="s">
         <v>1041</v>
       </c>
@@ -10468,7 +10472,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="187" spans="1:11" ht="30">
+    <row r="187" spans="1:11" ht="28.8">
       <c r="A187" s="7" t="s">
         <v>1050</v>
       </c>
@@ -10494,7 +10498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="188" spans="1:11" ht="30">
+    <row r="188" spans="1:11" ht="28.8">
       <c r="A188" s="7" t="s">
         <v>1052</v>
       </c>
@@ -10523,7 +10527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="189" spans="1:11" ht="30">
+    <row r="189" spans="1:11" ht="28.8">
       <c r="A189" s="7" t="s">
         <v>1055</v>
       </c>
@@ -10552,7 +10556,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="190" spans="1:11" ht="30">
+    <row r="190" spans="1:11" ht="28.8">
       <c r="A190" s="7" t="s">
         <v>1057</v>
       </c>
@@ -10616,7 +10620,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="192" spans="1:11" ht="45">
+    <row r="192" spans="1:11" ht="28.8">
       <c r="A192" s="7" t="s">
         <v>1061</v>
       </c>
@@ -10645,7 +10649,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="193" spans="1:15" ht="30">
+    <row r="193" spans="1:15" ht="28.8">
       <c r="A193" s="7" t="s">
         <v>1063</v>
       </c>
@@ -10686,7 +10690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="194" spans="1:15" ht="30">
+    <row r="194" spans="1:15" ht="28.8">
       <c r="A194" s="7" t="s">
         <v>1067</v>
       </c>
@@ -10712,7 +10716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="195" spans="1:15" ht="45">
+    <row r="195" spans="1:15" ht="43.2">
       <c r="A195" s="7" t="s">
         <v>1069</v>
       </c>
@@ -10738,7 +10742,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="196" spans="1:15" ht="45">
+    <row r="196" spans="1:15" ht="43.2">
       <c r="A196" s="7" t="s">
         <v>1075</v>
       </c>
@@ -10776,7 +10780,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="197" spans="1:15" ht="45">
+    <row r="197" spans="1:15" ht="28.8">
       <c r="A197" s="7" t="s">
         <v>1071</v>
       </c>
@@ -10793,7 +10797,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="198" spans="1:15" ht="30">
+    <row r="198" spans="1:15" ht="28.8">
       <c r="A198" s="7" t="s">
         <v>1073</v>
       </c>
@@ -10828,7 +10832,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="199" spans="1:15" ht="30">
+    <row r="199" spans="1:15" ht="28.8">
       <c r="A199" s="31" t="s">
         <v>1080</v>
       </c>
@@ -10898,7 +10902,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="201" spans="1:15" ht="30">
+    <row r="201" spans="1:15" ht="28.8">
       <c r="A201" s="7" t="s">
         <v>1085</v>
       </c>
@@ -10930,7 +10934,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="202" spans="1:15" ht="30">
+    <row r="202" spans="1:15" ht="28.8">
       <c r="A202" s="7" t="s">
         <v>1087</v>
       </c>
@@ -10956,7 +10960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="203" spans="1:15" ht="25.5">
+    <row r="203" spans="1:15" ht="26.4">
       <c r="A203" s="64" t="s">
         <v>1089</v>
       </c>
@@ -10991,7 +10995,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="204" spans="1:15" ht="30">
+    <row r="204" spans="1:15" ht="28.8">
       <c r="A204" s="7" t="s">
         <v>1091</v>
       </c>
@@ -11058,7 +11062,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="206" spans="1:15" ht="30">
+    <row r="206" spans="1:15" ht="28.8">
       <c r="A206" s="7" t="s">
         <v>1095</v>
       </c>
@@ -11087,7 +11091,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="207" spans="1:15" ht="30">
+    <row r="207" spans="1:15" ht="28.8">
       <c r="A207" s="7" t="s">
         <v>1097</v>
       </c>
@@ -11119,7 +11123,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="208" spans="1:15" ht="30">
+    <row r="208" spans="1:15" ht="28.8">
       <c r="A208" s="7" t="s">
         <v>1100</v>
       </c>
@@ -11157,7 +11161,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="209" spans="1:11" ht="30">
+    <row r="209" spans="1:11" ht="28.8">
       <c r="A209" s="7" t="s">
         <v>1104</v>
       </c>
@@ -11180,7 +11184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="210" spans="1:11" ht="30">
+    <row r="210" spans="1:11" ht="28.8">
       <c r="A210" s="66" t="s">
         <v>1105</v>
       </c>
@@ -11233,30 +11237,30 @@
       <selection pane="bottomLeft" activeCell="J392" sqref="J392"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="36.28515625" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="7.85546875" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="25.7109375" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="18.28515625" style="2" customWidth="1"/>
-    <col min="6" max="6" width="26.28515625" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="15.5703125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="36.33203125" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="7.88671875" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="25.6640625" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="18.33203125" style="2" customWidth="1"/>
+    <col min="6" max="6" width="26.33203125" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="15.5546875" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="8" max="8" width="26" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="24.28515625" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="31.42578125" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="18.85546875" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="28.85546875" customWidth="1"/>
-    <col min="13" max="13" width="46.7109375" customWidth="1"/>
-    <col min="14" max="14" width="18.7109375" customWidth="1"/>
+    <col min="9" max="9" width="24.33203125" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="31.44140625" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="18.88671875" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="28.88671875" customWidth="1"/>
+    <col min="13" max="13" width="46.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6640625" customWidth="1"/>
     <col min="15" max="15" width="35" customWidth="1"/>
     <col min="16" max="16" width="26" customWidth="1"/>
-    <col min="17" max="17" width="37.28515625" customWidth="1"/>
-    <col min="19" max="19" width="19.140625" customWidth="1" collapsed="1"/>
-    <col min="20" max="20" width="16.42578125" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="37.33203125" customWidth="1"/>
+    <col min="19" max="19" width="19.109375" customWidth="1" collapsed="1"/>
+    <col min="20" max="20" width="16.44140625" customWidth="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="1" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:29" s="1" customFormat="1" ht="15" thickBot="1">
       <c r="A1" s="33" t="s">
         <v>2</v>
       </c>
@@ -11349,7 +11353,7 @@
       <c r="O2" s="18"/>
       <c r="P2" s="18"/>
     </row>
-    <row r="3" spans="1:29" ht="30">
+    <row r="3" spans="1:29" ht="28.8">
       <c r="A3" s="14" t="s">
         <v>27</v>
       </c>
@@ -11401,7 +11405,7 @@
       <c r="O4" s="18"/>
       <c r="P4" s="18"/>
     </row>
-    <row r="5" spans="1:29" ht="30">
+    <row r="5" spans="1:29" ht="28.8">
       <c r="A5" s="14" t="s">
         <v>31</v>
       </c>
@@ -11453,7 +11457,7 @@
       <c r="O6" s="18"/>
       <c r="P6" s="18"/>
     </row>
-    <row r="7" spans="1:29" ht="30">
+    <row r="7" spans="1:29" ht="28.8">
       <c r="A7" s="14" t="s">
         <v>38</v>
       </c>
@@ -11479,7 +11483,7 @@
       <c r="O7" s="18"/>
       <c r="P7" s="18"/>
     </row>
-    <row r="8" spans="1:29" ht="30">
+    <row r="8" spans="1:29" ht="28.8">
       <c r="A8" s="14" t="s">
         <v>40</v>
       </c>
@@ -11505,7 +11509,7 @@
       <c r="O8" s="18"/>
       <c r="P8" s="18"/>
     </row>
-    <row r="9" spans="1:29" ht="30">
+    <row r="9" spans="1:29" ht="28.8">
       <c r="A9" s="14" t="s">
         <v>43</v>
       </c>
@@ -11531,7 +11535,7 @@
       <c r="O9" s="18"/>
       <c r="P9" s="18"/>
     </row>
-    <row r="10" spans="1:29" ht="30">
+    <row r="10" spans="1:29">
       <c r="A10" s="14" t="s">
         <v>45</v>
       </c>
@@ -11557,7 +11561,7 @@
       <c r="O10" s="18"/>
       <c r="P10" s="18"/>
     </row>
-    <row r="11" spans="1:29" ht="30">
+    <row r="11" spans="1:29" ht="28.8">
       <c r="A11" s="14" t="s">
         <v>49</v>
       </c>
@@ -11653,7 +11657,7 @@
       <c r="O14" s="18"/>
       <c r="P14" s="18"/>
     </row>
-    <row r="15" spans="1:29" ht="30">
+    <row r="15" spans="1:29" ht="28.8">
       <c r="A15" s="14" t="s">
         <v>54</v>
       </c>
@@ -11679,7 +11683,7 @@
       <c r="O15" s="18"/>
       <c r="P15" s="18"/>
     </row>
-    <row r="16" spans="1:29" ht="30">
+    <row r="16" spans="1:29" ht="28.8">
       <c r="A16" s="14" t="s">
         <v>90</v>
       </c>
@@ -11701,7 +11705,7 @@
       <c r="O16" s="18"/>
       <c r="P16" s="18"/>
     </row>
-    <row r="17" spans="1:16" ht="30">
+    <row r="17" spans="1:16" ht="28.8">
       <c r="A17" s="12" t="s">
         <v>63</v>
       </c>
@@ -11723,7 +11727,7 @@
       <c r="O17" s="18"/>
       <c r="P17" s="18"/>
     </row>
-    <row r="18" spans="1:16" ht="30">
+    <row r="18" spans="1:16" ht="28.8">
       <c r="A18" s="14" t="s">
         <v>71</v>
       </c>
@@ -11755,7 +11759,7 @@
       <c r="O18" s="18"/>
       <c r="P18" s="18"/>
     </row>
-    <row r="19" spans="1:16" ht="30">
+    <row r="19" spans="1:16" ht="28.8">
       <c r="A19" s="14" t="s">
         <v>78</v>
       </c>
@@ -11777,7 +11781,7 @@
       <c r="O19" s="18"/>
       <c r="P19" s="18"/>
     </row>
-    <row r="20" spans="1:16" ht="30">
+    <row r="20" spans="1:16" ht="28.8">
       <c r="A20" s="14" t="s">
         <v>83</v>
       </c>
@@ -11801,7 +11805,7 @@
       <c r="O20" s="18"/>
       <c r="P20" s="18"/>
     </row>
-    <row r="21" spans="1:16" ht="30">
+    <row r="21" spans="1:16" ht="28.8">
       <c r="A21" s="14" t="s">
         <v>86</v>
       </c>
@@ -11825,7 +11829,7 @@
       <c r="O21" s="18"/>
       <c r="P21" s="18"/>
     </row>
-    <row r="22" spans="1:16" ht="45">
+    <row r="22" spans="1:16" ht="28.8">
       <c r="A22" s="14" t="s">
         <v>89</v>
       </c>
@@ -11925,7 +11929,7 @@
       <c r="O25" s="18"/>
       <c r="P25" s="18"/>
     </row>
-    <row r="26" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="26" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A26" s="14" t="s">
         <v>266</v>
       </c>
@@ -11951,7 +11955,7 @@
       <c r="O26" s="18"/>
       <c r="P26" s="18"/>
     </row>
-    <row r="27" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="27" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A27" s="14" t="s">
         <v>280</v>
       </c>
@@ -11977,7 +11981,7 @@
       <c r="O27" s="18"/>
       <c r="P27" s="18"/>
     </row>
-    <row r="28" spans="1:16" ht="30">
+    <row r="28" spans="1:16" ht="28.8">
       <c r="A28" s="18" t="s">
         <v>100</v>
       </c>
@@ -12005,7 +12009,7 @@
       <c r="O28" s="18"/>
       <c r="P28" s="18"/>
     </row>
-    <row r="29" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="29" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A29" s="14" t="s">
         <v>407</v>
       </c>
@@ -12033,7 +12037,7 @@
       <c r="O29" s="18"/>
       <c r="P29" s="18"/>
     </row>
-    <row r="30" spans="1:16" ht="30">
+    <row r="30" spans="1:16" ht="28.8">
       <c r="A30" s="14" t="s">
         <v>105</v>
       </c>
@@ -12059,7 +12063,7 @@
       <c r="O30" s="18"/>
       <c r="P30" s="18"/>
     </row>
-    <row r="31" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="31" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A31" s="14" t="s">
         <v>409</v>
       </c>
@@ -12087,7 +12091,7 @@
       <c r="O31" s="18"/>
       <c r="P31" s="18"/>
     </row>
-    <row r="32" spans="1:16" ht="30">
+    <row r="32" spans="1:16" ht="28.8">
       <c r="A32" s="14" t="s">
         <v>107</v>
       </c>
@@ -12113,7 +12117,7 @@
       <c r="O32" s="18"/>
       <c r="P32" s="18"/>
     </row>
-    <row r="33" spans="1:16" ht="30">
+    <row r="33" spans="1:16" ht="28.8">
       <c r="A33" s="14" t="s">
         <v>110</v>
       </c>
@@ -12297,7 +12301,7 @@
       <c r="O39" s="18"/>
       <c r="P39" s="18"/>
     </row>
-    <row r="40" spans="1:16" ht="30">
+    <row r="40" spans="1:16" ht="28.8">
       <c r="A40" s="14" t="s">
         <v>132</v>
       </c>
@@ -12427,7 +12431,7 @@
       <c r="O44" s="18"/>
       <c r="P44" s="18"/>
     </row>
-    <row r="45" spans="1:16" ht="30">
+    <row r="45" spans="1:16" ht="28.8">
       <c r="A45" s="14" t="s">
         <v>147</v>
       </c>
@@ -12531,7 +12535,7 @@
       <c r="O48" s="18"/>
       <c r="P48" s="18"/>
     </row>
-    <row r="49" spans="1:16" ht="30">
+    <row r="49" spans="1:16" ht="28.8">
       <c r="A49" s="14" t="s">
         <v>158</v>
       </c>
@@ -12557,7 +12561,7 @@
       <c r="O49" s="18"/>
       <c r="P49" s="18"/>
     </row>
-    <row r="50" spans="1:16" ht="30">
+    <row r="50" spans="1:16">
       <c r="A50" s="18" t="s">
         <v>160</v>
       </c>
@@ -12611,7 +12615,7 @@
       <c r="O51" s="18"/>
       <c r="P51" s="18"/>
     </row>
-    <row r="52" spans="1:16" ht="30">
+    <row r="52" spans="1:16" ht="28.8">
       <c r="A52" s="14" t="s">
         <v>170</v>
       </c>
@@ -12663,7 +12667,7 @@
       <c r="O53" s="18"/>
       <c r="P53" s="18"/>
     </row>
-    <row r="54" spans="1:16" ht="30">
+    <row r="54" spans="1:16" ht="28.8">
       <c r="A54" s="14" t="s">
         <v>175</v>
       </c>
@@ -12715,7 +12719,7 @@
       <c r="O55" s="18"/>
       <c r="P55" s="18"/>
     </row>
-    <row r="56" spans="1:16" ht="30">
+    <row r="56" spans="1:16" ht="28.8">
       <c r="A56" s="14" t="s">
         <v>181</v>
       </c>
@@ -12847,7 +12851,7 @@
       <c r="O60" s="18"/>
       <c r="P60" s="18"/>
     </row>
-    <row r="61" spans="1:16" ht="30">
+    <row r="61" spans="1:16" ht="28.8">
       <c r="A61" s="14" t="s">
         <v>193</v>
       </c>
@@ -12873,7 +12877,7 @@
       <c r="O61" s="18"/>
       <c r="P61" s="18"/>
     </row>
-    <row r="62" spans="1:16" ht="30">
+    <row r="62" spans="1:16" ht="28.8">
       <c r="A62" s="14" t="s">
         <v>195</v>
       </c>
@@ -12899,7 +12903,7 @@
       <c r="O62" s="18"/>
       <c r="P62" s="18"/>
     </row>
-    <row r="63" spans="1:16" ht="30">
+    <row r="63" spans="1:16" ht="28.8">
       <c r="A63" s="14" t="s">
         <v>199</v>
       </c>
@@ -12925,7 +12929,7 @@
       <c r="O63" s="18"/>
       <c r="P63" s="18"/>
     </row>
-    <row r="64" spans="1:16" ht="30">
+    <row r="64" spans="1:16" ht="28.8">
       <c r="A64" s="14" t="s">
         <v>202</v>
       </c>
@@ -13029,7 +13033,7 @@
       <c r="O67" s="18"/>
       <c r="P67" s="18"/>
     </row>
-    <row r="68" spans="1:16" ht="30">
+    <row r="68" spans="1:16" ht="28.8">
       <c r="A68" s="14" t="s">
         <v>213</v>
       </c>
@@ -13055,7 +13059,7 @@
       <c r="O68" s="18"/>
       <c r="P68" s="18"/>
     </row>
-    <row r="69" spans="1:16" ht="30">
+    <row r="69" spans="1:16" ht="28.8">
       <c r="A69" s="14" t="s">
         <v>220</v>
       </c>
@@ -13107,7 +13111,7 @@
       <c r="O70" s="18"/>
       <c r="P70" s="18"/>
     </row>
-    <row r="71" spans="1:16" ht="30">
+    <row r="71" spans="1:16" ht="28.8">
       <c r="A71" s="14" t="s">
         <v>224</v>
       </c>
@@ -13135,7 +13139,7 @@
       <c r="O71" s="18"/>
       <c r="P71" s="18"/>
     </row>
-    <row r="72" spans="1:16" ht="30">
+    <row r="72" spans="1:16" ht="28.8">
       <c r="A72" s="14" t="s">
         <v>226</v>
       </c>
@@ -13163,7 +13167,7 @@
       <c r="O72" s="18"/>
       <c r="P72" s="18"/>
     </row>
-    <row r="73" spans="1:16" ht="30">
+    <row r="73" spans="1:16" ht="28.8">
       <c r="A73" s="14" t="s">
         <v>230</v>
       </c>
@@ -13191,7 +13195,7 @@
       <c r="O73" s="18"/>
       <c r="P73" s="18"/>
     </row>
-    <row r="74" spans="1:16" ht="30">
+    <row r="74" spans="1:16" ht="28.8">
       <c r="A74" s="14" t="s">
         <v>234</v>
       </c>
@@ -13219,7 +13223,7 @@
       <c r="O74" s="18"/>
       <c r="P74" s="18"/>
     </row>
-    <row r="75" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="75" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A75" s="14" t="s">
         <v>251</v>
       </c>
@@ -13247,7 +13251,7 @@
       <c r="O75" s="18"/>
       <c r="P75" s="18"/>
     </row>
-    <row r="76" spans="1:16" ht="30">
+    <row r="76" spans="1:16">
       <c r="A76" s="14" t="s">
         <v>272</v>
       </c>
@@ -13275,7 +13279,7 @@
       <c r="O76" s="18"/>
       <c r="P76" s="18"/>
     </row>
-    <row r="77" spans="1:16" ht="30">
+    <row r="77" spans="1:16" ht="28.8">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -13305,7 +13309,7 @@
       <c r="O77" s="18"/>
       <c r="P77" s="18"/>
     </row>
-    <row r="78" spans="1:16" ht="30">
+    <row r="78" spans="1:16" ht="28.8">
       <c r="A78" s="14" t="s">
         <v>247</v>
       </c>
@@ -13333,7 +13337,7 @@
       <c r="O78" s="18"/>
       <c r="P78" s="18"/>
     </row>
-    <row r="79" spans="1:16" ht="30">
+    <row r="79" spans="1:16" ht="28.8">
       <c r="A79" s="14" t="s">
         <v>253</v>
       </c>
@@ -13361,7 +13365,7 @@
       <c r="O79" s="18"/>
       <c r="P79" s="18"/>
     </row>
-    <row r="80" spans="1:16" ht="30">
+    <row r="80" spans="1:16" ht="28.8">
       <c r="A80" s="14" t="s">
         <v>255</v>
       </c>
@@ -13389,7 +13393,7 @@
       <c r="O80" s="18"/>
       <c r="P80" s="18"/>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="28.8">
       <c r="A81" s="14" t="s">
         <v>259</v>
       </c>
@@ -13417,7 +13421,7 @@
       <c r="O81" s="18"/>
       <c r="P81" s="18"/>
     </row>
-    <row r="82" spans="1:16" ht="30">
+    <row r="82" spans="1:16" ht="28.8">
       <c r="A82" s="14" t="s">
         <v>262</v>
       </c>
@@ -13445,7 +13449,7 @@
       <c r="O82" s="18"/>
       <c r="P82" s="18"/>
     </row>
-    <row r="83" spans="1:16" ht="30">
+    <row r="83" spans="1:16" ht="28.8">
       <c r="A83" s="14" t="s">
         <v>268</v>
       </c>
@@ -13499,7 +13503,7 @@
       <c r="O84" s="18"/>
       <c r="P84" s="18"/>
     </row>
-    <row r="85" spans="1:16" ht="30">
+    <row r="85" spans="1:16" ht="28.8">
       <c r="A85" s="14" t="s">
         <v>278</v>
       </c>
@@ -13525,7 +13529,7 @@
       <c r="O85" s="18"/>
       <c r="P85" s="18"/>
     </row>
-    <row r="86" spans="1:16" ht="30">
+    <row r="86" spans="1:16" ht="28.8">
       <c r="A86" s="18" t="s">
         <v>283</v>
       </c>
@@ -13553,7 +13557,7 @@
       <c r="O86" s="18"/>
       <c r="P86" s="18"/>
     </row>
-    <row r="87" spans="1:16" ht="30">
+    <row r="87" spans="1:16" ht="28.8">
       <c r="A87" s="18" t="s">
         <v>286</v>
       </c>
@@ -13581,7 +13585,7 @@
       <c r="O87" s="18"/>
       <c r="P87" s="18"/>
     </row>
-    <row r="88" spans="1:16" ht="30">
+    <row r="88" spans="1:16" ht="28.8">
       <c r="A88" s="14" t="s">
         <v>289</v>
       </c>
@@ -13609,7 +13613,7 @@
       <c r="O88" s="18"/>
       <c r="P88" s="18"/>
     </row>
-    <row r="89" spans="1:16" ht="30">
+    <row r="89" spans="1:16" ht="28.8">
       <c r="A89" s="14" t="s">
         <v>293</v>
       </c>
@@ -13637,7 +13641,7 @@
       <c r="O89" s="18"/>
       <c r="P89" s="18"/>
     </row>
-    <row r="90" spans="1:16" ht="30">
+    <row r="90" spans="1:16" ht="28.8">
       <c r="A90" s="18" t="s">
         <v>295</v>
       </c>
@@ -13665,7 +13669,7 @@
       <c r="O90" s="18"/>
       <c r="P90" s="18"/>
     </row>
-    <row r="91" spans="1:16" ht="60">
+    <row r="91" spans="1:16" ht="43.2">
       <c r="A91" s="18" t="s">
         <v>297</v>
       </c>
@@ -13693,7 +13697,7 @@
       <c r="O91" s="18"/>
       <c r="P91" s="18"/>
     </row>
-    <row r="92" spans="1:16" ht="45">
+    <row r="92" spans="1:16" ht="43.2">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -13721,7 +13725,7 @@
       <c r="O92" s="18"/>
       <c r="P92" s="18"/>
     </row>
-    <row r="93" spans="1:16" ht="30">
+    <row r="93" spans="1:16" ht="28.8">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -13749,7 +13753,7 @@
       <c r="O93" s="18"/>
       <c r="P93" s="18"/>
     </row>
-    <row r="94" spans="1:16" ht="45">
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="14" t="s">
         <v>303</v>
       </c>
@@ -13777,7 +13781,7 @@
       <c r="O94" s="18"/>
       <c r="P94" s="18"/>
     </row>
-    <row r="95" spans="1:16" ht="30">
+    <row r="95" spans="1:16" ht="28.8">
       <c r="A95" s="14" t="s">
         <v>305</v>
       </c>
@@ -13805,7 +13809,7 @@
       <c r="O95" s="18"/>
       <c r="P95" s="18"/>
     </row>
-    <row r="96" spans="1:16" ht="45">
+    <row r="96" spans="1:16" ht="43.2">
       <c r="A96" s="14" t="s">
         <v>308</v>
       </c>
@@ -13833,7 +13837,7 @@
       <c r="O96" s="18"/>
       <c r="P96" s="18"/>
     </row>
-    <row r="97" spans="1:16" ht="45">
+    <row r="97" spans="1:16" ht="43.2">
       <c r="A97" s="14" t="s">
         <v>310</v>
       </c>
@@ -13861,7 +13865,7 @@
       <c r="O97" s="18"/>
       <c r="P97" s="18"/>
     </row>
-    <row r="98" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="98" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A98" s="14" t="s">
         <v>327</v>
       </c>
@@ -13889,7 +13893,7 @@
       <c r="O98" s="18"/>
       <c r="P98" s="18"/>
     </row>
-    <row r="99" spans="1:16" ht="45">
+    <row r="99" spans="1:16" ht="43.2">
       <c r="A99" s="14" t="s">
         <v>313</v>
       </c>
@@ -13917,7 +13921,7 @@
       <c r="O99" s="18"/>
       <c r="P99" s="18"/>
     </row>
-    <row r="100" spans="1:16" ht="45">
+    <row r="100" spans="1:16" ht="43.2">
       <c r="A100" s="14" t="s">
         <v>315</v>
       </c>
@@ -13945,7 +13949,7 @@
       <c r="O100" s="18"/>
       <c r="P100" s="18"/>
     </row>
-    <row r="101" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="101" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A101" s="14" t="s">
         <v>330</v>
       </c>
@@ -13973,7 +13977,7 @@
       <c r="O101" s="18"/>
       <c r="P101" s="18"/>
     </row>
-    <row r="102" spans="1:16" ht="45">
+    <row r="102" spans="1:16" ht="28.8">
       <c r="A102" s="14" t="s">
         <v>318</v>
       </c>
@@ -14001,7 +14005,7 @@
       <c r="O102" s="18"/>
       <c r="P102" s="18"/>
     </row>
-    <row r="103" spans="1:16" ht="30">
+    <row r="103" spans="1:16" ht="28.8">
       <c r="A103" s="14" t="s">
         <v>321</v>
       </c>
@@ -14029,7 +14033,7 @@
       <c r="O103" s="18"/>
       <c r="P103" s="18"/>
     </row>
-    <row r="104" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="104" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A104" s="14" t="s">
         <v>332</v>
       </c>
@@ -14057,7 +14061,7 @@
       <c r="O104" s="18"/>
       <c r="P104" s="18"/>
     </row>
-    <row r="105" spans="1:16" ht="30">
+    <row r="105" spans="1:16" ht="28.8">
       <c r="A105" s="14" t="s">
         <v>324</v>
       </c>
@@ -14085,7 +14089,7 @@
       <c r="O105" s="18"/>
       <c r="P105" s="18"/>
     </row>
-    <row r="106" spans="1:16" ht="30">
+    <row r="106" spans="1:16" ht="28.8">
       <c r="A106" s="14" t="s">
         <v>334</v>
       </c>
@@ -14111,7 +14115,7 @@
       <c r="O106" s="18"/>
       <c r="P106" s="18"/>
     </row>
-    <row r="107" spans="1:16" ht="45">
+    <row r="107" spans="1:16" ht="43.2">
       <c r="A107" s="14" t="s">
         <v>336</v>
       </c>
@@ -14139,7 +14143,7 @@
       <c r="O107" s="18"/>
       <c r="P107" s="18"/>
     </row>
-    <row r="108" spans="1:16" ht="45">
+    <row r="108" spans="1:16" ht="43.2">
       <c r="A108" s="14" t="s">
         <v>340</v>
       </c>
@@ -14167,7 +14171,7 @@
       <c r="O108" s="18"/>
       <c r="P108" s="18"/>
     </row>
-    <row r="109" spans="1:16" ht="30">
+    <row r="109" spans="1:16" ht="28.8">
       <c r="A109" s="14" t="s">
         <v>344</v>
       </c>
@@ -14195,7 +14199,7 @@
       <c r="O109" s="18"/>
       <c r="P109" s="18"/>
     </row>
-    <row r="110" spans="1:16" ht="30">
+    <row r="110" spans="1:16" ht="28.8">
       <c r="A110" s="14" t="s">
         <v>350</v>
       </c>
@@ -14223,7 +14227,7 @@
       <c r="O110" s="18"/>
       <c r="P110" s="18"/>
     </row>
-    <row r="111" spans="1:16" ht="30">
+    <row r="111" spans="1:16" ht="28.8">
       <c r="A111" s="14" t="s">
         <v>351</v>
       </c>
@@ -14251,7 +14255,7 @@
       <c r="O111" s="18"/>
       <c r="P111" s="18"/>
     </row>
-    <row r="112" spans="1:16" ht="30">
+    <row r="112" spans="1:16" ht="28.8">
       <c r="A112" s="14" t="s">
         <v>354</v>
       </c>
@@ -14279,7 +14283,7 @@
       <c r="O112" s="18"/>
       <c r="P112" s="18"/>
     </row>
-    <row r="113" spans="1:16" ht="30">
+    <row r="113" spans="1:16" ht="28.8">
       <c r="A113" s="14" t="s">
         <v>359</v>
       </c>
@@ -14307,7 +14311,7 @@
       <c r="O113" s="18"/>
       <c r="P113" s="18"/>
     </row>
-    <row r="114" spans="1:16" ht="30">
+    <row r="114" spans="1:16" ht="28.8">
       <c r="A114" s="14" t="s">
         <v>360</v>
       </c>
@@ -14335,7 +14339,7 @@
       <c r="O114" s="18"/>
       <c r="P114" s="18"/>
     </row>
-    <row r="115" spans="1:16" ht="45">
+    <row r="115" spans="1:16" ht="43.2">
       <c r="A115" s="14" t="s">
         <v>362</v>
       </c>
@@ -14363,7 +14367,7 @@
       <c r="O115" s="18"/>
       <c r="P115" s="18"/>
     </row>
-    <row r="116" spans="1:16" ht="45">
+    <row r="116" spans="1:16" ht="43.2">
       <c r="A116" s="14" t="s">
         <v>364</v>
       </c>
@@ -14391,7 +14395,7 @@
       <c r="O116" s="18"/>
       <c r="P116" s="18"/>
     </row>
-    <row r="117" spans="1:16" ht="30">
+    <row r="117" spans="1:16" ht="28.8">
       <c r="A117" s="14" t="s">
         <v>367</v>
       </c>
@@ -14417,7 +14421,7 @@
       <c r="O117" s="18"/>
       <c r="P117" s="18"/>
     </row>
-    <row r="118" spans="1:16" ht="30">
+    <row r="118" spans="1:16" ht="28.8">
       <c r="A118" s="18" t="s">
         <v>370</v>
       </c>
@@ -14445,7 +14449,7 @@
       <c r="O118" s="18"/>
       <c r="P118" s="18"/>
     </row>
-    <row r="119" spans="1:16" ht="30">
+    <row r="119" spans="1:16" ht="28.8">
       <c r="A119" s="18" t="s">
         <v>375</v>
       </c>
@@ -14473,7 +14477,7 @@
       <c r="O119" s="18"/>
       <c r="P119" s="18"/>
     </row>
-    <row r="120" spans="1:16" ht="45">
+    <row r="120" spans="1:16" ht="43.2">
       <c r="A120" s="14" t="s">
         <v>382</v>
       </c>
@@ -14501,7 +14505,7 @@
       <c r="O120" s="18"/>
       <c r="P120" s="18"/>
     </row>
-    <row r="121" spans="1:16" ht="45">
+    <row r="121" spans="1:16" ht="28.8">
       <c r="A121" s="14" t="s">
         <v>384</v>
       </c>
@@ -14529,7 +14533,7 @@
       <c r="O121" s="18"/>
       <c r="P121" s="18"/>
     </row>
-    <row r="122" spans="1:16" ht="30">
+    <row r="122" spans="1:16" ht="28.8">
       <c r="A122" s="17" t="s">
         <v>387</v>
       </c>
@@ -14555,7 +14559,7 @@
       <c r="O122" s="18"/>
       <c r="P122" s="18"/>
     </row>
-    <row r="123" spans="1:16" ht="30">
+    <row r="123" spans="1:16" ht="28.8">
       <c r="A123" s="14" t="s">
         <v>389</v>
       </c>
@@ -14581,7 +14585,7 @@
       <c r="O123" s="18"/>
       <c r="P123" s="18"/>
     </row>
-    <row r="124" spans="1:16" ht="30">
+    <row r="124" spans="1:16" ht="28.8">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -14609,7 +14613,7 @@
       <c r="O124" s="18"/>
       <c r="P124" s="18"/>
     </row>
-    <row r="125" spans="1:16" ht="30">
+    <row r="125" spans="1:16" ht="28.8">
       <c r="A125" s="14" t="s">
         <v>399</v>
       </c>
@@ -14637,7 +14641,7 @@
       <c r="O125" s="18"/>
       <c r="P125" s="18"/>
     </row>
-    <row r="126" spans="1:16" ht="30">
+    <row r="126" spans="1:16" ht="28.8">
       <c r="A126" s="14" t="s">
         <v>402</v>
       </c>
@@ -14665,7 +14669,7 @@
       <c r="O126" s="18"/>
       <c r="P126" s="18"/>
     </row>
-    <row r="127" spans="1:16" ht="30">
+    <row r="127" spans="1:16" ht="28.8">
       <c r="A127" s="14" t="s">
         <v>411</v>
       </c>
@@ -14693,7 +14697,7 @@
       <c r="O127" s="18"/>
       <c r="P127" s="18"/>
     </row>
-    <row r="128" spans="1:16" ht="45">
+    <row r="128" spans="1:16" ht="28.8">
       <c r="A128" s="14" t="s">
         <v>414</v>
       </c>
@@ -14721,7 +14725,7 @@
       <c r="O128" s="18"/>
       <c r="P128" s="18"/>
     </row>
-    <row r="129" spans="1:16" ht="30">
+    <row r="129" spans="1:16" ht="28.8">
       <c r="A129" s="14" t="s">
         <v>417</v>
       </c>
@@ -14749,7 +14753,7 @@
       <c r="O129" s="18"/>
       <c r="P129" s="18"/>
     </row>
-    <row r="130" spans="1:16" ht="45">
+    <row r="130" spans="1:16" ht="28.8">
       <c r="A130" s="14" t="s">
         <v>419</v>
       </c>
@@ -14777,7 +14781,7 @@
       <c r="O130" s="18"/>
       <c r="P130" s="18"/>
     </row>
-    <row r="131" spans="1:16" ht="30">
+    <row r="131" spans="1:16" ht="28.8">
       <c r="A131" s="14" t="s">
         <v>420</v>
       </c>
@@ -14805,7 +14809,7 @@
       <c r="O131" s="18"/>
       <c r="P131" s="18"/>
     </row>
-    <row r="132" spans="1:16" ht="45">
+    <row r="132" spans="1:16" ht="43.2">
       <c r="A132" s="14" t="s">
         <v>422</v>
       </c>
@@ -14833,7 +14837,7 @@
       <c r="O132" s="18"/>
       <c r="P132" s="18"/>
     </row>
-    <row r="133" spans="1:16" ht="30">
+    <row r="133" spans="1:16" ht="28.8">
       <c r="A133" s="14" t="s">
         <v>424</v>
       </c>
@@ -14859,7 +14863,7 @@
       <c r="O133" s="18"/>
       <c r="P133" s="18"/>
     </row>
-    <row r="134" spans="1:16" ht="30">
+    <row r="134" spans="1:16" ht="28.8">
       <c r="A134" s="14" t="s">
         <v>426</v>
       </c>
@@ -14887,7 +14891,7 @@
       <c r="O134" s="18"/>
       <c r="P134" s="18"/>
     </row>
-    <row r="135" spans="1:16" ht="45">
+    <row r="135" spans="1:16" ht="28.8">
       <c r="A135" s="14" t="s">
         <v>429</v>
       </c>
@@ -14915,7 +14919,7 @@
       <c r="O135" s="18"/>
       <c r="P135" s="18"/>
     </row>
-    <row r="136" spans="1:16" ht="45">
+    <row r="136" spans="1:16" ht="43.2">
       <c r="A136" s="14" t="s">
         <v>433</v>
       </c>
@@ -14943,7 +14947,7 @@
       <c r="O136" s="18"/>
       <c r="P136" s="18"/>
     </row>
-    <row r="137" spans="1:16" ht="45">
+    <row r="137" spans="1:16" ht="43.2">
       <c r="A137" s="14" t="s">
         <v>436</v>
       </c>
@@ -14971,7 +14975,7 @@
       <c r="O137" s="18"/>
       <c r="P137" s="18"/>
     </row>
-    <row r="138" spans="1:16" ht="45">
+    <row r="138" spans="1:16" ht="43.2">
       <c r="A138" s="14" t="s">
         <v>439</v>
       </c>
@@ -14999,7 +15003,7 @@
       <c r="O138" s="18"/>
       <c r="P138" s="18"/>
     </row>
-    <row r="139" spans="1:16" ht="30">
+    <row r="139" spans="1:16" ht="28.8">
       <c r="A139" s="14" t="s">
         <v>441</v>
       </c>
@@ -15053,7 +15057,7 @@
       <c r="O140" s="18"/>
       <c r="P140" s="18"/>
     </row>
-    <row r="141" spans="1:16" ht="30">
+    <row r="141" spans="1:16" ht="28.8">
       <c r="A141" s="14" t="s">
         <v>447</v>
       </c>
@@ -15079,7 +15083,7 @@
       <c r="O141" s="18"/>
       <c r="P141" s="18"/>
     </row>
-    <row r="142" spans="1:16" ht="30">
+    <row r="142" spans="1:16" ht="28.8">
       <c r="A142" s="14" t="s">
         <v>449</v>
       </c>
@@ -15105,7 +15109,7 @@
       <c r="O142" s="18"/>
       <c r="P142" s="18"/>
     </row>
-    <row r="143" spans="1:16" ht="45">
+    <row r="143" spans="1:16" ht="28.8">
       <c r="A143" s="14" t="s">
         <v>453</v>
       </c>
@@ -15131,7 +15135,7 @@
       <c r="O143" s="18"/>
       <c r="P143" s="18"/>
     </row>
-    <row r="144" spans="1:16" ht="45">
+    <row r="144" spans="1:16" ht="28.8">
       <c r="A144" s="14" t="s">
         <v>456</v>
       </c>
@@ -15159,7 +15163,7 @@
       <c r="O144" s="18"/>
       <c r="P144" s="18"/>
     </row>
-    <row r="145" spans="1:16" ht="30">
+    <row r="145" spans="1:16" ht="28.8">
       <c r="A145" s="14" t="s">
         <v>458</v>
       </c>
@@ -15187,7 +15191,7 @@
       <c r="O145" s="18"/>
       <c r="P145" s="18"/>
     </row>
-    <row r="146" spans="1:16" ht="30">
+    <row r="146" spans="1:16" ht="28.8">
       <c r="A146" s="14" t="s">
         <v>461</v>
       </c>
@@ -15215,7 +15219,7 @@
       <c r="O146" s="18"/>
       <c r="P146" s="18"/>
     </row>
-    <row r="147" spans="1:16" ht="30">
+    <row r="147" spans="1:16" ht="28.8">
       <c r="A147" s="14" t="s">
         <v>464</v>
       </c>
@@ -15243,7 +15247,7 @@
       <c r="O147" s="18"/>
       <c r="P147" s="18"/>
     </row>
-    <row r="148" spans="1:16" ht="45">
+    <row r="148" spans="1:16" ht="43.2">
       <c r="A148" s="14" t="s">
         <v>468</v>
       </c>
@@ -15271,7 +15275,7 @@
       <c r="O148" s="18"/>
       <c r="P148" s="18"/>
     </row>
-    <row r="149" spans="1:16" ht="30">
+    <row r="149" spans="1:16" ht="28.8">
       <c r="A149" s="14" t="s">
         <v>472</v>
       </c>
@@ -15299,7 +15303,7 @@
       <c r="O149" s="18"/>
       <c r="P149" s="18"/>
     </row>
-    <row r="150" spans="1:16" ht="30">
+    <row r="150" spans="1:16" ht="28.8">
       <c r="A150" s="14" t="s">
         <v>474</v>
       </c>
@@ -15327,7 +15331,7 @@
       <c r="O150" s="18"/>
       <c r="P150" s="18"/>
     </row>
-    <row r="151" spans="1:16" ht="60">
+    <row r="151" spans="1:16" ht="43.2">
       <c r="A151" s="14" t="s">
         <v>477</v>
       </c>
@@ -15359,7 +15363,7 @@
       <c r="O151" s="18"/>
       <c r="P151" s="18"/>
     </row>
-    <row r="152" spans="1:16" ht="30">
+    <row r="152" spans="1:16" ht="28.8">
       <c r="A152" s="14" t="s">
         <v>485</v>
       </c>
@@ -15387,7 +15391,7 @@
       <c r="O152" s="18"/>
       <c r="P152" s="18"/>
     </row>
-    <row r="153" spans="1:16" ht="30">
+    <row r="153" spans="1:16" ht="28.8">
       <c r="A153" s="14" t="s">
         <v>486</v>
       </c>
@@ -15415,7 +15419,7 @@
       <c r="O153" s="18"/>
       <c r="P153" s="18"/>
     </row>
-    <row r="154" spans="1:16" ht="45">
+    <row r="154" spans="1:16" ht="28.8">
       <c r="A154" s="14" t="s">
         <v>487</v>
       </c>
@@ -15443,7 +15447,7 @@
       <c r="O154" s="18"/>
       <c r="P154" s="18"/>
     </row>
-    <row r="155" spans="1:16" ht="30">
+    <row r="155" spans="1:16" ht="28.8">
       <c r="A155" s="14" t="s">
         <v>490</v>
       </c>
@@ -15471,7 +15475,7 @@
       <c r="O155" s="18"/>
       <c r="P155" s="18"/>
     </row>
-    <row r="156" spans="1:16" ht="30">
+    <row r="156" spans="1:16" ht="28.8">
       <c r="A156" s="14" t="s">
         <v>492</v>
       </c>
@@ -15497,7 +15501,7 @@
       <c r="O156" s="18"/>
       <c r="P156" s="18"/>
     </row>
-    <row r="157" spans="1:16" ht="30">
+    <row r="157" spans="1:16" ht="28.8">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -15523,7 +15527,7 @@
       <c r="O157" s="18"/>
       <c r="P157" s="18"/>
     </row>
-    <row r="158" spans="1:16" ht="30">
+    <row r="158" spans="1:16" ht="28.8">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -15551,7 +15555,7 @@
       <c r="O158" s="18"/>
       <c r="P158" s="18"/>
     </row>
-    <row r="159" spans="1:16" ht="30">
+    <row r="159" spans="1:16" ht="28.8">
       <c r="A159" s="18" t="s">
         <v>499</v>
       </c>
@@ -15605,7 +15609,7 @@
       <c r="O160" s="18"/>
       <c r="P160" s="18"/>
     </row>
-    <row r="161" spans="1:16" ht="30">
+    <row r="161" spans="1:16" ht="28.8">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -15631,7 +15635,7 @@
       <c r="O161" s="18"/>
       <c r="P161" s="18"/>
     </row>
-    <row r="162" spans="1:16" ht="45">
+    <row r="162" spans="1:16" ht="43.2">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -15657,7 +15661,7 @@
       <c r="O162" s="18"/>
       <c r="P162" s="18"/>
     </row>
-    <row r="163" spans="1:16" ht="45">
+    <row r="163" spans="1:16" ht="28.8">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -15683,7 +15687,7 @@
       <c r="O163" s="18"/>
       <c r="P163" s="18"/>
     </row>
-    <row r="164" spans="1:16" ht="45">
+    <row r="164" spans="1:16" ht="43.2">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -15735,7 +15739,7 @@
       <c r="O165" s="18"/>
       <c r="P165" s="18"/>
     </row>
-    <row r="166" spans="1:16" ht="30">
+    <row r="166" spans="1:16" ht="28.8">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -15763,7 +15767,7 @@
       <c r="O166" s="18"/>
       <c r="P166" s="18"/>
     </row>
-    <row r="167" spans="1:16" ht="30">
+    <row r="167" spans="1:16" ht="28.8">
       <c r="A167" s="45" t="s">
         <v>521</v>
       </c>
@@ -15791,7 +15795,7 @@
       <c r="O167" s="18"/>
       <c r="P167" s="18"/>
     </row>
-    <row r="168" spans="1:16" ht="30">
+    <row r="168" spans="1:16" ht="28.8">
       <c r="A168" s="14" t="s">
         <v>524</v>
       </c>
@@ -15819,7 +15823,7 @@
       <c r="O168" s="18"/>
       <c r="P168" s="18"/>
     </row>
-    <row r="169" spans="1:16" ht="45">
+    <row r="169" spans="1:16" ht="43.2">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -15847,7 +15851,7 @@
       <c r="O169" s="18"/>
       <c r="P169" s="18"/>
     </row>
-    <row r="170" spans="1:16" ht="45">
+    <row r="170" spans="1:16" ht="43.2">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -15875,7 +15879,7 @@
       <c r="O170" s="18"/>
       <c r="P170" s="18"/>
     </row>
-    <row r="171" spans="1:16" ht="30">
+    <row r="171" spans="1:16" ht="28.8">
       <c r="A171" s="14" t="s">
         <v>538</v>
       </c>
@@ -15903,7 +15907,7 @@
       <c r="O171" s="18"/>
       <c r="P171" s="18"/>
     </row>
-    <row r="172" spans="1:16" ht="45">
+    <row r="172" spans="1:16" ht="28.8">
       <c r="A172" s="14" t="s">
         <v>541</v>
       </c>
@@ -15931,7 +15935,7 @@
       <c r="O172" s="18"/>
       <c r="P172" s="18"/>
     </row>
-    <row r="173" spans="1:16" ht="30">
+    <row r="173" spans="1:16" ht="28.8">
       <c r="A173" s="14" t="s">
         <v>544</v>
       </c>
@@ -15959,7 +15963,7 @@
       <c r="O173" s="18"/>
       <c r="P173" s="18"/>
     </row>
-    <row r="174" spans="1:16" ht="60">
+    <row r="174" spans="1:16" ht="57.6">
       <c r="A174" s="14" t="s">
         <v>547</v>
       </c>
@@ -15985,7 +15989,7 @@
       <c r="O174" s="18"/>
       <c r="P174" s="18"/>
     </row>
-    <row r="175" spans="1:16" ht="30">
+    <row r="175" spans="1:16" ht="28.8">
       <c r="A175" s="14" t="s">
         <v>550</v>
       </c>
@@ -16013,7 +16017,7 @@
       <c r="O175" s="18"/>
       <c r="P175" s="18"/>
     </row>
-    <row r="176" spans="1:16" ht="30">
+    <row r="176" spans="1:16" ht="28.8">
       <c r="A176" s="14" t="s">
         <v>553</v>
       </c>
@@ -16041,7 +16045,7 @@
       <c r="O176" s="18"/>
       <c r="P176" s="18"/>
     </row>
-    <row r="177" spans="1:16" ht="45">
+    <row r="177" spans="1:16" ht="28.8">
       <c r="A177" s="14" t="s">
         <v>560</v>
       </c>
@@ -16069,7 +16073,7 @@
       <c r="O177" s="18"/>
       <c r="P177" s="18"/>
     </row>
-    <row r="178" spans="1:16" ht="30">
+    <row r="178" spans="1:16" ht="28.8">
       <c r="A178" s="14" t="s">
         <v>564</v>
       </c>
@@ -16097,7 +16101,7 @@
       <c r="O178" s="18"/>
       <c r="P178" s="18"/>
     </row>
-    <row r="179" spans="1:16" ht="45">
+    <row r="179" spans="1:16" ht="43.2">
       <c r="A179" s="14" t="s">
         <v>566</v>
       </c>
@@ -16125,7 +16129,7 @@
       <c r="O179" s="18"/>
       <c r="P179" s="18"/>
     </row>
-    <row r="180" spans="1:16" ht="45">
+    <row r="180" spans="1:16" ht="28.8">
       <c r="A180" s="14" t="s">
         <v>568</v>
       </c>
@@ -16153,7 +16157,7 @@
       <c r="O180" s="18"/>
       <c r="P180" s="18"/>
     </row>
-    <row r="181" spans="1:16" ht="30">
+    <row r="181" spans="1:16" ht="28.8">
       <c r="A181" s="25" t="s">
         <v>570</v>
       </c>
@@ -16181,7 +16185,7 @@
       <c r="O181" s="18"/>
       <c r="P181" s="18"/>
     </row>
-    <row r="182" spans="1:16" ht="30">
+    <row r="182" spans="1:16" ht="28.8">
       <c r="A182" s="14" t="s">
         <v>574</v>
       </c>
@@ -16235,7 +16239,7 @@
       <c r="O183" s="18"/>
       <c r="P183" s="18"/>
     </row>
-    <row r="184" spans="1:16" ht="45">
+    <row r="184" spans="1:16" ht="43.2">
       <c r="A184" s="14" t="s">
         <v>576</v>
       </c>
@@ -16263,7 +16267,7 @@
       <c r="O184" s="18"/>
       <c r="P184" s="18"/>
     </row>
-    <row r="185" spans="1:16" ht="30">
+    <row r="185" spans="1:16" ht="28.8">
       <c r="A185" s="14" t="s">
         <v>578</v>
       </c>
@@ -16291,7 +16295,7 @@
       <c r="O185" s="18"/>
       <c r="P185" s="18"/>
     </row>
-    <row r="186" spans="1:16" ht="30">
+    <row r="186" spans="1:16" ht="28.8">
       <c r="A186" s="14" t="s">
         <v>580</v>
       </c>
@@ -16345,7 +16349,7 @@
       <c r="O187" s="18"/>
       <c r="P187" s="18"/>
     </row>
-    <row r="188" spans="1:16" ht="30">
+    <row r="188" spans="1:16" ht="28.8">
       <c r="A188" s="14" t="s">
         <v>585</v>
       </c>
@@ -16371,7 +16375,7 @@
       <c r="O188" s="18"/>
       <c r="P188" s="18"/>
     </row>
-    <row r="189" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="189" spans="1:16" s="2" customFormat="1">
       <c r="A189" s="14" t="s">
         <v>706</v>
       </c>
@@ -16399,7 +16403,7 @@
       <c r="O189" s="18"/>
       <c r="P189" s="18"/>
     </row>
-    <row r="190" spans="1:16" ht="45">
+    <row r="190" spans="1:16" ht="43.2">
       <c r="A190" s="14" t="s">
         <v>587</v>
       </c>
@@ -16427,7 +16431,7 @@
       <c r="O190" s="18"/>
       <c r="P190" s="18"/>
     </row>
-    <row r="191" spans="1:16" ht="45">
+    <row r="191" spans="1:16" ht="43.2">
       <c r="A191" s="14" t="s">
         <v>589</v>
       </c>
@@ -16457,7 +16461,7 @@
       <c r="O191" s="18"/>
       <c r="P191" s="18"/>
     </row>
-    <row r="192" spans="1:16" ht="30">
+    <row r="192" spans="1:16" ht="28.8">
       <c r="A192" s="14" t="s">
         <v>591</v>
       </c>
@@ -16485,7 +16489,7 @@
       <c r="O192" s="18"/>
       <c r="P192" s="18"/>
     </row>
-    <row r="193" spans="1:16" ht="30">
+    <row r="193" spans="1:16" ht="28.8">
       <c r="A193" s="14" t="s">
         <v>595</v>
       </c>
@@ -16513,7 +16517,7 @@
       <c r="O193" s="18"/>
       <c r="P193" s="18"/>
     </row>
-    <row r="194" spans="1:16" ht="30">
+    <row r="194" spans="1:16" ht="28.8">
       <c r="A194" s="14" t="s">
         <v>597</v>
       </c>
@@ -16541,7 +16545,7 @@
       <c r="O194" s="18"/>
       <c r="P194" s="18"/>
     </row>
-    <row r="195" spans="1:16" ht="30">
+    <row r="195" spans="1:16" ht="28.8">
       <c r="A195" s="14" t="s">
         <v>599</v>
       </c>
@@ -16569,7 +16573,7 @@
       <c r="O195" s="18"/>
       <c r="P195" s="18"/>
     </row>
-    <row r="196" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="196" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A196" s="14" t="s">
         <v>730</v>
       </c>
@@ -16597,7 +16601,7 @@
       <c r="O196" s="18"/>
       <c r="P196" s="18"/>
     </row>
-    <row r="197" spans="1:16" ht="30">
+    <row r="197" spans="1:16" ht="28.8">
       <c r="A197" s="14" t="s">
         <v>602</v>
       </c>
@@ -16627,7 +16631,7 @@
       <c r="O197" s="18"/>
       <c r="P197" s="18"/>
     </row>
-    <row r="198" spans="1:16" ht="45">
+    <row r="198" spans="1:16" ht="43.2">
       <c r="A198" s="14" t="s">
         <v>605</v>
       </c>
@@ -16653,7 +16657,7 @@
       <c r="O198" s="18"/>
       <c r="P198" s="18"/>
     </row>
-    <row r="199" spans="1:16" ht="45">
+    <row r="199" spans="1:16" ht="43.2">
       <c r="A199" s="14" t="s">
         <v>609</v>
       </c>
@@ -16681,7 +16685,7 @@
       <c r="O199" s="18"/>
       <c r="P199" s="18"/>
     </row>
-    <row r="200" spans="1:16" ht="30">
+    <row r="200" spans="1:16" ht="28.8">
       <c r="A200" s="14" t="s">
         <v>610</v>
       </c>
@@ -16709,7 +16713,7 @@
       <c r="O200" s="18"/>
       <c r="P200" s="18"/>
     </row>
-    <row r="201" spans="1:16" ht="30">
+    <row r="201" spans="1:16" ht="28.8">
       <c r="A201" s="14" t="s">
         <v>612</v>
       </c>
@@ -16737,7 +16741,7 @@
       <c r="O201" s="18"/>
       <c r="P201" s="18"/>
     </row>
-    <row r="202" spans="1:16" ht="30">
+    <row r="202" spans="1:16" ht="28.8">
       <c r="A202" s="14" t="s">
         <v>614</v>
       </c>
@@ -16767,7 +16771,7 @@
       <c r="O202" s="18"/>
       <c r="P202" s="18"/>
     </row>
-    <row r="203" spans="1:16" ht="30">
+    <row r="203" spans="1:16" ht="28.8">
       <c r="A203" s="14" t="s">
         <v>617</v>
       </c>
@@ -16797,7 +16801,7 @@
       <c r="O203" s="18"/>
       <c r="P203" s="18"/>
     </row>
-    <row r="204" spans="1:16" ht="45">
+    <row r="204" spans="1:16" ht="28.8">
       <c r="A204" s="14" t="s">
         <v>619</v>
       </c>
@@ -16827,7 +16831,7 @@
       <c r="O204" s="18"/>
       <c r="P204" s="18"/>
     </row>
-    <row r="205" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="205" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A205" s="14" t="s">
         <v>625</v>
       </c>
@@ -16857,7 +16861,7 @@
       <c r="O205" s="18"/>
       <c r="P205" s="18"/>
     </row>
-    <row r="206" spans="1:16" ht="30">
+    <row r="206" spans="1:16" ht="28.8">
       <c r="A206" s="14" t="s">
         <v>623</v>
       </c>
@@ -16885,7 +16889,7 @@
       <c r="O206" s="18"/>
       <c r="P206" s="18"/>
     </row>
-    <row r="207" spans="1:16" ht="30">
+    <row r="207" spans="1:16" ht="28.8">
       <c r="A207" s="14" t="s">
         <v>628</v>
       </c>
@@ -16943,7 +16947,7 @@
       <c r="O208" s="18"/>
       <c r="P208" s="18"/>
     </row>
-    <row r="209" spans="1:16" ht="30">
+    <row r="209" spans="1:16" ht="28.8">
       <c r="A209" s="14" t="s">
         <v>632</v>
       </c>
@@ -16971,7 +16975,7 @@
       <c r="O209" s="18"/>
       <c r="P209" s="18"/>
     </row>
-    <row r="210" spans="1:16" ht="45">
+    <row r="210" spans="1:16" ht="28.8">
       <c r="A210" s="14" t="s">
         <v>634</v>
       </c>
@@ -17031,7 +17035,7 @@
       <c r="O211" s="18"/>
       <c r="P211" s="18"/>
     </row>
-    <row r="212" spans="1:16" ht="30">
+    <row r="212" spans="1:16" ht="28.8">
       <c r="A212" s="14" t="s">
         <v>640</v>
       </c>
@@ -17061,7 +17065,7 @@
       <c r="O212" s="18"/>
       <c r="P212" s="18"/>
     </row>
-    <row r="213" spans="1:16" ht="30">
+    <row r="213" spans="1:16" ht="28.8">
       <c r="A213" s="14" t="s">
         <v>645</v>
       </c>
@@ -17091,7 +17095,7 @@
       <c r="O213" s="18"/>
       <c r="P213" s="18"/>
     </row>
-    <row r="214" spans="1:16" ht="45">
+    <row r="214" spans="1:16" ht="43.2">
       <c r="A214" s="14" t="s">
         <v>648</v>
       </c>
@@ -17121,7 +17125,7 @@
       <c r="O214" s="18"/>
       <c r="P214" s="18"/>
     </row>
-    <row r="215" spans="1:16" ht="45">
+    <row r="215" spans="1:16" ht="43.2">
       <c r="A215" s="14" t="s">
         <v>649</v>
       </c>
@@ -17151,7 +17155,7 @@
       <c r="O215" s="18"/>
       <c r="P215" s="18"/>
     </row>
-    <row r="216" spans="1:16" ht="45">
+    <row r="216" spans="1:16" ht="39.6">
       <c r="A216" s="14" t="s">
         <v>651</v>
       </c>
@@ -17181,7 +17185,7 @@
       <c r="O216" s="18"/>
       <c r="P216" s="18"/>
     </row>
-    <row r="217" spans="1:16" ht="45">
+    <row r="217" spans="1:16" ht="28.8">
       <c r="A217" s="14" t="s">
         <v>653</v>
       </c>
@@ -17209,7 +17213,7 @@
       <c r="O217" s="18"/>
       <c r="P217" s="18"/>
     </row>
-    <row r="218" spans="1:16" ht="30">
+    <row r="218" spans="1:16" ht="28.8">
       <c r="A218" s="14" t="s">
         <v>657</v>
       </c>
@@ -17239,7 +17243,7 @@
       <c r="O218" s="18"/>
       <c r="P218" s="18"/>
     </row>
-    <row r="219" spans="1:16" ht="45">
+    <row r="219" spans="1:16" ht="43.2">
       <c r="A219" s="14" t="s">
         <v>659</v>
       </c>
@@ -17269,7 +17273,7 @@
       <c r="O219" s="18"/>
       <c r="P219" s="18"/>
     </row>
-    <row r="220" spans="1:16" ht="30">
+    <row r="220" spans="1:16" ht="28.8">
       <c r="A220" s="14" t="s">
         <v>662</v>
       </c>
@@ -17297,7 +17301,7 @@
       <c r="O220" s="18"/>
       <c r="P220" s="18"/>
     </row>
-    <row r="221" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="221" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A221" s="14" t="s">
         <v>667</v>
       </c>
@@ -17329,7 +17333,7 @@
       <c r="O221" s="18"/>
       <c r="P221" s="18"/>
     </row>
-    <row r="222" spans="1:16" ht="45">
+    <row r="222" spans="1:16" ht="28.8">
       <c r="A222" s="14" t="s">
         <v>664</v>
       </c>
@@ -17359,7 +17363,7 @@
       <c r="O222" s="18"/>
       <c r="P222" s="18"/>
     </row>
-    <row r="223" spans="1:16" ht="30">
+    <row r="223" spans="1:16" ht="28.8">
       <c r="A223" s="14" t="s">
         <v>669</v>
       </c>
@@ -17389,7 +17393,7 @@
       <c r="O223" s="18"/>
       <c r="P223" s="18"/>
     </row>
-    <row r="224" spans="1:16" ht="30">
+    <row r="224" spans="1:16" ht="28.8">
       <c r="A224" s="14" t="s">
         <v>671</v>
       </c>
@@ -17419,7 +17423,7 @@
       <c r="O224" s="18"/>
       <c r="P224" s="18"/>
     </row>
-    <row r="225" spans="1:16" ht="45">
+    <row r="225" spans="1:16" ht="28.8">
       <c r="A225" s="14" t="s">
         <v>675</v>
       </c>
@@ -17447,7 +17451,7 @@
       <c r="O225" s="18"/>
       <c r="P225" s="18"/>
     </row>
-    <row r="226" spans="1:16" ht="60">
+    <row r="226" spans="1:16" ht="57.6">
       <c r="A226" s="14" t="s">
         <v>679</v>
       </c>
@@ -17479,7 +17483,7 @@
       </c>
       <c r="P226" s="18"/>
     </row>
-    <row r="227" spans="1:16" ht="45">
+    <row r="227" spans="1:16" ht="43.2">
       <c r="A227" s="14" t="s">
         <v>682</v>
       </c>
@@ -17509,7 +17513,7 @@
       <c r="O227" s="18"/>
       <c r="P227" s="18"/>
     </row>
-    <row r="228" spans="1:16" ht="47.45" customHeight="1">
+    <row r="228" spans="1:16" ht="47.4" customHeight="1">
       <c r="A228" s="14" t="s">
         <v>686</v>
       </c>
@@ -17539,7 +17543,7 @@
       <c r="O228" s="18"/>
       <c r="P228" s="18"/>
     </row>
-    <row r="229" spans="1:16" ht="30">
+    <row r="229" spans="1:16" ht="28.8">
       <c r="A229" s="14" t="s">
         <v>690</v>
       </c>
@@ -17569,7 +17573,7 @@
       <c r="O229" s="18"/>
       <c r="P229" s="18"/>
     </row>
-    <row r="230" spans="1:16" ht="30">
+    <row r="230" spans="1:16" ht="28.8">
       <c r="A230" s="14" t="s">
         <v>693</v>
       </c>
@@ -17597,7 +17601,7 @@
       <c r="O230" s="18"/>
       <c r="P230" s="18"/>
     </row>
-    <row r="231" spans="1:16" ht="30">
+    <row r="231" spans="1:16" ht="28.8">
       <c r="A231" s="14" t="s">
         <v>695</v>
       </c>
@@ -17627,7 +17631,7 @@
       <c r="O231" s="18"/>
       <c r="P231" s="18"/>
     </row>
-    <row r="232" spans="1:16" ht="45">
+    <row r="232" spans="1:16" ht="43.2">
       <c r="A232" s="14" t="s">
         <v>697</v>
       </c>
@@ -17657,7 +17661,7 @@
       <c r="O232" s="18"/>
       <c r="P232" s="18"/>
     </row>
-    <row r="233" spans="1:16" ht="30">
+    <row r="233" spans="1:16" ht="28.8">
       <c r="A233" s="14" t="s">
         <v>699</v>
       </c>
@@ -17687,7 +17691,7 @@
       <c r="O233" s="18"/>
       <c r="P233" s="18"/>
     </row>
-    <row r="234" spans="1:16" ht="30">
+    <row r="234" spans="1:16" ht="28.8">
       <c r="A234" s="14" t="s">
         <v>701</v>
       </c>
@@ -17717,7 +17721,7 @@
       <c r="O234" s="18"/>
       <c r="P234" s="18"/>
     </row>
-    <row r="235" spans="1:16" ht="30">
+    <row r="235" spans="1:16" ht="28.8">
       <c r="A235" s="14" t="s">
         <v>704</v>
       </c>
@@ -17747,7 +17751,7 @@
       <c r="O235" s="18"/>
       <c r="P235" s="18"/>
     </row>
-    <row r="236" spans="1:16" ht="30">
+    <row r="236" spans="1:16" ht="28.8">
       <c r="A236" s="14" t="s">
         <v>708</v>
       </c>
@@ -17777,7 +17781,7 @@
       <c r="O236" s="18"/>
       <c r="P236" s="18"/>
     </row>
-    <row r="237" spans="1:16" ht="30">
+    <row r="237" spans="1:16" ht="28.8">
       <c r="A237" s="14" t="s">
         <v>710</v>
       </c>
@@ -17807,7 +17811,7 @@
       <c r="O237" s="18"/>
       <c r="P237" s="18"/>
     </row>
-    <row r="238" spans="1:16" ht="30">
+    <row r="238" spans="1:16" ht="28.8">
       <c r="A238" s="14" t="s">
         <v>713</v>
       </c>
@@ -17837,7 +17841,7 @@
       <c r="O238" s="18"/>
       <c r="P238" s="18"/>
     </row>
-    <row r="239" spans="1:16" ht="45">
+    <row r="239" spans="1:16" ht="43.2">
       <c r="A239" s="14" t="s">
         <v>717</v>
       </c>
@@ -17869,7 +17873,7 @@
       <c r="O239" s="18"/>
       <c r="P239" s="18"/>
     </row>
-    <row r="240" spans="1:16" ht="45">
+    <row r="240" spans="1:16" ht="28.8">
       <c r="A240" s="14" t="s">
         <v>720</v>
       </c>
@@ -17899,7 +17903,7 @@
       <c r="O240" s="18"/>
       <c r="P240" s="18"/>
     </row>
-    <row r="241" spans="1:16" ht="30">
+    <row r="241" spans="1:16" ht="28.8">
       <c r="A241" s="14" t="s">
         <v>722</v>
       </c>
@@ -17929,7 +17933,7 @@
       <c r="O241" s="18"/>
       <c r="P241" s="18"/>
     </row>
-    <row r="242" spans="1:16" ht="45">
+    <row r="242" spans="1:16" ht="28.8">
       <c r="A242" s="14" t="s">
         <v>724</v>
       </c>
@@ -17951,7 +17955,7 @@
       <c r="O242" s="18"/>
       <c r="P242" s="18"/>
     </row>
-    <row r="243" spans="1:16" ht="38.25">
+    <row r="243" spans="1:16" ht="39.6">
       <c r="A243" s="14" t="s">
         <v>726</v>
       </c>
@@ -17981,7 +17985,7 @@
       <c r="O243" s="18"/>
       <c r="P243" s="18"/>
     </row>
-    <row r="244" spans="1:16" ht="45">
+    <row r="244" spans="1:16" ht="28.8">
       <c r="A244" s="14" t="s">
         <v>728</v>
       </c>
@@ -18011,7 +18015,7 @@
       <c r="O244" s="18"/>
       <c r="P244" s="18"/>
     </row>
-    <row r="245" spans="1:16" ht="30">
+    <row r="245" spans="1:16" ht="28.8">
       <c r="A245" s="14" t="s">
         <v>732</v>
       </c>
@@ -18041,7 +18045,7 @@
       <c r="O245" s="18"/>
       <c r="P245" s="18"/>
     </row>
-    <row r="246" spans="1:16" ht="63.75">
+    <row r="246" spans="1:16" ht="66">
       <c r="A246" s="14" t="s">
         <v>736</v>
       </c>
@@ -18073,7 +18077,7 @@
       </c>
       <c r="P246" s="18"/>
     </row>
-    <row r="247" spans="1:16" ht="60">
+    <row r="247" spans="1:16" ht="57.6">
       <c r="A247" s="14" t="s">
         <v>739</v>
       </c>
@@ -18107,7 +18111,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="248" spans="1:16" ht="30">
+    <row r="248" spans="1:16" ht="28.8">
       <c r="A248" s="14" t="s">
         <v>743</v>
       </c>
@@ -18137,7 +18141,7 @@
       <c r="O248" s="18"/>
       <c r="P248" s="18"/>
     </row>
-    <row r="249" spans="1:16" ht="30">
+    <row r="249" spans="1:16" ht="28.8">
       <c r="A249" s="14" t="s">
         <v>747</v>
       </c>
@@ -18167,7 +18171,7 @@
       <c r="O249" s="18"/>
       <c r="P249" s="18"/>
     </row>
-    <row r="250" spans="1:16" ht="30">
+    <row r="250" spans="1:16" ht="28.8">
       <c r="A250" s="14" t="s">
         <v>750</v>
       </c>
@@ -18195,7 +18199,7 @@
       <c r="O250" s="18"/>
       <c r="P250" s="18"/>
     </row>
-    <row r="251" spans="1:16" ht="30">
+    <row r="251" spans="1:16" ht="28.8">
       <c r="A251" s="14" t="s">
         <v>751</v>
       </c>
@@ -18225,7 +18229,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="252" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="252" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A252" s="14" t="s">
         <v>768</v>
       </c>
@@ -18281,7 +18285,7 @@
       <c r="O253" s="18"/>
       <c r="P253" s="18"/>
     </row>
-    <row r="254" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="254" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A254" s="14" t="s">
         <v>770</v>
       </c>
@@ -18311,7 +18315,7 @@
       <c r="O254" s="18"/>
       <c r="P254" s="18"/>
     </row>
-    <row r="255" spans="1:16" ht="45">
+    <row r="255" spans="1:16" ht="43.2">
       <c r="A255" s="14" t="s">
         <v>755</v>
       </c>
@@ -18341,7 +18345,7 @@
         <v>742</v>
       </c>
     </row>
-    <row r="256" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="256" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A256" s="14" t="s">
         <v>775</v>
       </c>
@@ -18371,7 +18375,7 @@
       <c r="O256" s="18"/>
       <c r="P256" s="14"/>
     </row>
-    <row r="257" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="257" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A257" s="14" t="s">
         <v>778</v>
       </c>
@@ -18401,7 +18405,7 @@
       <c r="O257" s="18"/>
       <c r="P257" s="14"/>
     </row>
-    <row r="258" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="258" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A258" s="14" t="s">
         <v>780</v>
       </c>
@@ -18431,7 +18435,7 @@
       <c r="O258" s="18"/>
       <c r="P258" s="14"/>
     </row>
-    <row r="259" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="259" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A259" s="14" t="s">
         <v>781</v>
       </c>
@@ -18461,7 +18465,7 @@
       <c r="O259" s="18"/>
       <c r="P259" s="14"/>
     </row>
-    <row r="260" spans="1:16" s="2" customFormat="1" ht="30">
+    <row r="260" spans="1:16" s="2" customFormat="1" ht="28.8">
       <c r="A260" s="14" t="s">
         <v>784</v>
       </c>
@@ -18491,7 +18495,7 @@
       <c r="O260" s="18"/>
       <c r="P260" s="14"/>
     </row>
-    <row r="261" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="261" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A261" s="14" t="s">
         <v>787</v>
       </c>
@@ -18521,7 +18525,7 @@
       <c r="O261" s="18"/>
       <c r="P261" s="14"/>
     </row>
-    <row r="262" spans="1:16" ht="45">
+    <row r="262" spans="1:16" ht="28.8">
       <c r="A262" s="14" t="s">
         <v>765</v>
       </c>
@@ -18551,7 +18555,7 @@
       <c r="O262" s="18"/>
       <c r="P262" s="18"/>
     </row>
-    <row r="263" spans="1:16" ht="45">
+    <row r="263" spans="1:16" ht="28.8">
       <c r="A263" s="14" t="s">
         <v>766</v>
       </c>
@@ -18581,7 +18585,7 @@
       <c r="O263" s="18"/>
       <c r="P263" s="18"/>
     </row>
-    <row r="264" spans="1:16" ht="45">
+    <row r="264" spans="1:16" ht="28.8">
       <c r="A264" s="14" t="s">
         <v>767</v>
       </c>
@@ -18611,7 +18615,7 @@
       <c r="O264" s="18"/>
       <c r="P264" s="18"/>
     </row>
-    <row r="265" spans="1:16" ht="30">
+    <row r="265" spans="1:16" ht="28.8">
       <c r="A265" s="14" t="s">
         <v>789</v>
       </c>
@@ -18631,7 +18635,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="266" spans="1:16" ht="30">
+    <row r="266" spans="1:16" ht="28.8">
       <c r="A266" s="14" t="s">
         <v>792</v>
       </c>
@@ -18648,7 +18652,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="267" spans="1:16" ht="45">
+    <row r="267" spans="1:16" ht="43.2">
       <c r="A267" s="14" t="s">
         <v>794</v>
       </c>
@@ -18668,7 +18672,7 @@
         <v>791</v>
       </c>
     </row>
-    <row r="268" spans="1:16" ht="45">
+    <row r="268" spans="1:16" ht="43.2">
       <c r="A268" s="7" t="s">
         <v>796</v>
       </c>
@@ -18688,7 +18692,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="269" spans="1:16" ht="45">
+    <row r="269" spans="1:16" ht="28.8">
       <c r="A269" s="7" t="s">
         <v>802</v>
       </c>
@@ -18708,7 +18712,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="270" spans="1:16" ht="30">
+    <row r="270" spans="1:16" ht="28.8">
       <c r="A270" s="7" t="s">
         <v>801</v>
       </c>
@@ -18728,7 +18732,7 @@
         <v>804</v>
       </c>
     </row>
-    <row r="271" spans="1:16" ht="45">
+    <row r="271" spans="1:16" ht="43.2">
       <c r="A271" s="7" t="s">
         <v>805</v>
       </c>
@@ -18748,7 +18752,7 @@
         <v>806</v>
       </c>
     </row>
-    <row r="272" spans="1:16" ht="45">
+    <row r="272" spans="1:16" ht="43.2">
       <c r="A272" s="7" t="s">
         <v>809</v>
       </c>
@@ -18768,7 +18772,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="273" spans="1:17" ht="45">
+    <row r="273" spans="1:17" ht="43.2">
       <c r="A273" s="7" t="s">
         <v>810</v>
       </c>
@@ -18785,7 +18789,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="274" spans="1:17" ht="45">
+    <row r="274" spans="1:17" ht="43.2">
       <c r="A274" s="7" t="s">
         <v>813</v>
       </c>
@@ -18805,7 +18809,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="275" spans="1:17" ht="30">
+    <row r="275" spans="1:17" ht="28.8">
       <c r="A275" s="49" t="s">
         <v>815</v>
       </c>
@@ -18822,7 +18826,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="276" spans="1:17" ht="64.5">
+    <row r="276" spans="1:17" ht="69">
       <c r="A276" s="14" t="s">
         <v>820</v>
       </c>
@@ -18845,7 +18849,7 @@
         <v>825</v>
       </c>
     </row>
-    <row r="277" spans="1:17" ht="51.75">
+    <row r="277" spans="1:17" ht="55.2">
       <c r="A277" s="7" t="s">
         <v>827</v>
       </c>
@@ -18856,7 +18860,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="278" spans="1:17" ht="30">
+    <row r="278" spans="1:17" ht="28.8">
       <c r="A278" s="7" t="s">
         <v>830</v>
       </c>
@@ -18876,7 +18880,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="279" spans="1:17" ht="30">
+    <row r="279" spans="1:17" ht="28.8">
       <c r="A279" s="7" t="s">
         <v>832</v>
       </c>
@@ -18893,7 +18897,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="280" spans="1:17" ht="45">
+    <row r="280" spans="1:17" ht="43.2">
       <c r="A280" s="7" t="s">
         <v>834</v>
       </c>
@@ -18913,7 +18917,7 @@
         <v>798</v>
       </c>
     </row>
-    <row r="281" spans="1:17" ht="45">
+    <row r="281" spans="1:17" ht="28.8">
       <c r="A281" s="7" t="s">
         <v>836</v>
       </c>
@@ -18950,7 +18954,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="283" spans="1:17" ht="30">
+    <row r="283" spans="1:17" ht="28.8">
       <c r="A283" s="7" t="s">
         <v>840</v>
       </c>
@@ -18967,7 +18971,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="284" spans="1:17" ht="30">
+    <row r="284" spans="1:17" ht="28.8">
       <c r="A284" s="7" t="s">
         <v>841</v>
       </c>
@@ -18984,7 +18988,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="285" spans="1:17" ht="30">
+    <row r="285" spans="1:17" ht="28.8">
       <c r="A285" s="7" t="s">
         <v>843</v>
       </c>
@@ -19004,7 +19008,7 @@
         <v>844</v>
       </c>
     </row>
-    <row r="286" spans="1:17" ht="30">
+    <row r="286" spans="1:17" ht="28.8">
       <c r="A286" s="7" t="s">
         <v>846</v>
       </c>
@@ -19024,7 +19028,7 @@
         <v>848</v>
       </c>
     </row>
-    <row r="287" spans="1:17" ht="30">
+    <row r="287" spans="1:17" ht="28.8">
       <c r="A287" s="7" t="s">
         <v>849</v>
       </c>
@@ -19041,7 +19045,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="288" spans="1:17" ht="39">
+    <row r="288" spans="1:17" ht="40.200000000000003">
       <c r="A288" s="14" t="s">
         <v>850</v>
       </c>
@@ -19061,7 +19065,7 @@
         <v>851</v>
       </c>
     </row>
-    <row r="289" spans="1:15" ht="30">
+    <row r="289" spans="1:15" ht="28.8">
       <c r="A289" s="7" t="s">
         <v>853</v>
       </c>
@@ -19081,7 +19085,7 @@
         <v>854</v>
       </c>
     </row>
-    <row r="290" spans="1:15" ht="45">
+    <row r="290" spans="1:15" ht="43.2">
       <c r="A290" s="7" t="s">
         <v>856</v>
       </c>
@@ -19098,7 +19102,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="291" spans="1:15" ht="39">
+    <row r="291" spans="1:15" ht="40.200000000000003">
       <c r="A291" s="7" t="s">
         <v>857</v>
       </c>
@@ -19121,7 +19125,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="292" spans="1:15" ht="45">
+    <row r="292" spans="1:15" ht="28.8">
       <c r="A292" s="7" t="s">
         <v>864</v>
       </c>
@@ -19139,7 +19143,7 @@
       </c>
       <c r="L292" s="7"/>
     </row>
-    <row r="293" spans="1:15" ht="30">
+    <row r="293" spans="1:15" ht="28.8">
       <c r="A293" s="7" t="s">
         <v>865</v>
       </c>
@@ -19159,7 +19163,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="294" spans="1:15" ht="30">
+    <row r="294" spans="1:15" ht="28.8">
       <c r="A294" s="7" t="s">
         <v>870</v>
       </c>
@@ -19176,7 +19180,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="295" spans="1:15" ht="30">
+    <row r="295" spans="1:15" ht="28.8">
       <c r="A295" s="7" t="s">
         <v>872</v>
       </c>
@@ -19196,7 +19200,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="296" spans="1:15" ht="30">
+    <row r="296" spans="1:15" ht="28.8">
       <c r="A296" s="7" t="s">
         <v>873</v>
       </c>
@@ -19213,7 +19217,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="297" spans="1:15" ht="60">
+    <row r="297" spans="1:15" ht="57.6">
       <c r="A297" s="7" t="s">
         <v>875</v>
       </c>
@@ -19230,7 +19234,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="298" spans="1:15" ht="30">
+    <row r="298" spans="1:15" ht="28.8">
       <c r="A298" s="14" t="s">
         <v>878</v>
       </c>
@@ -19250,7 +19254,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="299" spans="1:15" ht="30">
+    <row r="299" spans="1:15" ht="28.8">
       <c r="A299" s="14" t="s">
         <v>882</v>
       </c>
@@ -19267,7 +19271,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="300" spans="1:15" ht="45">
+    <row r="300" spans="1:15" ht="28.8">
       <c r="A300" s="7" t="s">
         <v>886</v>
       </c>
@@ -19287,7 +19291,7 @@
         <v>881</v>
       </c>
     </row>
-    <row r="301" spans="1:15" ht="30">
+    <row r="301" spans="1:15">
       <c r="A301" s="7" t="s">
         <v>888</v>
       </c>
@@ -19304,7 +19308,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="302" spans="1:15" ht="30">
+    <row r="302" spans="1:15" ht="28.8">
       <c r="A302" s="7" t="s">
         <v>891</v>
       </c>
@@ -19338,7 +19342,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="304" spans="1:15" ht="30">
+    <row r="304" spans="1:15" ht="28.8">
       <c r="A304" s="7" t="s">
         <v>898</v>
       </c>
@@ -19355,7 +19359,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="305" spans="1:12" ht="30">
+    <row r="305" spans="1:12" ht="28.8">
       <c r="A305" s="7" t="s">
         <v>899</v>
       </c>
@@ -19389,7 +19393,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="307" spans="1:12" ht="30">
+    <row r="307" spans="1:12" ht="28.8">
       <c r="A307" s="7" t="s">
         <v>903</v>
       </c>
@@ -19409,7 +19413,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="308" spans="1:12" ht="30">
+    <row r="308" spans="1:12" ht="28.8">
       <c r="A308" s="7" t="s">
         <v>905</v>
       </c>
@@ -19426,7 +19430,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="309" spans="1:12" ht="45">
+    <row r="309" spans="1:12" ht="43.2">
       <c r="A309" s="7" t="s">
         <v>907</v>
       </c>
@@ -19446,7 +19450,7 @@
         <v>908</v>
       </c>
     </row>
-    <row r="310" spans="1:12" ht="30">
+    <row r="310" spans="1:12" ht="28.8">
       <c r="A310" s="7" t="s">
         <v>911</v>
       </c>
@@ -19463,7 +19467,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="311" spans="1:12" ht="45">
+    <row r="311" spans="1:12" ht="28.8">
       <c r="A311" s="7" t="s">
         <v>912</v>
       </c>
@@ -19500,7 +19504,7 @@
         <v>866</v>
       </c>
     </row>
-    <row r="313" spans="1:12" ht="45">
+    <row r="313" spans="1:12" ht="28.8">
       <c r="A313" s="7" t="s">
         <v>914</v>
       </c>
@@ -19517,7 +19521,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="314" spans="1:12" ht="30">
+    <row r="314" spans="1:12" ht="28.8">
       <c r="A314" s="7" t="s">
         <v>916</v>
       </c>
@@ -19534,7 +19538,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="315" spans="1:12" ht="45">
+    <row r="315" spans="1:12" ht="43.2">
       <c r="A315" s="7" t="s">
         <v>918</v>
       </c>
@@ -19554,7 +19558,7 @@
         <v>919</v>
       </c>
     </row>
-    <row r="316" spans="1:12" ht="30">
+    <row r="316" spans="1:12" ht="28.8">
       <c r="A316" s="7" t="s">
         <v>921</v>
       </c>
@@ -19571,7 +19575,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="317" spans="1:12" ht="30">
+    <row r="317" spans="1:12" ht="28.8">
       <c r="A317" s="7" t="s">
         <v>925</v>
       </c>
@@ -19588,7 +19592,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="318" spans="1:12" ht="30">
+    <row r="318" spans="1:12" ht="28.8">
       <c r="A318" s="7" t="s">
         <v>926</v>
       </c>
@@ -19605,7 +19609,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="319" spans="1:12" ht="30">
+    <row r="319" spans="1:12" ht="28.8">
       <c r="A319" s="7" t="s">
         <v>929</v>
       </c>
@@ -19622,7 +19626,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="320" spans="1:12" ht="26.25">
+    <row r="320" spans="1:12" ht="27">
       <c r="A320" t="s">
         <v>933</v>
       </c>
@@ -19642,7 +19646,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="321" spans="1:12" ht="30">
+    <row r="321" spans="1:12" ht="28.8">
       <c r="A321" s="7" t="s">
         <v>935</v>
       </c>
@@ -19659,7 +19663,7 @@
         <v>763</v>
       </c>
     </row>
-    <row r="322" spans="1:12" ht="45">
+    <row r="322" spans="1:12" ht="43.2">
       <c r="A322" s="7" t="s">
         <v>936</v>
       </c>
@@ -19679,7 +19683,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="323" spans="1:12" ht="30">
+    <row r="323" spans="1:12" ht="28.8">
       <c r="A323" s="7" t="s">
         <v>939</v>
       </c>
@@ -19699,7 +19703,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="324" spans="1:12" ht="45">
+    <row r="324" spans="1:12" ht="28.8">
       <c r="A324" s="7" t="s">
         <v>941</v>
       </c>
@@ -19719,7 +19723,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="325" spans="1:12" ht="45">
+    <row r="325" spans="1:12" ht="43.2">
       <c r="A325" s="7" t="s">
         <v>943</v>
       </c>
@@ -19736,7 +19740,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="326" spans="1:12" ht="26.25">
+    <row r="326" spans="1:12" ht="27">
       <c r="A326" t="s">
         <v>945</v>
       </c>
@@ -19756,7 +19760,7 @@
         <v>937</v>
       </c>
     </row>
-    <row r="327" spans="1:12" ht="30">
+    <row r="327" spans="1:12" ht="28.8">
       <c r="A327" s="7" t="s">
         <v>947</v>
       </c>
@@ -19767,7 +19771,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="328" spans="1:12" ht="45">
+    <row r="328" spans="1:12" ht="28.8">
       <c r="A328" s="7" t="s">
         <v>951</v>
       </c>
@@ -19784,7 +19788,7 @@
         <v>953</v>
       </c>
     </row>
-    <row r="329" spans="1:12" ht="45">
+    <row r="329" spans="1:12" ht="28.8">
       <c r="A329" s="7" t="s">
         <v>955</v>
       </c>
@@ -19798,7 +19802,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="330" spans="1:12" ht="30">
+    <row r="330" spans="1:12" ht="28.8">
       <c r="A330" s="7" t="s">
         <v>957</v>
       </c>
@@ -19815,7 +19819,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="331" spans="1:12" ht="45">
+    <row r="331" spans="1:12" ht="28.8">
       <c r="A331" s="7" t="s">
         <v>959</v>
       </c>
@@ -19832,7 +19836,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="332" spans="1:12" ht="30">
+    <row r="332" spans="1:12" ht="28.8">
       <c r="A332" s="7" t="s">
         <v>961</v>
       </c>
@@ -19852,7 +19856,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="333" spans="1:12" ht="30">
+    <row r="333" spans="1:12" ht="28.8">
       <c r="A333" s="7" t="s">
         <v>964</v>
       </c>
@@ -19869,7 +19873,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="334" spans="1:12" ht="30">
+    <row r="334" spans="1:12" ht="28.8">
       <c r="A334" s="7" t="s">
         <v>966</v>
       </c>
@@ -19886,7 +19890,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="335" spans="1:12" ht="30">
+    <row r="335" spans="1:12" ht="28.8">
       <c r="A335" s="7" t="s">
         <v>968</v>
       </c>
@@ -19903,7 +19907,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="336" spans="1:12" ht="30">
+    <row r="336" spans="1:12" ht="28.8">
       <c r="A336" s="7" t="s">
         <v>971</v>
       </c>
@@ -19920,7 +19924,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="337" spans="1:17" ht="30">
+    <row r="337" spans="1:17" ht="28.8">
       <c r="A337" s="7" t="s">
         <v>972</v>
       </c>
@@ -19940,7 +19944,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="338" spans="1:17" ht="30">
+    <row r="338" spans="1:17" ht="28.8">
       <c r="A338" s="7" t="s">
         <v>974</v>
       </c>
@@ -19957,7 +19961,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="339" spans="1:17" ht="30">
+    <row r="339" spans="1:17" ht="28.8">
       <c r="A339" s="7" t="s">
         <v>982</v>
       </c>
@@ -19977,7 +19981,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="340" spans="1:17" ht="45">
+    <row r="340" spans="1:17" ht="43.2">
       <c r="A340" s="7" t="s">
         <v>984</v>
       </c>
@@ -19997,7 +20001,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="341" spans="1:17" ht="30">
+    <row r="341" spans="1:17" ht="28.8">
       <c r="A341" s="7" t="s">
         <v>986</v>
       </c>
@@ -20017,7 +20021,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="342" spans="1:17" ht="30">
+    <row r="342" spans="1:17" ht="28.8">
       <c r="A342" s="7" t="s">
         <v>988</v>
       </c>
@@ -20080,7 +20084,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="345" spans="1:17" ht="30">
+    <row r="345" spans="1:17" ht="28.8">
       <c r="A345" s="7" t="s">
         <v>1003</v>
       </c>
@@ -20098,7 +20102,7 @@
       </c>
       <c r="L345" s="2"/>
     </row>
-    <row r="346" spans="1:17" ht="30">
+    <row r="346" spans="1:17" ht="28.8">
       <c r="A346" s="7" t="s">
         <v>1005</v>
       </c>
@@ -20124,7 +20128,7 @@
         <v>1002</v>
       </c>
     </row>
-    <row r="347" spans="1:17" ht="45">
+    <row r="347" spans="1:17" ht="43.2">
       <c r="A347" s="7" t="s">
         <v>1007</v>
       </c>
@@ -20170,7 +20174,7 @@
         <v>1014</v>
       </c>
     </row>
-    <row r="349" spans="1:17" ht="30">
+    <row r="349" spans="1:17" ht="28.8">
       <c r="A349" s="7" t="s">
         <v>1016</v>
       </c>
@@ -20190,7 +20194,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="350" spans="1:17" ht="30">
+    <row r="350" spans="1:17" ht="28.8">
       <c r="A350" s="7" t="s">
         <v>1019</v>
       </c>
@@ -20210,7 +20214,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="351" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="351" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A351" s="7" t="s">
         <v>1022</v>
       </c>
@@ -20228,7 +20232,7 @@
       </c>
       <c r="L351" s="7"/>
     </row>
-    <row r="352" spans="1:17" s="2" customFormat="1" ht="30">
+    <row r="352" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A352" s="7" t="s">
         <v>1024</v>
       </c>
@@ -20246,7 +20250,7 @@
       </c>
       <c r="L352" s="7"/>
     </row>
-    <row r="353" spans="1:14" ht="30">
+    <row r="353" spans="1:14" ht="28.8">
       <c r="A353" s="7" t="s">
         <v>1020</v>
       </c>
@@ -20263,7 +20267,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="354" spans="1:14" ht="45">
+    <row r="354" spans="1:14" ht="43.2">
       <c r="A354" s="14" t="s">
         <v>1025</v>
       </c>
@@ -20283,7 +20287,7 @@
         <v>1026</v>
       </c>
     </row>
-    <row r="355" spans="1:14" ht="30">
+    <row r="355" spans="1:14" ht="28.8">
       <c r="A355" s="7" t="s">
         <v>1028</v>
       </c>
@@ -20300,7 +20304,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="356" spans="1:14" ht="30">
+    <row r="356" spans="1:14" ht="28.8">
       <c r="A356" s="7" t="s">
         <v>1030</v>
       </c>
@@ -20317,7 +20321,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="357" spans="1:14" ht="30">
+    <row r="357" spans="1:14" ht="28.8">
       <c r="A357" s="7" t="s">
         <v>1032</v>
       </c>
@@ -20337,7 +20341,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="358" spans="1:14" ht="30">
+    <row r="358" spans="1:14" ht="28.8">
       <c r="A358" s="7" t="s">
         <v>1035</v>
       </c>
@@ -20357,7 +20361,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="359" spans="1:14" ht="30">
+    <row r="359" spans="1:14" ht="28.8">
       <c r="A359" s="7" t="s">
         <v>1039</v>
       </c>
@@ -20375,7 +20379,7 @@
       </c>
       <c r="L359" s="7"/>
     </row>
-    <row r="360" spans="1:14" s="2" customFormat="1" ht="45">
+    <row r="360" spans="1:14" s="2" customFormat="1" ht="43.2">
       <c r="A360" s="7" t="s">
         <v>1046</v>
       </c>
@@ -20398,7 +20402,7 @@
         <v>1049</v>
       </c>
     </row>
-    <row r="361" spans="1:14" ht="45">
+    <row r="361" spans="1:14" ht="43.2">
       <c r="A361" s="7" t="s">
         <v>1041</v>
       </c>
@@ -20418,7 +20422,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="362" spans="1:14" ht="30">
+    <row r="362" spans="1:14" ht="28.8">
       <c r="A362" t="s">
         <v>1044</v>
       </c>
@@ -20438,7 +20442,7 @@
         <v>1033</v>
       </c>
     </row>
-    <row r="363" spans="1:14" ht="30">
+    <row r="363" spans="1:14" ht="28.8">
       <c r="A363" s="7" t="s">
         <v>1050</v>
       </c>
@@ -20455,7 +20459,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="364" spans="1:14" ht="30">
+    <row r="364" spans="1:14" ht="28.8">
       <c r="A364" s="7" t="s">
         <v>1052</v>
       </c>
@@ -20472,7 +20476,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="365" spans="1:14" ht="30">
+    <row r="365" spans="1:14" ht="28.8">
       <c r="A365" s="7" t="s">
         <v>1055</v>
       </c>
@@ -20489,7 +20493,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="366" spans="1:14" ht="30">
+    <row r="366" spans="1:14" ht="28.8">
       <c r="A366" s="7" t="s">
         <v>1057</v>
       </c>
@@ -20506,7 +20510,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="367" spans="1:14" ht="30">
+    <row r="367" spans="1:14" ht="28.8">
       <c r="A367" s="7" t="s">
         <v>1059</v>
       </c>
@@ -20523,7 +20527,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="368" spans="1:14" ht="45">
+    <row r="368" spans="1:14" ht="43.2">
       <c r="A368" s="7" t="s">
         <v>1061</v>
       </c>
@@ -20540,7 +20544,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="369" spans="1:16" ht="30">
+    <row r="369" spans="1:16" ht="28.8">
       <c r="A369" s="7" t="s">
         <v>1063</v>
       </c>
@@ -20563,7 +20567,7 @@
         <v>1065</v>
       </c>
     </row>
-    <row r="370" spans="1:16" ht="30">
+    <row r="370" spans="1:16" ht="28.8">
       <c r="A370" s="7" t="s">
         <v>1067</v>
       </c>
@@ -20580,7 +20584,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="371" spans="1:16" ht="45">
+    <row r="371" spans="1:16" ht="43.2">
       <c r="A371" s="7" t="s">
         <v>1069</v>
       </c>
@@ -20597,7 +20601,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="372" spans="1:16" s="2" customFormat="1" ht="45">
+    <row r="372" spans="1:16" s="2" customFormat="1" ht="43.2">
       <c r="A372" s="7" t="s">
         <v>1075</v>
       </c>
@@ -20617,7 +20621,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="373" spans="1:16" ht="45">
+    <row r="373" spans="1:16" ht="43.2">
       <c r="A373" s="7" t="s">
         <v>1071</v>
       </c>
@@ -20634,7 +20638,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="374" spans="1:16" ht="30">
+    <row r="374" spans="1:16" ht="28.8">
       <c r="A374" s="7" t="s">
         <v>1073</v>
       </c>
@@ -20654,7 +20658,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="375" spans="1:16" ht="30">
+    <row r="375" spans="1:16" ht="28.8">
       <c r="A375" s="7" t="s">
         <v>1080</v>
       </c>
@@ -20671,7 +20675,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="376" spans="1:16" ht="30">
+    <row r="376" spans="1:16" ht="28.8">
       <c r="A376" s="7" t="s">
         <v>1082</v>
       </c>
@@ -20688,7 +20692,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="377" spans="1:16" ht="43.9" customHeight="1">
+    <row r="377" spans="1:16" ht="43.95" customHeight="1">
       <c r="A377" s="14" t="s">
         <v>1085</v>
       </c>
@@ -20708,7 +20712,7 @@
         <v>1084</v>
       </c>
     </row>
-    <row r="378" spans="1:16" ht="45">
+    <row r="378" spans="1:16" ht="28.8">
       <c r="A378" s="7" t="s">
         <v>1087</v>
       </c>
@@ -20726,7 +20730,7 @@
       </c>
       <c r="L378" s="7"/>
     </row>
-    <row r="379" spans="1:16" ht="30">
+    <row r="379" spans="1:16" ht="28.8">
       <c r="A379" s="64" t="s">
         <v>1089</v>
       </c>
@@ -20746,7 +20750,7 @@
         <v>962</v>
       </c>
     </row>
-    <row r="380" spans="1:16" ht="30">
+    <row r="380" spans="1:16" ht="28.8">
       <c r="A380" s="7" t="s">
         <v>1091</v>
       </c>
@@ -20783,7 +20787,7 @@
         <v>761</v>
       </c>
     </row>
-    <row r="382" spans="1:16" ht="30">
+    <row r="382" spans="1:16" ht="28.8">
       <c r="A382" s="7" t="s">
         <v>1095</v>
       </c>
@@ -20803,7 +20807,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="383" spans="1:16" ht="30">
+    <row r="383" spans="1:16" ht="28.8">
       <c r="A383" s="7" t="s">
         <v>1097</v>
       </c>
@@ -20823,7 +20827,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="384" spans="1:16" ht="45">
+    <row r="384" spans="1:16" ht="43.2">
       <c r="A384" s="7" t="s">
         <v>1100</v>
       </c>
@@ -20843,7 +20847,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="385" spans="1:17" ht="30">
+    <row r="385" spans="1:17" ht="28.8">
       <c r="A385" s="7" t="s">
         <v>1104</v>
       </c>
@@ -20860,7 +20864,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="386" spans="1:17" ht="30">
+    <row r="386" spans="1:17" ht="28.8">
       <c r="A386" s="7" t="s">
         <v>1105</v>
       </c>
@@ -21478,14 +21482,14 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="46.28515625" customWidth="1"/>
-    <col min="2" max="2" width="26.140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="46.33203125" customWidth="1"/>
+    <col min="2" max="2" width="26.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" ht="15.75" thickBot="1">
+    <row r="1" spans="1:3" ht="15" thickBot="1">
       <c r="A1" s="5" t="s">
         <v>17</v>
       </c>
@@ -21529,7 +21533,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="165">
+    <row r="5" spans="1:3" ht="158.4">
       <c r="A5" s="3" t="s">
         <v>13</v>
       </c>
@@ -21540,7 +21544,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="225">
+    <row r="6" spans="1:3" ht="201.6">
       <c r="A6" s="3" t="s">
         <v>14</v>
       </c>
@@ -21566,25 +21570,25 @@
       <selection pane="bottomLeft" activeCell="H177" sqref="H177"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="40.7109375" style="19" customWidth="1" collapsed="1"/>
-    <col min="2" max="2" width="17.140625" style="18" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="16.5703125" style="18" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
+    <col min="1" max="1" width="40.6640625" style="19" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="17.109375" style="18" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="16.5546875" style="18" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
     <col min="6" max="8" width="24" style="18" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="22.7109375" style="18" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="18.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="11" width="24.42578125" style="18" customWidth="1" collapsed="1"/>
-    <col min="12" max="12" width="26.28515625" style="18" customWidth="1" collapsed="1"/>
-    <col min="13" max="13" width="23.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="14" max="14" width="24.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="15" max="15" width="20.7109375" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16" width="12.28515625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="22.6640625" style="18" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="18.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="24.44140625" style="18" customWidth="1" collapsed="1"/>
+    <col min="12" max="12" width="26.33203125" style="18" customWidth="1" collapsed="1"/>
+    <col min="13" max="13" width="23.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="14" max="14" width="24.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="15" max="15" width="20.6640625" style="18" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16" width="12.33203125" style="18" bestFit="1" customWidth="1" collapsed="1"/>
     <col min="17" max="17" width="19" style="18" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="18" max="18" width="29.85546875" style="18" customWidth="1" collapsed="1"/>
-    <col min="19" max="16384" width="8.85546875" style="18"/>
+    <col min="18" max="18" width="29.88671875" style="18" customWidth="1" collapsed="1"/>
+    <col min="19" max="16384" width="8.88671875" style="18"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19" s="16" customFormat="1">
@@ -21632,7 +21636,7 @@
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
     </row>
-    <row r="3" spans="1:19" ht="30">
+    <row r="3" spans="1:19" ht="28.8">
       <c r="A3" s="17" t="s">
         <v>27</v>
       </c>
@@ -21657,7 +21661,7 @@
       <c r="H3" s="14"/>
       <c r="I3" s="14"/>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19">
       <c r="A4" s="17" t="s">
         <v>30</v>
       </c>
@@ -21677,7 +21681,7 @@
       <c r="G4" s="14"/>
       <c r="H4" s="14"/>
     </row>
-    <row r="5" spans="1:19" ht="30">
+    <row r="5" spans="1:19" ht="28.8">
       <c r="A5" s="17" t="s">
         <v>31</v>
       </c>
@@ -21699,7 +21703,7 @@
       <c r="G5" s="14"/>
       <c r="H5" s="14"/>
     </row>
-    <row r="6" spans="1:19" ht="30">
+    <row r="6" spans="1:19" ht="28.8">
       <c r="A6" s="17" t="s">
         <v>33</v>
       </c>
@@ -21725,7 +21729,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:19" ht="30">
+    <row r="7" spans="1:19" ht="28.8">
       <c r="A7" s="17" t="s">
         <v>38</v>
       </c>
@@ -21745,7 +21749,7 @@
       <c r="G7" s="14"/>
       <c r="H7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="45">
+    <row r="8" spans="1:19" ht="43.2">
       <c r="A8" s="17" t="s">
         <v>40</v>
       </c>
@@ -21768,7 +21772,7 @@
       <c r="H8" s="14"/>
       <c r="I8" s="14"/>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" s="17" t="s">
         <v>43</v>
       </c>
@@ -21788,7 +21792,7 @@
       <c r="G9" s="14"/>
       <c r="H9" s="14"/>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" s="17" t="s">
         <v>45</v>
       </c>
@@ -21812,7 +21816,7 @@
       </c>
       <c r="H10" s="14"/>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" s="17" t="s">
         <v>49</v>
       </c>
@@ -21908,7 +21912,7 @@
       </c>
       <c r="H14" s="14"/>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="17" t="s">
         <v>54</v>
       </c>
@@ -21934,7 +21938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="17" t="s">
         <v>90</v>
       </c>
@@ -21956,7 +21960,7 @@
       <c r="G16" s="14"/>
       <c r="H16" s="14"/>
     </row>
-    <row r="17" spans="1:11" ht="45">
+    <row r="17" spans="1:11" ht="43.2">
       <c r="A17" s="17" t="s">
         <v>63</v>
       </c>
@@ -21980,7 +21984,7 @@
       </c>
       <c r="H17" s="14"/>
     </row>
-    <row r="18" spans="1:11" ht="30">
+    <row r="18" spans="1:11" ht="28.8">
       <c r="A18" s="17" t="s">
         <v>71</v>
       </c>
@@ -22006,7 +22010,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:11" ht="45">
+    <row r="19" spans="1:11" ht="43.2">
       <c r="A19" s="17" t="s">
         <v>78</v>
       </c>
@@ -22026,7 +22030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:11" ht="30">
+    <row r="20" spans="1:11" ht="28.8">
       <c r="A20" s="17" t="s">
         <v>83</v>
       </c>
@@ -22052,7 +22056,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="21" spans="1:11" ht="30">
+    <row r="21" spans="1:11" ht="28.8">
       <c r="A21" s="17" t="s">
         <v>86</v>
       </c>
@@ -22078,7 +22082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:11" ht="45">
+    <row r="22" spans="1:11" ht="43.2">
       <c r="A22" s="17" t="s">
         <v>89</v>
       </c>
@@ -22124,7 +22128,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="30">
+    <row r="24" spans="1:11" ht="28.8">
       <c r="A24" s="19" t="s">
         <v>94</v>
       </c>
@@ -22147,7 +22151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:11" ht="30">
+    <row r="25" spans="1:11" ht="28.8">
       <c r="A25" s="19" t="s">
         <v>97</v>
       </c>
@@ -22170,7 +22174,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="30">
+    <row r="26" spans="1:11" ht="28.8">
       <c r="A26" s="17" t="s">
         <v>266</v>
       </c>
@@ -22205,7 +22209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:11" ht="30">
+    <row r="27" spans="1:11" ht="28.8">
       <c r="A27" s="17" t="s">
         <v>280</v>
       </c>
@@ -22230,7 +22234,7 @@
       <c r="I27" s="14"/>
       <c r="J27" s="14"/>
     </row>
-    <row r="28" spans="1:11" ht="30">
+    <row r="28" spans="1:11" ht="28.8">
       <c r="A28" s="19" t="s">
         <v>100</v>
       </c>
@@ -22256,7 +22260,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:11" ht="30">
+    <row r="29" spans="1:11" ht="28.8">
       <c r="A29" s="17" t="s">
         <v>407</v>
       </c>
@@ -22282,7 +22286,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="30" spans="1:11" ht="45">
+    <row r="30" spans="1:11" ht="43.2">
       <c r="A30" s="17" t="s">
         <v>105</v>
       </c>
@@ -22302,7 +22306,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="31" spans="1:11" ht="25.9" customHeight="1">
+    <row r="31" spans="1:11" ht="25.95" customHeight="1">
       <c r="A31" s="17" t="s">
         <v>409</v>
       </c>
@@ -22328,7 +22332,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="30">
+    <row r="32" spans="1:11" ht="28.8">
       <c r="A32" s="17" t="s">
         <v>107</v>
       </c>
@@ -22352,7 +22356,7 @@
       </c>
       <c r="H32" s="14"/>
     </row>
-    <row r="33" spans="1:9" ht="30">
+    <row r="33" spans="1:9" ht="28.8">
       <c r="A33" s="17" t="s">
         <v>110</v>
       </c>
@@ -22381,7 +22385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:9" ht="30">
+    <row r="34" spans="1:9" ht="28.8">
       <c r="A34" s="19" t="s">
         <v>114</v>
       </c>
@@ -22407,7 +22411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:9" ht="30">
+    <row r="35" spans="1:9" ht="28.8">
       <c r="A35" s="19" t="s">
         <v>117</v>
       </c>
@@ -22433,7 +22437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:9" ht="30">
+    <row r="36" spans="1:9" ht="28.8">
       <c r="A36" s="19" t="s">
         <v>122</v>
       </c>
@@ -22459,7 +22463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:9" ht="30">
+    <row r="37" spans="1:9" ht="28.8">
       <c r="A37" s="19" t="s">
         <v>123</v>
       </c>
@@ -22485,7 +22489,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:9" ht="45">
+    <row r="38" spans="1:9" ht="28.8">
       <c r="A38" s="19" t="s">
         <v>126</v>
       </c>
@@ -22511,7 +22515,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:9" ht="45">
+    <row r="39" spans="1:9" ht="43.2">
       <c r="A39" s="19" t="s">
         <v>129</v>
       </c>
@@ -22537,7 +22541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:9" ht="45">
+    <row r="40" spans="1:9" ht="28.8">
       <c r="A40" s="17" t="s">
         <v>132</v>
       </c>
@@ -22560,7 +22564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:9" ht="45">
+    <row r="41" spans="1:9" ht="28.8">
       <c r="A41" s="19" t="s">
         <v>135</v>
       </c>
@@ -22586,7 +22590,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:9" ht="45">
+    <row r="42" spans="1:9" ht="43.2">
       <c r="A42" s="19" t="s">
         <v>138</v>
       </c>
@@ -22612,7 +22616,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:9" ht="45">
+    <row r="43" spans="1:9" ht="43.2">
       <c r="A43" s="19" t="s">
         <v>141</v>
       </c>
@@ -22638,7 +22642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:9" ht="45">
+    <row r="44" spans="1:9" ht="43.2">
       <c r="A44" s="19" t="s">
         <v>144</v>
       </c>
@@ -22664,7 +22668,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:9" ht="45">
+    <row r="45" spans="1:9" ht="28.8">
       <c r="A45" s="19" t="s">
         <v>147</v>
       </c>
@@ -22690,7 +22694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:9" ht="45">
+    <row r="46" spans="1:9" ht="43.2">
       <c r="A46" s="19" t="s">
         <v>149</v>
       </c>
@@ -22719,7 +22723,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:9" ht="45">
+    <row r="47" spans="1:9" ht="43.2">
       <c r="A47" s="19" t="s">
         <v>152</v>
       </c>
@@ -22748,7 +22752,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:9" ht="45">
+    <row r="48" spans="1:9" ht="43.2">
       <c r="A48" s="19" t="s">
         <v>155</v>
       </c>
@@ -22777,7 +22781,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:11" ht="45">
+    <row r="49" spans="1:11" ht="43.2">
       <c r="A49" s="17" t="s">
         <v>158</v>
       </c>
@@ -22806,7 +22810,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:11" ht="30">
+    <row r="50" spans="1:11" ht="28.8">
       <c r="A50" s="19" t="s">
         <v>160</v>
       </c>
@@ -22838,7 +22842,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:11" ht="30">
+    <row r="51" spans="1:11" ht="28.8">
       <c r="A51" s="19" t="s">
         <v>165</v>
       </c>
@@ -22864,7 +22868,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:11" ht="45">
+    <row r="52" spans="1:11" ht="43.2">
       <c r="A52" s="17" t="s">
         <v>170</v>
       </c>
@@ -22893,7 +22897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:11" ht="30">
+    <row r="53" spans="1:11" ht="28.8">
       <c r="A53" s="19" t="s">
         <v>172</v>
       </c>
@@ -22925,7 +22929,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:11" ht="45">
+    <row r="54" spans="1:11" ht="43.2">
       <c r="A54" s="17" t="s">
         <v>175</v>
       </c>
@@ -22954,7 +22958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:11" ht="45">
+    <row r="55" spans="1:11" ht="28.8">
       <c r="A55" s="19" t="s">
         <v>177</v>
       </c>
@@ -22989,7 +22993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:11" ht="60">
+    <row r="56" spans="1:11" ht="43.2">
       <c r="A56" s="17" t="s">
         <v>181</v>
       </c>
@@ -23015,7 +23019,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:11" ht="30">
+    <row r="57" spans="1:11" ht="28.8">
       <c r="A57" s="19" t="s">
         <v>374</v>
       </c>
@@ -23050,7 +23054,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="58" spans="1:11" ht="45">
+    <row r="58" spans="1:11" ht="43.2">
       <c r="A58" s="17" t="s">
         <v>185</v>
       </c>
@@ -23076,7 +23080,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:11" ht="45">
+    <row r="59" spans="1:11" ht="43.2">
       <c r="A59" s="19" t="s">
         <v>187</v>
       </c>
@@ -23105,7 +23109,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:11" ht="45">
+    <row r="60" spans="1:11" ht="43.2">
       <c r="A60" s="19" t="s">
         <v>190</v>
       </c>
@@ -23134,7 +23138,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:11" ht="45">
+    <row r="61" spans="1:11" ht="43.2">
       <c r="A61" s="17" t="s">
         <v>193</v>
       </c>
@@ -23163,7 +23167,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:11" ht="45">
+    <row r="62" spans="1:11" ht="43.2">
       <c r="A62" s="17" t="s">
         <v>195</v>
       </c>
@@ -23192,7 +23196,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:11" ht="30">
+    <row r="63" spans="1:11" ht="28.8">
       <c r="A63" s="19" t="s">
         <v>199</v>
       </c>
@@ -23224,7 +23228,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="64" spans="1:11" ht="30">
+    <row r="64" spans="1:11" ht="28.8">
       <c r="A64" s="17" t="s">
         <v>202</v>
       </c>
@@ -23250,7 +23254,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="65" spans="1:13" ht="45">
+    <row r="65" spans="1:13" ht="43.2">
       <c r="A65" s="19" t="s">
         <v>205</v>
       </c>
@@ -23279,7 +23283,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:13" ht="45">
+    <row r="66" spans="1:13" ht="28.8">
       <c r="A66" s="19" t="s">
         <v>208</v>
       </c>
@@ -23308,7 +23312,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:13" ht="30">
+    <row r="67" spans="1:13" ht="28.8">
       <c r="A67" s="19" t="s">
         <v>210</v>
       </c>
@@ -23340,7 +23344,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:13" ht="30">
+    <row r="68" spans="1:13" ht="28.8">
       <c r="A68" s="17" t="s">
         <v>213</v>
       </c>
@@ -23381,7 +23385,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:13" ht="30">
+    <row r="69" spans="1:13" ht="28.8">
       <c r="A69" s="19" t="s">
         <v>220</v>
       </c>
@@ -23407,7 +23411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:13" ht="30">
+    <row r="70" spans="1:13" ht="28.8">
       <c r="A70" s="19" t="s">
         <v>222</v>
       </c>
@@ -23433,7 +23437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:13" ht="30">
+    <row r="71" spans="1:13" ht="28.8">
       <c r="A71" s="17" t="s">
         <v>224</v>
       </c>
@@ -23462,7 +23466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:13" ht="45">
+    <row r="72" spans="1:13" ht="43.2">
       <c r="A72" s="17" t="s">
         <v>226</v>
       </c>
@@ -23497,7 +23501,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="73" spans="1:13" ht="45">
+    <row r="73" spans="1:13" ht="43.2">
       <c r="A73" s="17" t="s">
         <v>230</v>
       </c>
@@ -23532,7 +23536,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:13" ht="30">
+    <row r="74" spans="1:13" ht="28.8">
       <c r="A74" s="17" t="s">
         <v>234</v>
       </c>
@@ -23561,7 +23565,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:13" ht="45">
+    <row r="75" spans="1:13" ht="28.8">
       <c r="A75" s="17" t="s">
         <v>251</v>
       </c>
@@ -23596,7 +23600,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:13" ht="30">
+    <row r="76" spans="1:13" ht="28.8">
       <c r="A76" s="19" t="s">
         <v>272</v>
       </c>
@@ -23637,7 +23641,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="77" spans="1:13" ht="30">
+    <row r="77" spans="1:13" ht="28.8">
       <c r="A77" s="14" t="s">
         <v>242</v>
       </c>
@@ -23675,7 +23679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:13" ht="30">
+    <row r="78" spans="1:13" ht="28.8">
       <c r="A78" s="17" t="s">
         <v>247</v>
       </c>
@@ -23716,7 +23720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:13" ht="30">
+    <row r="79" spans="1:13" ht="28.8">
       <c r="A79" s="17" t="s">
         <v>253</v>
       </c>
@@ -23757,7 +23761,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:13" ht="30">
+    <row r="80" spans="1:13" ht="28.8">
       <c r="A80" s="17" t="s">
         <v>255</v>
       </c>
@@ -23798,7 +23802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:13" ht="30">
+    <row r="81" spans="1:13" ht="28.8">
       <c r="A81" s="19" t="s">
         <v>259</v>
       </c>
@@ -23836,7 +23840,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:13" ht="45">
+    <row r="82" spans="1:13" ht="28.8">
       <c r="A82" s="17" t="s">
         <v>262</v>
       </c>
@@ -23877,7 +23881,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:13" ht="30">
+    <row r="83" spans="1:13" ht="28.8">
       <c r="A83" s="17" t="s">
         <v>268</v>
       </c>
@@ -23906,7 +23910,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:13" ht="45">
+    <row r="84" spans="1:13" ht="43.2">
       <c r="A84" s="19" t="s">
         <v>273</v>
       </c>
@@ -23929,7 +23933,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:13" ht="30">
+    <row r="85" spans="1:13" ht="28.8">
       <c r="A85" s="17" t="s">
         <v>278</v>
       </c>
@@ -23958,7 +23962,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="86" spans="1:13" ht="30">
+    <row r="86" spans="1:13" ht="28.8">
       <c r="A86" s="19" t="s">
         <v>283</v>
       </c>
@@ -23987,7 +23991,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:13" ht="30">
+    <row r="87" spans="1:13" ht="28.8">
       <c r="A87" s="19" t="s">
         <v>286</v>
       </c>
@@ -24016,7 +24020,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:13" ht="30">
+    <row r="88" spans="1:13" ht="28.8">
       <c r="A88" s="17" t="s">
         <v>289</v>
       </c>
@@ -24045,7 +24049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:13" ht="30">
+    <row r="89" spans="1:13" ht="28.8">
       <c r="A89" s="17" t="s">
         <v>293</v>
       </c>
@@ -24074,7 +24078,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:13" ht="30">
+    <row r="90" spans="1:13" ht="28.8">
       <c r="A90" s="19" t="s">
         <v>295</v>
       </c>
@@ -24103,7 +24107,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:13" ht="30">
+    <row r="91" spans="1:13" ht="28.8">
       <c r="A91" s="19" t="s">
         <v>297</v>
       </c>
@@ -24132,7 +24136,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="92" spans="1:13" ht="30">
+    <row r="92" spans="1:13" ht="28.8">
       <c r="A92" s="14" t="s">
         <v>299</v>
       </c>
@@ -24161,7 +24165,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:13" ht="30">
+    <row r="93" spans="1:13" ht="28.8">
       <c r="A93" s="14" t="s">
         <v>301</v>
       </c>
@@ -24190,7 +24194,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:13" ht="30">
+    <row r="94" spans="1:13" ht="28.8">
       <c r="A94" s="17" t="s">
         <v>303</v>
       </c>
@@ -24219,7 +24223,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:13" ht="45">
+    <row r="95" spans="1:13" ht="43.2">
       <c r="A95" s="17" t="s">
         <v>305</v>
       </c>
@@ -24245,7 +24249,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:13" ht="45">
+    <row r="96" spans="1:13" ht="43.2">
       <c r="A96" s="17" t="s">
         <v>308</v>
       </c>
@@ -24271,7 +24275,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:10" ht="45">
+    <row r="97" spans="1:10" ht="43.2">
       <c r="A97" s="17" t="s">
         <v>310</v>
       </c>
@@ -24297,7 +24301,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:10" ht="45">
+    <row r="98" spans="1:10" ht="43.2">
       <c r="A98" s="17" t="s">
         <v>327</v>
       </c>
@@ -24326,7 +24330,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:10" ht="43.9" customHeight="1">
+    <row r="99" spans="1:10" ht="43.95" customHeight="1">
       <c r="A99" s="17" t="s">
         <v>313</v>
       </c>
@@ -24352,7 +24356,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="100" spans="1:10" ht="45">
+    <row r="100" spans="1:10" ht="43.2">
       <c r="A100" s="17" t="s">
         <v>315</v>
       </c>
@@ -24378,7 +24382,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:10" ht="45">
+    <row r="101" spans="1:10" ht="43.2">
       <c r="A101" s="17" t="s">
         <v>330</v>
       </c>
@@ -24407,7 +24411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:10" ht="60">
+    <row r="102" spans="1:10" ht="43.2">
       <c r="A102" s="21" t="s">
         <v>318</v>
       </c>
@@ -24433,7 +24437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:10" ht="45">
+    <row r="103" spans="1:10" ht="28.8">
       <c r="A103" s="17" t="s">
         <v>321</v>
       </c>
@@ -24459,7 +24463,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:10" ht="45">
+    <row r="104" spans="1:10" ht="28.8">
       <c r="A104" s="17" t="s">
         <v>332</v>
       </c>
@@ -24488,7 +24492,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:10" ht="45">
+    <row r="105" spans="1:10" ht="43.2">
       <c r="A105" s="17" t="s">
         <v>324</v>
       </c>
@@ -24514,7 +24518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="106" spans="1:10" ht="30">
+    <row r="106" spans="1:10" ht="28.8">
       <c r="A106" s="17" t="s">
         <v>334</v>
       </c>
@@ -24537,7 +24541,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:10" ht="45">
+    <row r="107" spans="1:10" ht="43.2">
       <c r="A107" s="17" t="s">
         <v>336</v>
       </c>
@@ -24569,7 +24573,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:10" ht="45">
+    <row r="108" spans="1:10" ht="43.2">
       <c r="A108" s="17" t="s">
         <v>340</v>
       </c>
@@ -24601,7 +24605,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="109" spans="1:10" ht="30">
+    <row r="109" spans="1:10" ht="28.8">
       <c r="A109" s="17" t="s">
         <v>344</v>
       </c>
@@ -24627,7 +24631,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="110" spans="1:10" ht="45">
+    <row r="110" spans="1:10" ht="43.2">
       <c r="A110" s="17" t="s">
         <v>350</v>
       </c>
@@ -24656,7 +24660,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:10" ht="30">
+    <row r="111" spans="1:10" ht="28.8">
       <c r="A111" s="17" t="s">
         <v>351</v>
       </c>
@@ -24688,7 +24692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:10" ht="30">
+    <row r="112" spans="1:10" ht="28.8">
       <c r="A112" s="17" t="s">
         <v>354</v>
       </c>
@@ -24720,7 +24724,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:17" ht="30">
+    <row r="113" spans="1:17" ht="28.8">
       <c r="A113" s="17" t="s">
         <v>359</v>
       </c>
@@ -24746,7 +24750,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:17" ht="30">
+    <row r="114" spans="1:17" ht="28.8">
       <c r="A114" s="17" t="s">
         <v>360</v>
       </c>
@@ -24775,7 +24779,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:17" ht="45">
+    <row r="115" spans="1:17" ht="43.2">
       <c r="A115" s="17" t="s">
         <v>362</v>
       </c>
@@ -24804,7 +24808,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:17" ht="60">
+    <row r="116" spans="1:17" ht="43.2">
       <c r="A116" s="17" t="s">
         <v>364</v>
       </c>
@@ -24830,7 +24834,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:17" ht="30">
+    <row r="117" spans="1:17" ht="28.8">
       <c r="A117" s="17" t="s">
         <v>367</v>
       </c>
@@ -24856,7 +24860,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:17" ht="30">
+    <row r="118" spans="1:17" ht="28.8">
       <c r="A118" s="19" t="s">
         <v>370</v>
       </c>
@@ -24882,7 +24886,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:17" ht="30">
+    <row r="119" spans="1:17" ht="28.8">
       <c r="A119" s="19" t="s">
         <v>375</v>
       </c>
@@ -24908,7 +24912,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:17" ht="60">
+    <row r="120" spans="1:17" ht="43.2">
       <c r="A120" s="17" t="s">
         <v>382</v>
       </c>
@@ -24946,7 +24950,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:17" ht="45">
+    <row r="121" spans="1:17" ht="43.2">
       <c r="A121" s="17" t="s">
         <v>384</v>
       </c>
@@ -24984,7 +24988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" ht="30">
+    <row r="122" spans="1:17" ht="28.8">
       <c r="A122" s="19" t="s">
         <v>387</v>
       </c>
@@ -25007,7 +25011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:17" ht="30">
+    <row r="123" spans="1:17" ht="28.8">
       <c r="A123" s="17" t="s">
         <v>389</v>
       </c>
@@ -25030,7 +25034,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:17" ht="60">
+    <row r="124" spans="1:17" ht="57.6">
       <c r="A124" s="17" t="s">
         <v>391</v>
       </c>
@@ -25083,7 +25087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:17" ht="30">
+    <row r="125" spans="1:17" ht="28.8">
       <c r="A125" s="17" t="s">
         <v>399</v>
       </c>
@@ -25109,7 +25113,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:17" ht="30">
+    <row r="126" spans="1:17" ht="28.8">
       <c r="A126" s="17" t="s">
         <v>402</v>
       </c>
@@ -25135,7 +25139,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:17" ht="30">
+    <row r="127" spans="1:17" ht="28.8">
       <c r="A127" s="17" t="s">
         <v>411</v>
       </c>
@@ -25164,7 +25168,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="128" spans="1:17" ht="30">
+    <row r="128" spans="1:17" ht="28.8">
       <c r="A128" s="17" t="s">
         <v>414</v>
       </c>
@@ -25193,7 +25197,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:12" ht="30">
+    <row r="129" spans="1:12" ht="28.8">
       <c r="A129" s="17" t="s">
         <v>417</v>
       </c>
@@ -25222,7 +25226,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="130" spans="1:12" ht="30">
+    <row r="130" spans="1:12" ht="28.8">
       <c r="A130" s="17" t="s">
         <v>419</v>
       </c>
@@ -25251,7 +25255,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:12" ht="30">
+    <row r="131" spans="1:12" ht="28.8">
       <c r="A131" s="17" t="s">
         <v>420</v>
       </c>
@@ -25280,7 +25284,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="132" spans="1:12" ht="30">
+    <row r="132" spans="1:12" ht="28.8">
       <c r="A132" s="17" t="s">
         <v>422</v>
       </c>
@@ -25309,7 +25313,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:12" ht="30">
+    <row r="133" spans="1:12" ht="28.8">
       <c r="A133" s="19" t="s">
         <v>424</v>
       </c>
@@ -25338,7 +25342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:12" ht="30">
+    <row r="134" spans="1:12" ht="28.8">
       <c r="A134" s="17" t="s">
         <v>426</v>
       </c>
@@ -25364,7 +25368,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:12" ht="45">
+    <row r="135" spans="1:12" ht="43.2">
       <c r="A135" s="17" t="s">
         <v>429</v>
       </c>
@@ -25402,7 +25406,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="136" spans="1:12" ht="45">
+    <row r="136" spans="1:12" ht="43.2">
       <c r="A136" s="17" t="s">
         <v>433</v>
       </c>
@@ -25440,7 +25444,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:12" ht="60">
+    <row r="137" spans="1:12" ht="43.2">
       <c r="A137" s="17" t="s">
         <v>436</v>
       </c>
@@ -25469,7 +25473,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:12" ht="60">
+    <row r="138" spans="1:12" ht="57.6">
       <c r="A138" s="17" t="s">
         <v>439</v>
       </c>
@@ -25504,7 +25508,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:12" ht="45">
+    <row r="139" spans="1:12" ht="43.2">
       <c r="A139" s="21" t="s">
         <v>441</v>
       </c>
@@ -25530,7 +25534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:12" ht="30">
+    <row r="140" spans="1:12" ht="28.8">
       <c r="A140" s="19" t="s">
         <v>445</v>
       </c>
@@ -25553,7 +25557,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:12" ht="30">
+    <row r="141" spans="1:12" ht="28.8">
       <c r="A141" s="17" t="s">
         <v>447</v>
       </c>
@@ -25579,7 +25583,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:12" ht="30">
+    <row r="142" spans="1:12" ht="28.8">
       <c r="A142" s="17" t="s">
         <v>449</v>
       </c>
@@ -25605,7 +25609,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:12" ht="30">
+    <row r="143" spans="1:12" ht="28.8">
       <c r="A143" s="17" t="s">
         <v>453</v>
       </c>
@@ -25628,7 +25632,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="144" spans="1:12" ht="45">
+    <row r="144" spans="1:12" ht="28.8">
       <c r="A144" s="17" t="s">
         <v>456</v>
       </c>
@@ -25654,7 +25658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:10" ht="30">
+    <row r="145" spans="1:10" ht="28.8">
       <c r="A145" s="17" t="s">
         <v>458</v>
       </c>
@@ -25680,7 +25684,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="146" spans="1:10" ht="45">
+    <row r="146" spans="1:10" ht="28.8">
       <c r="A146" s="17" t="s">
         <v>461</v>
       </c>
@@ -25706,7 +25710,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:10" ht="30">
+    <row r="147" spans="1:10" ht="28.8">
       <c r="A147" s="17" t="s">
         <v>464</v>
       </c>
@@ -25732,7 +25736,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:10" ht="30">
+    <row r="148" spans="1:10" ht="28.8">
       <c r="A148" s="17" t="s">
         <v>468</v>
       </c>
@@ -25761,7 +25765,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:10" ht="30">
+    <row r="149" spans="1:10" ht="28.8">
       <c r="A149" s="17" t="s">
         <v>472</v>
       </c>
@@ -25787,7 +25791,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="150" spans="1:10" ht="30">
+    <row r="150" spans="1:10" ht="28.8">
       <c r="A150" s="19" t="s">
         <v>474</v>
       </c>
@@ -25813,7 +25817,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:10" ht="60">
+    <row r="151" spans="1:10" ht="57.6">
       <c r="A151" s="17" t="s">
         <v>477</v>
       </c>
@@ -25842,7 +25846,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:10" ht="30">
+    <row r="152" spans="1:10" ht="28.8">
       <c r="A152" s="17" t="s">
         <v>485</v>
       </c>
@@ -25868,7 +25872,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:10" ht="30">
+    <row r="153" spans="1:10" ht="28.8">
       <c r="A153" s="17" t="s">
         <v>486</v>
       </c>
@@ -25894,7 +25898,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:10" ht="45">
+    <row r="154" spans="1:10" ht="43.2">
       <c r="A154" s="17" t="s">
         <v>487</v>
       </c>
@@ -25920,7 +25924,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:10" ht="45">
+    <row r="155" spans="1:10" ht="28.8">
       <c r="A155" s="17" t="s">
         <v>490</v>
       </c>
@@ -25952,7 +25956,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:10" ht="30">
+    <row r="156" spans="1:10" ht="28.8">
       <c r="A156" s="11" t="s">
         <v>492</v>
       </c>
@@ -25978,7 +25982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:10" ht="30">
+    <row r="157" spans="1:10" ht="28.8">
       <c r="A157" s="17" t="s">
         <v>494</v>
       </c>
@@ -26007,7 +26011,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:10" ht="45">
+    <row r="158" spans="1:10" ht="28.8">
       <c r="A158" s="17" t="s">
         <v>497</v>
       </c>
@@ -26033,7 +26037,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="159" spans="1:10" ht="30">
+    <row r="159" spans="1:10" ht="28.8">
       <c r="A159" s="19" t="s">
         <v>499</v>
       </c>
@@ -26059,7 +26063,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:10" ht="30">
+    <row r="160" spans="1:10" ht="28.8">
       <c r="A160" s="19" t="s">
         <v>501</v>
       </c>
@@ -26091,7 +26095,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:14" ht="30">
+    <row r="161" spans="1:14" ht="28.8">
       <c r="A161" s="17" t="s">
         <v>504</v>
       </c>
@@ -26129,7 +26133,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:14" ht="45">
+    <row r="162" spans="1:14" ht="43.2">
       <c r="A162" s="17" t="s">
         <v>508</v>
       </c>
@@ -26167,7 +26171,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:14" ht="45">
+    <row r="163" spans="1:14" ht="43.2">
       <c r="A163" s="17" t="s">
         <v>510</v>
       </c>
@@ -26205,7 +26209,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:14" ht="45">
+    <row r="164" spans="1:14" ht="43.2">
       <c r="A164" s="17" t="s">
         <v>512</v>
       </c>
@@ -26278,7 +26282,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:14" ht="30">
+    <row r="166" spans="1:14" ht="28.8">
       <c r="A166" s="17" t="s">
         <v>519</v>
       </c>
@@ -26304,7 +26308,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="167" spans="1:14" ht="45">
+    <row r="167" spans="1:14" ht="43.2">
       <c r="A167" s="23" t="s">
         <v>521</v>
       </c>
@@ -26330,7 +26334,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="168" spans="1:14" ht="30">
+    <row r="168" spans="1:14" ht="28.8">
       <c r="A168" s="17" t="s">
         <v>524</v>
       </c>
@@ -26362,7 +26366,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="169" spans="1:14" ht="45">
+    <row r="169" spans="1:14" ht="43.2">
       <c r="A169" s="17" t="s">
         <v>530</v>
       </c>
@@ -26397,7 +26401,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="170" spans="1:14" ht="30">
+    <row r="170" spans="1:14" ht="28.8">
       <c r="A170" s="17" t="s">
         <v>534</v>
       </c>
@@ -26426,7 +26430,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="171" spans="1:14" ht="45">
+    <row r="171" spans="1:14" ht="28.8">
       <c r="A171" s="17" t="s">
         <v>538</v>
       </c>
@@ -26458,7 +26462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="172" spans="1:14" ht="30">
+    <row r="172" spans="1:14" ht="28.8">
       <c r="A172" s="17" t="s">
         <v>541</v>
       </c>
@@ -26490,7 +26494,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="173" spans="1:14" ht="45">
+    <row r="173" spans="1:14" ht="43.2">
       <c r="A173" s="17" t="s">
         <v>544</v>
       </c>
@@ -26516,7 +26520,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="174" spans="1:14" ht="90">
+    <row r="174" spans="1:14" ht="72">
       <c r="A174" s="17" t="s">
         <v>547</v>
       </c>
@@ -26539,7 +26543,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="175" spans="1:14" ht="45">
+    <row r="175" spans="1:14" ht="28.8">
       <c r="A175" s="17" t="s">
         <v>550</v>
       </c>
@@ -26562,7 +26566,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="176" spans="1:14" ht="30">
+    <row r="176" spans="1:14" ht="28.8">
       <c r="A176" s="17" t="s">
         <v>553</v>
       </c>
@@ -26600,7 +26604,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="177" spans="1:10" ht="60">
+    <row r="177" spans="1:10" ht="43.2">
       <c r="A177" s="14" t="s">
         <v>591</v>
       </c>
@@ -26657,31 +26661,31 @@
       <selection activeCell="C153" sqref="C153"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="37.140625" style="31" customWidth="1"/>
-    <col min="3" max="3" width="35.5703125" style="31" customWidth="1"/>
-    <col min="4" max="4" width="36.140625" style="31" customWidth="1"/>
-    <col min="5" max="5" width="44.28515625" style="31" customWidth="1"/>
-    <col min="6" max="6" width="36.28515625" style="31" customWidth="1"/>
-    <col min="7" max="7" width="47.85546875" style="31" customWidth="1"/>
-    <col min="8" max="8" width="51.7109375" style="31" customWidth="1"/>
-    <col min="9" max="9" width="35.5703125" style="31" customWidth="1"/>
-    <col min="10" max="10" width="45.85546875" style="31" customWidth="1"/>
-    <col min="11" max="11" width="35.28515625" style="31" customWidth="1"/>
+    <col min="1" max="1" width="43.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="37.109375" style="31" customWidth="1"/>
+    <col min="3" max="3" width="35.5546875" style="31" customWidth="1"/>
+    <col min="4" max="4" width="36.109375" style="31" customWidth="1"/>
+    <col min="5" max="5" width="44.33203125" style="31" customWidth="1"/>
+    <col min="6" max="6" width="36.33203125" style="31" customWidth="1"/>
+    <col min="7" max="7" width="47.88671875" style="31" customWidth="1"/>
+    <col min="8" max="8" width="51.6640625" style="31" customWidth="1"/>
+    <col min="9" max="9" width="35.5546875" style="31" customWidth="1"/>
+    <col min="10" max="10" width="45.88671875" style="31" customWidth="1"/>
+    <col min="11" max="11" width="35.33203125" style="31" customWidth="1"/>
     <col min="12" max="12" width="36" style="31" customWidth="1"/>
-    <col min="13" max="13" width="39.7109375" style="31" customWidth="1"/>
-    <col min="14" max="14" width="36.7109375" style="31" customWidth="1"/>
+    <col min="13" max="13" width="39.6640625" style="31" customWidth="1"/>
+    <col min="14" max="14" width="36.6640625" style="31" customWidth="1"/>
     <col min="15" max="15" width="27" style="31" customWidth="1"/>
-    <col min="16" max="16" width="27.28515625" style="31" customWidth="1"/>
-    <col min="17" max="17" width="36.28515625" style="31" customWidth="1"/>
-    <col min="18" max="18" width="28.42578125" style="31" customWidth="1"/>
-    <col min="19" max="19" width="43.42578125" style="31" customWidth="1"/>
-    <col min="20" max="20" width="29.7109375" style="31" customWidth="1"/>
-    <col min="21" max="21" width="35.28515625" style="31" customWidth="1"/>
-    <col min="22" max="22" width="26.140625" style="31" customWidth="1"/>
-    <col min="23" max="16384" width="8.85546875" style="31"/>
+    <col min="16" max="16" width="27.33203125" style="31" customWidth="1"/>
+    <col min="17" max="17" width="36.33203125" style="31" customWidth="1"/>
+    <col min="18" max="18" width="28.44140625" style="31" customWidth="1"/>
+    <col min="19" max="19" width="43.44140625" style="31" customWidth="1"/>
+    <col min="20" max="20" width="29.6640625" style="31" customWidth="1"/>
+    <col min="21" max="21" width="35.33203125" style="31" customWidth="1"/>
+    <col min="22" max="22" width="26.109375" style="31" customWidth="1"/>
+    <col min="23" max="16384" width="8.88671875" style="31"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
@@ -26739,7 +26743,7 @@
       </c>
       <c r="J2" s="7"/>
     </row>
-    <row r="3" spans="1:19" ht="34.9" customHeight="1">
+    <row r="3" spans="1:19" ht="34.950000000000003" customHeight="1">
       <c r="A3" s="7" t="s">
         <v>564</v>
       </c>
@@ -26771,7 +26775,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:19" ht="30">
+    <row r="4" spans="1:19" ht="28.8">
       <c r="A4" s="7" t="s">
         <v>566</v>
       </c>
@@ -26803,7 +26807,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:19" ht="37.9" customHeight="1">
+    <row r="5" spans="1:19" ht="37.950000000000003" customHeight="1">
       <c r="A5" s="7" t="s">
         <v>568</v>
       </c>
@@ -26835,7 +26839,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:19" ht="31.9" customHeight="1">
+    <row r="6" spans="1:19" ht="31.95" customHeight="1">
       <c r="A6" s="8" t="s">
         <v>570</v>
       </c>
@@ -26913,7 +26917,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:19" ht="30">
+    <row r="9" spans="1:19" ht="28.8">
       <c r="A9" s="7" t="s">
         <v>576</v>
       </c>
@@ -26945,7 +26949,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:19" ht="30">
+    <row r="10" spans="1:19" ht="28.8">
       <c r="A10" s="49" t="s">
         <v>578</v>
       </c>
@@ -26971,7 +26975,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="11" spans="1:19" ht="30">
+    <row r="11" spans="1:19" ht="28.8">
       <c r="A11" s="7" t="s">
         <v>580</v>
       </c>
@@ -27023,7 +27027,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="13" spans="1:19" ht="30">
+    <row r="13" spans="1:19" ht="28.8">
       <c r="A13" s="7" t="s">
         <v>585</v>
       </c>
@@ -27069,7 +27073,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="15" spans="1:19" ht="30">
+    <row r="15" spans="1:19" ht="28.8">
       <c r="A15" s="7" t="s">
         <v>587</v>
       </c>
@@ -27098,7 +27102,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="16" spans="1:19" ht="30">
+    <row r="16" spans="1:19" ht="28.8">
       <c r="A16" s="7" t="s">
         <v>589</v>
       </c>
@@ -27156,7 +27160,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="18" spans="1:12" ht="30">
+    <row r="18" spans="1:12" ht="28.8">
       <c r="A18" s="7" t="s">
         <v>597</v>
       </c>
@@ -27182,7 +27186,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="19" spans="1:12" ht="30">
+    <row r="19" spans="1:12" ht="28.8">
       <c r="A19" s="7" t="s">
         <v>599</v>
       </c>
@@ -27214,7 +27218,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="20" spans="1:12" ht="30">
+    <row r="20" spans="1:12" ht="28.8">
       <c r="A20" s="7" t="s">
         <v>730</v>
       </c>
@@ -27276,7 +27280,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="22" spans="1:12" ht="45">
+    <row r="22" spans="1:12" ht="28.8">
       <c r="A22" s="7" t="s">
         <v>605</v>
       </c>
@@ -27296,7 +27300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="23" spans="1:12" ht="45">
+    <row r="23" spans="1:12" ht="43.2">
       <c r="A23" s="7" t="s">
         <v>609</v>
       </c>
@@ -27325,7 +27329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="24" spans="1:12" ht="30">
+    <row r="24" spans="1:12" ht="28.8">
       <c r="A24" s="7" t="s">
         <v>610</v>
       </c>
@@ -27351,7 +27355,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="25" spans="1:12" ht="30">
+    <row r="25" spans="1:12" ht="28.8">
       <c r="A25" s="7" t="s">
         <v>612</v>
       </c>
@@ -27377,7 +27381,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="26" spans="1:12" ht="30">
+    <row r="26" spans="1:12" ht="28.8">
       <c r="A26" s="7" t="s">
         <v>614</v>
       </c>
@@ -27409,7 +27413,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="30">
+    <row r="27" spans="1:12" ht="28.8">
       <c r="A27" s="7" t="s">
         <v>617</v>
       </c>
@@ -27441,7 +27445,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="30">
+    <row r="28" spans="1:12" ht="28.8">
       <c r="A28" s="7" t="s">
         <v>619</v>
       </c>
@@ -27479,7 +27483,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="30">
+    <row r="29" spans="1:12" ht="28.8">
       <c r="A29" s="7" t="s">
         <v>625</v>
       </c>
@@ -27512,7 +27516,7 @@
       </c>
       <c r="K29" s="7"/>
     </row>
-    <row r="30" spans="1:12" ht="30">
+    <row r="30" spans="1:12" ht="28.8">
       <c r="A30" s="7" t="s">
         <v>623</v>
       </c>
@@ -27602,7 +27606,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="33" spans="1:15" ht="30">
+    <row r="33" spans="1:15" ht="28.8">
       <c r="A33" s="7" t="s">
         <v>632</v>
       </c>
@@ -27622,7 +27626,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="34" spans="1:15" ht="30">
+    <row r="34" spans="1:15" ht="28.8">
       <c r="A34" s="7" t="s">
         <v>634</v>
       </c>
@@ -27654,7 +27658,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="35" spans="1:15" ht="30">
+    <row r="35" spans="1:15" ht="28.8">
       <c r="A35" s="7" t="s">
         <v>638</v>
       </c>
@@ -27686,7 +27690,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="36" spans="1:15" ht="30">
+    <row r="36" spans="1:15" ht="28.8">
       <c r="A36" s="7" t="s">
         <v>640</v>
       </c>
@@ -27718,7 +27722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="37" spans="1:15" ht="30">
+    <row r="37" spans="1:15" ht="28.8">
       <c r="A37" s="7" t="s">
         <v>645</v>
       </c>
@@ -27750,7 +27754,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="38" spans="1:15" ht="30">
+    <row r="38" spans="1:15" ht="28.8">
       <c r="A38" s="7" t="s">
         <v>648</v>
       </c>
@@ -27782,7 +27786,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="39" spans="1:15" ht="30">
+    <row r="39" spans="1:15" ht="28.8">
       <c r="A39" s="7" t="s">
         <v>649</v>
       </c>
@@ -27817,7 +27821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="40" spans="1:15" ht="30">
+    <row r="40" spans="1:15" ht="28.8">
       <c r="A40" s="7" t="s">
         <v>651</v>
       </c>
@@ -27849,7 +27853,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:15" ht="30">
+    <row r="41" spans="1:15" ht="28.8">
       <c r="A41" s="7" t="s">
         <v>653</v>
       </c>
@@ -27884,7 +27888,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="42" spans="1:15" ht="30">
+    <row r="42" spans="1:15" ht="28.8">
       <c r="A42" s="51" t="s">
         <v>657</v>
       </c>
@@ -27916,7 +27920,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="43" spans="1:15" ht="30">
+    <row r="43" spans="1:15" ht="28.8">
       <c r="A43" s="7" t="s">
         <v>659</v>
       </c>
@@ -27948,7 +27952,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="44" spans="1:15" ht="30">
+    <row r="44" spans="1:15" ht="28.8">
       <c r="A44" s="7" t="s">
         <v>662</v>
       </c>
@@ -27974,7 +27978,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="45" spans="1:15" ht="30">
+    <row r="45" spans="1:15" ht="28.8">
       <c r="A45" s="7" t="s">
         <v>667</v>
       </c>
@@ -28009,7 +28013,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="46" spans="1:15" ht="30">
+    <row r="46" spans="1:15" ht="28.8">
       <c r="A46" s="7" t="s">
         <v>664</v>
       </c>
@@ -28041,7 +28045,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="47" spans="1:15" ht="30">
+    <row r="47" spans="1:15" ht="28.8">
       <c r="A47" s="7" t="s">
         <v>669</v>
       </c>
@@ -28073,7 +28077,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="48" spans="1:15" ht="30">
+    <row r="48" spans="1:15" ht="28.8">
       <c r="A48" s="7" t="s">
         <v>671</v>
       </c>
@@ -28120,7 +28124,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="49" spans="1:20" ht="30">
+    <row r="49" spans="1:20" ht="28.8">
       <c r="A49" s="7" t="s">
         <v>675</v>
       </c>
@@ -28155,7 +28159,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="50" spans="1:20" ht="30">
+    <row r="50" spans="1:20" ht="28.8">
       <c r="A50" s="7" t="s">
         <v>679</v>
       </c>
@@ -28211,7 +28215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="51" spans="1:20" ht="30">
+    <row r="51" spans="1:20" ht="28.8">
       <c r="A51" s="7" t="s">
         <v>682</v>
       </c>
@@ -28273,7 +28277,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="52" spans="1:20" ht="30">
+    <row r="52" spans="1:20" ht="28.8">
       <c r="A52" s="7" t="s">
         <v>686</v>
       </c>
@@ -28335,7 +28339,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="53" spans="1:20" ht="30">
+    <row r="53" spans="1:20" ht="28.8">
       <c r="A53" s="7" t="s">
         <v>690</v>
       </c>
@@ -28382,7 +28386,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="54" spans="1:20" ht="30">
+    <row r="54" spans="1:20" ht="28.8">
       <c r="A54" s="31" t="s">
         <v>693</v>
       </c>
@@ -28414,7 +28418,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="55" spans="1:20" ht="30">
+    <row r="55" spans="1:20" ht="28.8">
       <c r="A55" s="7" t="s">
         <v>695</v>
       </c>
@@ -28461,7 +28465,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="56" spans="1:20" ht="45">
+    <row r="56" spans="1:20" ht="43.2">
       <c r="A56" s="7" t="s">
         <v>697</v>
       </c>
@@ -28508,7 +28512,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:20" ht="30">
+    <row r="57" spans="1:20" ht="28.8">
       <c r="A57" s="7" t="s">
         <v>699</v>
       </c>
@@ -28572,7 +28576,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="59" spans="1:20" ht="30">
+    <row r="59" spans="1:20" ht="28.8">
       <c r="A59" s="7" t="s">
         <v>704</v>
       </c>
@@ -28604,7 +28608,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="60" spans="1:20" ht="30">
+    <row r="60" spans="1:20" ht="28.8">
       <c r="A60" s="7" t="s">
         <v>708</v>
       </c>
@@ -28636,7 +28640,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="61" spans="1:20" ht="30">
+    <row r="61" spans="1:20" ht="28.8">
       <c r="A61" s="7" t="s">
         <v>710</v>
       </c>
@@ -28668,7 +28672,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="62" spans="1:20" ht="30">
+    <row r="62" spans="1:20" ht="28.8">
       <c r="A62" s="7" t="s">
         <v>713</v>
       </c>
@@ -28712,7 +28716,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="63" spans="1:20" ht="30">
+    <row r="63" spans="1:20" ht="28.8">
       <c r="A63" s="7" t="s">
         <v>717</v>
       </c>
@@ -28745,7 +28749,7 @@
       </c>
       <c r="K63" s="9"/>
     </row>
-    <row r="64" spans="1:20" ht="30">
+    <row r="64" spans="1:20" ht="28.8">
       <c r="A64" s="7" t="s">
         <v>720</v>
       </c>
@@ -28809,7 +28813,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="66" spans="1:14" ht="30">
+    <row r="66" spans="1:14" ht="28.8">
       <c r="A66" s="7" t="s">
         <v>724</v>
       </c>
@@ -28829,7 +28833,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="67" spans="1:14" ht="30">
+    <row r="67" spans="1:14" ht="28.8">
       <c r="A67" s="7" t="s">
         <v>726</v>
       </c>
@@ -28861,7 +28865,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="68" spans="1:14" ht="30">
+    <row r="68" spans="1:14" ht="28.8">
       <c r="A68" s="7" t="s">
         <v>728</v>
       </c>
@@ -28893,7 +28897,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="69" spans="1:14" ht="30">
+    <row r="69" spans="1:14" ht="28.8">
       <c r="A69" s="7" t="s">
         <v>732</v>
       </c>
@@ -28934,7 +28938,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="70" spans="1:14" ht="45">
+    <row r="70" spans="1:14" ht="43.2">
       <c r="A70" s="7" t="s">
         <v>736</v>
       </c>
@@ -28978,7 +28982,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="71" spans="1:14" ht="30">
+    <row r="71" spans="1:14" ht="28.8">
       <c r="A71" s="7" t="s">
         <v>739</v>
       </c>
@@ -29010,7 +29014,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="72" spans="1:14" ht="30">
+    <row r="72" spans="1:14" ht="28.8">
       <c r="A72" s="7" t="s">
         <v>743</v>
       </c>
@@ -29080,7 +29084,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="74" spans="1:14" ht="30">
+    <row r="74" spans="1:14" ht="28.8">
       <c r="A74" s="7" t="s">
         <v>750</v>
       </c>
@@ -29115,7 +29119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="75" spans="1:14" ht="30">
+    <row r="75" spans="1:14" ht="28.8">
       <c r="A75" s="7" t="s">
         <v>751</v>
       </c>
@@ -29147,7 +29151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="76" spans="1:14" ht="30">
+    <row r="76" spans="1:14" ht="28.8">
       <c r="A76" s="7" t="s">
         <v>768</v>
       </c>
@@ -29211,7 +29215,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="78" spans="1:14" ht="45">
+    <row r="78" spans="1:14" ht="28.8">
       <c r="A78" s="7" t="s">
         <v>770</v>
       </c>
@@ -29255,7 +29259,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="79" spans="1:14" ht="30">
+    <row r="79" spans="1:14" ht="28.8">
       <c r="A79" s="7" t="s">
         <v>755</v>
       </c>
@@ -29290,7 +29294,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="80" spans="1:14" ht="30">
+    <row r="80" spans="1:14" ht="28.8">
       <c r="A80" s="7" t="s">
         <v>775</v>
       </c>
@@ -29331,7 +29335,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="81" spans="1:16" ht="30">
+    <row r="81" spans="1:16" ht="28.8">
       <c r="A81" s="7" t="s">
         <v>778</v>
       </c>
@@ -29372,7 +29376,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="82" spans="1:16" ht="45">
+    <row r="82" spans="1:16" ht="43.2">
       <c r="A82" s="7" t="s">
         <v>780</v>
       </c>
@@ -29407,7 +29411,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="83" spans="1:16" ht="30">
+    <row r="83" spans="1:16" ht="28.8">
       <c r="A83" s="7" t="s">
         <v>781</v>
       </c>
@@ -29448,7 +29452,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="84" spans="1:16" ht="30">
+    <row r="84" spans="1:16" ht="28.8">
       <c r="A84" s="7" t="s">
         <v>784</v>
       </c>
@@ -29489,7 +29493,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="85" spans="1:16" ht="45">
+    <row r="85" spans="1:16" ht="43.2">
       <c r="A85" s="7" t="s">
         <v>787</v>
       </c>
@@ -29525,7 +29529,7 @@
       </c>
       <c r="L85" s="9"/>
     </row>
-    <row r="86" spans="1:16" ht="30">
+    <row r="86" spans="1:16" ht="28.8">
       <c r="A86" s="7" t="s">
         <v>765</v>
       </c>
@@ -29560,7 +29564,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="87" spans="1:16" ht="30">
+    <row r="87" spans="1:16" ht="28.8">
       <c r="A87" s="7" t="s">
         <v>766</v>
       </c>
@@ -29595,7 +29599,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="88" spans="1:16" ht="30">
+    <row r="88" spans="1:16" ht="28.8">
       <c r="A88" s="7" t="s">
         <v>767</v>
       </c>
@@ -29630,7 +29634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="89" spans="1:16" ht="30">
+    <row r="89" spans="1:16" ht="28.8">
       <c r="A89" s="7" t="s">
         <v>789</v>
       </c>
@@ -29659,7 +29663,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="90" spans="1:16" ht="30">
+    <row r="90" spans="1:16" ht="28.8">
       <c r="A90" s="7" t="s">
         <v>792</v>
       </c>
@@ -29688,7 +29692,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="91" spans="1:16" ht="45">
+    <row r="91" spans="1:16" ht="28.8">
       <c r="A91" s="7" t="s">
         <v>794</v>
       </c>
@@ -29767,7 +29771,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="93" spans="1:16" ht="45">
+    <row r="93" spans="1:16" ht="43.2">
       <c r="A93" s="7" t="s">
         <v>802</v>
       </c>
@@ -29817,7 +29821,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="94" spans="1:16" ht="45">
+    <row r="94" spans="1:16" ht="28.8">
       <c r="A94" s="7" t="s">
         <v>801</v>
       </c>
@@ -29867,7 +29871,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="95" spans="1:16" ht="30">
+    <row r="95" spans="1:16" ht="28.8">
       <c r="A95" s="7" t="s">
         <v>805</v>
       </c>
@@ -29914,7 +29918,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="96" spans="1:16" ht="30">
+    <row r="96" spans="1:16" ht="28.8">
       <c r="A96" s="7" t="s">
         <v>809</v>
       </c>
@@ -29949,7 +29953,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="97" spans="1:13" ht="30">
+    <row r="97" spans="1:13" ht="28.8">
       <c r="A97" s="7" t="s">
         <v>810</v>
       </c>
@@ -29984,7 +29988,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="98" spans="1:13" ht="30">
+    <row r="98" spans="1:13" ht="28.8">
       <c r="A98" s="7" t="s">
         <v>813</v>
       </c>
@@ -30019,7 +30023,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="99" spans="1:13" ht="30">
+    <row r="99" spans="1:13" ht="28.8">
       <c r="A99" s="7" t="s">
         <v>815</v>
       </c>
@@ -30095,7 +30099,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="101" spans="1:13" ht="30">
+    <row r="101" spans="1:13" ht="28.8">
       <c r="A101" s="7" t="s">
         <v>827</v>
       </c>
@@ -30115,7 +30119,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="102" spans="1:13" ht="30">
+    <row r="102" spans="1:13" ht="28.8">
       <c r="A102" s="7" t="s">
         <v>830</v>
       </c>
@@ -30147,7 +30151,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="103" spans="1:13" ht="30">
+    <row r="103" spans="1:13" ht="28.8">
       <c r="A103" s="31" t="s">
         <v>832</v>
       </c>
@@ -30185,7 +30189,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="104" spans="1:13" ht="45">
+    <row r="104" spans="1:13" ht="28.8">
       <c r="A104" s="7" t="s">
         <v>834</v>
       </c>
@@ -30226,7 +30230,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="105" spans="1:13" ht="30">
+    <row r="105" spans="1:13" ht="28.8">
       <c r="A105" s="7" t="s">
         <v>836</v>
       </c>
@@ -30296,7 +30300,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="107" spans="1:13" ht="30">
+    <row r="107" spans="1:13" ht="28.8">
       <c r="A107" s="7" t="s">
         <v>840</v>
       </c>
@@ -30325,7 +30329,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="108" spans="1:13" ht="30">
+    <row r="108" spans="1:13" ht="28.8">
       <c r="A108" s="7" t="s">
         <v>841</v>
       </c>
@@ -30415,7 +30419,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="111" spans="1:13" ht="30">
+    <row r="111" spans="1:13" ht="28.8">
       <c r="A111" s="7" t="s">
         <v>849</v>
       </c>
@@ -30450,7 +30454,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="112" spans="1:13" ht="30">
+    <row r="112" spans="1:13" ht="28.8">
       <c r="A112" s="7" t="s">
         <v>850</v>
       </c>
@@ -30482,7 +30486,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="113" spans="1:22" ht="30">
+    <row r="113" spans="1:22" ht="28.8">
       <c r="A113" s="7" t="s">
         <v>853</v>
       </c>
@@ -30514,7 +30518,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="114" spans="1:22" ht="45">
+    <row r="114" spans="1:22" ht="43.2">
       <c r="A114" s="7" t="s">
         <v>856</v>
       </c>
@@ -30546,7 +30550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="115" spans="1:22" ht="43.15" customHeight="1">
+    <row r="115" spans="1:22" ht="43.2" customHeight="1">
       <c r="A115" s="7" t="s">
         <v>857</v>
       </c>
@@ -30614,7 +30618,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="116" spans="1:22" ht="30">
+    <row r="116" spans="1:22" ht="28.8">
       <c r="A116" s="7" t="s">
         <v>864</v>
       </c>
@@ -30649,7 +30653,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="117" spans="1:22" ht="30">
+    <row r="117" spans="1:22" ht="28.8">
       <c r="A117" s="7" t="s">
         <v>865</v>
       </c>
@@ -30690,7 +30694,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="118" spans="1:22" ht="30">
+    <row r="118" spans="1:22" ht="28.8">
       <c r="A118" s="7" t="s">
         <v>870</v>
       </c>
@@ -30722,7 +30726,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="119" spans="1:22" ht="30">
+    <row r="119" spans="1:22" ht="28.8">
       <c r="A119" s="31" t="s">
         <v>872</v>
       </c>
@@ -30763,7 +30767,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="120" spans="1:22" ht="30">
+    <row r="120" spans="1:22" ht="28.8">
       <c r="A120" s="7" t="s">
         <v>873</v>
       </c>
@@ -30798,7 +30802,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:22" ht="60">
+    <row r="121" spans="1:22" ht="43.2">
       <c r="A121" s="7" t="s">
         <v>875</v>
       </c>
@@ -30871,7 +30875,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:22" ht="30">
+    <row r="123" spans="1:22" ht="28.8">
       <c r="A123" s="7" t="s">
         <v>882</v>
       </c>
@@ -30915,7 +30919,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:22" ht="30">
+    <row r="124" spans="1:22" ht="28.8">
       <c r="A124" s="7" t="s">
         <v>886</v>
       </c>
@@ -30985,7 +30989,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:22" ht="30">
+    <row r="126" spans="1:22" ht="28.8">
       <c r="A126" s="7" t="s">
         <v>891</v>
       </c>
@@ -31093,7 +31097,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="129" spans="1:13" ht="30">
+    <row r="129" spans="1:13" ht="28.8">
       <c r="A129" s="7" t="s">
         <v>899</v>
       </c>
@@ -31154,7 +31158,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="131" spans="1:13" ht="30">
+    <row r="131" spans="1:13" ht="28.8">
       <c r="A131" s="7" t="s">
         <v>903</v>
       </c>
@@ -31206,7 +31210,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="133" spans="1:13" ht="30">
+    <row r="133" spans="1:13" ht="28.8">
       <c r="A133" s="7" t="s">
         <v>907</v>
       </c>
@@ -31238,7 +31242,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="134" spans="1:13" ht="30">
+    <row r="134" spans="1:13" ht="28.8">
       <c r="A134" s="7" t="s">
         <v>911</v>
       </c>
@@ -31270,7 +31274,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="135" spans="1:13" ht="30">
+    <row r="135" spans="1:13" ht="28.8">
       <c r="A135" s="7" t="s">
         <v>912</v>
       </c>
@@ -31343,7 +31347,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="137" spans="1:13" ht="30">
+    <row r="137" spans="1:13" ht="28.8">
       <c r="A137" s="7" t="s">
         <v>914</v>
       </c>
@@ -31366,7 +31370,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="138" spans="1:13" ht="30">
+    <row r="138" spans="1:13" ht="28.8">
       <c r="A138" s="7" t="s">
         <v>916</v>
       </c>
@@ -31392,7 +31396,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="139" spans="1:13" ht="45">
+    <row r="139" spans="1:13" ht="28.8">
       <c r="A139" s="7" t="s">
         <v>918</v>
       </c>
@@ -31433,7 +31437,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="140" spans="1:13" ht="30">
+    <row r="140" spans="1:13" ht="28.8">
       <c r="A140" s="7" t="s">
         <v>921</v>
       </c>
@@ -31462,7 +31466,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="141" spans="1:13" ht="30">
+    <row r="141" spans="1:13" ht="28.8">
       <c r="A141" s="7" t="s">
         <v>925</v>
       </c>
@@ -31491,7 +31495,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="142" spans="1:13" ht="30">
+    <row r="142" spans="1:13" ht="28.8">
       <c r="A142" s="7" t="s">
         <v>926</v>
       </c>
@@ -31523,7 +31527,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="143" spans="1:13" ht="30">
+    <row r="143" spans="1:13" ht="28.8">
       <c r="A143" s="7" t="s">
         <v>929</v>
       </c>
@@ -31584,7 +31588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="145" spans="1:14" ht="30">
+    <row r="145" spans="1:14" ht="28.8">
       <c r="A145" s="7" t="s">
         <v>935</v>
       </c>
@@ -31613,7 +31617,7 @@
         <v>816</v>
       </c>
     </row>
-    <row r="146" spans="1:14" ht="30">
+    <row r="146" spans="1:14" ht="28.8">
       <c r="A146" s="7" t="s">
         <v>936</v>
       </c>
@@ -31648,7 +31652,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="147" spans="1:14" ht="30">
+    <row r="147" spans="1:14" ht="28.8">
       <c r="A147" s="7" t="s">
         <v>939</v>
       </c>
@@ -31683,7 +31687,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="148" spans="1:14" ht="30">
+    <row r="148" spans="1:14" ht="28.8">
       <c r="A148" s="7" t="s">
         <v>941</v>
       </c>
@@ -31727,7 +31731,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="149" spans="1:14" ht="45">
+    <row r="149" spans="1:14" ht="28.8">
       <c r="A149" s="7" t="s">
         <v>943</v>
       </c>
@@ -31779,7 +31783,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="151" spans="1:14" ht="30">
+    <row r="151" spans="1:14">
       <c r="A151" s="7" t="s">
         <v>947</v>
       </c>
@@ -31802,7 +31806,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="152" spans="1:14" ht="30">
+    <row r="152" spans="1:14" ht="28.8">
       <c r="A152" s="7" t="s">
         <v>951</v>
       </c>
@@ -31834,7 +31838,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="153" spans="1:14" ht="30">
+    <row r="153" spans="1:14" ht="28.8">
       <c r="A153" s="7" t="s">
         <v>955</v>
       </c>
@@ -31854,7 +31858,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="154" spans="1:14" ht="30">
+    <row r="154" spans="1:14" ht="28.8">
       <c r="A154" s="7" t="s">
         <v>957</v>
       </c>
@@ -31883,7 +31887,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="155" spans="1:14" ht="30">
+    <row r="155" spans="1:14" ht="28.8">
       <c r="A155" s="7" t="s">
         <v>959</v>
       </c>
@@ -31912,7 +31916,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="156" spans="1:14" ht="30">
+    <row r="156" spans="1:14" ht="28.8">
       <c r="A156" s="7" t="s">
         <v>961</v>
       </c>
@@ -31944,7 +31948,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="157" spans="1:14" ht="30">
+    <row r="157" spans="1:14" ht="28.8">
       <c r="A157" s="7" t="s">
         <v>964</v>
       </c>
@@ -31976,7 +31980,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="158" spans="1:14" ht="30">
+    <row r="158" spans="1:14" ht="28.8">
       <c r="A158" s="7" t="s">
         <v>966</v>
       </c>
@@ -32043,7 +32047,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="160" spans="1:14" ht="30">
+    <row r="160" spans="1:14" ht="28.8">
       <c r="A160" s="7" t="s">
         <v>971</v>
       </c>
@@ -32078,7 +32082,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="161" spans="1:19" ht="30">
+    <row r="161" spans="1:19" ht="28.8">
       <c r="A161" s="7" t="s">
         <v>972</v>
       </c>
@@ -32110,7 +32114,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="162" spans="1:19" ht="30">
+    <row r="162" spans="1:19" ht="28.8">
       <c r="A162" s="7" t="s">
         <v>974</v>
       </c>
@@ -32148,7 +32152,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="163" spans="1:19" ht="30">
+    <row r="163" spans="1:19" ht="28.8">
       <c r="A163" s="31" t="s">
         <v>982</v>
       </c>
@@ -32180,7 +32184,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="164" spans="1:19" ht="30">
+    <row r="164" spans="1:19" ht="28.8">
       <c r="A164" s="7" t="s">
         <v>984</v>
       </c>
@@ -32212,7 +32216,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="165" spans="1:19" ht="30">
+    <row r="165" spans="1:19">
       <c r="A165" s="31" t="s">
         <v>986</v>
       </c>
@@ -32253,7 +32257,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="166" spans="1:19" ht="30">
+    <row r="166" spans="1:19" ht="28.8">
       <c r="A166" s="7" t="s">
         <v>988</v>
       </c>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7491" uniqueCount="1107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7505" uniqueCount="1110">
   <si>
     <t>TestCase</t>
   </si>
@@ -3382,6 +3382,15 @@
   </si>
   <si>
     <t>VerifyThatSameFilterIsNotWorkingForMultipleTime</t>
+  </si>
+  <si>
+    <t>Verify_That_User_Redirect_On_Same_Topic_Which_Was_Selected</t>
+  </si>
+  <si>
+    <t>ClickOnTopicCards</t>
+  </si>
+  <si>
+    <t>VerifyThatUserRedirectOnSameTopicCardWhichWasSelected</t>
   </si>
 </sst>
 </file>
@@ -4152,10 +4161,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V210"/>
+  <dimension ref="A1:V211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E6" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A76" sqref="A76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11219,6 +11228,35 @@
         <v>6</v>
       </c>
     </row>
+    <row r="211" spans="1:11" ht="28.8">
+      <c r="A211" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B211" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C211" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D211" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E211" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F211" s="31" t="s">
+        <v>757</v>
+      </c>
+      <c r="G211" s="31" t="s">
+        <v>1108</v>
+      </c>
+      <c r="H211" s="31" t="s">
+        <v>1109</v>
+      </c>
+      <c r="I211" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -11230,11 +11268,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC386"/>
+  <dimension ref="A1:AC387"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A381" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J392" sqref="J392"/>
+      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E390" sqref="E390"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20890,6 +20928,23 @@
         <v>1002</v>
       </c>
     </row>
+    <row r="387" spans="1:17" ht="28.8">
+      <c r="A387" s="7" t="s">
+        <v>1107</v>
+      </c>
+      <c r="B387" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C387" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D387" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E387" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -20899,7 +20954,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E386">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E387">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21468,9 +21523,11 @@
     <hyperlink ref="D385" r:id="rId562"/>
     <hyperlink ref="C386" r:id="rId563"/>
     <hyperlink ref="D386" r:id="rId564"/>
+    <hyperlink ref="C387" r:id="rId565"/>
+    <hyperlink ref="D387" r:id="rId566"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId565"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId567"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7505" uniqueCount="1110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7542" uniqueCount="1116">
   <si>
     <t>TestCase</t>
   </si>
@@ -3391,6 +3391,24 @@
   </si>
   <si>
     <t>VerifyThatUserRedirectOnSameTopicCardWhichWasSelected</t>
+  </si>
+  <si>
+    <t>Verify_That_SearchOrAskSomething_Option_Redirects_To_At_Home_Page</t>
+  </si>
+  <si>
+    <t>ClickOnSearchAndAksQuestionOption</t>
+  </si>
+  <si>
+    <t>Verify_That_User_Can_Switch_SearchOrAskSomething_To_FillOutAnRFI_Option_Witchout_Again_Login</t>
+  </si>
+  <si>
+    <t>VerifyThatUserCanSwitchSearchOrAskSomethingToFillOutAnRFIOptionWitchoutAgainLogin</t>
+  </si>
+  <si>
+    <t>Verify_That_User_Can_Switch_FillOutAnRFI_To_SearchOrAskSomething_Option_Witchout_Again_Login</t>
+  </si>
+  <si>
+    <t>VerifyThatUserCanSwitchFillOutAnRFIToSearchOrAskSomethingOptionWitchoutAgainLogin</t>
   </si>
 </sst>
 </file>
@@ -4161,10 +4179,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V211"/>
+  <dimension ref="A1:V214"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="A76" sqref="A76"/>
+    <sheetView topLeftCell="A205" workbookViewId="0">
+      <selection activeCell="E222" sqref="E222"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11257,6 +11275,78 @@
         <v>6</v>
       </c>
     </row>
+    <row r="212" spans="1:11" ht="28.8">
+      <c r="A212" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F212" s="31" t="s">
+        <v>1111</v>
+      </c>
+      <c r="G212" s="31" t="s">
+        <v>93</v>
+      </c>
+      <c r="H212" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:11" ht="43.2">
+      <c r="A213" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B213" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C213" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D213" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E213" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F213" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="G213" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:11" ht="43.2">
+      <c r="A214" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="G214" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
   </sheetData>
   <mergeCells count="1">
     <mergeCell ref="B1:S1"/>
@@ -11268,11 +11358,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC387"/>
+  <dimension ref="A1:AC390"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E390" sqref="E390"/>
+      <selection pane="bottomLeft" activeCell="G385" sqref="G385"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -20945,6 +21035,57 @@
         <v>761</v>
       </c>
     </row>
+    <row r="388" spans="1:17" ht="28.8">
+      <c r="A388" s="7" t="s">
+        <v>1110</v>
+      </c>
+      <c r="B388" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C388" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D388" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E388" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="389" spans="1:17" ht="43.2">
+      <c r="A389" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="B389" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C389" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D389" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E389" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="390" spans="1:17" ht="43.2">
+      <c r="A390" s="7" t="s">
+        <v>1114</v>
+      </c>
+      <c r="B390" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C390" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D390" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E390" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -20954,7 +21095,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E387">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E390">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21525,9 +21666,15 @@
     <hyperlink ref="D386" r:id="rId564"/>
     <hyperlink ref="C387" r:id="rId565"/>
     <hyperlink ref="D387" r:id="rId566"/>
+    <hyperlink ref="C388" r:id="rId567"/>
+    <hyperlink ref="D388" r:id="rId568"/>
+    <hyperlink ref="C389" r:id="rId569"/>
+    <hyperlink ref="D389" r:id="rId570"/>
+    <hyperlink ref="C390" r:id="rId571"/>
+    <hyperlink ref="D390" r:id="rId572"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId567"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId573"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7542" uniqueCount="1116">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="1126">
   <si>
     <t>TestCase</t>
   </si>
@@ -3393,9 +3393,6 @@
     <t>VerifyThatUserRedirectOnSameTopicCardWhichWasSelected</t>
   </si>
   <si>
-    <t>Verify_That_SearchOrAskSomething_Option_Redirects_To_At_Home_Page</t>
-  </si>
-  <si>
     <t>ClickOnSearchAndAksQuestionOption</t>
   </si>
   <si>
@@ -3409,6 +3406,39 @@
   </si>
   <si>
     <t>VerifyThatUserCanSwitchFillOutAnRFIToSearchOrAskSomethingOptionWitchoutAgainLogin</t>
+  </si>
+  <si>
+    <t>Verify_That_SearchOrAskSomething_Option_Redirects_To_At_Search_Home_Page</t>
+  </si>
+  <si>
+    <t>ClickOnFillOutAnRFIOption</t>
+  </si>
+  <si>
+    <t>VerifyThatSearchHomePageIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_FillOutAnRFI_Option_Redirects_To_At_RFI_Home_Page</t>
+  </si>
+  <si>
+    <t>VerifyThatRFIHomePageIsDisplay</t>
+  </si>
+  <si>
+    <t>Verify_That_User_Can_Go_To_Back_RFI_Home_Page_After_Changing_The_Avatar</t>
+  </si>
+  <si>
+    <t>ClickOnRFIIcon</t>
+  </si>
+  <si>
+    <t>ClickOnSearchAskButton</t>
+  </si>
+  <si>
+    <t>VerifyThatUserCanGoToBackRFIHomePageAfterChangingTheAvatar</t>
+  </si>
+  <si>
+    <t>Verify_That_Group_By_Filter_Is_Working</t>
+  </si>
+  <si>
+    <t>VerifyThatGroupByFilterIsWorking</t>
   </si>
 </sst>
 </file>
@@ -4179,10 +4209,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V214"/>
+  <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView topLeftCell="A205" workbookViewId="0">
-      <selection activeCell="E222" sqref="E222"/>
+    <sheetView tabSelected="1" topLeftCell="H85" workbookViewId="0">
+      <selection activeCell="K86" sqref="K86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11277,33 +11307,33 @@
     </row>
     <row r="212" spans="1:11" ht="28.8">
       <c r="A212" s="7" t="s">
+        <v>1115</v>
+      </c>
+      <c r="B212" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C212" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D212" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E212" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F212" s="31" t="s">
         <v>1110</v>
       </c>
-      <c r="B212" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C212" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D212" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E212" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F212" s="31" t="s">
-        <v>1111</v>
-      </c>
       <c r="G212" s="31" t="s">
-        <v>93</v>
+        <v>1117</v>
       </c>
       <c r="H212" s="31" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="213" spans="1:11" ht="43.2">
+    <row r="213" spans="1:11" ht="28.8">
       <c r="A213" s="7" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="B213" s="7" t="s">
         <v>5</v>
@@ -11317,33 +11347,123 @@
       <c r="E213" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="F213" s="7" t="s">
-        <v>1113</v>
+      <c r="F213" s="31" t="s">
+        <v>1116</v>
       </c>
       <c r="G213" s="31" t="s">
+        <v>1119</v>
+      </c>
+      <c r="H213" s="31" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="214" spans="1:11" ht="43.2">
       <c r="A214" s="7" t="s">
+        <v>1111</v>
+      </c>
+      <c r="B214" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C214" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D214" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E214" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F214" s="7" t="s">
+        <v>1112</v>
+      </c>
+      <c r="G214" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:11" ht="43.2">
+      <c r="A215" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B215" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C215" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D215" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E215" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F215" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="B214" s="7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C214" s="7" t="s">
-        <v>164</v>
-      </c>
-      <c r="D214" s="7" t="s">
-        <v>37</v>
-      </c>
-      <c r="E214" s="31" t="s">
-        <v>559</v>
-      </c>
-      <c r="F214" s="7" t="s">
-        <v>1115</v>
-      </c>
-      <c r="G214" s="31" t="s">
+      <c r="G215" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:11" ht="28.8">
+      <c r="A216" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B216" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C216" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D216" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E216" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F216" s="31" t="s">
+        <v>1116</v>
+      </c>
+      <c r="G216" s="31" t="s">
+        <v>1121</v>
+      </c>
+      <c r="H216" s="31" t="s">
+        <v>1122</v>
+      </c>
+      <c r="I216" s="7" t="s">
+        <v>1123</v>
+      </c>
+      <c r="J216" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:11">
+      <c r="A217" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B217" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C217" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D217" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E217" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F217" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G217" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H217" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I217" s="31" t="s">
+        <v>1125</v>
+      </c>
+      <c r="J217" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11358,11 +11478,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC390"/>
+  <dimension ref="A1:AC393"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A379" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G385" sqref="G385"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A396" sqref="A396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21037,7 +21157,7 @@
     </row>
     <row r="388" spans="1:17" ht="28.8">
       <c r="A388" s="7" t="s">
-        <v>1110</v>
+        <v>1115</v>
       </c>
       <c r="B388" s="26" t="s">
         <v>4</v>
@@ -21052,9 +21172,9 @@
         <v>761</v>
       </c>
     </row>
-    <row r="389" spans="1:17" ht="43.2">
+    <row r="389" spans="1:17" s="2" customFormat="1" ht="28.8">
       <c r="A389" s="7" t="s">
-        <v>1112</v>
+        <v>1118</v>
       </c>
       <c r="B389" s="26" t="s">
         <v>4</v>
@@ -21071,7 +21191,7 @@
     </row>
     <row r="390" spans="1:17" ht="43.2">
       <c r="A390" s="7" t="s">
-        <v>1114</v>
+        <v>1111</v>
       </c>
       <c r="B390" s="26" t="s">
         <v>4</v>
@@ -21084,6 +21204,60 @@
       </c>
       <c r="E390" s="63" t="s">
         <v>761</v>
+      </c>
+    </row>
+    <row r="391" spans="1:17" ht="43.2">
+      <c r="A391" s="7" t="s">
+        <v>1113</v>
+      </c>
+      <c r="B391" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C391" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D391" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E391" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="392" spans="1:17" ht="28.8">
+      <c r="A392" s="7" t="s">
+        <v>1120</v>
+      </c>
+      <c r="B392" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C392" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D392" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E392" s="63" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="393" spans="1:17" ht="28.8">
+      <c r="A393" s="7" t="s">
+        <v>1124</v>
+      </c>
+      <c r="B393" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C393" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D393" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E393" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L393" s="7" t="s">
+        <v>163</v>
       </c>
     </row>
   </sheetData>
@@ -21095,7 +21269,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E390">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E393">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21668,13 +21842,19 @@
     <hyperlink ref="D387" r:id="rId566"/>
     <hyperlink ref="C388" r:id="rId567"/>
     <hyperlink ref="D388" r:id="rId568"/>
-    <hyperlink ref="C389" r:id="rId569"/>
-    <hyperlink ref="D389" r:id="rId570"/>
-    <hyperlink ref="C390" r:id="rId571"/>
-    <hyperlink ref="D390" r:id="rId572"/>
+    <hyperlink ref="C390" r:id="rId569"/>
+    <hyperlink ref="D390" r:id="rId570"/>
+    <hyperlink ref="C391" r:id="rId571"/>
+    <hyperlink ref="D391" r:id="rId572"/>
+    <hyperlink ref="C389" r:id="rId573"/>
+    <hyperlink ref="D389" r:id="rId574"/>
+    <hyperlink ref="C392" r:id="rId575"/>
+    <hyperlink ref="D392" r:id="rId576"/>
+    <hyperlink ref="C393" r:id="rId577"/>
+    <hyperlink ref="D393" r:id="rId578"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId573"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId579"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -4211,8 +4211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H85" workbookViewId="0">
-      <selection activeCell="K86" sqref="K86"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="A218" sqref="A218"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -4211,8 +4211,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V217"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="A218" sqref="A218"/>
+    <sheetView tabSelected="1" topLeftCell="G102" workbookViewId="0">
+      <selection activeCell="J107" sqref="J107"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7586" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7614" uniqueCount="1128">
   <si>
     <t>TestCase</t>
   </si>
@@ -3439,6 +3439,12 @@
   </si>
   <si>
     <t>VerifyThatGroupByFilterIsWorking</t>
+  </si>
+  <si>
+    <t>Verify_That_When_User_Click_On_The_RocketIcon_Then_RocketPanel_Is_Showing</t>
+  </si>
+  <si>
+    <t>VerifyThatRocketPanelIsDisplayed</t>
   </si>
 </sst>
 </file>
@@ -4209,10 +4215,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:V217"/>
+  <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G102" workbookViewId="0">
-      <selection activeCell="J107" sqref="J107"/>
+    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
+      <selection activeCell="E227" sqref="E227"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11136,15 +11142,18 @@
         <v>559</v>
       </c>
       <c r="F206" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G206" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G206" s="31" t="s">
+      <c r="H206" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H206" s="31" t="s">
+      <c r="I206" s="31" t="s">
         <v>1096</v>
       </c>
-      <c r="I206" s="31" t="s">
+      <c r="J206" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11165,18 +11174,21 @@
         <v>559</v>
       </c>
       <c r="F207" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G207" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G207" s="31" t="s">
+      <c r="H207" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H207" s="31" t="s">
+      <c r="I207" s="31" t="s">
         <v>1098</v>
       </c>
-      <c r="I207" s="7" t="s">
+      <c r="J207" s="7" t="s">
         <v>1099</v>
       </c>
-      <c r="J207" s="31" t="s">
+      <c r="K207" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11197,28 +11209,31 @@
         <v>559</v>
       </c>
       <c r="F208" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G208" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G208" s="31" t="s">
+      <c r="H208" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H208" s="31" t="s">
+      <c r="I208" s="31" t="s">
         <v>1098</v>
       </c>
-      <c r="I208" s="31" t="s">
+      <c r="J208" s="31" t="s">
         <v>1101</v>
       </c>
-      <c r="J208" s="31" t="s">
+      <c r="K208" s="31" t="s">
         <v>556</v>
       </c>
-      <c r="K208" s="7" t="s">
+      <c r="L208" s="7" t="s">
         <v>1102</v>
       </c>
-      <c r="L208" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="209" spans="1:11" ht="28.8">
+      <c r="M208" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="209" spans="1:12" ht="28.8">
       <c r="A209" s="7" t="s">
         <v>1104</v>
       </c>
@@ -11234,14 +11249,17 @@
       <c r="E209" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="F209" s="7" t="s">
+      <c r="F209" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G209" s="7" t="s">
         <v>1103</v>
       </c>
-      <c r="G209" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="210" spans="1:11" ht="28.8">
+      <c r="H209" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="210" spans="1:12" ht="28.8">
       <c r="A210" s="66" t="s">
         <v>1105</v>
       </c>
@@ -11258,25 +11276,28 @@
         <v>559</v>
       </c>
       <c r="F210" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G210" s="31" t="s">
         <v>102</v>
       </c>
-      <c r="G210" s="31" t="s">
+      <c r="H210" s="31" t="s">
         <v>44</v>
       </c>
-      <c r="H210" s="67" t="s">
+      <c r="I210" s="67" t="s">
         <v>998</v>
       </c>
-      <c r="I210" s="68" t="s">
+      <c r="J210" s="68" t="s">
         <v>999</v>
       </c>
-      <c r="J210" s="65" t="s">
+      <c r="K210" s="65" t="s">
         <v>1106</v>
       </c>
-      <c r="K210" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="211" spans="1:11" ht="28.8">
+      <c r="L210" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="211" spans="1:12" ht="28.8">
       <c r="A211" s="7" t="s">
         <v>1107</v>
       </c>
@@ -11293,19 +11314,22 @@
         <v>559</v>
       </c>
       <c r="F211" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G211" s="31" t="s">
         <v>757</v>
       </c>
-      <c r="G211" s="31" t="s">
+      <c r="H211" s="31" t="s">
         <v>1108</v>
       </c>
-      <c r="H211" s="31" t="s">
+      <c r="I211" s="31" t="s">
         <v>1109</v>
       </c>
-      <c r="I211" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="212" spans="1:11" ht="28.8">
+      <c r="J211" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="212" spans="1:12" ht="28.8">
       <c r="A212" s="7" t="s">
         <v>1115</v>
       </c>
@@ -11322,16 +11346,19 @@
         <v>559</v>
       </c>
       <c r="F212" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G212" s="31" t="s">
         <v>1110</v>
       </c>
-      <c r="G212" s="31" t="s">
+      <c r="H212" s="31" t="s">
         <v>1117</v>
       </c>
-      <c r="H212" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="213" spans="1:11" ht="28.8">
+      <c r="I212" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="213" spans="1:12" ht="28.8">
       <c r="A213" s="7" t="s">
         <v>1118</v>
       </c>
@@ -11348,16 +11375,19 @@
         <v>559</v>
       </c>
       <c r="F213" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G213" s="31" t="s">
         <v>1116</v>
       </c>
-      <c r="G213" s="31" t="s">
+      <c r="H213" s="31" t="s">
         <v>1119</v>
       </c>
-      <c r="H213" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="214" spans="1:11" ht="43.2">
+      <c r="I213" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="214" spans="1:12" ht="43.2">
       <c r="A214" s="7" t="s">
         <v>1111</v>
       </c>
@@ -11373,14 +11403,17 @@
       <c r="E214" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="F214" s="7" t="s">
+      <c r="F214" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G214" s="7" t="s">
         <v>1112</v>
       </c>
-      <c r="G214" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="215" spans="1:11" ht="43.2">
+      <c r="H214" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="215" spans="1:12" ht="43.2">
       <c r="A215" s="7" t="s">
         <v>1113</v>
       </c>
@@ -11396,14 +11429,17 @@
       <c r="E215" s="31" t="s">
         <v>559</v>
       </c>
-      <c r="F215" s="7" t="s">
+      <c r="F215" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G215" s="7" t="s">
         <v>1114</v>
       </c>
-      <c r="G215" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="216" spans="1:11" ht="28.8">
+      <c r="H215" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="216" spans="1:12" ht="28.8">
       <c r="A216" s="7" t="s">
         <v>1120</v>
       </c>
@@ -11420,22 +11456,25 @@
         <v>559</v>
       </c>
       <c r="F216" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G216" s="31" t="s">
         <v>1116</v>
       </c>
-      <c r="G216" s="31" t="s">
+      <c r="H216" s="31" t="s">
         <v>1121</v>
       </c>
-      <c r="H216" s="31" t="s">
+      <c r="I216" s="31" t="s">
         <v>1122</v>
       </c>
-      <c r="I216" s="7" t="s">
+      <c r="J216" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="J216" s="31" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="217" spans="1:11">
+      <c r="K216" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="217" spans="1:12">
       <c r="A217" s="7" t="s">
         <v>1124</v>
       </c>
@@ -11466,6 +11505,44 @@
       <c r="J217" s="31" t="s">
         <v>6</v>
       </c>
+    </row>
+    <row r="218" spans="1:12" ht="28.8">
+      <c r="A218" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B218" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C218" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="D218" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="E218" s="31" t="s">
+        <v>559</v>
+      </c>
+      <c r="F218" s="31" t="s">
+        <v>561</v>
+      </c>
+      <c r="G218" s="31" t="s">
+        <v>102</v>
+      </c>
+      <c r="H218" s="31" t="s">
+        <v>44</v>
+      </c>
+      <c r="I218" s="31" t="s">
+        <v>1043</v>
+      </c>
+      <c r="J218" s="31" t="s">
+        <v>1127</v>
+      </c>
+      <c r="K218" s="31" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="219" spans="1:12">
+      <c r="A219" s="7"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -11478,11 +11555,11 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AC393"/>
+  <dimension ref="A1:AC394"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A396" sqref="A396"/>
+      <selection pane="bottomLeft" activeCell="L396" sqref="L396"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -21260,6 +21337,26 @@
         <v>163</v>
       </c>
     </row>
+    <row r="394" spans="1:17" ht="28.8">
+      <c r="A394" s="7" t="s">
+        <v>1126</v>
+      </c>
+      <c r="B394" s="26" t="s">
+        <v>4</v>
+      </c>
+      <c r="C394" s="27" t="s">
+        <v>377</v>
+      </c>
+      <c r="D394" s="27" t="s">
+        <v>378</v>
+      </c>
+      <c r="E394" s="63" t="s">
+        <v>761</v>
+      </c>
+      <c r="L394" s="7" t="s">
+        <v>163</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <dataValidations count="3">
@@ -21269,7 +21366,7 @@
     <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E328">
       <formula1>"Market Research,Regs and Policies,Product Support,IEEE Data"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E393">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="E358:E394">
       <formula1>"Market Research,Regs and Policies,Product Support,Chinook"</formula1>
     </dataValidation>
   </dataValidations>
@@ -21852,9 +21949,11 @@
     <hyperlink ref="D392" r:id="rId576"/>
     <hyperlink ref="C393" r:id="rId577"/>
     <hyperlink ref="D393" r:id="rId578"/>
+    <hyperlink ref="C394" r:id="rId579"/>
+    <hyperlink ref="D394" r:id="rId580"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId579"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId581"/>
 </worksheet>
 </file>
 

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7614" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7613" uniqueCount="1128">
   <si>
     <t>TestCase</t>
   </si>
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C211" workbookViewId="0">
-      <selection activeCell="E227" sqref="E227"/>
+    <sheetView topLeftCell="G208" workbookViewId="0">
+      <selection activeCell="A217" sqref="A217:J217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11375,15 +11375,12 @@
         <v>559</v>
       </c>
       <c r="F213" s="31" t="s">
-        <v>561</v>
+        <v>1116</v>
       </c>
       <c r="G213" s="31" t="s">
-        <v>1116</v>
+        <v>1119</v>
       </c>
       <c r="H213" s="31" t="s">
-        <v>1119</v>
-      </c>
-      <c r="I213" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11557,9 +11554,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC394"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A385" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L396" sqref="L396"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="L389" sqref="L389"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7613" uniqueCount="1128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7611" uniqueCount="1128">
   <si>
     <t>TestCase</t>
   </si>
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView topLeftCell="G208" workbookViewId="0">
-      <selection activeCell="A217" sqref="A217:J217"/>
+    <sheetView topLeftCell="G11" workbookViewId="0">
+      <selection activeCell="H20" sqref="H20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -4360,7 +4360,7 @@
       <c r="H4" s="31" t="s">
         <v>758</v>
       </c>
-      <c r="I4" s="31" t="s">
+      <c r="I4" s="7" t="s">
         <v>567</v>
       </c>
       <c r="J4" s="7" t="s">
@@ -11346,15 +11346,12 @@
         <v>559</v>
       </c>
       <c r="F212" s="31" t="s">
-        <v>561</v>
+        <v>1110</v>
       </c>
       <c r="G212" s="31" t="s">
-        <v>1110</v>
+        <v>1117</v>
       </c>
       <c r="H212" s="31" t="s">
-        <v>1117</v>
-      </c>
-      <c r="I212" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11453,21 +11450,18 @@
         <v>559</v>
       </c>
       <c r="F216" s="31" t="s">
-        <v>561</v>
+        <v>1116</v>
       </c>
       <c r="G216" s="31" t="s">
-        <v>1116</v>
+        <v>1121</v>
       </c>
       <c r="H216" s="31" t="s">
-        <v>1121</v>
-      </c>
-      <c r="I216" s="31" t="s">
         <v>1122</v>
       </c>
-      <c r="J216" s="7" t="s">
+      <c r="I216" s="7" t="s">
         <v>1123</v>
       </c>
-      <c r="K216" s="31" t="s">
+      <c r="J216" s="31" t="s">
         <v>6</v>
       </c>
     </row>
@@ -11554,9 +11548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC394"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A388" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L389" sqref="L389"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView topLeftCell="G11" workbookViewId="0">
-      <selection activeCell="H20" sqref="H20"/>
+    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
+      <selection activeCell="C225" sqref="C225"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11548,8 +11548,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A190" activePane="bottomLeft" state="frozen"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="F193" sqref="F193"/>
     </sheetView>
   </sheetViews>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A211" workbookViewId="0">
-      <selection activeCell="C225" sqref="C225"/>
+    <sheetView tabSelected="1" topLeftCell="H83" workbookViewId="0">
+      <selection activeCell="J89" sqref="J89"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11549,8 +11549,8 @@
   <dimension ref="A1:AC394"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A202" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F193" sqref="F193"/>
+      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H83" workbookViewId="0">
-      <selection activeCell="J89" sqref="J89"/>
+    <sheetView topLeftCell="A151" workbookViewId="0">
+      <selection activeCell="A159" sqref="A159"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11548,9 +11548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC394"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A316" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A318" sqref="A318"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H309" sqref="H309"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/QA_TestData.xlsx
+++ b/QA_TestData.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="12876" windowHeight="5208"/>
   </bookViews>
   <sheets>
     <sheet name="NewTestCases" sheetId="7" r:id="rId1"/>
@@ -4217,8 +4217,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V219"/>
   <sheetViews>
-    <sheetView topLeftCell="A151" workbookViewId="0">
-      <selection activeCell="A159" sqref="A159"/>
+    <sheetView tabSelected="1" topLeftCell="F62" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4"/>
@@ -11548,9 +11548,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AC394"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A306" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H309" sqref="H309"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A235" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A241" sqref="A241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
